--- a/Shear Stress/shear_velocity/settling_velocity_calculation.xlsx
+++ b/Shear Stress/shear_velocity/settling_velocity_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Shear Stress\shear_velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BE5AF94-AF4A-47F2-99F2-083F9E6782AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04CF2DF-E512-49F5-98A3-762F5E3D7898}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="46">
   <si>
     <t xml:space="preserve">Dn </t>
   </si>
@@ -172,6 +172,9 @@
   <si>
     <t>Coarse Sand</t>
   </si>
+  <si>
+    <t>Size</t>
+  </si>
 </sst>
 </file>
 
@@ -181,7 +184,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0E+00"/>
     <numFmt numFmtId="166" formatCode="0.00000000"/>
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -368,7 +371,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -553,23 +556,50 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -583,14 +613,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -598,78 +628,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5967,10 +5936,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z53"/>
+  <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R21" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC17" sqref="AC17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5983,7 +5952,7 @@
     <col min="25" max="25" width="20.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -6009,18 +5978,18 @@
       <c r="I1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="70" t="s">
+      <c r="J1" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
-      <c r="N1" s="71" t="s">
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="80"/>
+      <c r="Q1" s="80"/>
       <c r="R1" s="16" t="s">
         <v>21</v>
       </c>
@@ -6040,7 +6009,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
@@ -6108,8 +6077,11 @@
       <c r="Y2" s="21" t="s">
         <v>38</v>
       </c>
+      <c r="AA2" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -6188,7 +6160,7 @@
         <f>((S3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>4.2420199719614925E-8</v>
       </c>
-      <c r="V3" s="62" t="s">
+      <c r="V3" s="81" t="s">
         <v>41</v>
       </c>
       <c r="X3" s="56">
@@ -6197,11 +6169,14 @@
       <c r="Y3" s="57">
         <v>4.2420199719614925E-8</v>
       </c>
-      <c r="Z3" s="62" t="s">
+      <c r="Z3" s="81" t="s">
         <v>41</v>
       </c>
+      <c r="AA3" s="28">
+        <v>0.37</v>
+      </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -6277,16 +6252,19 @@
         <f t="shared" ref="U4:U50" si="12">((S4*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.9531483620197396E-8</v>
       </c>
-      <c r="V4" s="63"/>
+      <c r="V4" s="82"/>
       <c r="X4" s="60">
         <v>5.0784663580564273E-8</v>
       </c>
       <c r="Y4" s="61">
         <v>5.9531483620197396E-8</v>
       </c>
-      <c r="Z4" s="63"/>
+      <c r="Z4" s="82"/>
+      <c r="AA4" s="40">
+        <v>0.44</v>
+      </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -6362,16 +6340,19 @@
         <f t="shared" si="12"/>
         <v>8.3334881356194801E-8</v>
       </c>
-      <c r="V5" s="63"/>
+      <c r="V5" s="82"/>
       <c r="X5" s="60">
         <v>7.0775371384014727E-8</v>
       </c>
       <c r="Y5" s="61">
         <v>8.3334881356194801E-8</v>
       </c>
-      <c r="Z5" s="63"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="40">
+        <v>0.52</v>
+      </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>35</v>
       </c>
@@ -6447,16 +6428,19 @@
         <f t="shared" si="12"/>
         <v>1.1584807088915935E-7</v>
       </c>
-      <c r="V6" s="63"/>
+      <c r="V6" s="82"/>
       <c r="X6" s="60">
         <v>9.8011193738497813E-8</v>
       </c>
       <c r="Y6" s="61">
         <v>1.1584807088915935E-7</v>
       </c>
-      <c r="Z6" s="63"/>
+      <c r="Z6" s="82"/>
+      <c r="AA6" s="40">
+        <v>0.61</v>
+      </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F7" s="40">
         <v>0.72</v>
       </c>
@@ -6520,24 +6504,27 @@
         <f t="shared" si="12"/>
         <v>1.643246132416318E-7</v>
       </c>
-      <c r="V7" s="63"/>
+      <c r="V7" s="82"/>
       <c r="X7" s="60">
         <v>1.3852698904522814E-7</v>
       </c>
       <c r="Y7" s="61">
         <v>1.643246132416318E-7</v>
       </c>
-      <c r="Z7" s="63"/>
+      <c r="Z7" s="82"/>
+      <c r="AA7" s="40">
+        <v>0.72</v>
+      </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
       <c r="F8" s="40">
         <v>0.85</v>
       </c>
@@ -6601,16 +6588,19 @@
         <f t="shared" si="12"/>
         <v>2.347618303469797E-7</v>
       </c>
-      <c r="V8" s="63"/>
+      <c r="V8" s="82"/>
       <c r="X8" s="60">
         <v>1.9727821119408791E-7</v>
       </c>
       <c r="Y8" s="61">
         <v>2.347618303469797E-7</v>
       </c>
-      <c r="Z8" s="63"/>
+      <c r="Z8" s="82"/>
+      <c r="AA8" s="40">
+        <v>0.85</v>
+      </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>2</v>
       </c>
@@ -6686,16 +6676,19 @@
         <f t="shared" si="12"/>
         <v>3.4224088736910029E-7</v>
       </c>
-      <c r="V9" s="63"/>
+      <c r="V9" s="82"/>
       <c r="X9" s="60">
         <v>2.8676869167901045E-7</v>
       </c>
       <c r="Y9" s="61">
         <v>3.4224088736910029E-7</v>
       </c>
-      <c r="Z9" s="63"/>
+      <c r="Z9" s="82"/>
+      <c r="AA9" s="40">
+        <v>1.01</v>
+      </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
@@ -6771,16 +6764,19 @@
         <f t="shared" si="12"/>
         <v>4.9229780900712516E-7</v>
       </c>
-      <c r="V10" s="63"/>
+      <c r="V10" s="82"/>
       <c r="X10" s="60">
         <v>4.1153321700708681E-7</v>
       </c>
       <c r="Y10" s="61">
         <v>4.9229780900712516E-7</v>
       </c>
-      <c r="Z10" s="63"/>
+      <c r="Z10" s="82"/>
+      <c r="AA10" s="40">
+        <v>1.19</v>
+      </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
@@ -6857,16 +6853,19 @@
         <f t="shared" si="12"/>
         <v>7.0878057045415601E-7</v>
       </c>
-      <c r="V11" s="63"/>
+      <c r="V11" s="82"/>
       <c r="X11" s="60">
         <v>5.9133240962389227E-7</v>
       </c>
       <c r="Y11" s="61">
         <v>7.0878057045415601E-7</v>
       </c>
-      <c r="Z11" s="63"/>
+      <c r="Z11" s="82"/>
+      <c r="AA11" s="40">
+        <v>1.4</v>
+      </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F12" s="40">
         <v>1.65</v>
       </c>
@@ -6930,24 +6929,27 @@
         <f t="shared" si="12"/>
         <v>1.0281513336458287E-6</v>
       </c>
-      <c r="V12" s="63"/>
+      <c r="V12" s="82"/>
       <c r="X12" s="60">
         <v>8.5637537927746757E-7</v>
       </c>
       <c r="Y12" s="61">
         <v>1.0281513336458287E-6</v>
       </c>
-      <c r="Z12" s="63"/>
+      <c r="Z12" s="82"/>
+      <c r="AA12" s="40">
+        <v>1.65</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="78"/>
       <c r="F13" s="48">
         <v>1.95</v>
       </c>
@@ -7011,16 +7013,19 @@
         <f t="shared" si="12"/>
         <v>1.5050856358022601E-6</v>
       </c>
-      <c r="V13" s="64"/>
+      <c r="V13" s="83"/>
       <c r="X13" s="58">
         <v>1.2519801324292888E-6</v>
       </c>
       <c r="Y13" s="59">
         <v>1.5050856358022601E-6</v>
       </c>
-      <c r="Z13" s="64"/>
+      <c r="Z13" s="83"/>
+      <c r="AA13" s="48">
+        <v>1.95</v>
+      </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
         <v>2</v>
       </c>
@@ -7100,7 +7105,7 @@
         <f t="shared" si="12"/>
         <v>2.1980921686442242E-6</v>
       </c>
-      <c r="V14" s="62" t="s">
+      <c r="V14" s="81" t="s">
         <v>42</v>
       </c>
       <c r="X14" s="56">
@@ -7109,11 +7114,14 @@
       <c r="Y14" s="57">
         <v>2.1980921686442199E-6</v>
       </c>
-      <c r="Z14" s="62" t="s">
+      <c r="Z14" s="81" t="s">
         <v>42</v>
       </c>
+      <c r="AA14" s="28">
+        <v>2.2999999999999998</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
@@ -7189,16 +7197,19 @@
         <f t="shared" si="12"/>
         <v>3.2345524797995237E-6</v>
       </c>
-      <c r="V15" s="63"/>
+      <c r="V15" s="82"/>
       <c r="X15" s="60">
         <v>2.68630965571977E-6</v>
       </c>
       <c r="Y15" s="61">
         <v>3.2345524797995237E-6</v>
       </c>
-      <c r="Z15" s="63"/>
+      <c r="Z15" s="82"/>
+      <c r="AA15" s="40">
+        <v>2.72</v>
+      </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
@@ -7275,16 +7286,19 @@
         <f t="shared" si="12"/>
         <v>4.7067687122065053E-6</v>
       </c>
-      <c r="V16" s="63"/>
+      <c r="V16" s="82"/>
       <c r="X16" s="60">
         <v>3.9077860022104021E-6</v>
       </c>
       <c r="Y16" s="61">
         <v>4.7067687122065053E-6</v>
       </c>
-      <c r="Z16" s="63"/>
+      <c r="Z16" s="82"/>
+      <c r="AA16" s="40">
+        <v>3.2</v>
+      </c>
     </row>
-    <row r="17" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F17" s="40">
         <v>3.78</v>
       </c>
@@ -7348,16 +7362,19 @@
         <f t="shared" si="12"/>
         <v>6.9146758502993435E-6</v>
       </c>
-      <c r="V17" s="63"/>
+      <c r="V17" s="82"/>
       <c r="X17" s="60">
         <v>5.7408451892466158E-6</v>
       </c>
       <c r="Y17" s="61">
         <v>6.9146758502993435E-6</v>
       </c>
-      <c r="Z17" s="63"/>
+      <c r="Z17" s="82"/>
+      <c r="AA17" s="40">
+        <v>3.78</v>
+      </c>
     </row>
-    <row r="18" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F18" s="40">
         <v>4.46</v>
       </c>
@@ -7421,16 +7438,19 @@
         <f t="shared" si="12"/>
         <v>1.012696495395003E-5</v>
       </c>
-      <c r="V18" s="63"/>
+      <c r="V18" s="82"/>
       <c r="X18" s="60">
         <v>8.4102396865991163E-6</v>
       </c>
       <c r="Y18" s="61">
         <v>1.012696495395003E-5</v>
       </c>
-      <c r="Z18" s="63"/>
+      <c r="Z18" s="82"/>
+      <c r="AA18" s="40">
+        <v>4.46</v>
+      </c>
     </row>
-    <row r="19" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F19" s="40">
         <v>5.27</v>
       </c>
@@ -7494,16 +7514,19 @@
         <f t="shared" si="12"/>
         <v>1.4865966732039502E-5</v>
       </c>
-      <c r="V19" s="63"/>
+      <c r="V19" s="82"/>
       <c r="X19" s="60">
         <v>1.235303794633768E-5</v>
       </c>
       <c r="Y19" s="61">
         <v>1.4865966732039502E-5</v>
       </c>
-      <c r="Z19" s="63"/>
+      <c r="Z19" s="82"/>
+      <c r="AA19" s="40">
+        <v>5.27</v>
+      </c>
     </row>
-    <row r="20" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F20" s="40">
         <v>6.21</v>
       </c>
@@ -7567,16 +7590,19 @@
         <f t="shared" si="12"/>
         <v>2.1650592213258089E-5</v>
       </c>
-      <c r="V20" s="63"/>
+      <c r="V20" s="82"/>
       <c r="X20" s="60">
         <v>1.8005947423279784E-5</v>
       </c>
       <c r="Y20" s="61">
         <v>2.1650592213258089E-5</v>
       </c>
-      <c r="Z20" s="63"/>
+      <c r="Z20" s="82"/>
+      <c r="AA20" s="40">
+        <v>6.21</v>
+      </c>
     </row>
-    <row r="21" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="21" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F21" s="40">
         <v>7.33</v>
       </c>
@@ -7640,16 +7666,19 @@
         <f t="shared" si="12"/>
         <v>3.1585705119149928E-5</v>
       </c>
-      <c r="V21" s="63"/>
+      <c r="V21" s="82"/>
       <c r="X21" s="60">
         <v>2.62978590045575E-5</v>
       </c>
       <c r="Y21" s="61">
         <v>3.1585705119149928E-5</v>
       </c>
-      <c r="Z21" s="63"/>
+      <c r="Z21" s="82"/>
+      <c r="AA21" s="40">
+        <v>7.33</v>
+      </c>
     </row>
-    <row r="22" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F22" s="40">
         <v>8.65</v>
       </c>
@@ -7713,16 +7742,19 @@
         <f t="shared" si="12"/>
         <v>4.5932628573001273E-5</v>
       </c>
-      <c r="V22" s="63"/>
+      <c r="V22" s="82"/>
       <c r="X22" s="60">
         <v>3.8295168125083617E-5</v>
       </c>
       <c r="Y22" s="61">
         <v>4.5932628573001273E-5</v>
       </c>
-      <c r="Z22" s="63"/>
+      <c r="Z22" s="82"/>
+      <c r="AA22" s="40">
+        <v>8.65</v>
+      </c>
     </row>
-    <row r="23" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F23" s="40">
         <v>10.210000000000001</v>
       </c>
@@ -7786,16 +7818,19 @@
         <f t="shared" si="12"/>
         <v>6.6617763822258673E-5</v>
       </c>
-      <c r="V23" s="63"/>
+      <c r="V23" s="82"/>
       <c r="X23" s="60">
         <v>5.5630342367119438E-5</v>
       </c>
       <c r="Y23" s="61">
         <v>6.6617763822258673E-5</v>
       </c>
-      <c r="Z23" s="63"/>
+      <c r="Z23" s="82"/>
+      <c r="AA23" s="40">
+        <v>10.210000000000001</v>
+      </c>
     </row>
-    <row r="24" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F24" s="40">
         <v>12.05</v>
       </c>
@@ -7859,16 +7894,19 @@
         <f t="shared" si="12"/>
         <v>9.6240773005624341E-5</v>
       </c>
-      <c r="V24" s="63"/>
+      <c r="V24" s="82"/>
       <c r="X24" s="60">
         <v>8.0515572115720573E-5</v>
       </c>
       <c r="Y24" s="61">
         <v>9.6240773005624341E-5</v>
       </c>
-      <c r="Z24" s="63"/>
+      <c r="Z24" s="82"/>
+      <c r="AA24" s="40">
+        <v>12.05</v>
+      </c>
     </row>
-    <row r="25" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F25" s="40">
         <v>14.22</v>
       </c>
@@ -7932,16 +7970,19 @@
         <f t="shared" si="12"/>
         <v>1.3843038121316793E-4</v>
       </c>
-      <c r="V25" s="63"/>
+      <c r="V25" s="82"/>
       <c r="X25" s="60">
         <v>1.1605035140040932E-4</v>
       </c>
       <c r="Y25" s="61">
         <v>1.3843038121316793E-4</v>
       </c>
-      <c r="Z25" s="63"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="40">
+        <v>14.22</v>
+      </c>
     </row>
-    <row r="26" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F26" s="40">
         <v>16.78</v>
       </c>
@@ -8005,16 +8046,19 @@
         <f t="shared" si="12"/>
         <v>1.981905350973394E-4</v>
       </c>
-      <c r="V26" s="63"/>
+      <c r="V26" s="82"/>
       <c r="X26" s="60">
         <v>1.6652632125677697E-4</v>
       </c>
       <c r="Y26" s="61">
         <v>1.981905350973394E-4</v>
       </c>
-      <c r="Z26" s="63"/>
+      <c r="Z26" s="82"/>
+      <c r="AA26" s="40">
+        <v>16.78</v>
+      </c>
     </row>
-    <row r="27" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F27" s="48">
         <v>19.809999999999999</v>
       </c>
@@ -8078,16 +8122,19 @@
         <f t="shared" si="12"/>
         <v>2.8262028985907259E-4</v>
       </c>
-      <c r="V27" s="64"/>
+      <c r="V27" s="83"/>
       <c r="X27" s="58">
         <v>2.3805512943131894E-4</v>
       </c>
       <c r="Y27" s="59">
         <v>2.8262028985907259E-4</v>
       </c>
-      <c r="Z27" s="64"/>
+      <c r="Z27" s="83"/>
+      <c r="AA27" s="48">
+        <v>19.809999999999999</v>
+      </c>
     </row>
-    <row r="28" spans="5:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E28">
         <f>F28/1000</f>
         <v>2.3370000000000002E-2</v>
@@ -8151,24 +8198,27 @@
         <f t="shared" si="11"/>
         <v>3.3802201988097691E-4</v>
       </c>
-      <c r="U28" s="72">
+      <c r="U28" s="62">
         <f t="shared" si="12"/>
         <v>4.0023945736018736E-4</v>
       </c>
-      <c r="V28" s="75" t="s">
+      <c r="V28" s="84" t="s">
         <v>43</v>
       </c>
-      <c r="X28" s="98">
+      <c r="X28" s="73">
         <v>3.3802201988097702E-4</v>
       </c>
-      <c r="Y28" s="99">
+      <c r="Y28" s="74">
         <v>4.0023945736018698E-4</v>
       </c>
-      <c r="Z28" s="65" t="s">
+      <c r="Z28" s="86" t="s">
         <v>43</v>
       </c>
+      <c r="AA28" s="28">
+        <v>23.37</v>
+      </c>
     </row>
-    <row r="29" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F29" s="40">
         <v>27.58</v>
       </c>
@@ -8228,20 +8278,23 @@
         <f t="shared" si="11"/>
         <v>4.7768872833639395E-4</v>
       </c>
-      <c r="U29" s="73">
+      <c r="U29" s="63">
         <f t="shared" si="12"/>
         <v>5.640136783750916E-4</v>
       </c>
-      <c r="V29" s="76"/>
-      <c r="X29" s="100">
+      <c r="V29" s="85"/>
+      <c r="X29" s="75">
         <v>4.7768872833639395E-4</v>
       </c>
-      <c r="Y29" s="101">
+      <c r="Y29" s="76">
         <v>5.640136783750916E-4</v>
       </c>
-      <c r="Z29" s="66"/>
+      <c r="Z29" s="87"/>
+      <c r="AA29" s="40">
+        <v>27.58</v>
+      </c>
     </row>
-    <row r="30" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F30" s="40">
         <v>32.549999999999997</v>
       </c>
@@ -8301,20 +8354,23 @@
         <f t="shared" si="11"/>
         <v>6.7115100953837078E-4</v>
       </c>
-      <c r="U30" s="73">
+      <c r="U30" s="63">
         <f t="shared" si="12"/>
         <v>7.9006357794236478E-4</v>
       </c>
-      <c r="V30" s="76"/>
-      <c r="X30" s="100">
+      <c r="V30" s="85"/>
+      <c r="X30" s="75">
         <v>6.7115100953837078E-4</v>
       </c>
-      <c r="Y30" s="101">
+      <c r="Y30" s="76">
         <v>7.9006357794236478E-4</v>
       </c>
-      <c r="Z30" s="66"/>
+      <c r="Z30" s="87"/>
+      <c r="AA30" s="40">
+        <v>32.549999999999997</v>
+      </c>
     </row>
-    <row r="31" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F31" s="40">
         <v>38.409999999999997</v>
       </c>
@@ -8374,20 +8430,23 @@
         <f t="shared" si="11"/>
         <v>9.3681445776628018E-4</v>
       </c>
-      <c r="U31" s="73">
+      <c r="U31" s="63">
         <f t="shared" si="12"/>
         <v>1.0993252704586346E-3</v>
       </c>
-      <c r="V31" s="76"/>
-      <c r="X31" s="100">
+      <c r="V31" s="85"/>
+      <c r="X31" s="75">
         <v>9.3681445776628018E-4</v>
       </c>
-      <c r="Y31" s="101">
+      <c r="Y31" s="76">
         <v>1.0993252704586346E-3</v>
       </c>
-      <c r="Z31" s="66"/>
+      <c r="Z31" s="87"/>
+      <c r="AA31" s="40">
+        <v>38.409999999999997</v>
+      </c>
     </row>
-    <row r="32" spans="5:26" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:27" x14ac:dyDescent="0.3">
       <c r="F32" s="40">
         <v>45.32</v>
       </c>
@@ -8447,20 +8506,23 @@
         <f t="shared" si="11"/>
         <v>1.2988139297590265E-3</v>
       </c>
-      <c r="U32" s="73">
+      <c r="U32" s="63">
         <f t="shared" si="12"/>
         <v>1.5191077279832483E-3</v>
       </c>
-      <c r="V32" s="76"/>
-      <c r="X32" s="100">
+      <c r="V32" s="85"/>
+      <c r="X32" s="75">
         <v>1.2988139297590265E-3</v>
       </c>
-      <c r="Y32" s="101">
+      <c r="Y32" s="76">
         <v>1.5191077279832483E-3</v>
       </c>
-      <c r="Z32" s="66"/>
+      <c r="Z32" s="87"/>
+      <c r="AA32" s="40">
+        <v>45.32</v>
+      </c>
     </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F33" s="40">
         <v>53.48</v>
       </c>
@@ -8520,20 +8582,23 @@
         <f t="shared" si="11"/>
         <v>1.7888665047406367E-3</v>
       </c>
-      <c r="U33" s="73">
+      <c r="U33" s="63">
         <f t="shared" si="12"/>
         <v>2.0851114422061512E-3</v>
       </c>
-      <c r="V33" s="76"/>
-      <c r="X33" s="100">
+      <c r="V33" s="85"/>
+      <c r="X33" s="75">
         <v>1.7888665047406367E-3</v>
       </c>
-      <c r="Y33" s="101">
+      <c r="Y33" s="76">
         <v>2.0851114422061512E-3</v>
       </c>
-      <c r="Z33" s="66"/>
+      <c r="Z33" s="87"/>
+      <c r="AA33" s="40">
+        <v>53.48</v>
+      </c>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F34" s="40">
         <v>63.11</v>
       </c>
@@ -8593,20 +8658,23 @@
         <f t="shared" si="11"/>
         <v>2.446401268148512E-3</v>
       </c>
-      <c r="U34" s="73">
+      <c r="U34" s="63">
         <f t="shared" si="12"/>
         <v>2.8414167636944148E-3</v>
       </c>
-      <c r="V34" s="76"/>
-      <c r="X34" s="100">
+      <c r="V34" s="85"/>
+      <c r="X34" s="75">
         <v>2.446401268148512E-3</v>
       </c>
-      <c r="Y34" s="101">
+      <c r="Y34" s="76">
         <v>2.8414167636944148E-3</v>
       </c>
-      <c r="Z34" s="66"/>
+      <c r="Z34" s="87"/>
+      <c r="AA34" s="40">
+        <v>63.11</v>
+      </c>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F35" s="40">
         <v>74.48</v>
       </c>
@@ -8666,20 +8734,23 @@
         <f t="shared" si="11"/>
         <v>3.3215531046029726E-3</v>
       </c>
-      <c r="U35" s="73">
+      <c r="U35" s="63">
         <f t="shared" si="12"/>
         <v>3.8437427395106539E-3</v>
       </c>
-      <c r="V35" s="76"/>
-      <c r="X35" s="100">
+      <c r="V35" s="85"/>
+      <c r="X35" s="75">
         <v>3.3215531046029726E-3</v>
       </c>
-      <c r="Y35" s="101">
+      <c r="Y35" s="76">
         <v>3.8437427395106539E-3</v>
       </c>
-      <c r="Z35" s="66"/>
+      <c r="Z35" s="87"/>
+      <c r="AA35" s="40">
+        <v>74.48</v>
+      </c>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F36" s="40">
         <v>87.89</v>
       </c>
@@ -8739,20 +8810,23 @@
         <f t="shared" si="11"/>
         <v>4.4748544960825096E-3</v>
       </c>
-      <c r="U36" s="73">
+      <c r="U36" s="63">
         <f t="shared" si="12"/>
         <v>5.1588611284876969E-3</v>
       </c>
-      <c r="V36" s="76"/>
-      <c r="X36" s="100">
+      <c r="V36" s="85"/>
+      <c r="X36" s="75">
         <v>4.4748544960825096E-3</v>
       </c>
-      <c r="Y36" s="101">
+      <c r="Y36" s="76">
         <v>5.1588611284876969E-3</v>
       </c>
-      <c r="Z36" s="66"/>
+      <c r="Z36" s="87"/>
+      <c r="AA36" s="40">
+        <v>87.89</v>
+      </c>
     </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F37" s="40">
         <v>103.72</v>
       </c>
@@ -8812,20 +8886,23 @@
         <f t="shared" si="11"/>
         <v>5.9823072602970774E-3</v>
       </c>
-      <c r="U37" s="73">
+      <c r="U37" s="63">
         <f t="shared" si="12"/>
         <v>6.8701142126075532E-3</v>
       </c>
-      <c r="V37" s="76"/>
-      <c r="X37" s="100">
+      <c r="V37" s="85"/>
+      <c r="X37" s="75">
         <v>5.9823072602970774E-3</v>
       </c>
-      <c r="Y37" s="101">
+      <c r="Y37" s="76">
         <v>6.8701142126075532E-3</v>
       </c>
-      <c r="Z37" s="66"/>
+      <c r="Z37" s="87"/>
+      <c r="AA37" s="40">
+        <v>103.72</v>
+      </c>
     </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F38" s="40">
         <v>122.39</v>
       </c>
@@ -8885,20 +8962,23 @@
         <f t="shared" si="11"/>
         <v>7.9326709248603178E-3</v>
       </c>
-      <c r="U38" s="73">
+      <c r="U38" s="63">
         <f t="shared" si="12"/>
         <v>9.0739978516363538E-3</v>
       </c>
-      <c r="V38" s="76"/>
-      <c r="X38" s="100">
+      <c r="V38" s="85"/>
+      <c r="X38" s="75">
         <v>7.9326709248603178E-3</v>
       </c>
-      <c r="Y38" s="101">
+      <c r="Y38" s="76">
         <v>9.0739978516363538E-3</v>
       </c>
-      <c r="Z38" s="66"/>
+      <c r="Z38" s="87"/>
+      <c r="AA38" s="40">
+        <v>122.39</v>
+      </c>
     </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F39" s="40">
         <v>144.43</v>
       </c>
@@ -8958,72 +9038,75 @@
         <f t="shared" si="11"/>
         <v>1.0434519051762263E-2</v>
       </c>
-      <c r="U39" s="73">
+      <c r="U39" s="63">
         <f t="shared" si="12"/>
         <v>1.188778207941428E-2</v>
       </c>
-      <c r="V39" s="76"/>
-      <c r="X39" s="100">
+      <c r="V39" s="85"/>
+      <c r="X39" s="75">
         <v>1.0434519051762263E-2</v>
       </c>
-      <c r="Y39" s="101">
+      <c r="Y39" s="76">
         <v>1.188778207941428E-2</v>
       </c>
-      <c r="Z39" s="66"/>
+      <c r="Z39" s="87"/>
+      <c r="AA39" s="40">
+        <v>144.43</v>
+      </c>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F40" s="40">
         <v>170.44</v>
       </c>
-      <c r="G40" s="78">
+      <c r="G40" s="41">
         <f t="shared" si="1"/>
         <v>1.7044E-4</v>
       </c>
-      <c r="H40" s="79">
+      <c r="H40" s="42">
         <f t="shared" si="15"/>
         <v>39.434579036756475</v>
       </c>
-      <c r="I40" s="80">
+      <c r="I40" s="43">
         <f t="shared" si="0"/>
         <v>50.217472429632487</v>
       </c>
-      <c r="J40" s="81">
+      <c r="J40" s="44">
         <f t="shared" si="2"/>
         <v>-0.9577095308956306</v>
       </c>
-      <c r="K40" s="79">
+      <c r="K40" s="42">
         <f t="shared" si="3"/>
         <v>-5.0704833844959817E-3</v>
       </c>
-      <c r="L40" s="82">
+      <c r="L40" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M40" s="83">
+      <c r="M40" s="45">
         <f t="shared" si="14"/>
         <v>0.99810753012424036</v>
       </c>
-      <c r="N40" s="84">
+      <c r="N40" s="46">
         <f t="shared" si="5"/>
         <v>-0.79299725925593822</v>
       </c>
-      <c r="O40" s="80">
+      <c r="O40" s="43">
         <f t="shared" si="6"/>
         <v>-5.0720552514615883E-3</v>
       </c>
-      <c r="P40" s="85">
+      <c r="P40" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="86">
+      <c r="Q40" s="47">
         <f t="shared" si="8"/>
         <v>0.99770789395747417</v>
       </c>
-      <c r="R40" s="79">
+      <c r="R40" s="42">
         <f t="shared" si="9"/>
         <v>0.10874200036583882</v>
       </c>
-      <c r="S40" s="80">
+      <c r="S40" s="43">
         <f t="shared" si="10"/>
         <v>0.1588305697934522</v>
       </c>
@@ -9031,20 +9114,23 @@
         <f t="shared" si="11"/>
         <v>1.3611766542267135E-2</v>
       </c>
-      <c r="U40" s="73">
+      <c r="U40" s="63">
         <f t="shared" si="12"/>
         <v>1.5444010344976085E-2</v>
       </c>
-      <c r="V40" s="76"/>
-      <c r="X40" s="100">
+      <c r="V40" s="85"/>
+      <c r="X40" s="75">
         <v>1.3611766542267135E-2</v>
       </c>
-      <c r="Y40" s="101">
+      <c r="Y40" s="76">
         <v>1.5444010344976085E-2</v>
       </c>
-      <c r="Z40" s="67"/>
+      <c r="Z40" s="88"/>
+      <c r="AA40" s="40">
+        <v>170.44</v>
+      </c>
     </row>
-    <row r="41" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="26" t="s">
         <v>40</v>
       </c>
@@ -9107,76 +9193,79 @@
         <f t="shared" si="11"/>
         <v>1.7606088561399769E-2</v>
       </c>
-      <c r="U41" s="72">
+      <c r="U41" s="62">
         <f t="shared" si="12"/>
         <v>1.9892755414532847E-2</v>
       </c>
-      <c r="V41" s="75" t="s">
+      <c r="V41" s="84" t="s">
         <v>44</v>
       </c>
-      <c r="X41" s="91">
+      <c r="X41" s="67">
         <v>1.7606088561399801E-2</v>
       </c>
-      <c r="Y41" s="92">
+      <c r="Y41" s="68">
         <v>1.9892755414532799E-2</v>
       </c>
-      <c r="Z41" s="65" t="s">
+      <c r="Z41" s="86" t="s">
         <v>44</v>
       </c>
+      <c r="AA41" s="28">
+        <v>201.13</v>
+      </c>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F42" s="40">
         <v>237.35</v>
       </c>
-      <c r="G42" s="78">
+      <c r="G42" s="41">
         <f t="shared" si="1"/>
         <v>2.3735E-4</v>
       </c>
-      <c r="H42" s="79">
+      <c r="H42" s="42">
         <f t="shared" si="15"/>
         <v>106.49527532568401</v>
       </c>
-      <c r="I42" s="80">
+      <c r="I42" s="43">
         <f t="shared" si="0"/>
         <v>135.61507902921761</v>
       </c>
-      <c r="J42" s="81">
+      <c r="J42" s="44">
         <f t="shared" si="2"/>
         <v>-0.29739274225782858</v>
       </c>
-      <c r="K42" s="79">
+      <c r="K42" s="42">
         <f t="shared" si="3"/>
         <v>-5.0769935584841826E-3</v>
       </c>
-      <c r="L42" s="82">
+      <c r="L42" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M42" s="83">
+      <c r="M42" s="45">
         <f t="shared" si="14"/>
         <v>0.99577044655892555</v>
       </c>
-      <c r="N42" s="84">
+      <c r="N42" s="46">
         <f t="shared" si="5"/>
         <v>-0.14342168239242972</v>
       </c>
-      <c r="O42" s="80">
+      <c r="O42" s="43">
         <f t="shared" si="6"/>
         <v>-5.0786042322366132E-3</v>
       </c>
-      <c r="P42" s="85">
+      <c r="P42" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="86">
+      <c r="Q42" s="47">
         <f t="shared" si="8"/>
         <v>0.99483035924374286</v>
       </c>
-      <c r="R42" s="79">
+      <c r="R42" s="42">
         <f t="shared" si="9"/>
         <v>0.49623740479131878</v>
       </c>
-      <c r="S42" s="80">
+      <c r="S42" s="43">
         <f t="shared" si="10"/>
         <v>0.70672221575801508</v>
       </c>
@@ -9184,72 +9273,75 @@
         <f t="shared" si="11"/>
         <v>2.2577640394208058E-2</v>
       </c>
-      <c r="U42" s="73">
+      <c r="U42" s="63">
         <f t="shared" si="12"/>
         <v>2.5401827769121761E-2</v>
       </c>
-      <c r="V42" s="76"/>
-      <c r="X42" s="93">
+      <c r="V42" s="85"/>
+      <c r="X42" s="69">
         <v>2.2577640394208058E-2</v>
       </c>
-      <c r="Y42" s="94">
+      <c r="Y42" s="70">
         <v>2.5401827769121761E-2</v>
       </c>
-      <c r="Z42" s="66"/>
+      <c r="Z42" s="87"/>
+      <c r="AA42" s="40">
+        <v>237.35</v>
+      </c>
     </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F43" s="40">
         <v>280.08999999999997</v>
       </c>
-      <c r="G43" s="78">
+      <c r="G43" s="41">
         <f t="shared" si="1"/>
         <v>2.8008999999999998E-4</v>
       </c>
-      <c r="H43" s="79">
+      <c r="H43" s="42">
         <f t="shared" si="15"/>
         <v>175.00700930888829</v>
       </c>
-      <c r="I43" s="80">
+      <c r="I43" s="43">
         <f t="shared" si="0"/>
         <v>222.86049146790603</v>
       </c>
-      <c r="J43" s="81">
+      <c r="J43" s="44">
         <f t="shared" si="2"/>
         <v>1.6153330292586823E-2</v>
       </c>
-      <c r="K43" s="79">
+      <c r="K43" s="42">
         <f t="shared" si="3"/>
         <v>-5.0803203206637613E-3</v>
       </c>
-      <c r="L43" s="82">
+      <c r="L43" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M43" s="83">
+      <c r="M43" s="45">
         <f t="shared" si="14"/>
         <v>0.99360340517183265</v>
       </c>
-      <c r="N43" s="84">
+      <c r="N43" s="46">
         <f t="shared" si="5"/>
         <v>0.16469875961089339</v>
       </c>
-      <c r="O43" s="80">
+      <c r="O43" s="43">
         <f t="shared" si="6"/>
         <v>-5.0819666901397035E-3</v>
       </c>
-      <c r="P43" s="85">
+      <c r="P43" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="86">
+      <c r="Q43" s="47">
         <f t="shared" si="8"/>
         <v>0.99216619360742264</v>
       </c>
-      <c r="R43" s="79">
+      <c r="R43" s="42">
         <f t="shared" si="9"/>
         <v>1.0192625819801655</v>
       </c>
-      <c r="S43" s="80">
+      <c r="S43" s="43">
         <f t="shared" si="10"/>
         <v>1.4328516166261867</v>
       </c>
@@ -9257,72 +9349,75 @@
         <f t="shared" si="11"/>
         <v>2.8699703694252371E-2</v>
       </c>
-      <c r="U43" s="73">
+      <c r="U43" s="63">
         <f t="shared" si="12"/>
         <v>3.2150109658340281E-2</v>
       </c>
-      <c r="V43" s="76"/>
-      <c r="X43" s="93">
+      <c r="V43" s="85"/>
+      <c r="X43" s="69">
         <v>2.8699703694252371E-2</v>
       </c>
-      <c r="Y43" s="94">
+      <c r="Y43" s="70">
         <v>3.2150109658340281E-2</v>
       </c>
-      <c r="Z43" s="66"/>
+      <c r="Z43" s="87"/>
+      <c r="AA43" s="40">
+        <v>280.08999999999997</v>
+      </c>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F44" s="40">
         <v>330.52</v>
       </c>
-      <c r="G44" s="78">
+      <c r="G44" s="41">
         <f t="shared" si="1"/>
         <v>3.3051999999999995E-4</v>
       </c>
-      <c r="H44" s="79">
+      <c r="H44" s="42">
         <f t="shared" si="15"/>
         <v>287.57813623849836</v>
       </c>
-      <c r="I44" s="80">
+      <c r="I44" s="43">
         <f t="shared" si="0"/>
         <v>366.21278787992628</v>
       </c>
-      <c r="J44" s="81">
+      <c r="J44" s="44">
         <f t="shared" si="2"/>
         <v>0.31850472858852219</v>
       </c>
-      <c r="K44" s="79">
+      <c r="K44" s="42">
         <f t="shared" si="3"/>
         <v>-5.0837287466916356E-3</v>
       </c>
-      <c r="L44" s="82">
+      <c r="L44" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M44" s="83">
+      <c r="M44" s="45">
         <f t="shared" si="14"/>
         <v>0.99029400169885529</v>
       </c>
-      <c r="N44" s="84">
+      <c r="N44" s="46">
         <f t="shared" si="5"/>
         <v>0.46160732932345383</v>
       </c>
-      <c r="O44" s="80">
+      <c r="O44" s="43">
         <f t="shared" si="6"/>
         <v>-5.0854290964561623E-3</v>
       </c>
-      <c r="P44" s="85">
+      <c r="P44" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q44" s="86">
+      <c r="Q44" s="47">
         <f t="shared" si="8"/>
         <v>0.98810502191697325</v>
       </c>
-      <c r="R44" s="79">
+      <c r="R44" s="42">
         <f t="shared" si="9"/>
         <v>2.0379106942263467</v>
       </c>
-      <c r="S44" s="80">
+      <c r="S44" s="43">
         <f t="shared" si="10"/>
         <v>2.8269947813060363</v>
       </c>
@@ -9330,72 +9425,75 @@
         <f t="shared" si="11"/>
         <v>3.6155727290167847E-2</v>
       </c>
-      <c r="U44" s="73">
+      <c r="U44" s="63">
         <f t="shared" si="12"/>
         <v>4.0323391724231661E-2</v>
       </c>
-      <c r="V44" s="76"/>
-      <c r="X44" s="93">
+      <c r="V44" s="85"/>
+      <c r="X44" s="69">
         <v>3.6155727290167847E-2</v>
       </c>
-      <c r="Y44" s="94">
+      <c r="Y44" s="70">
         <v>4.0323391724231661E-2</v>
       </c>
-      <c r="Z44" s="66"/>
+      <c r="Z44" s="87"/>
+      <c r="AA44" s="40">
+        <v>330.52</v>
+      </c>
     </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F45" s="40">
         <v>390.04</v>
       </c>
-      <c r="G45" s="78">
+      <c r="G45" s="41">
         <f t="shared" si="1"/>
         <v>3.9004000000000003E-4</v>
       </c>
-      <c r="H45" s="79">
+      <c r="H45" s="42">
         <f t="shared" si="15"/>
         <v>472.5960373517471</v>
       </c>
-      <c r="I45" s="80">
+      <c r="I45" s="43">
         <f t="shared" si="0"/>
         <v>601.82152455448011</v>
       </c>
-      <c r="J45" s="81">
+      <c r="J45" s="44">
         <f t="shared" si="2"/>
         <v>0.60971355350193235</v>
       </c>
-      <c r="K45" s="79">
+      <c r="K45" s="42">
         <f t="shared" si="3"/>
         <v>-5.0872615180391628E-3</v>
       </c>
-      <c r="L45" s="82">
+      <c r="L45" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M45" s="83">
+      <c r="M45" s="45">
         <f t="shared" si="14"/>
         <v>0.98525979359254012</v>
       </c>
-      <c r="N45" s="84">
+      <c r="N45" s="46">
         <f t="shared" si="5"/>
         <v>0.74736881523089904</v>
       </c>
-      <c r="O45" s="80">
+      <c r="O45" s="43">
         <f t="shared" si="6"/>
         <v>-5.0890427518031694E-3</v>
       </c>
-      <c r="P45" s="85">
+      <c r="P45" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="86">
+      <c r="Q45" s="47">
         <f t="shared" si="8"/>
         <v>0.98194436521791539</v>
       </c>
-      <c r="R45" s="79">
+      <c r="R45" s="42">
         <f t="shared" si="9"/>
         <v>3.964396211851823</v>
       </c>
-      <c r="S45" s="80">
+      <c r="S45" s="43">
         <f t="shared" si="10"/>
         <v>5.4245866997395291</v>
       </c>
@@ -9403,312 +9501,327 @@
         <f t="shared" si="11"/>
         <v>4.5134406571575331E-2</v>
       </c>
-      <c r="U45" s="73">
+      <c r="U45" s="63">
         <f t="shared" si="12"/>
         <v>5.010767718220193E-2</v>
       </c>
-      <c r="V45" s="76"/>
-      <c r="X45" s="93">
+      <c r="V45" s="85"/>
+      <c r="X45" s="69">
         <v>4.5134406571575331E-2</v>
       </c>
-      <c r="Y45" s="94">
+      <c r="Y45" s="70">
         <v>5.010767718220193E-2</v>
       </c>
-      <c r="Z45" s="66"/>
+      <c r="Z45" s="87"/>
+      <c r="AA45" s="40">
+        <v>390.04</v>
+      </c>
     </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F46" s="40">
         <v>460.27</v>
       </c>
-      <c r="G46" s="78">
+      <c r="G46" s="41">
         <f>F46*0.000001</f>
         <v>4.6026999999999998E-4</v>
       </c>
-      <c r="H46" s="79">
+      <c r="H46" s="42">
         <f t="shared" si="15"/>
         <v>776.60581689290984</v>
       </c>
-      <c r="I46" s="80">
+      <c r="I46" s="43">
         <f t="shared" si="0"/>
         <v>988.95898348911669</v>
       </c>
-      <c r="J46" s="81">
+      <c r="J46" s="44">
         <f t="shared" si="2"/>
         <v>0.88970143866050433</v>
       </c>
-      <c r="K46" s="79">
+      <c r="K46" s="42">
         <f t="shared" si="3"/>
         <v>-5.0909786977164605E-3</v>
       </c>
-      <c r="L46" s="82">
+      <c r="L46" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M46" s="83">
+      <c r="M46" s="45">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H46)-4.6)))^L46</f>
         <v>0.97765254159064829</v>
       </c>
-      <c r="N46" s="84">
+      <c r="N46" s="46">
         <f t="shared" si="5"/>
         <v>1.0219204636120567</v>
       </c>
-      <c r="O46" s="80">
+      <c r="O46" s="43">
         <f t="shared" si="6"/>
         <v>-5.0928793553075757E-3</v>
       </c>
-      <c r="P46" s="85">
+      <c r="P46" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="86">
+      <c r="Q46" s="47">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(I46)-4.6)))^P46</f>
         <v>0.97267393134013647</v>
       </c>
-      <c r="R46" s="79">
+      <c r="R46" s="42">
         <f t="shared" si="9"/>
         <v>7.4954030930103857</v>
       </c>
-      <c r="S46" s="80">
+      <c r="S46" s="43">
         <f t="shared" si="10"/>
         <v>10.111017469510898</v>
       </c>
-      <c r="T46" s="88">
+      <c r="T46" s="65">
         <f t="shared" si="11"/>
         <v>5.5810217765736178E-2</v>
       </c>
-      <c r="U46" s="73">
+      <c r="U46" s="63">
         <f t="shared" si="12"/>
         <v>6.1666174302810024E-2</v>
       </c>
-      <c r="V46" s="76"/>
-      <c r="X46" s="93">
+      <c r="V46" s="85"/>
+      <c r="X46" s="69">
         <v>5.5810217765736178E-2</v>
       </c>
-      <c r="Y46" s="94">
+      <c r="Y46" s="70">
         <v>6.1666174302810024E-2</v>
       </c>
-      <c r="Z46" s="66"/>
+      <c r="Z46" s="87"/>
+      <c r="AA46" s="40">
+        <v>460.27</v>
+      </c>
     </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F47" s="40">
         <v>500</v>
       </c>
-      <c r="G47" s="78">
+      <c r="G47" s="41">
         <f t="shared" ref="G47:G50" si="16">F47*0.000001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H47" s="79">
+      <c r="H47" s="42">
         <f t="shared" si="15"/>
         <v>995.5719352354572</v>
       </c>
-      <c r="I47" s="80">
+      <c r="I47" s="43">
         <f t="shared" si="0"/>
         <v>1267.7986536334677</v>
       </c>
-      <c r="J47" s="81">
+      <c r="J47" s="44">
         <f t="shared" si="2"/>
         <v>1.0255285151092788</v>
       </c>
-      <c r="K47" s="79">
+      <c r="K47" s="42">
         <f t="shared" si="3"/>
         <v>-5.0929327784093818E-3</v>
       </c>
-      <c r="L47" s="82">
+      <c r="L47" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M47" s="83">
+      <c r="M47" s="45">
         <f t="shared" ref="M47:M50" si="17">(0.65-(($C$5/2.83)*TANH(LOG10(H47)-4.6)))^L47</f>
         <v>0.97252246538758746</v>
       </c>
-      <c r="N47" s="84">
+      <c r="N47" s="46">
         <f t="shared" si="5"/>
         <v>1.1550373669278229</v>
       </c>
-      <c r="O47" s="80">
+      <c r="O47" s="43">
         <f t="shared" si="6"/>
         <v>-5.0949120794334694E-3</v>
       </c>
-      <c r="P47" s="85">
+      <c r="P47" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="86">
+      <c r="Q47" s="47">
         <f t="shared" ref="Q47:Q50" si="18">(0.65-(($C$5/2.83)*TANH(LOG10(I47)-4.6)))^P47</f>
         <v>0.966448610280638</v>
       </c>
-      <c r="R47" s="79">
+      <c r="R47" s="42">
         <f t="shared" si="9"/>
         <v>10.193779253533988</v>
       </c>
-      <c r="S47" s="80">
+      <c r="S47" s="43">
         <f t="shared" si="10"/>
         <v>13.649640736870976</v>
       </c>
-      <c r="T47" s="88">
+      <c r="T47" s="65">
         <f t="shared" si="11"/>
         <v>6.1833969507105138E-2</v>
       </c>
-      <c r="U47" s="73">
+      <c r="U47" s="63">
         <f t="shared" si="12"/>
         <v>6.8153651021235329E-2</v>
       </c>
-      <c r="V47" s="76"/>
-      <c r="X47" s="93">
+      <c r="V47" s="85"/>
+      <c r="X47" s="69">
         <v>6.1833969507105138E-2</v>
       </c>
-      <c r="Y47" s="95">
+      <c r="Y47" s="70">
         <v>6.8153651021235329E-2</v>
       </c>
-      <c r="Z47" s="66"/>
+      <c r="Z47" s="87"/>
+      <c r="AA47" s="40">
+        <v>500</v>
+      </c>
     </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="F48" s="40">
         <v>700</v>
       </c>
-      <c r="G48" s="78">
+      <c r="G48" s="41">
         <f t="shared" si="16"/>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H48" s="79">
+      <c r="H48" s="42">
         <f t="shared" si="15"/>
         <v>2731.8493902860937</v>
       </c>
-      <c r="I48" s="80">
+      <c r="I48" s="43">
         <f t="shared" si="0"/>
         <v>3478.8395055702345</v>
       </c>
-      <c r="J48" s="81">
+      <c r="J48" s="44">
         <f t="shared" si="2"/>
         <v>1.5489611268405998</v>
       </c>
-      <c r="K48" s="79">
+      <c r="K48" s="42">
         <f t="shared" si="3"/>
         <v>-5.1018830562647183E-3</v>
       </c>
-      <c r="L48" s="82">
+      <c r="L48" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M48" s="83">
+      <c r="M48" s="45">
         <f t="shared" si="17"/>
         <v>0.93762167345962177</v>
       </c>
-      <c r="N48" s="84">
+      <c r="N48" s="46">
         <f t="shared" si="5"/>
         <v>1.6675563367886639</v>
       </c>
-      <c r="O48" s="80">
+      <c r="O48" s="43">
         <f t="shared" si="6"/>
         <v>-5.1043575596395069E-3</v>
       </c>
-      <c r="P48" s="85">
+      <c r="P48" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q48" s="86">
+      <c r="Q48" s="47">
         <f t="shared" si="18"/>
         <v>0.92465127522114177</v>
       </c>
-      <c r="R48" s="79">
+      <c r="R48" s="42">
         <f t="shared" si="9"/>
         <v>32.800984686965492</v>
       </c>
-      <c r="S48" s="80">
+      <c r="S48" s="43">
         <f t="shared" si="10"/>
         <v>42.504014609887193</v>
       </c>
-      <c r="T48" s="88">
+      <c r="T48" s="65">
         <f t="shared" si="11"/>
         <v>9.128743681273252E-2</v>
       </c>
-      <c r="U48" s="73">
+      <c r="U48" s="63">
         <f t="shared" si="12"/>
         <v>9.9523437955351138E-2</v>
       </c>
-      <c r="V48" s="76"/>
-      <c r="X48" s="93">
+      <c r="V48" s="85"/>
+      <c r="X48" s="69">
         <v>9.128743681273252E-2</v>
       </c>
-      <c r="Y48" s="95">
+      <c r="Y48" s="70">
         <v>9.9523437955351138E-2</v>
       </c>
-      <c r="Z48" s="66"/>
+      <c r="Z48" s="87"/>
+      <c r="AA48" s="40">
+        <v>700</v>
+      </c>
     </row>
-    <row r="49" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="49" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F49" s="40">
         <v>1000</v>
       </c>
-      <c r="G49" s="78">
+      <c r="G49" s="41">
         <f t="shared" si="16"/>
         <v>1E-3</v>
       </c>
-      <c r="H49" s="79">
+      <c r="H49" s="42">
         <f t="shared" si="15"/>
         <v>7964.5754818836576</v>
       </c>
-      <c r="I49" s="80">
+      <c r="I49" s="43">
         <f t="shared" si="0"/>
         <v>10142.389229067741</v>
       </c>
-      <c r="J49" s="81">
+      <c r="J49" s="44">
         <f t="shared" si="2"/>
         <v>2.0544753860698988</v>
       </c>
-      <c r="K49" s="79">
+      <c r="K49" s="42">
         <f t="shared" si="3"/>
         <v>-5.1142042608855187E-3</v>
       </c>
-      <c r="L49" s="82">
+      <c r="L49" s="16">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M49" s="83">
+      <c r="M49" s="45">
         <f t="shared" si="17"/>
         <v>0.86116360309606788</v>
       </c>
-      <c r="N49" s="84">
+      <c r="N49" s="46">
         <f t="shared" si="5"/>
         <v>2.1617772259948014</v>
       </c>
-      <c r="O49" s="80">
+      <c r="O49" s="43">
         <f t="shared" si="6"/>
         <v>-5.1175299523507703E-3</v>
       </c>
-      <c r="P49" s="85">
+      <c r="P49" s="17">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q49" s="86">
+      <c r="Q49" s="47">
         <f t="shared" si="18"/>
         <v>0.83633894897489802</v>
       </c>
-      <c r="R49" s="79">
+      <c r="R49" s="42">
         <f t="shared" si="9"/>
         <v>96.482122295880757</v>
       </c>
-      <c r="S49" s="80">
+      <c r="S49" s="43">
         <f t="shared" si="10"/>
         <v>119.96153623901775</v>
       </c>
-      <c r="T49" s="88">
+      <c r="T49" s="65">
         <f t="shared" si="11"/>
         <v>0.13079696553398346</v>
       </c>
-      <c r="U49" s="73">
+      <c r="U49" s="63">
         <f t="shared" si="12"/>
         <v>0.14064664992895701</v>
       </c>
-      <c r="V49" s="76"/>
-      <c r="X49" s="93">
+      <c r="V49" s="85"/>
+      <c r="X49" s="69">
         <v>0.13079696553398346</v>
       </c>
-      <c r="Y49" s="95">
+      <c r="Y49" s="70">
         <v>0.14064664992895701</v>
       </c>
-      <c r="Z49" s="66"/>
+      <c r="Z49" s="87"/>
+      <c r="AA49" s="40">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="50" spans="6:26" x14ac:dyDescent="0.3">
+    <row r="50" spans="6:27" x14ac:dyDescent="0.3">
       <c r="F50" s="48">
         <v>2000</v>
       </c>
@@ -9764,91 +9877,46 @@
         <f t="shared" si="10"/>
         <v>519.71329059303525</v>
       </c>
-      <c r="T50" s="90">
+      <c r="T50" s="66">
         <f t="shared" si="11"/>
         <v>0.21894138272331365</v>
       </c>
-      <c r="U50" s="74">
+      <c r="U50" s="64">
         <f t="shared" si="12"/>
         <v>0.22928201701963311</v>
       </c>
-      <c r="V50" s="77"/>
-      <c r="X50" s="96">
+      <c r="V50" s="89"/>
+      <c r="X50" s="71">
         <v>0.21894138272331365</v>
       </c>
-      <c r="Y50" s="97">
+      <c r="Y50" s="72">
         <v>0.22928201701963311</v>
       </c>
-      <c r="Z50" s="67"/>
+      <c r="Z50" s="88"/>
+      <c r="AA50" s="48">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="51" spans="6:26" x14ac:dyDescent="0.3">
-      <c r="F51" s="87"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
+    <row r="51" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F51" s="1"/>
     </row>
-    <row r="52" spans="6:26" x14ac:dyDescent="0.3">
-      <c r="F52" s="87"/>
-      <c r="G52" s="89"/>
-      <c r="H52" s="89"/>
-      <c r="I52" s="89"/>
-      <c r="J52" s="89"/>
-      <c r="K52" s="89"/>
-      <c r="L52" s="89"/>
-      <c r="M52" s="89"/>
-      <c r="N52" s="89"/>
-      <c r="O52" s="89"/>
-      <c r="P52" s="89"/>
-      <c r="Q52" s="89"/>
-      <c r="R52" s="89"/>
-      <c r="S52" s="89"/>
-      <c r="T52" s="89"/>
-      <c r="U52" s="89"/>
-    </row>
-    <row r="53" spans="6:26" x14ac:dyDescent="0.3">
-      <c r="F53" s="89"/>
-      <c r="G53" s="89"/>
-      <c r="H53" s="89"/>
-      <c r="I53" s="89"/>
-      <c r="J53" s="89"/>
-      <c r="K53" s="89"/>
-      <c r="L53" s="89"/>
-      <c r="M53" s="89"/>
-      <c r="N53" s="89"/>
-      <c r="O53" s="89"/>
-      <c r="P53" s="89"/>
-      <c r="Q53" s="89"/>
-      <c r="R53" s="89"/>
-      <c r="S53" s="89"/>
-      <c r="T53" s="89"/>
-      <c r="U53" s="89"/>
+    <row r="52" spans="6:27" x14ac:dyDescent="0.3">
+      <c r="F52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V41:V50"/>
+    <mergeCell ref="Z41:Z50"/>
+    <mergeCell ref="V14:V27"/>
+    <mergeCell ref="V28:V40"/>
+    <mergeCell ref="Z3:Z13"/>
+    <mergeCell ref="Z14:Z27"/>
+    <mergeCell ref="Z28:Z40"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="V3:V13"/>
-    <mergeCell ref="V14:V27"/>
-    <mergeCell ref="V28:V40"/>
-    <mergeCell ref="Z3:Z13"/>
-    <mergeCell ref="Z14:Z27"/>
-    <mergeCell ref="Z28:Z40"/>
-    <mergeCell ref="V41:V50"/>
-    <mergeCell ref="Z41:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Shear Stress/shear_velocity/settling_velocity_calculation.xlsx
+++ b/Shear Stress/shear_velocity/settling_velocity_calculation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Shear Stress\shear_velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63AA7133-3508-4202-A594-0BA04E5D231F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1EE000-E3CA-4842-9E73-247237A9A063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25320" yWindow="195" windowWidth="25440" windowHeight="15390" xr2:uid="{182EAE7C-61D4-41EF-B487-ACB00DCC48F5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{182EAE7C-61D4-41EF-B487-ACB00DCC48F5}"/>
   </bookViews>
   <sheets>
     <sheet name="Temp Dependent" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="48">
   <si>
     <t xml:space="preserve">Dn </t>
   </si>
@@ -175,6 +175,12 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>CS</t>
+  </si>
+  <si>
+    <t>FS</t>
   </si>
 </sst>
 </file>
@@ -372,7 +378,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -451,9 +457,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -620,21 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,6 +639,159 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -10969,8 +11110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Y29" sqref="Y29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11009,18 +11150,18 @@
       <c r="I1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
       <c r="R1" s="16" t="s">
         <v>21</v>
       </c>
@@ -11129,81 +11270,81 @@
         <f>F3/1000</f>
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>0.37</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <f>F3*0.000001</f>
         <v>3.7E-7</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <f>(($C$3-$C$9)*$C$4*(G3^3))/($C$9*($C$11^2))</f>
         <v>4.0342964188385286E-7</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <f t="shared" ref="I3:I50" si="0">(($C$3-$C$14)*$C$4*G3^3)/($C$14*$C$16^2)</f>
         <v>5.1374244161996825E-7</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="31">
         <f>-3.76715+1.92944*LOG10(H3)-0.09815*(LOG10(H3))^2-0.00575*(LOG10(H3))^3+0.00056*(LOG10(H3))^4</f>
         <v>-17.678020250094082</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H3)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H3)-4.6)</f>
         <v>-4.952905574839502E-3</v>
       </c>
-      <c r="L3" s="33">
-        <v>1</v>
-      </c>
-      <c r="M3" s="34">
+      <c r="L3" s="32">
+        <v>1</v>
+      </c>
+      <c r="M3" s="33">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H3)-4.6)))^L3</f>
         <v>0.99982332135734175</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="34">
         <f>-3.76715+1.92944*LOG10(I3)-0.09815*(LOG10(I3))^2-0.00575*(LOG10(I3))^3+0.00056*(LOG10(I3))^4</f>
         <v>-17.477596844874185</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="30">
         <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I3)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I3)-4.6)</f>
         <v>-4.9544487461611313E-3</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="35">
         <f>(1+((3.5-$C$6)/2.5))</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="36">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(I3)-4.6)))^P3</f>
         <v>0.99982332131121798</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="29">
         <f>M3*10^(J3+K3)</f>
         <v>2.0746751590738136E-18</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="30">
         <f>Q3*10^(N3+O3)</f>
         <v>3.2913340976862809E-18</v>
       </c>
-      <c r="T3" s="38">
+      <c r="T3" s="107">
         <f>((R3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>3.63718525289422E-8</v>
       </c>
-      <c r="U3" s="39">
+      <c r="U3" s="61">
         <f>((S3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>4.2420199719614925E-8</v>
       </c>
-      <c r="V3" s="85" t="s">
+      <c r="V3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="56">
+      <c r="X3" s="124">
         <v>3.63718525289422E-8</v>
       </c>
-      <c r="Y3" s="57">
+      <c r="Y3" s="125">
         <v>4.2420199719614925E-8</v>
       </c>
-      <c r="Z3" s="85" t="s">
+      <c r="Z3" s="112" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="108">
         <v>0.37</v>
       </c>
     </row>
@@ -11220,78 +11361,78 @@
       <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>0.44</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="95">
         <f t="shared" ref="G4:G45" si="1">F4*0.000001</f>
         <v>4.3999999999999997E-7</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="96">
         <f>(($C$3-$C$9)*$C$4*(G4^3))/($C$9*($C$11^2))</f>
         <v>6.7845439784877731E-7</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="97">
         <f t="shared" si="0"/>
         <v>8.6396928408890635E-7</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="98">
         <f t="shared" ref="J4:J50" si="2">-3.76715+1.92944*LOG10(H4)-0.09815*(LOG10(H4))^2-0.00575*(LOG10(H4))^3+0.00056*(LOG10(H4))^4</f>
         <v>-17.243115456611378</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="96">
         <f t="shared" ref="K4:K50" si="3">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H4)-4.6)</f>
         <v>-4.9562241418492784E-3</v>
       </c>
-      <c r="L4" s="16">
-        <f t="shared" ref="L4:L50" si="4">(1+((3.5-$C$6)/2.5))</f>
-        <v>1</v>
-      </c>
-      <c r="M4" s="45">
+      <c r="L4" s="99">
+        <f t="shared" ref="L4:L51" si="4">(1+((3.5-$C$6)/2.5))</f>
+        <v>1</v>
+      </c>
+      <c r="M4" s="100">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H4)-4.6)))^L4</f>
         <v>0.9998233212446741</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="101">
         <f t="shared" ref="N4:N50" si="5">-3.76715+1.92944*LOG10(I4)-0.09815*(LOG10(I4))^2-0.00575*(LOG10(I4))^3+0.00056*(LOG10(I4))^4</f>
         <v>-17.036071534933207</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="97">
         <f t="shared" ref="O4:O50" si="6">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I4)-4.6)</f>
         <v>-4.9577673131727977E-3</v>
       </c>
-      <c r="P4" s="17">
-        <f t="shared" ref="P4:P50" si="7">(1+((3.5-$C$6)/2.5))</f>
-        <v>1</v>
-      </c>
-      <c r="Q4" s="47">
+      <c r="P4" s="102">
+        <f t="shared" ref="P4:P51" si="7">(1+((3.5-$C$6)/2.5))</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="103">
         <f t="shared" ref="Q4:Q45" si="8">(0.65-(($C$5/2.83)*TANH(LOG10(I4)-4.6)))^P4</f>
         <v>0.9998233211722285</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="96">
         <f t="shared" ref="R4:R50" si="9">M4*10^(J4+K4)</f>
         <v>5.6474394318632291E-18</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="97">
         <f t="shared" ref="S4:S50" si="10">Q4*10^(N4+O4)</f>
         <v>9.0969113045763503E-18</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="105">
         <f t="shared" ref="T4:T50" si="11">((R4*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.0784663580564273E-8</v>
       </c>
-      <c r="U4" s="23">
+      <c r="U4" s="104">
         <f t="shared" ref="U4:U50" si="12">((S4*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.9531483620197396E-8</v>
       </c>
-      <c r="V4" s="86"/>
-      <c r="X4" s="60">
+      <c r="V4" s="113"/>
+      <c r="X4" s="126">
         <v>5.0784663580564273E-8</v>
       </c>
-      <c r="Y4" s="61">
+      <c r="Y4" s="127">
         <v>5.9531483620197396E-8</v>
       </c>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="40">
+      <c r="Z4" s="113"/>
+      <c r="AA4" s="108">
         <v>0.44</v>
       </c>
     </row>
@@ -11308,78 +11449,78 @@
       <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>0.52</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="95">
         <f t="shared" si="1"/>
         <v>5.2E-7</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="96">
         <f t="shared" ref="H5:H9" si="13">(($C$3-$C$9)*$C$4*(G5^3))/($C$9*($C$11^2))</f>
         <v>1.119883029356697E-6</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="97">
         <f t="shared" si="0"/>
         <v>1.4261010647207567E-6</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="98">
         <f t="shared" si="2"/>
         <v>-16.810663525755434</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="96">
         <f t="shared" si="3"/>
         <v>-4.9594236262826769E-3</v>
       </c>
-      <c r="L5" s="16">
+      <c r="L5" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="100">
         <f t="shared" ref="M5:M45" si="14">(0.65-(($C$5/2.83)*TANH(LOG10(H5)-4.6)))^L5</f>
         <v>0.99982332107553762</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="101">
         <f t="shared" si="5"/>
         <v>-16.597827989013648</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="97">
         <f t="shared" si="6"/>
         <v>-4.9609667976090333E-3</v>
       </c>
-      <c r="P5" s="17">
+      <c r="P5" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="103">
         <f t="shared" si="8"/>
         <v>0.99982332096357773</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="96">
         <f t="shared" si="9"/>
         <v>1.528622730272449E-17</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="97">
         <f t="shared" si="10"/>
         <v>2.4953663060410846E-17</v>
       </c>
-      <c r="T5" s="22">
+      <c r="T5" s="105">
         <f t="shared" si="11"/>
         <v>7.0775371384014727E-8</v>
       </c>
-      <c r="U5" s="23">
+      <c r="U5" s="104">
         <f t="shared" si="12"/>
         <v>8.3334881356194801E-8</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="X5" s="60">
-        <v>7.0775371384014727E-8</v>
-      </c>
-      <c r="Y5" s="61">
+      <c r="V5" s="113"/>
+      <c r="X5" s="117">
+        <v>7.0775371384014701E-8</v>
+      </c>
+      <c r="Y5" s="109">
         <v>8.3334881356194801E-8</v>
       </c>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="40">
+      <c r="Z5" s="113"/>
+      <c r="AA5" s="137">
         <v>0.52</v>
       </c>
     </row>
@@ -11396,154 +11537,154 @@
       <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>0.61</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="95">
         <f t="shared" si="1"/>
         <v>6.0999999999999998E-7</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="96">
         <f t="shared" si="13"/>
         <v>1.8078073074534345E-6</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="97">
         <f t="shared" si="0"/>
         <v>2.3021296496030246E-6</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="98">
         <f>-3.76715+1.92944*LOG10(H6)-0.09815*(LOG10(H6))^2-0.00575*(LOG10(H6))^3+0.00056*(LOG10(H6))^4</f>
         <v>-16.386479902881327</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="96">
         <f t="shared" si="3"/>
         <v>-4.9624809245701063E-3</v>
       </c>
-      <c r="L6" s="16">
+      <c r="L6" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="100">
         <f t="shared" si="14"/>
         <v>0.99982332082833791</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="101">
         <f t="shared" si="5"/>
         <v>-16.168638977090627</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="97">
         <f t="shared" si="6"/>
         <v>-4.9640240959006104E-3</v>
       </c>
-      <c r="P6" s="17">
+      <c r="P6" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="103">
         <f t="shared" si="8"/>
         <v>0.99982332065862667</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="96">
         <f t="shared" si="9"/>
         <v>4.0595778910837656E-17</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="97">
         <f t="shared" si="10"/>
         <v>6.7037878367214552E-17</v>
       </c>
-      <c r="T6" s="22">
+      <c r="T6" s="105">
         <f t="shared" si="11"/>
         <v>9.8011193738497813E-8</v>
       </c>
-      <c r="U6" s="23">
+      <c r="U6" s="104">
         <f t="shared" si="12"/>
         <v>1.1584807088915935E-7</v>
       </c>
-      <c r="V6" s="86"/>
-      <c r="X6" s="60">
+      <c r="V6" s="113"/>
+      <c r="X6" s="126">
         <v>9.8011193738497813E-8</v>
       </c>
-      <c r="Y6" s="61">
+      <c r="Y6" s="127">
         <v>1.1584807088915935E-7</v>
       </c>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="40">
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="108">
         <v>0.61</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <v>0.72</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="95">
         <f t="shared" si="1"/>
         <v>7.1999999999999999E-7</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="96">
         <f t="shared" si="13"/>
         <v>2.9727618694621109E-6</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="97">
         <f t="shared" si="0"/>
         <v>3.7856264949710762E-6</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="98">
         <f t="shared" si="2"/>
         <v>-15.935700579559288</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="96">
         <f t="shared" si="3"/>
         <v>-4.9656562419669367E-3</v>
       </c>
-      <c r="L7" s="16">
+      <c r="L7" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="100">
         <f t="shared" si="14"/>
         <v>0.99982332043580302</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="101">
         <f t="shared" si="5"/>
         <v>-15.713194364044837</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="97">
         <f t="shared" si="6"/>
         <v>-4.967199413304025E-3</v>
       </c>
-      <c r="P7" s="17">
+      <c r="P7" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="103">
         <f t="shared" si="8"/>
         <v>0.99982332017438669</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="96">
         <f t="shared" si="9"/>
         <v>1.1461910856313748E-16</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="97">
         <f t="shared" si="10"/>
         <v>1.9132058436003182E-16</v>
       </c>
-      <c r="T7" s="22">
+      <c r="T7" s="105">
         <f t="shared" si="11"/>
         <v>1.3852698904522814E-7</v>
       </c>
-      <c r="U7" s="23">
+      <c r="U7" s="104">
         <f t="shared" si="12"/>
         <v>1.643246132416318E-7</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="X7" s="60">
+      <c r="V7" s="113"/>
+      <c r="X7" s="126">
         <v>1.3852698904522814E-7</v>
       </c>
-      <c r="Y7" s="61">
+      <c r="Y7" s="127">
         <v>1.643246132416318E-7</v>
       </c>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="40">
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="108">
         <v>0.72</v>
       </c>
     </row>
@@ -11551,83 +11692,83 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="F8" s="40">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="F8" s="39">
         <v>0.85</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="95">
         <f t="shared" si="1"/>
         <v>8.4999999999999991E-7</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="96">
         <f t="shared" si="13"/>
         <v>4.891244917811799E-6</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="97">
         <f t="shared" si="0"/>
         <v>6.2286947853012246E-6</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="98">
         <f t="shared" si="2"/>
         <v>-15.475063220410977</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="96">
         <f t="shared" si="3"/>
         <v>-4.9688352535417965E-3</v>
       </c>
-      <c r="L8" s="16">
+      <c r="L8" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="100">
         <f t="shared" si="14"/>
         <v>0.99982331983029171</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="101">
         <f t="shared" si="5"/>
         <v>-15.24841658043041</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="97">
         <f t="shared" si="6"/>
         <v>-4.9703784248890425E-3</v>
       </c>
-      <c r="P8" s="17">
+      <c r="P8" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="103">
         <f t="shared" si="8"/>
         <v>0.99982331942741398</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="96">
         <f t="shared" si="9"/>
         <v>3.3104818131540456E-16</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="97">
         <f t="shared" si="10"/>
         <v>5.5787423327439345E-16</v>
       </c>
-      <c r="T8" s="22">
+      <c r="T8" s="105">
         <f t="shared" si="11"/>
         <v>1.9727821119408791E-7</v>
       </c>
-      <c r="U8" s="23">
+      <c r="U8" s="104">
         <f t="shared" si="12"/>
         <v>2.347618303469797E-7</v>
       </c>
-      <c r="V8" s="86"/>
-      <c r="X8" s="60">
+      <c r="V8" s="113"/>
+      <c r="X8" s="126">
         <v>1.9727821119408791E-7</v>
       </c>
-      <c r="Y8" s="61">
+      <c r="Y8" s="127">
         <v>2.347618303469797E-7</v>
       </c>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="40">
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="108">
         <v>0.85</v>
       </c>
     </row>
@@ -11644,78 +11785,78 @@
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>1.01</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="95">
         <f t="shared" si="1"/>
         <v>1.0099999999999999E-6</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="96">
         <f t="shared" si="13"/>
         <v>8.2059100835602097E-6</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="97">
         <f t="shared" si="0"/>
         <v>1.0449713765097717E-5</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="98">
         <f t="shared" si="2"/>
         <v>-14.987702075929651</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="96">
         <f t="shared" si="3"/>
         <v>-4.9721384515718685E-3</v>
       </c>
-      <c r="L9" s="16">
+      <c r="L9" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="100">
         <f t="shared" si="14"/>
         <v>0.99982331885183195</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="101">
         <f t="shared" si="5"/>
         <v>-14.757300057520085</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="97">
         <f t="shared" si="6"/>
         <v>-4.9736816229355284E-3</v>
       </c>
-      <c r="P9" s="17">
+      <c r="P9" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="103">
         <f t="shared" si="8"/>
         <v>0.99982331822036363</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="96">
         <f t="shared" si="9"/>
         <v>1.016831630200425E-15</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="97">
         <f t="shared" si="10"/>
         <v>1.728420951786855E-15</v>
       </c>
-      <c r="T9" s="22">
+      <c r="T9" s="105">
         <f t="shared" si="11"/>
         <v>2.8676869167901045E-7</v>
       </c>
-      <c r="U9" s="23">
+      <c r="U9" s="104">
         <f t="shared" si="12"/>
         <v>3.4224088736910029E-7</v>
       </c>
-      <c r="V9" s="86"/>
-      <c r="X9" s="60">
+      <c r="V9" s="113"/>
+      <c r="X9" s="117">
         <v>2.8676869167901045E-7</v>
       </c>
-      <c r="Y9" s="61">
+      <c r="Y9" s="109">
         <v>3.4224088736910029E-7</v>
       </c>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="40">
+      <c r="Z9" s="113"/>
+      <c r="AA9" s="137">
         <v>1.01</v>
       </c>
     </row>
@@ -11732,78 +11873,78 @@
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>1.19</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="95">
         <f t="shared" si="1"/>
         <v>1.1899999999999998E-6</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="96">
         <f t="shared" ref="H10:H50" si="15">(($C$3-$C$9)*$C$4*G10^3)/($C$9*$C$11^2)</f>
         <v>1.3421576054475575E-5</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="97">
         <f t="shared" si="0"/>
         <v>1.7091538490866558E-5</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="98">
         <f t="shared" si="2"/>
         <v>-14.517079453666399</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="96">
         <f t="shared" si="3"/>
         <v>-4.9752795000889485E-3</v>
       </c>
-      <c r="L10" s="16">
+      <c r="L10" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="100">
         <f t="shared" si="14"/>
         <v>0.9998233174106399</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="101">
         <f t="shared" si="5"/>
         <v>-14.283608886737035</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="97">
         <f t="shared" si="6"/>
         <v>-4.9768226714767844E-3</v>
       </c>
-      <c r="P10" s="17">
+      <c r="P10" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="103">
         <f t="shared" si="8"/>
         <v>0.99982331644247613</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="96">
         <f t="shared" si="9"/>
         <v>3.0051664229841927E-15</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="97">
         <f t="shared" si="10"/>
         <v>5.1444334226641987E-15</v>
       </c>
-      <c r="T10" s="22">
+      <c r="T10" s="105">
         <f t="shared" si="11"/>
         <v>4.1153321700708681E-7</v>
       </c>
-      <c r="U10" s="23">
+      <c r="U10" s="104">
         <f t="shared" si="12"/>
         <v>4.9229780900712516E-7</v>
       </c>
-      <c r="V10" s="86"/>
-      <c r="X10" s="60">
+      <c r="V10" s="113"/>
+      <c r="X10" s="126">
         <v>4.1153321700708681E-7</v>
       </c>
-      <c r="Y10" s="61">
+      <c r="Y10" s="127">
         <v>4.9229780900712516E-7</v>
       </c>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="40">
+      <c r="Z10" s="113"/>
+      <c r="AA10" s="108">
         <v>1.19</v>
       </c>
     </row>
@@ -11821,154 +11962,154 @@
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>1.4</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="95">
         <f t="shared" si="1"/>
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="96">
         <f t="shared" si="15"/>
         <v>2.1854795122288748E-5</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="97">
         <f t="shared" si="0"/>
         <v>2.7830716044561873E-5</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="98">
         <f t="shared" si="2"/>
         <v>-14.044795978426297</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="96">
         <f t="shared" si="3"/>
         <v>-4.9783921256218479E-3</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="100">
         <f t="shared" si="14"/>
         <v>0.99982331522553491</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="101">
         <f t="shared" si="5"/>
         <v>-13.80875407007907</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="97">
         <f t="shared" si="6"/>
         <v>-4.9799352970463402E-3</v>
       </c>
-      <c r="P11" s="17">
+      <c r="P11" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="103">
         <f t="shared" si="8"/>
         <v>0.99982331374688072</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="96">
         <f t="shared" si="9"/>
         <v>8.9155653862583032E-15</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="97">
         <f t="shared" si="10"/>
         <v>1.5352858737788547E-14</v>
       </c>
-      <c r="T11" s="22">
+      <c r="T11" s="105">
         <f t="shared" si="11"/>
         <v>5.9133240962389227E-7</v>
       </c>
-      <c r="U11" s="23">
+      <c r="U11" s="104">
         <f t="shared" si="12"/>
         <v>7.0878057045415601E-7</v>
       </c>
-      <c r="V11" s="86"/>
-      <c r="X11" s="60">
+      <c r="V11" s="113"/>
+      <c r="X11" s="126">
         <v>5.9133240962389227E-7</v>
       </c>
-      <c r="Y11" s="61">
+      <c r="Y11" s="127">
         <v>7.0878057045415601E-7</v>
       </c>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="40">
+      <c r="Z11" s="113"/>
+      <c r="AA11" s="108">
         <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>1.65</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="95">
         <f t="shared" si="1"/>
         <v>1.6499999999999999E-6</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="96">
         <f t="shared" si="15"/>
         <v>3.5777868636556618E-5</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="97">
         <f t="shared" si="0"/>
         <v>4.5560880215625916E-5</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="98">
         <f t="shared" si="2"/>
         <v>-13.562295358668354</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="96">
         <f t="shared" si="3"/>
         <v>-4.9815389214311352E-3</v>
       </c>
-      <c r="L12" s="16">
+      <c r="L12" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="100">
         <f t="shared" si="14"/>
         <v>0.99982331184323014</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="101">
         <f t="shared" si="5"/>
         <v>-13.324115203552235</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="97">
         <f t="shared" si="6"/>
         <v>-4.9830820929123668E-3</v>
       </c>
-      <c r="P12" s="17">
+      <c r="P12" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="103">
         <f t="shared" si="8"/>
         <v>0.99982330957439214</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="96">
         <f t="shared" si="9"/>
         <v>2.7079856643893767E-14</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="97">
         <f t="shared" si="10"/>
         <v>4.6862448040409074E-14</v>
       </c>
-      <c r="T12" s="22">
+      <c r="T12" s="105">
         <f t="shared" si="11"/>
         <v>8.5637537927746757E-7</v>
       </c>
-      <c r="U12" s="23">
+      <c r="U12" s="104">
         <f t="shared" si="12"/>
         <v>1.0281513336458287E-6</v>
       </c>
-      <c r="V12" s="86"/>
-      <c r="X12" s="60">
+      <c r="V12" s="113"/>
+      <c r="X12" s="126">
         <v>8.5637537927746757E-7</v>
       </c>
-      <c r="Y12" s="61">
+      <c r="Y12" s="127">
         <v>1.0281513336458287E-6</v>
       </c>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="40">
+      <c r="Z12" s="113"/>
+      <c r="AA12" s="108">
         <v>1.65</v>
       </c>
     </row>
@@ -11976,83 +12117,83 @@
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="F13" s="48">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="F13" s="47">
         <v>1.95</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <f t="shared" si="1"/>
         <v>1.95E-6</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <f t="shared" si="15"/>
         <v>5.9056331626232062E-5</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <f t="shared" si="0"/>
         <v>7.520454833488365E-5</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="51">
         <f t="shared" si="2"/>
         <v>-13.067492364059158</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="49">
         <f t="shared" si="3"/>
         <v>-4.9847384062327374E-3</v>
       </c>
-      <c r="L13" s="27">
+      <c r="L13" s="80">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="52">
         <f t="shared" si="14"/>
         <v>0.99982330654623763</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="53">
         <f t="shared" si="5"/>
         <v>-12.827599497924652</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="50">
         <f t="shared" si="6"/>
         <v>-4.9862815778028259E-3</v>
       </c>
-      <c r="P13" s="10">
+      <c r="P13" s="81">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="54">
         <f t="shared" si="8"/>
         <v>0.99982330303990108</v>
       </c>
-      <c r="R13" s="50">
+      <c r="R13" s="49">
         <f t="shared" si="9"/>
         <v>8.4614765222633864E-14</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="50">
         <f t="shared" si="10"/>
         <v>1.4700681729915298E-13</v>
       </c>
-      <c r="T13" s="24">
+      <c r="T13" s="65">
         <f t="shared" si="11"/>
         <v>1.2519801324292888E-6</v>
       </c>
-      <c r="U13" s="25">
+      <c r="U13" s="63">
         <f t="shared" si="12"/>
         <v>1.5050856358022601E-6</v>
       </c>
-      <c r="V13" s="87"/>
-      <c r="X13" s="58">
+      <c r="V13" s="114"/>
+      <c r="X13" s="118">
         <v>1.2519801324292888E-6</v>
       </c>
-      <c r="Y13" s="59">
+      <c r="Y13" s="119">
         <v>1.5050856358022601E-6</v>
       </c>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="48">
+      <c r="Z13" s="114"/>
+      <c r="AA13" s="137">
         <v>1.95</v>
       </c>
     </row>
@@ -12073,82 +12214,82 @@
         <f>F14/1000</f>
         <v>2.3E-3</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <f t="shared" si="1"/>
         <v>2.2999999999999996E-6</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <f t="shared" si="15"/>
         <v>9.6904989888078386E-5</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <f t="shared" si="0"/>
         <v>1.2340244975006713E-4</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="31">
         <f t="shared" si="2"/>
         <v>-12.575284805018097</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <f t="shared" si="3"/>
         <v>-4.9879000780192811E-3</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <f t="shared" si="14"/>
         <v>0.99982329847911411</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="34">
         <f t="shared" si="5"/>
         <v>-12.334142267930597</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="30">
         <f t="shared" si="6"/>
         <v>-4.9894432497246963E-3</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="35">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="36">
         <f t="shared" si="8"/>
         <v>0.9998232930881128</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="29">
         <f t="shared" si="9"/>
         <v>2.6281524142588276E-13</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <f t="shared" si="10"/>
         <v>4.5792203196144499E-13</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="107">
         <f t="shared" si="11"/>
         <v>1.8266930164019098E-6</v>
       </c>
-      <c r="U14" s="39">
+      <c r="U14" s="61">
         <f t="shared" si="12"/>
         <v>2.1980921686442242E-6</v>
       </c>
-      <c r="V14" s="85" t="s">
+      <c r="V14" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="56">
+      <c r="X14" s="124">
         <v>1.82669301640191E-6</v>
       </c>
-      <c r="Y14" s="57">
+      <c r="Y14" s="125">
         <v>2.1980921686442199E-6</v>
       </c>
-      <c r="Z14" s="85" t="s">
+      <c r="Z14" s="112" t="s">
         <v>42</v>
       </c>
-      <c r="AA14" s="28">
+      <c r="AA14" s="108">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -12165,78 +12306,78 @@
       <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>2.72</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="95">
         <f t="shared" si="1"/>
         <v>2.7200000000000002E-6</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="96">
         <f t="shared" si="15"/>
         <v>1.6027631346685709E-4</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="97">
         <f t="shared" si="0"/>
         <v>2.0410187072475065E-4</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="98">
         <f t="shared" si="2"/>
         <v>-12.072810073172706</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="96">
         <f t="shared" si="3"/>
         <v>-4.9911123700270253E-3</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="100">
         <f t="shared" si="14"/>
         <v>0.99982328583070323</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="101">
         <f t="shared" si="5"/>
         <v>-11.830834140179157</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="97">
         <f t="shared" si="6"/>
         <v>-4.9926555419446197E-3</v>
       </c>
-      <c r="P15" s="17">
+      <c r="P15" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="103">
         <f t="shared" si="8"/>
         <v>0.99982327748474398</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="96">
         <f t="shared" si="9"/>
         <v>8.3583790366670425E-13</v>
       </c>
-      <c r="S15" s="43">
+      <c r="S15" s="97">
         <f t="shared" si="10"/>
         <v>1.4591382689322625E-12</v>
       </c>
-      <c r="T15" s="22">
+      <c r="T15" s="105">
         <f t="shared" si="11"/>
         <v>2.68630965571977E-6</v>
       </c>
-      <c r="U15" s="23">
+      <c r="U15" s="104">
         <f t="shared" si="12"/>
         <v>3.2345524797995237E-6</v>
       </c>
-      <c r="V15" s="86"/>
-      <c r="X15" s="60">
+      <c r="V15" s="113"/>
+      <c r="X15" s="126">
         <v>2.68630965571977E-6</v>
       </c>
-      <c r="Y15" s="61">
+      <c r="Y15" s="127">
         <v>3.2345524797995237E-6</v>
       </c>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="40">
+      <c r="Z15" s="113"/>
+      <c r="AA15" s="108">
         <v>2.72</v>
       </c>
     </row>
@@ -12254,914 +12395,914 @@
       <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>3.2</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="95">
         <f t="shared" si="1"/>
         <v>3.1999999999999999E-6</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="96">
         <f t="shared" si="15"/>
         <v>2.6098320939036356E-4</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="97">
         <f t="shared" si="0"/>
         <v>3.3234581025809164E-4</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="98">
         <f t="shared" si="2"/>
         <v>-11.584482853004767</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="96">
         <f t="shared" si="3"/>
         <v>-4.9942249967555672E-3</v>
       </c>
-      <c r="L16" s="16">
+      <c r="L16" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="100">
         <f t="shared" si="14"/>
         <v>0.99982326699422397</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="101">
         <f t="shared" si="5"/>
         <v>-11.34210504943429</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="97">
         <f t="shared" si="6"/>
         <v>-4.9957681689891467E-3</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="103">
         <f t="shared" si="8"/>
         <v>0.99982325424763263</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="96">
         <f t="shared" si="9"/>
         <v>2.5730377683189769E-12</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="97">
         <f t="shared" si="10"/>
         <v>4.4959597639004669E-12</v>
       </c>
-      <c r="T16" s="22">
+      <c r="T16" s="105">
         <f t="shared" si="11"/>
         <v>3.9077860022104021E-6</v>
       </c>
-      <c r="U16" s="23">
+      <c r="U16" s="104">
         <f t="shared" si="12"/>
         <v>4.7067687122065053E-6</v>
       </c>
-      <c r="V16" s="86"/>
-      <c r="X16" s="60">
+      <c r="V16" s="113"/>
+      <c r="X16" s="126">
         <v>3.9077860022104021E-6</v>
       </c>
-      <c r="Y16" s="61">
+      <c r="Y16" s="127">
         <v>4.7067687122065053E-6</v>
       </c>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="40">
+      <c r="Z16" s="113"/>
+      <c r="AA16" s="108">
         <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>3.78</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="95">
         <f t="shared" si="1"/>
         <v>3.7799999999999998E-6</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="96">
         <f t="shared" si="15"/>
         <v>4.3016793239200954E-4</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="97">
         <f t="shared" si="0"/>
         <v>5.4779198390511141E-4</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="98">
         <f t="shared" si="2"/>
         <v>-11.083344461754283</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="96">
         <f t="shared" si="3"/>
         <v>-4.9974152732137353E-3</v>
       </c>
-      <c r="L17" s="16">
+      <c r="L17" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="100">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H17)-4.6)))^L17</f>
         <v>0.99982323734070833</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="101">
         <f t="shared" si="5"/>
         <v>-10.840954939315653</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="97">
         <f t="shared" si="6"/>
         <v>-4.9989584459447572E-3</v>
       </c>
-      <c r="P17" s="17">
+      <c r="P17" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="103">
         <f t="shared" si="8"/>
         <v>0.99982321766637849</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="96">
         <f t="shared" si="9"/>
         <v>8.157955821974932E-12</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="97">
         <f t="shared" si="10"/>
         <v>1.4255068870574951E-11</v>
       </c>
-      <c r="T17" s="22">
+      <c r="T17" s="105">
         <f t="shared" si="11"/>
         <v>5.7408451892466158E-6</v>
       </c>
-      <c r="U17" s="23">
+      <c r="U17" s="104">
         <f t="shared" si="12"/>
         <v>6.9146758502993435E-6</v>
       </c>
-      <c r="V17" s="86"/>
-      <c r="X17" s="60">
+      <c r="V17" s="113"/>
+      <c r="X17" s="126">
         <v>5.7408451892466158E-6</v>
       </c>
-      <c r="Y17" s="61">
+      <c r="Y17" s="127">
         <v>6.9146758502993435E-6</v>
       </c>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="40">
+      <c r="Z17" s="113"/>
+      <c r="AA17" s="108">
         <v>3.78</v>
       </c>
     </row>
     <row r="18" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <v>4.46</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="95">
         <f t="shared" si="1"/>
         <v>4.4599999999999996E-6</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="96">
         <f t="shared" si="15"/>
         <v>7.0658954746324854E-4</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="97">
         <f t="shared" si="0"/>
         <v>8.9979763916660032E-4</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="98">
         <f t="shared" si="2"/>
         <v>-10.585843661282109</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="96">
         <f t="shared" si="3"/>
         <v>-5.000583555368727E-3</v>
       </c>
-      <c r="L18" s="16">
+      <c r="L18" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="100">
         <f t="shared" si="14"/>
         <v>0.99982319195899283</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="101">
         <f t="shared" si="5"/>
         <v>-10.343829303147198</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="97">
         <f t="shared" si="6"/>
         <v>-5.002126728861034E-3</v>
       </c>
-      <c r="P18" s="17">
+      <c r="P18" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="103">
         <f t="shared" si="8"/>
         <v>0.99982316168245933</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="96">
         <f t="shared" si="9"/>
         <v>2.5649503427317282E-11</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="97">
         <f t="shared" si="10"/>
         <v>4.4780791290270134E-11</v>
       </c>
-      <c r="T18" s="22">
+      <c r="T18" s="105">
         <f t="shared" si="11"/>
         <v>8.4102396865991163E-6</v>
       </c>
-      <c r="U18" s="23">
+      <c r="U18" s="104">
         <f t="shared" si="12"/>
         <v>1.012696495395003E-5</v>
       </c>
-      <c r="V18" s="86"/>
-      <c r="X18" s="60">
+      <c r="V18" s="113"/>
+      <c r="X18" s="126">
         <v>8.4102396865991163E-6</v>
       </c>
-      <c r="Y18" s="61">
+      <c r="Y18" s="127">
         <v>1.012696495395003E-5</v>
       </c>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="40">
+      <c r="Z18" s="113"/>
+      <c r="AA18" s="108">
         <v>4.46</v>
       </c>
     </row>
     <row r="19" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>5.27</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="95">
         <f t="shared" si="1"/>
         <v>5.2699999999999995E-6</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="96">
         <f t="shared" si="15"/>
         <v>1.1657206187722503E-3</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="97">
         <f t="shared" si="0"/>
         <v>1.4844723707912702E-3</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="98">
         <f t="shared" si="2"/>
         <v>-10.084944227230302</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="96">
         <f t="shared" si="3"/>
         <v>-5.0037797412994843E-3</v>
       </c>
-      <c r="L19" s="16">
+      <c r="L19" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="100">
         <f t="shared" si="14"/>
         <v>0.99982312136322393</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="101">
         <f t="shared" si="5"/>
         <v>-9.8436845204994334</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="97">
         <f t="shared" si="6"/>
         <v>-5.0053229159760454E-3</v>
       </c>
-      <c r="P19" s="17">
+      <c r="P19" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="103">
         <f t="shared" si="8"/>
         <v>0.99982307459391229</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="96">
         <f t="shared" si="9"/>
         <v>8.1278404316863204E-11</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="97">
         <f t="shared" si="10"/>
         <v>1.4165545782618522E-10</v>
       </c>
-      <c r="T19" s="22">
+      <c r="T19" s="105">
         <f t="shared" si="11"/>
         <v>1.235303794633768E-5</v>
       </c>
-      <c r="U19" s="23">
+      <c r="U19" s="104">
         <f t="shared" si="12"/>
         <v>1.4865966732039502E-5</v>
       </c>
-      <c r="V19" s="86"/>
-      <c r="X19" s="60">
+      <c r="V19" s="113"/>
+      <c r="X19" s="117">
         <v>1.235303794633768E-5</v>
       </c>
-      <c r="Y19" s="61">
+      <c r="Y19" s="109">
         <v>1.4865966732039502E-5</v>
       </c>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="40">
+      <c r="Z19" s="113"/>
+      <c r="AA19" s="137">
         <v>5.27</v>
       </c>
     </row>
     <row r="20" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>6.21</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="95">
         <f t="shared" si="1"/>
         <v>6.2099999999999998E-6</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="96">
         <f t="shared" si="15"/>
         <v>1.9073809159670478E-3</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="97">
         <f t="shared" si="0"/>
         <v>2.4289304184305725E-3</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="98">
         <f t="shared" si="2"/>
         <v>-9.5940144307551414</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="96">
         <f t="shared" si="3"/>
         <v>-5.0069232404082011E-3</v>
       </c>
-      <c r="L20" s="16">
+      <c r="L20" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="100">
         <f t="shared" si="14"/>
         <v>0.99982301452018496</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="101">
         <f t="shared" si="5"/>
         <v>-9.3538514488754032</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="97">
         <f t="shared" si="6"/>
         <v>-5.0084664168770698E-3</v>
       </c>
-      <c r="P20" s="17">
+      <c r="P20" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="47">
+      <c r="Q20" s="103">
         <f t="shared" si="8"/>
         <v>0.99982294278991568</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="96">
         <f t="shared" si="9"/>
         <v>2.5171075678087328E-10</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="97">
         <f t="shared" si="10"/>
         <v>4.3758576228665676E-10</v>
       </c>
-      <c r="T20" s="22">
+      <c r="T20" s="105">
         <f t="shared" si="11"/>
         <v>1.8005947423279784E-5</v>
       </c>
-      <c r="U20" s="23">
+      <c r="U20" s="104">
         <f t="shared" si="12"/>
         <v>2.1650592213258089E-5</v>
       </c>
-      <c r="V20" s="86"/>
-      <c r="X20" s="60">
+      <c r="V20" s="113"/>
+      <c r="X20" s="126">
         <v>1.8005947423279784E-5</v>
       </c>
-      <c r="Y20" s="61">
+      <c r="Y20" s="127">
         <v>2.1650592213258089E-5</v>
       </c>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="40">
+      <c r="Z20" s="113"/>
+      <c r="AA20" s="108">
         <v>6.21</v>
       </c>
     </row>
     <row r="21" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>7.33</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="95">
         <f t="shared" si="1"/>
         <v>7.3300000000000001E-6</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="96">
         <f t="shared" si="15"/>
         <v>3.1367113575308829E-3</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="97">
         <f t="shared" si="0"/>
         <v>3.9944059240419917E-3</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="98">
         <f t="shared" si="2"/>
         <v>-9.1004979382294291</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="96">
         <f t="shared" si="3"/>
         <v>-5.0100989980370689E-3</v>
       </c>
-      <c r="L21" s="16">
+      <c r="L21" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="100">
         <f t="shared" si="14"/>
         <v>0.99982284858361381</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="101">
         <f t="shared" si="5"/>
         <v>-8.8617857952211985</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="97">
         <f t="shared" si="6"/>
         <v>-5.0116421772895461E-3</v>
       </c>
-      <c r="P21" s="17">
+      <c r="P21" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q21" s="103">
         <f t="shared" si="8"/>
         <v>0.9998227380868161</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="96">
         <f t="shared" si="9"/>
         <v>7.8417866087780872E-10</v>
       </c>
-      <c r="S21" s="43">
+      <c r="S21" s="97">
         <f t="shared" si="10"/>
         <v>1.3587062461223498E-9</v>
       </c>
-      <c r="T21" s="22">
+      <c r="T21" s="105">
         <f t="shared" si="11"/>
         <v>2.62978590045575E-5</v>
       </c>
-      <c r="U21" s="23">
+      <c r="U21" s="104">
         <f t="shared" si="12"/>
         <v>3.1585705119149928E-5</v>
       </c>
-      <c r="V21" s="86"/>
-      <c r="X21" s="60">
+      <c r="V21" s="113"/>
+      <c r="X21" s="126">
         <v>2.62978590045575E-5</v>
       </c>
-      <c r="Y21" s="61">
+      <c r="Y21" s="127">
         <v>3.1585705119149928E-5</v>
       </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="40">
+      <c r="Z21" s="113"/>
+      <c r="AA21" s="108">
         <v>7.33</v>
       </c>
     </row>
     <row r="22" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>8.65</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="95">
         <f t="shared" si="1"/>
         <v>8.6500000000000002E-6</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="96">
         <f t="shared" si="15"/>
         <v>5.1547897337915257E-3</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="97">
         <f t="shared" si="0"/>
         <v>6.5643026414951176E-3</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="98">
         <f t="shared" si="2"/>
         <v>-8.6108238922249036</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="96">
         <f t="shared" si="3"/>
         <v>-5.0132703414175533E-3</v>
       </c>
-      <c r="L22" s="16">
+      <c r="L22" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="100">
         <f t="shared" si="14"/>
         <v>0.99982259340493917</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="101">
         <f t="shared" si="5"/>
         <v>-8.373890318602065</v>
       </c>
-      <c r="O22" s="43">
+      <c r="O22" s="97">
         <f t="shared" si="6"/>
         <v>-5.0148135249506844E-3</v>
       </c>
-      <c r="P22" s="17">
+      <c r="P22" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="47">
+      <c r="Q22" s="103">
         <f t="shared" si="8"/>
         <v>0.99982242329268756</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="96">
         <f t="shared" si="9"/>
         <v>2.4215073070385305E-9</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="97">
         <f t="shared" si="10"/>
         <v>4.1784743489531774E-9</v>
       </c>
-      <c r="T22" s="22">
+      <c r="T22" s="105">
         <f t="shared" si="11"/>
         <v>3.8295168125083617E-5</v>
       </c>
-      <c r="U22" s="23">
+      <c r="U22" s="104">
         <f t="shared" si="12"/>
         <v>4.5932628573001273E-5</v>
       </c>
-      <c r="V22" s="86"/>
-      <c r="X22" s="60">
+      <c r="V22" s="113"/>
+      <c r="X22" s="126">
         <v>3.8295168125083617E-5</v>
       </c>
-      <c r="Y22" s="61">
+      <c r="Y22" s="127">
         <v>4.5932628573001273E-5</v>
       </c>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="40">
+      <c r="Z22" s="113"/>
+      <c r="AA22" s="108">
         <v>8.65</v>
       </c>
     </row>
     <row r="23" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <v>10.210000000000001</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="95">
         <f t="shared" si="1"/>
         <v>1.0210000000000001E-5</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="96">
         <f t="shared" si="15"/>
         <v>8.4769546305383976E-3</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="97">
         <f t="shared" si="0"/>
         <v>1.0794872060115717E-2</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="98">
         <f t="shared" si="2"/>
         <v>-8.1243172889962167</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="96">
         <f t="shared" si="3"/>
         <v>-5.0164459945600866E-3</v>
       </c>
-      <c r="L23" s="16">
+      <c r="L23" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="100">
         <f t="shared" si="14"/>
         <v>0.99982219989580834</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="101">
         <f t="shared" si="5"/>
         <v>-7.8894806786604228</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="97">
         <f t="shared" si="6"/>
         <v>-5.017989184694374E-3</v>
       </c>
-      <c r="P23" s="17">
+      <c r="P23" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="47">
+      <c r="Q23" s="103">
         <f t="shared" si="8"/>
         <v>0.99982193785111506</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="96">
         <f t="shared" si="9"/>
         <v>7.4231637437968177E-9</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S23" s="97">
         <f t="shared" si="10"/>
         <v>1.2747469861808273E-8</v>
       </c>
-      <c r="T23" s="22">
+      <c r="T23" s="105">
         <f t="shared" si="11"/>
         <v>5.5630342367119438E-5</v>
       </c>
-      <c r="U23" s="23">
+      <c r="U23" s="104">
         <f t="shared" si="12"/>
         <v>6.6617763822258673E-5</v>
       </c>
-      <c r="V23" s="86"/>
-      <c r="X23" s="60">
+      <c r="V23" s="113"/>
+      <c r="X23" s="126">
         <v>5.5630342367119438E-5</v>
       </c>
-      <c r="Y23" s="61">
+      <c r="Y23" s="127">
         <v>6.6617763822258673E-5</v>
       </c>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="40">
+      <c r="Z23" s="113"/>
+      <c r="AA23" s="108">
         <v>10.210000000000001</v>
       </c>
     </row>
     <row r="24" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <v>12.05</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="95">
         <f t="shared" si="1"/>
         <v>1.205E-5</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="96">
         <f t="shared" si="15"/>
         <v>1.393553907046895E-2</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="97">
         <f t="shared" si="0"/>
         <v>1.774603827800619E-2</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="98">
         <f t="shared" si="2"/>
         <v>-7.642609400915565</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="96">
         <f t="shared" si="3"/>
         <v>-5.0196195315925524E-3</v>
       </c>
-      <c r="L24" s="16">
+      <c r="L24" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="100">
         <f t="shared" si="14"/>
         <v>0.99982159422666173</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="101">
         <f t="shared" si="5"/>
         <v>-7.4101700243054518</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="97">
         <f t="shared" si="6"/>
         <v>-5.0211627318869851E-3</v>
       </c>
-      <c r="P24" s="17">
+      <c r="P24" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="47">
+      <c r="Q24" s="103">
         <f t="shared" si="8"/>
         <v>0.99982119068450126</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="96">
         <f t="shared" si="9"/>
         <v>2.2505750087984369E-8</v>
       </c>
-      <c r="S24" s="43">
+      <c r="S24" s="97">
         <f t="shared" si="10"/>
         <v>3.8435377428499983E-8</v>
       </c>
-      <c r="T24" s="22">
+      <c r="T24" s="105">
         <f t="shared" si="11"/>
         <v>8.0515572115720573E-5</v>
       </c>
-      <c r="U24" s="23">
+      <c r="U24" s="104">
         <f t="shared" si="12"/>
         <v>9.6240773005624341E-5</v>
       </c>
-      <c r="V24" s="86"/>
-      <c r="X24" s="60">
+      <c r="V24" s="113"/>
+      <c r="X24" s="126">
         <v>8.0515572115720573E-5</v>
       </c>
-      <c r="Y24" s="61">
+      <c r="Y24" s="127">
         <v>9.6240773005624341E-5</v>
       </c>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="40">
+      <c r="Z24" s="113"/>
+      <c r="AA24" s="108">
         <v>12.05</v>
       </c>
     </row>
     <row r="25" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <v>14.22</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="95">
         <f t="shared" si="1"/>
         <v>1.4219999999999999E-5</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="96">
         <f t="shared" si="15"/>
         <v>2.2901367802464524E-2</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="97">
         <f t="shared" si="0"/>
         <v>2.9163460960219437E-2</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="98">
         <f t="shared" si="2"/>
         <v>-7.166306094856826</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="96">
         <f t="shared" si="3"/>
         <v>-5.0227909419419368E-3</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L25" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="100">
         <f t="shared" si="14"/>
         <v>0.9998206622898641</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="101">
         <f t="shared" si="5"/>
         <v>-6.936549416685045</v>
       </c>
-      <c r="O25" s="43">
+      <c r="O25" s="97">
         <f t="shared" si="6"/>
         <v>-5.0243341578696359E-3</v>
       </c>
-      <c r="P25" s="17">
+      <c r="P25" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="103">
         <f t="shared" si="8"/>
         <v>0.99982004102761701</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="96">
         <f t="shared" si="9"/>
         <v>6.7389653265687165E-8</v>
       </c>
-      <c r="S25" s="43">
+      <c r="S25" s="97">
         <f t="shared" si="10"/>
         <v>1.1437947187245938E-7</v>
       </c>
-      <c r="T25" s="22">
+      <c r="T25" s="105">
         <f t="shared" si="11"/>
         <v>1.1605035140040932E-4</v>
       </c>
-      <c r="U25" s="23">
+      <c r="U25" s="104">
         <f t="shared" si="12"/>
         <v>1.3843038121316793E-4</v>
       </c>
-      <c r="V25" s="86"/>
-      <c r="X25" s="60">
+      <c r="V25" s="113"/>
+      <c r="X25" s="126">
         <v>1.1605035140040932E-4</v>
       </c>
-      <c r="Y25" s="61">
+      <c r="Y25" s="127">
         <v>1.3843038121316793E-4</v>
       </c>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="40">
+      <c r="Z25" s="113"/>
+      <c r="AA25" s="108">
         <v>14.22</v>
       </c>
     </row>
     <row r="26" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <v>16.78</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="95">
         <f t="shared" si="1"/>
         <v>1.6780000000000002E-5</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="96">
         <f t="shared" si="15"/>
         <v>3.7630371166399675E-2</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="97">
         <f t="shared" si="0"/>
         <v>4.7919926438269957E-2</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="98">
         <f t="shared" si="2"/>
         <v>-6.6957930164237798</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="96">
         <f t="shared" si="3"/>
         <v>-5.0259614980071726E-3</v>
       </c>
-      <c r="L26" s="16">
+      <c r="L26" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="100">
         <f t="shared" si="14"/>
         <v>0.99981922804865331</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="101">
         <f t="shared" si="5"/>
         <v>-6.4689909915011725</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="97">
         <f t="shared" si="6"/>
         <v>-5.0275047379942104E-3</v>
       </c>
-      <c r="P26" s="17">
+      <c r="P26" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="103">
         <f t="shared" si="8"/>
         <v>0.99981827171881488</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="96">
         <f t="shared" si="9"/>
         <v>1.9911432539586234E-7</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="97">
         <f t="shared" si="10"/>
         <v>3.3566230534179958E-7</v>
       </c>
-      <c r="T26" s="22">
+      <c r="T26" s="105">
         <f t="shared" si="11"/>
         <v>1.6652632125677697E-4</v>
       </c>
-      <c r="U26" s="23">
+      <c r="U26" s="104">
         <f t="shared" si="12"/>
         <v>1.981905350973394E-4</v>
       </c>
-      <c r="V26" s="86"/>
-      <c r="X26" s="60">
+      <c r="V26" s="113"/>
+      <c r="X26" s="126">
         <v>1.6652632125677697E-4</v>
       </c>
-      <c r="Y26" s="61">
+      <c r="Y26" s="127">
         <v>1.981905350973394E-4</v>
       </c>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="40">
+      <c r="Z26" s="113"/>
+      <c r="AA26" s="108">
         <v>16.78</v>
       </c>
     </row>
     <row r="27" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F27" s="48">
+      <c r="F27" s="39">
         <v>19.809999999999999</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="95">
         <f t="shared" si="1"/>
         <v>1.9809999999999998E-5</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="96">
         <f t="shared" si="15"/>
         <v>6.1917877286670288E-2</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="97">
         <f t="shared" si="0"/>
         <v>7.8848547936736915E-2</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="98">
         <f t="shared" si="2"/>
         <v>-6.2302049078128796</v>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="96">
         <f t="shared" si="3"/>
         <v>-5.0291409371687745E-3</v>
       </c>
-      <c r="L27" s="27">
+      <c r="L27" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="100">
         <f t="shared" si="14"/>
         <v>0.99981701270235723</v>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="101">
         <f t="shared" si="5"/>
         <v>-6.0066253431736065</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="97">
         <f t="shared" si="6"/>
         <v>-5.0306842143179155E-3</v>
       </c>
-      <c r="P27" s="10">
+      <c r="P27" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="103">
         <f t="shared" si="8"/>
         <v>0.99981553882640128</v>
       </c>
-      <c r="R27" s="50">
+      <c r="R27" s="96">
         <f t="shared" si="9"/>
         <v>5.8168313676554234E-7</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="97">
         <f t="shared" si="10"/>
         <v>9.7333839399099371E-7</v>
       </c>
-      <c r="T27" s="24">
+      <c r="T27" s="105">
         <f t="shared" si="11"/>
         <v>2.3805512943131894E-4</v>
       </c>
-      <c r="U27" s="25">
+      <c r="U27" s="104">
         <f t="shared" si="12"/>
         <v>2.8262028985907259E-4</v>
       </c>
-      <c r="V27" s="87"/>
-      <c r="X27" s="58">
+      <c r="V27" s="113"/>
+      <c r="X27" s="117">
         <v>2.3805512943131894E-4</v>
       </c>
-      <c r="Y27" s="59">
+      <c r="Y27" s="109">
         <v>2.8262028985907259E-4</v>
       </c>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="48">
+      <c r="Z27" s="113"/>
+      <c r="AA27" s="137">
         <v>19.809999999999999</v>
       </c>
     </row>
@@ -13170,446 +13311,442 @@
         <f>F28/1000</f>
         <v>2.3370000000000002E-2</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="39">
         <v>23.37</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="95">
         <f t="shared" si="1"/>
         <v>2.3370000000000002E-5</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="96">
         <f t="shared" si="15"/>
         <v>0.10165734657138703</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="97">
         <f t="shared" si="0"/>
         <v>0.12945427904682183</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="98">
         <f t="shared" si="2"/>
         <v>-5.7733979208325374</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="96">
         <f t="shared" si="3"/>
         <v>-5.032306424839812E-3</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="100">
         <f t="shared" si="14"/>
         <v>0.99981361700950644</v>
       </c>
-      <c r="N28" s="35">
+      <c r="N28" s="101">
         <f t="shared" si="5"/>
         <v>-5.5532706672704455</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="97">
         <f t="shared" si="6"/>
         <v>-5.0338497589506315E-3</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="103">
         <f t="shared" si="8"/>
         <v>0.99981134984436237</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="96">
         <f t="shared" si="9"/>
         <v>1.6652859583015391E-6</v>
       </c>
-      <c r="S28" s="31">
+      <c r="S28" s="97">
         <f t="shared" si="10"/>
         <v>2.7644805932304308E-6</v>
       </c>
-      <c r="T28" s="38">
+      <c r="T28" s="105">
         <f t="shared" si="11"/>
         <v>3.3802201988097691E-4</v>
       </c>
-      <c r="U28" s="62">
+      <c r="U28" s="104">
         <f t="shared" si="12"/>
         <v>4.0023945736018736E-4</v>
       </c>
-      <c r="V28" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="X28" s="73">
+      <c r="V28" s="113"/>
+      <c r="X28" s="128">
         <v>3.3802201988097702E-4</v>
       </c>
-      <c r="Y28" s="74">
+      <c r="Y28" s="129">
         <v>4.0023945736018698E-4</v>
       </c>
-      <c r="Z28" s="91" t="s">
-        <v>43</v>
-      </c>
-      <c r="AA28" s="28">
+      <c r="Z28" s="113"/>
+      <c r="AA28" s="108">
         <v>23.37</v>
       </c>
     </row>
     <row r="29" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <v>27.58</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="95">
         <f t="shared" si="1"/>
         <v>2.7579999999999997E-5</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="96">
         <f t="shared" si="15"/>
         <v>0.16708806054847808</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="97">
         <f t="shared" si="0"/>
         <v>0.21277620501776012</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="98">
         <f t="shared" si="2"/>
         <v>-5.3227924696353872</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="96">
         <f t="shared" si="3"/>
         <v>-5.0354791586687949E-3</v>
       </c>
-      <c r="L29" s="16">
+      <c r="L29" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="100">
         <f t="shared" si="14"/>
         <v>0.99980837919421117</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="101">
         <f t="shared" si="5"/>
         <v>-5.1063554812709944</v>
       </c>
-      <c r="O29" s="43">
+      <c r="O29" s="97">
         <f t="shared" si="6"/>
         <v>-5.0370225806409792E-3</v>
       </c>
-      <c r="P29" s="17">
+      <c r="P29" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="47">
+      <c r="Q29" s="103">
         <f t="shared" si="8"/>
         <v>0.9998048884086832</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="96">
         <f t="shared" si="9"/>
         <v>4.6999022276249013E-6</v>
       </c>
-      <c r="S29" s="43">
+      <c r="S29" s="97">
         <f t="shared" si="10"/>
         <v>7.7361120596720988E-6</v>
       </c>
-      <c r="T29" s="22">
+      <c r="T29" s="105">
         <f t="shared" si="11"/>
         <v>4.7768872833639395E-4</v>
       </c>
-      <c r="U29" s="63">
+      <c r="U29" s="104">
         <f t="shared" si="12"/>
         <v>5.640136783750916E-4</v>
       </c>
-      <c r="V29" s="89"/>
-      <c r="X29" s="75">
+      <c r="V29" s="113"/>
+      <c r="X29" s="128">
         <v>4.7768872833639395E-4</v>
       </c>
-      <c r="Y29" s="76">
+      <c r="Y29" s="129">
         <v>5.640136783750916E-4</v>
       </c>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="40">
+      <c r="Z29" s="113"/>
+      <c r="AA29" s="108">
         <v>27.58</v>
       </c>
     </row>
     <row r="30" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <v>32.549999999999997</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="95">
         <f t="shared" si="1"/>
         <v>3.2549999999999998E-5</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="96">
         <f t="shared" si="15"/>
         <v>0.27467277250279393</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="97">
         <f t="shared" si="0"/>
         <v>0.34977861352274464</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="98">
         <f t="shared" si="2"/>
         <v>-4.8797600290365946</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="96">
         <f t="shared" si="3"/>
         <v>-5.0386530298011881E-3</v>
       </c>
-      <c r="L30" s="16">
+      <c r="L30" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="100">
         <f t="shared" si="14"/>
         <v>0.99980031155198945</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="101">
         <f t="shared" si="5"/>
         <v>-4.6672307701987803</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="97">
         <f t="shared" si="6"/>
         <v>-5.040196587100294E-3</v>
       </c>
-      <c r="P30" s="17">
+      <c r="P30" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="103">
         <f t="shared" si="8"/>
         <v>0.99979493610667225</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="96">
         <f t="shared" si="9"/>
         <v>1.3035106556181791E-5</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="97">
         <f t="shared" si="10"/>
         <v>2.1263755306385784E-5</v>
       </c>
-      <c r="T30" s="22">
+      <c r="T30" s="105">
         <f t="shared" si="11"/>
         <v>6.7115100953837078E-4</v>
       </c>
-      <c r="U30" s="63">
+      <c r="U30" s="104">
         <f t="shared" si="12"/>
         <v>7.9006357794236478E-4</v>
       </c>
-      <c r="V30" s="89"/>
-      <c r="X30" s="75">
+      <c r="V30" s="113"/>
+      <c r="X30" s="128">
         <v>6.7115100953837078E-4</v>
       </c>
-      <c r="Y30" s="76">
+      <c r="Y30" s="129">
         <v>7.9006357794236478E-4</v>
       </c>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="40">
+      <c r="Z30" s="113"/>
+      <c r="AA30" s="108">
         <v>32.549999999999997</v>
       </c>
     </row>
     <row r="31" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>38.409999999999997</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="95">
         <f t="shared" si="1"/>
         <v>3.8409999999999993E-5</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="96">
         <f t="shared" si="15"/>
         <v>0.45133140491909929</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="97">
         <f t="shared" si="0"/>
         <v>0.57474234382029687</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="98">
         <f t="shared" si="2"/>
         <v>-4.44525145676592</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="96">
         <f t="shared" si="3"/>
         <v>-5.0418244160389909E-3</v>
       </c>
-      <c r="L31" s="16">
+      <c r="L31" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="100">
         <f t="shared" si="14"/>
         <v>0.99978790174815846</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="101">
         <f t="shared" si="5"/>
         <v>-4.2368284383825232</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="97">
         <f t="shared" si="6"/>
         <v>-5.0433681814930796E-3</v>
       </c>
-      <c r="P31" s="17">
+      <c r="P31" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="47">
+      <c r="Q31" s="103">
         <f t="shared" si="8"/>
         <v>0.99977962738725479</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="96">
         <f t="shared" si="9"/>
         <v>3.5449865841045548E-5</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="97">
         <f t="shared" si="10"/>
         <v>5.7283886592882802E-5</v>
       </c>
-      <c r="T31" s="22">
+      <c r="T31" s="105">
         <f t="shared" si="11"/>
         <v>9.3681445776628018E-4</v>
       </c>
-      <c r="U31" s="63">
+      <c r="U31" s="104">
         <f t="shared" si="12"/>
         <v>1.0993252704586346E-3</v>
       </c>
-      <c r="V31" s="89"/>
-      <c r="X31" s="75">
+      <c r="V31" s="113"/>
+      <c r="X31" s="128">
         <v>9.3681445776628018E-4</v>
       </c>
-      <c r="Y31" s="76">
+      <c r="Y31" s="129">
         <v>1.0993252704586346E-3</v>
       </c>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="40">
+      <c r="Z31" s="113"/>
+      <c r="AA31" s="108">
         <v>38.409999999999997</v>
       </c>
     </row>
     <row r="32" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>45.32</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="95">
         <f t="shared" si="1"/>
         <v>4.532E-5</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="96">
         <f t="shared" si="15"/>
         <v>0.74136543879810102</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="97">
         <f t="shared" si="0"/>
         <v>0.94408256389461842</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="98">
         <f t="shared" si="2"/>
         <v>-4.0195599362608432</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="96">
         <f t="shared" si="3"/>
         <v>-5.0449941772348827E-3</v>
       </c>
-      <c r="L32" s="16">
+      <c r="L32" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="100">
         <f t="shared" si="14"/>
         <v>0.99976881519136396</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="101">
         <f t="shared" si="5"/>
         <v>-3.8154279552192008</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="97">
         <f t="shared" si="6"/>
         <v>-5.0465382628182252E-3</v>
       </c>
-      <c r="P32" s="17">
+      <c r="P32" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q32" s="47">
+      <c r="Q32" s="103">
         <f t="shared" si="8"/>
         <v>0.9997560824808529</v>
       </c>
-      <c r="R32" s="42">
+      <c r="R32" s="96">
         <f t="shared" si="9"/>
         <v>9.4470161036553214E-5</v>
       </c>
-      <c r="S32" s="43">
+      <c r="S32" s="97">
         <f t="shared" si="10"/>
         <v>1.5115397115735916E-4</v>
       </c>
-      <c r="T32" s="22">
+      <c r="T32" s="105">
         <f t="shared" si="11"/>
         <v>1.2988139297590265E-3</v>
       </c>
-      <c r="U32" s="63">
+      <c r="U32" s="104">
         <f t="shared" si="12"/>
         <v>1.5191077279832483E-3</v>
       </c>
-      <c r="V32" s="89"/>
-      <c r="X32" s="75">
+      <c r="V32" s="113"/>
+      <c r="X32" s="115">
         <v>1.2988139297590265E-3</v>
       </c>
-      <c r="Y32" s="76">
+      <c r="Y32" s="110">
         <v>1.5191077279832483E-3</v>
       </c>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="40">
+      <c r="Z32" s="113"/>
+      <c r="AA32" s="137">
         <v>45.32</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F33" s="40">
+      <c r="F33" s="47">
         <v>53.48</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="48">
         <f t="shared" si="1"/>
         <v>5.3479999999999996E-5</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="49">
         <f t="shared" si="15"/>
         <v>1.218251145148298</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="50">
         <f t="shared" si="0"/>
         <v>1.5513667138890992</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="51">
         <f t="shared" si="2"/>
         <v>-3.6024510090041471</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="49">
         <f t="shared" si="3"/>
         <v>-5.048167144217749E-3</v>
       </c>
-      <c r="L33" s="16">
+      <c r="L33" s="80">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M33" s="45">
+      <c r="M33" s="52">
         <f t="shared" si="14"/>
         <v>0.99973941662112087</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="53">
         <f t="shared" si="5"/>
         <v>-3.4027869326110816</v>
       </c>
-      <c r="O33" s="43">
+      <c r="O33" s="50">
         <f t="shared" si="6"/>
         <v>-5.0497117228464217E-3</v>
       </c>
-      <c r="P33" s="17">
+      <c r="P33" s="81">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="47">
+      <c r="Q33" s="54">
         <f t="shared" si="8"/>
         <v>0.99971981740769067</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="49">
         <f t="shared" si="9"/>
         <v>2.4682414380075877E-4</v>
       </c>
-      <c r="S33" s="43">
+      <c r="S33" s="50">
         <f t="shared" si="10"/>
         <v>3.9087838645143459E-4</v>
       </c>
-      <c r="T33" s="22">
+      <c r="T33" s="65">
         <f t="shared" si="11"/>
         <v>1.7888665047406367E-3</v>
       </c>
@@ -13617,547 +13754,551 @@
         <f t="shared" si="12"/>
         <v>2.0851114422061512E-3</v>
       </c>
-      <c r="V33" s="89"/>
-      <c r="X33" s="75">
+      <c r="V33" s="114"/>
+      <c r="X33" s="130">
         <v>1.7888665047406367E-3</v>
       </c>
-      <c r="Y33" s="76">
+      <c r="Y33" s="131">
         <v>2.0851114422061512E-3</v>
       </c>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="40">
+      <c r="Z33" s="114"/>
+      <c r="AA33" s="108">
         <v>53.48</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F34" s="40">
+      <c r="F34" s="27">
         <v>63.11</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="28">
         <f t="shared" si="1"/>
         <v>6.3109999999999997E-5</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="29">
         <f t="shared" si="15"/>
         <v>2.0019681923359887</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="30">
         <f t="shared" si="0"/>
         <v>2.5493814048307053</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="31">
         <f t="shared" si="2"/>
         <v>-3.1945788918665983</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="29">
         <f t="shared" si="3"/>
         <v>-5.0513414828784065E-3</v>
       </c>
-      <c r="L34" s="16">
+      <c r="L34" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="33">
         <f t="shared" si="14"/>
         <v>0.99969416046140958</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="34">
         <f t="shared" si="5"/>
         <v>-2.9995425049554272</v>
       </c>
-      <c r="O34" s="43">
+      <c r="O34" s="30">
         <f t="shared" si="6"/>
         <v>-5.0528868204011484E-3</v>
       </c>
-      <c r="P34" s="17">
+      <c r="P34" s="35">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q34" s="47">
+      <c r="Q34" s="36">
         <f t="shared" si="8"/>
         <v>0.9996639923448295</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="29">
         <f t="shared" si="9"/>
         <v>6.3130164635053388E-4</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="30">
         <f t="shared" si="10"/>
         <v>9.891420332104146E-4</v>
       </c>
-      <c r="T34" s="22">
+      <c r="T34" s="107">
         <f t="shared" si="11"/>
         <v>2.446401268148512E-3</v>
       </c>
-      <c r="U34" s="63">
+      <c r="U34" s="61">
         <f t="shared" si="12"/>
         <v>2.8414167636944148E-3</v>
       </c>
-      <c r="V34" s="89"/>
-      <c r="X34" s="75">
+      <c r="V34" s="82" t="s">
+        <v>47</v>
+      </c>
+      <c r="X34" s="72">
         <v>2.446401268148512E-3</v>
       </c>
-      <c r="Y34" s="76">
+      <c r="Y34" s="120">
         <v>2.8414167636944148E-3</v>
       </c>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="40">
+      <c r="Z34" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA34" s="137">
         <v>63.11</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>74.48</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="95">
         <f t="shared" si="1"/>
         <v>7.4480000000000005E-5</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="96">
         <f>(($C$3-$C$9)*$C$4*G35^3)/($C$9*$C$11^2)</f>
         <v>3.290649576455428</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="97">
         <f t="shared" si="0"/>
         <v>4.1904366273875162</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="98">
         <f t="shared" si="2"/>
         <v>-2.7961049120667472</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="96">
         <f t="shared" si="3"/>
         <v>-5.0545191073038658E-3</v>
       </c>
-      <c r="L35" s="16">
+      <c r="L35" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="100">
         <f t="shared" si="14"/>
         <v>0.99962445983814541</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="101">
         <f t="shared" si="5"/>
         <v>-2.6058438503717234</v>
       </c>
-      <c r="O35" s="43">
+      <c r="O35" s="97">
         <f t="shared" si="6"/>
         <v>-5.056065613389428E-3</v>
       </c>
-      <c r="P35" s="17">
+      <c r="P35" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="47">
+      <c r="Q35" s="103">
         <f t="shared" si="8"/>
         <v>0.9995780174775637</v>
       </c>
-      <c r="R35" s="42">
+      <c r="R35" s="96">
         <f t="shared" si="9"/>
         <v>1.5800740593810746E-3</v>
       </c>
-      <c r="S35" s="43">
+      <c r="S35" s="97">
         <f t="shared" si="10"/>
         <v>2.4485939982331582E-3</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="105">
         <f t="shared" si="11"/>
         <v>3.3215531046029726E-3</v>
       </c>
-      <c r="U35" s="63">
+      <c r="U35" s="104">
         <f t="shared" si="12"/>
         <v>3.8437427395106539E-3</v>
       </c>
-      <c r="V35" s="89"/>
-      <c r="X35" s="75">
+      <c r="V35" s="83"/>
+      <c r="X35" s="128">
         <v>3.3215531046029726E-3</v>
       </c>
-      <c r="Y35" s="76">
+      <c r="Y35" s="129">
         <v>3.8437427395106539E-3</v>
       </c>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="40">
+      <c r="Z35" s="83"/>
+      <c r="AA35" s="108">
         <v>74.48</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F36" s="40">
+      <c r="F36" s="39">
         <v>87.89</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="95">
         <f t="shared" si="1"/>
         <v>8.789E-5</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="96">
         <f t="shared" si="15"/>
         <v>5.4073069822938251</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="97">
         <f t="shared" si="0"/>
         <v>6.8858675795372166</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="98">
         <f t="shared" si="2"/>
         <v>-2.4077419937643243</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="96">
         <f t="shared" si="3"/>
         <v>-5.0576975872675487E-3</v>
       </c>
-      <c r="L36" s="16">
+      <c r="L36" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M36" s="100">
         <f t="shared" si="14"/>
         <v>0.99951723890419752</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="101">
         <f t="shared" si="5"/>
         <v>-2.2223846341033884</v>
       </c>
-      <c r="O36" s="43">
+      <c r="O36" s="97">
         <f t="shared" si="6"/>
         <v>-5.0592458904001256E-3</v>
       </c>
-      <c r="P36" s="17">
+      <c r="P36" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="47">
+      <c r="Q36" s="103">
         <f t="shared" si="8"/>
         <v>0.99944576957790821</v>
       </c>
-      <c r="R36" s="42">
+      <c r="R36" s="96">
         <f t="shared" si="9"/>
         <v>3.8635861231709184E-3</v>
       </c>
-      <c r="S36" s="43">
+      <c r="S36" s="97">
         <f t="shared" si="10"/>
         <v>5.9199134056389388E-3</v>
       </c>
-      <c r="T36" s="22">
+      <c r="T36" s="105">
         <f t="shared" si="11"/>
         <v>4.4748544960825096E-3</v>
       </c>
-      <c r="U36" s="63">
+      <c r="U36" s="104">
         <f t="shared" si="12"/>
         <v>5.1588611284876969E-3</v>
       </c>
-      <c r="V36" s="89"/>
-      <c r="X36" s="75">
+      <c r="V36" s="83"/>
+      <c r="X36" s="128">
         <v>4.4748544960825096E-3</v>
       </c>
-      <c r="Y36" s="76">
+      <c r="Y36" s="129">
         <v>5.1588611284876969E-3</v>
       </c>
-      <c r="Z36" s="92"/>
-      <c r="AA36" s="40">
+      <c r="Z36" s="83"/>
+      <c r="AA36" s="108">
         <v>87.89</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F37" s="40">
+      <c r="F37" s="39">
         <v>103.72</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="95">
         <f t="shared" si="1"/>
         <v>1.0371999999999999E-4</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="96">
         <f t="shared" si="15"/>
         <v>8.8868972072370358</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="97">
         <f t="shared" si="0"/>
         <v>11.316908317277436</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="98">
         <f t="shared" si="2"/>
         <v>-2.0293976949975718</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="96">
         <f t="shared" si="3"/>
         <v>-5.0608812454110506E-3</v>
       </c>
-      <c r="L37" s="16">
+      <c r="L37" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M37" s="45">
+      <c r="M37" s="100">
         <f t="shared" si="14"/>
         <v>0.99935218057029496</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="101">
         <f t="shared" si="5"/>
         <v>-1.8490626221819388</v>
       </c>
-      <c r="O37" s="43">
+      <c r="O37" s="97">
         <f t="shared" si="6"/>
         <v>-5.0624323136296348E-3</v>
       </c>
-      <c r="P37" s="17">
+      <c r="P37" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q37" s="47">
+      <c r="Q37" s="103">
         <f t="shared" si="8"/>
         <v>0.99924220267294483</v>
       </c>
-      <c r="R37" s="42">
+      <c r="R37" s="96">
         <f t="shared" si="9"/>
         <v>9.2312388519635632E-3</v>
       </c>
-      <c r="S37" s="43">
+      <c r="S37" s="97">
         <f t="shared" si="10"/>
         <v>1.3981240731790173E-2</v>
       </c>
-      <c r="T37" s="22">
+      <c r="T37" s="105">
         <f t="shared" si="11"/>
         <v>5.9823072602970774E-3</v>
       </c>
-      <c r="U37" s="63">
+      <c r="U37" s="104">
         <f t="shared" si="12"/>
         <v>6.8701142126075532E-3</v>
       </c>
-      <c r="V37" s="89"/>
-      <c r="X37" s="75">
+      <c r="V37" s="83"/>
+      <c r="X37" s="115">
         <v>5.9823072602970774E-3</v>
       </c>
-      <c r="Y37" s="76">
+      <c r="Y37" s="110">
         <v>6.8701142126075532E-3</v>
       </c>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="40">
+      <c r="Z37" s="83"/>
+      <c r="AA37" s="137">
         <v>103.72</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F38" s="40">
+      <c r="F38" s="39">
         <v>122.39</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="95">
         <f t="shared" si="1"/>
         <v>1.2239E-4</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="96">
         <f t="shared" si="15"/>
         <v>14.601599656367455</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="97">
         <f t="shared" si="0"/>
         <v>18.594224816973593</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="98">
         <f t="shared" si="2"/>
         <v>-1.6616320259336002</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="96">
         <f t="shared" si="3"/>
         <v>-5.0640695287328154E-3</v>
       </c>
-      <c r="L38" s="16">
+      <c r="L38" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="100">
         <f t="shared" si="14"/>
         <v>0.99909837722182115</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="101">
         <f t="shared" si="5"/>
         <v>-1.486419237886393</v>
       </c>
-      <c r="O38" s="43">
+      <c r="O38" s="97">
         <f t="shared" si="6"/>
         <v>-5.0656248455665477E-3</v>
       </c>
-      <c r="P38" s="17">
+      <c r="P38" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q38" s="47">
+      <c r="Q38" s="103">
         <f t="shared" si="8"/>
         <v>0.998929230062503</v>
       </c>
-      <c r="R38" s="42">
+      <c r="R38" s="96">
         <f t="shared" si="9"/>
         <v>2.1523463497472309E-2</v>
       </c>
-      <c r="S38" s="43">
+      <c r="S38" s="97">
         <f t="shared" si="10"/>
         <v>3.2214386033614331E-2</v>
       </c>
-      <c r="T38" s="22">
+      <c r="T38" s="105">
         <f t="shared" si="11"/>
         <v>7.9326709248603178E-3</v>
       </c>
-      <c r="U38" s="63">
+      <c r="U38" s="104">
         <f t="shared" si="12"/>
         <v>9.0739978516363538E-3</v>
       </c>
-      <c r="V38" s="89"/>
-      <c r="X38" s="75">
+      <c r="V38" s="83"/>
+      <c r="X38" s="128">
         <v>7.9326709248603178E-3</v>
       </c>
-      <c r="Y38" s="76">
+      <c r="Y38" s="129">
         <v>9.0739978516363538E-3</v>
       </c>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="40">
+      <c r="Z38" s="83"/>
+      <c r="AA38" s="108">
         <v>122.39</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F39" s="40">
+      <c r="F39" s="39">
         <v>144.43</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="95">
         <f t="shared" si="1"/>
         <v>1.4443E-4</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="96">
         <f t="shared" si="15"/>
         <v>23.995779707717357</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="97">
         <f t="shared" si="0"/>
         <v>30.557126139895114</v>
       </c>
-      <c r="J39" s="44">
+      <c r="J39" s="98">
         <f t="shared" si="2"/>
         <v>-1.3043000566991834</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="96">
         <f t="shared" si="3"/>
         <v>-5.0672688642145964E-3</v>
       </c>
-      <c r="L39" s="16">
+      <c r="L39" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="100">
         <f t="shared" si="14"/>
         <v>0.99870788084657935</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="101">
         <f t="shared" si="5"/>
         <v>-1.1343001859567388</v>
       </c>
-      <c r="O39" s="43">
+      <c r="O39" s="97">
         <f t="shared" si="6"/>
         <v>-5.0688307104402378E-3</v>
       </c>
-      <c r="P39" s="17">
+      <c r="P39" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="47">
+      <c r="Q39" s="103">
         <f t="shared" si="8"/>
         <v>0.9984478006921631</v>
       </c>
-      <c r="R39" s="42">
+      <c r="R39" s="96">
         <f t="shared" si="9"/>
         <v>4.8985906741835145E-2</v>
       </c>
-      <c r="S39" s="43">
+      <c r="S39" s="97">
         <f t="shared" si="10"/>
         <v>7.2436314893644493E-2</v>
       </c>
-      <c r="T39" s="22">
+      <c r="T39" s="105">
         <f t="shared" si="11"/>
         <v>1.0434519051762263E-2</v>
       </c>
-      <c r="U39" s="63">
+      <c r="U39" s="104">
         <f t="shared" si="12"/>
         <v>1.188778207941428E-2</v>
       </c>
-      <c r="V39" s="89"/>
-      <c r="X39" s="75">
+      <c r="V39" s="83"/>
+      <c r="X39" s="128">
         <v>1.0434519051762263E-2</v>
       </c>
-      <c r="Y39" s="76">
+      <c r="Y39" s="129">
         <v>1.188778207941428E-2</v>
       </c>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="40">
+      <c r="Z39" s="83"/>
+      <c r="AA39" s="108">
         <v>144.43</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F40" s="40">
+      <c r="F40" s="39">
         <v>170.44</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="95">
         <f t="shared" si="1"/>
         <v>1.7044E-4</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="96">
         <f t="shared" si="15"/>
         <v>39.434579036756475</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="97">
         <f t="shared" si="0"/>
         <v>50.217472429632487</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="98">
         <f t="shared" si="2"/>
         <v>-0.9577095308956306</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="96">
         <f t="shared" si="3"/>
         <v>-5.0704833844959817E-3</v>
       </c>
-      <c r="L40" s="16">
+      <c r="L40" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="100">
         <f t="shared" si="14"/>
         <v>0.99810753012424036</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="101">
         <f t="shared" si="5"/>
         <v>-0.79299725925593822</v>
       </c>
-      <c r="O40" s="43">
+      <c r="O40" s="97">
         <f t="shared" si="6"/>
         <v>-5.0720552514615883E-3</v>
       </c>
-      <c r="P40" s="17">
+      <c r="P40" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="47">
+      <c r="Q40" s="103">
         <f t="shared" si="8"/>
         <v>0.99770789395747417</v>
       </c>
-      <c r="R40" s="42">
+      <c r="R40" s="96">
         <f t="shared" si="9"/>
         <v>0.10874200036583882</v>
       </c>
-      <c r="S40" s="43">
+      <c r="S40" s="97">
         <f t="shared" si="10"/>
         <v>0.1588305697934522</v>
       </c>
-      <c r="T40" s="22">
+      <c r="T40" s="105">
         <f t="shared" si="11"/>
         <v>1.3611766542267135E-2</v>
       </c>
-      <c r="U40" s="63">
+      <c r="U40" s="104">
         <f t="shared" si="12"/>
         <v>1.5444010344976085E-2</v>
       </c>
-      <c r="V40" s="89"/>
-      <c r="X40" s="75">
+      <c r="V40" s="83"/>
+      <c r="X40" s="128">
         <v>1.3611766542267135E-2</v>
       </c>
-      <c r="Y40" s="76">
+      <c r="Y40" s="129">
         <v>1.5444010344976085E-2</v>
       </c>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="40">
+      <c r="Z40" s="83"/>
+      <c r="AA40" s="108">
         <v>170.44</v>
       </c>
     </row>
@@ -14165,594 +14306,590 @@
       <c r="A41" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="39">
         <v>201.13</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="95">
         <f t="shared" si="1"/>
         <v>2.0112999999999999E-4</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="96">
         <f t="shared" si="15"/>
         <v>64.802713762334434</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="97">
         <f t="shared" si="0"/>
         <v>82.522206936510457</v>
       </c>
-      <c r="J41" s="32">
+      <c r="J41" s="98">
         <f t="shared" si="2"/>
         <v>-0.62205971006773864</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="96">
         <f t="shared" si="3"/>
         <v>-5.0737206211701599E-3</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="100">
         <f t="shared" si="14"/>
         <v>0.99718541841387487</v>
       </c>
-      <c r="N41" s="35">
+      <c r="N41" s="101">
         <f t="shared" si="5"/>
         <v>-0.46269470535868062</v>
       </c>
-      <c r="O41" s="31">
+      <c r="O41" s="97">
         <f t="shared" si="6"/>
         <v>-5.0753078380933138E-3</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="103">
         <f t="shared" si="8"/>
         <v>0.99657200772818033</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="96">
         <f t="shared" si="9"/>
         <v>0.23531114041455969</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="97">
         <f t="shared" si="10"/>
         <v>0.33942097066213106</v>
       </c>
-      <c r="T41" s="38">
+      <c r="T41" s="105">
         <f t="shared" si="11"/>
         <v>1.7606088561399769E-2</v>
       </c>
-      <c r="U41" s="62">
+      <c r="U41" s="104">
         <f t="shared" si="12"/>
         <v>1.9892755414532847E-2</v>
       </c>
-      <c r="V41" s="88" t="s">
-        <v>44</v>
-      </c>
-      <c r="X41" s="67">
+      <c r="V41" s="83"/>
+      <c r="X41" s="116">
         <v>1.7606088561399801E-2</v>
       </c>
-      <c r="Y41" s="68">
+      <c r="Y41" s="111">
         <v>1.9892755414532799E-2</v>
       </c>
-      <c r="Z41" s="91" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA41" s="28">
+      <c r="Z41" s="83"/>
+      <c r="AA41" s="137">
         <v>201.13</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F42" s="40">
+      <c r="F42" s="39">
         <v>237.35</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="95">
         <f t="shared" si="1"/>
         <v>2.3735E-4</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="96">
         <f t="shared" si="15"/>
         <v>106.49527532568401</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="97">
         <f t="shared" si="0"/>
         <v>135.61507902921761</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J42" s="98">
         <f t="shared" si="2"/>
         <v>-0.29739274225782858</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="96">
         <f t="shared" si="3"/>
         <v>-5.0769935584841826E-3</v>
       </c>
-      <c r="L42" s="16">
+      <c r="L42" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="100">
         <f t="shared" si="14"/>
         <v>0.99577044655892555</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="101">
         <f t="shared" si="5"/>
         <v>-0.14342168239242972</v>
       </c>
-      <c r="O42" s="43">
+      <c r="O42" s="97">
         <f t="shared" si="6"/>
         <v>-5.0786042322366132E-3</v>
       </c>
-      <c r="P42" s="17">
+      <c r="P42" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="47">
+      <c r="Q42" s="103">
         <f t="shared" si="8"/>
         <v>0.99483035924374286</v>
       </c>
-      <c r="R42" s="42">
+      <c r="R42" s="96">
         <f t="shared" si="9"/>
         <v>0.49623740479131878</v>
       </c>
-      <c r="S42" s="43">
+      <c r="S42" s="97">
         <f t="shared" si="10"/>
         <v>0.70672221575801508</v>
       </c>
-      <c r="T42" s="22">
+      <c r="T42" s="105">
         <f t="shared" si="11"/>
         <v>2.2577640394208058E-2</v>
       </c>
-      <c r="U42" s="63">
+      <c r="U42" s="104">
         <f t="shared" si="12"/>
         <v>2.5401827769121761E-2</v>
       </c>
-      <c r="V42" s="89"/>
-      <c r="X42" s="69">
+      <c r="V42" s="83"/>
+      <c r="X42" s="132">
         <v>2.2577640394208058E-2</v>
       </c>
-      <c r="Y42" s="70">
+      <c r="Y42" s="133">
         <v>2.5401827769121761E-2</v>
       </c>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="40">
+      <c r="Z42" s="83"/>
+      <c r="AA42" s="108">
         <v>237.35</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F43" s="40">
+      <c r="F43" s="39">
         <v>280.08999999999997</v>
       </c>
-      <c r="G43" s="41">
+      <c r="G43" s="95">
         <f t="shared" si="1"/>
         <v>2.8008999999999998E-4</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="96">
         <f t="shared" si="15"/>
         <v>175.00700930888829</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="97">
         <f t="shared" si="0"/>
         <v>222.86049146790603</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="98">
         <f t="shared" si="2"/>
         <v>1.6153330292586823E-2</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="96">
         <f t="shared" si="3"/>
         <v>-5.0803203206637613E-3</v>
       </c>
-      <c r="L43" s="16">
+      <c r="L43" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="100">
         <f t="shared" si="14"/>
         <v>0.99360340517183265</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="101">
         <f t="shared" si="5"/>
         <v>0.16469875961089339</v>
       </c>
-      <c r="O43" s="43">
+      <c r="O43" s="97">
         <f t="shared" si="6"/>
         <v>-5.0819666901397035E-3</v>
       </c>
-      <c r="P43" s="17">
+      <c r="P43" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="47">
+      <c r="Q43" s="103">
         <f t="shared" si="8"/>
         <v>0.99216619360742264</v>
       </c>
-      <c r="R43" s="42">
+      <c r="R43" s="96">
         <f t="shared" si="9"/>
         <v>1.0192625819801655</v>
       </c>
-      <c r="S43" s="43">
+      <c r="S43" s="97">
         <f t="shared" si="10"/>
         <v>1.4328516166261867</v>
       </c>
-      <c r="T43" s="22">
+      <c r="T43" s="105">
         <f t="shared" si="11"/>
         <v>2.8699703694252371E-2</v>
       </c>
-      <c r="U43" s="63">
+      <c r="U43" s="104">
         <f t="shared" si="12"/>
         <v>3.2150109658340281E-2</v>
       </c>
-      <c r="V43" s="89"/>
-      <c r="X43" s="69">
+      <c r="V43" s="83"/>
+      <c r="X43" s="116">
         <v>2.8699703694252371E-2</v>
       </c>
-      <c r="Y43" s="70">
+      <c r="Y43" s="111">
         <v>3.2150109658340281E-2</v>
       </c>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="40">
+      <c r="Z43" s="83"/>
+      <c r="AA43" s="137">
         <v>280.08999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F44" s="40">
+      <c r="F44" s="39">
         <v>330.52</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="95">
         <f t="shared" si="1"/>
         <v>3.3051999999999995E-4</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="96">
         <f t="shared" si="15"/>
         <v>287.57813623849836</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="97">
         <f t="shared" si="0"/>
         <v>366.21278787992628</v>
       </c>
-      <c r="J44" s="44">
+      <c r="J44" s="98">
         <f t="shared" si="2"/>
         <v>0.31850472858852219</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="96">
         <f t="shared" si="3"/>
         <v>-5.0837287466916356E-3</v>
       </c>
-      <c r="L44" s="16">
+      <c r="L44" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="100">
         <f t="shared" si="14"/>
         <v>0.99029400169885529</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="101">
         <f t="shared" si="5"/>
         <v>0.46160732932345383</v>
       </c>
-      <c r="O44" s="43">
+      <c r="O44" s="97">
         <f t="shared" si="6"/>
         <v>-5.0854290964561623E-3</v>
       </c>
-      <c r="P44" s="17">
+      <c r="P44" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q44" s="47">
+      <c r="Q44" s="103">
         <f t="shared" si="8"/>
         <v>0.98810502191697325</v>
       </c>
-      <c r="R44" s="42">
+      <c r="R44" s="96">
         <f t="shared" si="9"/>
         <v>2.0379106942263467</v>
       </c>
-      <c r="S44" s="43">
+      <c r="S44" s="97">
         <f t="shared" si="10"/>
         <v>2.8269947813060363</v>
       </c>
-      <c r="T44" s="22">
+      <c r="T44" s="105">
         <f t="shared" si="11"/>
         <v>3.6155727290167847E-2</v>
       </c>
-      <c r="U44" s="63">
+      <c r="U44" s="104">
         <f t="shared" si="12"/>
         <v>4.0323391724231661E-2</v>
       </c>
-      <c r="V44" s="89"/>
-      <c r="X44" s="69">
+      <c r="V44" s="83"/>
+      <c r="X44" s="132">
         <v>3.6155727290167847E-2</v>
       </c>
-      <c r="Y44" s="70">
+      <c r="Y44" s="133">
         <v>4.0323391724231661E-2</v>
       </c>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="40">
+      <c r="Z44" s="83"/>
+      <c r="AA44" s="108">
         <v>330.52</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F45" s="40">
+      <c r="F45" s="39">
         <v>390.04</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="95">
         <f t="shared" si="1"/>
         <v>3.9004000000000003E-4</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="96">
         <f t="shared" si="15"/>
         <v>472.5960373517471</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="97">
         <f t="shared" si="0"/>
         <v>601.82152455448011</v>
       </c>
-      <c r="J45" s="44">
+      <c r="J45" s="98">
         <f t="shared" si="2"/>
         <v>0.60971355350193235</v>
       </c>
-      <c r="K45" s="42">
+      <c r="K45" s="96">
         <f t="shared" si="3"/>
         <v>-5.0872615180391628E-3</v>
       </c>
-      <c r="L45" s="16">
+      <c r="L45" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="100">
         <f t="shared" si="14"/>
         <v>0.98525979359254012</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="101">
         <f t="shared" si="5"/>
         <v>0.74736881523089904</v>
       </c>
-      <c r="O45" s="43">
+      <c r="O45" s="97">
         <f t="shared" si="6"/>
         <v>-5.0890427518031694E-3</v>
       </c>
-      <c r="P45" s="17">
+      <c r="P45" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="47">
+      <c r="Q45" s="103">
         <f t="shared" si="8"/>
         <v>0.98194436521791539</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="96">
         <f t="shared" si="9"/>
         <v>3.964396211851823</v>
       </c>
-      <c r="S45" s="43">
+      <c r="S45" s="97">
         <f t="shared" si="10"/>
         <v>5.4245866997395291</v>
       </c>
-      <c r="T45" s="22">
+      <c r="T45" s="105">
         <f t="shared" si="11"/>
         <v>4.5134406571575331E-2</v>
       </c>
-      <c r="U45" s="63">
+      <c r="U45" s="104">
         <f t="shared" si="12"/>
         <v>5.010767718220193E-2</v>
       </c>
-      <c r="V45" s="89"/>
-      <c r="X45" s="69">
+      <c r="V45" s="83"/>
+      <c r="X45" s="132">
         <v>4.5134406571575331E-2</v>
       </c>
-      <c r="Y45" s="70">
+      <c r="Y45" s="133">
         <v>5.010767718220193E-2</v>
       </c>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="40">
+      <c r="Z45" s="83"/>
+      <c r="AA45" s="108">
         <v>390.04</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F46" s="40">
+      <c r="F46" s="39">
         <v>460.27</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="95">
         <f>F46*0.000001</f>
         <v>4.6026999999999998E-4</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="96">
         <f t="shared" si="15"/>
         <v>776.60581689290984</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="97">
         <f t="shared" si="0"/>
         <v>988.95898348911669</v>
       </c>
-      <c r="J46" s="44">
+      <c r="J46" s="98">
         <f t="shared" si="2"/>
         <v>0.88970143866050433</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="96">
         <f t="shared" si="3"/>
         <v>-5.0909786977164605E-3</v>
       </c>
-      <c r="L46" s="16">
+      <c r="L46" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="100">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H46)-4.6)))^L46</f>
         <v>0.97765254159064829</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="101">
         <f t="shared" si="5"/>
         <v>1.0219204636120567</v>
       </c>
-      <c r="O46" s="43">
+      <c r="O46" s="97">
         <f t="shared" si="6"/>
         <v>-5.0928793553075757E-3</v>
       </c>
-      <c r="P46" s="17">
+      <c r="P46" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="47">
+      <c r="Q46" s="103">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(I46)-4.6)))^P46</f>
         <v>0.97267393134013647</v>
       </c>
-      <c r="R46" s="42">
+      <c r="R46" s="96">
         <f t="shared" si="9"/>
         <v>7.4954030930103857</v>
       </c>
-      <c r="S46" s="43">
+      <c r="S46" s="97">
         <f t="shared" si="10"/>
         <v>10.111017469510898</v>
       </c>
-      <c r="T46" s="65">
+      <c r="T46" s="105">
         <f t="shared" si="11"/>
         <v>5.5810217765736178E-2</v>
       </c>
-      <c r="U46" s="63">
+      <c r="U46" s="104">
         <f t="shared" si="12"/>
         <v>6.1666174302810024E-2</v>
       </c>
-      <c r="V46" s="89"/>
-      <c r="X46" s="69">
+      <c r="V46" s="83"/>
+      <c r="X46" s="132">
         <v>5.5810217765736178E-2</v>
       </c>
-      <c r="Y46" s="70">
+      <c r="Y46" s="133">
         <v>6.1666174302810024E-2</v>
       </c>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="40">
+      <c r="Z46" s="83"/>
+      <c r="AA46" s="108">
         <v>460.27</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F47" s="40">
+      <c r="F47" s="39">
         <v>500</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="95">
         <f t="shared" ref="G47:G50" si="16">F47*0.000001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="96">
         <f t="shared" si="15"/>
         <v>995.5719352354572</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="97">
         <f t="shared" si="0"/>
         <v>1267.7986536334677</v>
       </c>
-      <c r="J47" s="44">
+      <c r="J47" s="98">
         <f t="shared" si="2"/>
         <v>1.0255285151092788</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="96">
         <f t="shared" si="3"/>
         <v>-5.0929327784093818E-3</v>
       </c>
-      <c r="L47" s="16">
+      <c r="L47" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M47" s="45">
-        <f t="shared" ref="M47:M50" si="17">(0.65-(($C$5/2.83)*TANH(LOG10(H47)-4.6)))^L47</f>
+      <c r="M47" s="100">
+        <f t="shared" ref="M47" si="17">(0.65-(($C$5/2.83)*TANH(LOG10(H47)-4.6)))^L47</f>
         <v>0.97252246538758746</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="101">
         <f t="shared" si="5"/>
         <v>1.1550373669278229</v>
       </c>
-      <c r="O47" s="43">
+      <c r="O47" s="97">
         <f t="shared" si="6"/>
         <v>-5.0949120794334694E-3</v>
       </c>
-      <c r="P47" s="17">
+      <c r="P47" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="47">
+      <c r="Q47" s="103">
         <f t="shared" ref="Q47:Q50" si="18">(0.65-(($C$5/2.83)*TANH(LOG10(I47)-4.6)))^P47</f>
         <v>0.966448610280638</v>
       </c>
-      <c r="R47" s="42">
+      <c r="R47" s="96">
         <f t="shared" si="9"/>
         <v>10.193779253533988</v>
       </c>
-      <c r="S47" s="43">
+      <c r="S47" s="97">
         <f t="shared" si="10"/>
         <v>13.649640736870976</v>
       </c>
-      <c r="T47" s="65">
+      <c r="T47" s="105">
         <f t="shared" si="11"/>
         <v>6.1833969507105138E-2</v>
       </c>
-      <c r="U47" s="63">
+      <c r="U47" s="104">
         <f t="shared" si="12"/>
         <v>6.8153651021235329E-2</v>
       </c>
-      <c r="V47" s="89"/>
-      <c r="X47" s="69">
+      <c r="V47" s="83"/>
+      <c r="X47" s="116">
         <v>6.1833969507105138E-2</v>
       </c>
-      <c r="Y47" s="70">
+      <c r="Y47" s="111">
         <v>6.8153651021235329E-2</v>
       </c>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="40">
+      <c r="Z47" s="83"/>
+      <c r="AA47" s="137">
         <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F48" s="40">
+      <c r="F48" s="47">
         <v>700</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G48" s="48">
         <f t="shared" si="16"/>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="49">
         <f t="shared" si="15"/>
         <v>2731.8493902860937</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="50">
         <f t="shared" si="0"/>
         <v>3478.8395055702345</v>
       </c>
-      <c r="J48" s="44">
+      <c r="J48" s="51">
         <f t="shared" si="2"/>
         <v>1.5489611268405998</v>
       </c>
-      <c r="K48" s="42">
+      <c r="K48" s="49">
         <f t="shared" si="3"/>
         <v>-5.1018830562647183E-3</v>
       </c>
-      <c r="L48" s="16">
+      <c r="L48" s="80">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M48" s="45">
-        <f t="shared" si="17"/>
+      <c r="M48" s="52">
+        <f>(0.65-(($C$5/2.83)*TANH(LOG10(H48)-4.6)))^L48</f>
         <v>0.93762167345962177</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="53">
         <f t="shared" si="5"/>
         <v>1.6675563367886639</v>
       </c>
-      <c r="O48" s="43">
+      <c r="O48" s="50">
         <f t="shared" si="6"/>
         <v>-5.1043575596395069E-3</v>
       </c>
-      <c r="P48" s="17">
+      <c r="P48" s="81">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q48" s="47">
+      <c r="Q48" s="54">
         <f t="shared" si="18"/>
         <v>0.92465127522114177</v>
       </c>
-      <c r="R48" s="42">
+      <c r="R48" s="49">
         <f t="shared" si="9"/>
         <v>32.800984686965492</v>
       </c>
-      <c r="S48" s="43">
+      <c r="S48" s="50">
         <f t="shared" si="10"/>
         <v>42.504014609887193</v>
       </c>
@@ -14764,190 +14901,267 @@
         <f t="shared" si="12"/>
         <v>9.9523437955351138E-2</v>
       </c>
-      <c r="V48" s="89"/>
-      <c r="X48" s="69">
-        <v>9.128743681273252E-2</v>
-      </c>
-      <c r="Y48" s="70">
+      <c r="V48" s="84"/>
+      <c r="X48" s="121">
+        <v>9.1287436812732506E-2</v>
+      </c>
+      <c r="Y48" s="122">
         <v>9.9523437955351138E-2</v>
       </c>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="40">
+      <c r="Z48" s="84"/>
+      <c r="AA48" s="137">
         <v>700</v>
       </c>
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F49" s="40">
-        <v>1000</v>
-      </c>
-      <c r="G49" s="41">
+      <c r="F49" s="106">
+        <v>850</v>
+      </c>
+      <c r="G49" s="28">
         <f t="shared" si="16"/>
-        <v>1E-3</v>
-      </c>
-      <c r="H49" s="42">
+        <v>8.4999999999999995E-4</v>
+      </c>
+      <c r="H49" s="29">
         <f t="shared" si="15"/>
-        <v>7964.5754818836576</v>
-      </c>
-      <c r="I49" s="43">
+        <v>4891.2449178118004</v>
+      </c>
+      <c r="I49" s="30">
         <f t="shared" si="0"/>
-        <v>10142.389229067741</v>
-      </c>
-      <c r="J49" s="44">
+        <v>6228.6947853012261</v>
+      </c>
+      <c r="J49" s="31">
         <f t="shared" si="2"/>
-        <v>2.0544753860698988</v>
-      </c>
-      <c r="K49" s="42">
+        <v>1.8303580841949059</v>
+      </c>
+      <c r="K49" s="29">
         <f t="shared" si="3"/>
-        <v>-5.1142042608855187E-3</v>
-      </c>
-      <c r="L49" s="16">
+        <v>-5.108133097673038E-3</v>
+      </c>
+      <c r="L49" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M49" s="45">
-        <f t="shared" si="17"/>
-        <v>0.86116360309606788</v>
-      </c>
-      <c r="N49" s="46">
+      <c r="M49" s="33">
+        <f>(0.65-(($C$5/2.83)*TANH(LOG10(H49)-4.6)))^L49</f>
+        <v>0.90236632308851772</v>
+      </c>
+      <c r="N49" s="34">
         <f t="shared" si="5"/>
-        <v>2.1617772259948014</v>
-      </c>
-      <c r="O49" s="43">
+        <v>1.9427618705252185</v>
+      </c>
+      <c r="O49" s="30">
         <f t="shared" si="6"/>
-        <v>-5.1175299523507703E-3</v>
-      </c>
-      <c r="P49" s="17">
+        <v>-5.1110390507153672E-3</v>
+      </c>
+      <c r="P49" s="35">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q49" s="47">
+      <c r="Q49" s="36">
         <f t="shared" si="18"/>
-        <v>0.83633894897489802</v>
-      </c>
-      <c r="R49" s="42">
+        <v>0.88338724731233742</v>
+      </c>
+      <c r="R49" s="29">
         <f t="shared" si="9"/>
-        <v>96.482122295880757</v>
-      </c>
-      <c r="S49" s="43">
+        <v>60.343824255963469</v>
+      </c>
+      <c r="S49" s="30">
         <f t="shared" si="10"/>
-        <v>119.96153623901775</v>
-      </c>
-      <c r="T49" s="65">
+        <v>76.524756598079094</v>
+      </c>
+      <c r="T49" s="107">
         <f t="shared" si="11"/>
-        <v>0.13079696553398346</v>
-      </c>
-      <c r="U49" s="63">
+        <v>0.11185609728816606</v>
+      </c>
+      <c r="U49" s="61">
         <f t="shared" si="12"/>
-        <v>0.14064664992895701</v>
-      </c>
-      <c r="V49" s="89"/>
-      <c r="X49" s="69">
-        <v>0.13079696553398346</v>
-      </c>
-      <c r="Y49" s="70">
-        <v>0.14064664992895701</v>
-      </c>
-      <c r="Z49" s="92"/>
-      <c r="AA49" s="40">
-        <v>1000</v>
+        <v>0.12107357647679248</v>
+      </c>
+      <c r="V49" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="X49" s="66">
+        <v>0.11185609728816606</v>
+      </c>
+      <c r="Y49" s="123">
+        <v>0.12107357647679248</v>
+      </c>
+      <c r="Z49" s="134" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA49" s="135">
+        <v>850</v>
       </c>
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F50" s="48">
-        <v>2000</v>
-      </c>
-      <c r="G50" s="49">
-        <f t="shared" si="16"/>
-        <v>2E-3</v>
-      </c>
-      <c r="H50" s="50">
-        <f t="shared" si="15"/>
-        <v>63716.603855069261</v>
-      </c>
-      <c r="I50" s="51">
-        <f t="shared" si="0"/>
-        <v>81139.113832541931</v>
-      </c>
-      <c r="J50" s="52">
-        <f t="shared" si="2"/>
-        <v>2.897712933609967</v>
-      </c>
-      <c r="K50" s="50">
-        <f t="shared" si="3"/>
-        <v>-5.1477025826376435E-3</v>
-      </c>
-      <c r="L50" s="27">
+      <c r="F50" s="39">
+        <v>1000</v>
+      </c>
+      <c r="G50" s="95">
+        <f>F50*0.000001</f>
+        <v>1E-3</v>
+      </c>
+      <c r="H50" s="96">
+        <f>(($C$3-$C$9)*$C$4*G50^3)/($C$9*$C$11^2)</f>
+        <v>7964.5754818836576</v>
+      </c>
+      <c r="I50" s="97">
+        <f>(($C$3-$C$14)*$C$4*G50^3)/($C$14*$C$16^2)</f>
+        <v>10142.389229067741</v>
+      </c>
+      <c r="J50" s="98">
+        <f>-3.76715+1.92944*LOG10(H50)-0.09815*(LOG10(H50))^2-0.00575*(LOG10(H50))^3+0.00056*(LOG10(H50))^4</f>
+        <v>2.0544753860698988</v>
+      </c>
+      <c r="K50" s="96">
+        <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H50)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H50)-4.6)</f>
+        <v>-5.1142042608855187E-3</v>
+      </c>
+      <c r="L50" s="99">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M50" s="53">
-        <f t="shared" si="17"/>
-        <v>0.5795250070558986</v>
-      </c>
-      <c r="N50" s="54">
-        <f t="shared" si="5"/>
-        <v>2.9844034079334896</v>
-      </c>
-      <c r="O50" s="51">
-        <f t="shared" si="6"/>
-        <v>-5.1517143820835817E-3</v>
-      </c>
-      <c r="P50" s="10">
+      <c r="M50" s="100">
+        <f>(0.65-(($C$5/2.83)*TANH(LOG10(H50)-4.6)))^L50</f>
+        <v>0.86116360309606788</v>
+      </c>
+      <c r="N50" s="101">
+        <f>-3.76715+1.92944*LOG10(I50)-0.09815*(LOG10(I50))^2-0.00575*(LOG10(I50))^3+0.00056*(LOG10(I50))^4</f>
+        <v>2.1617772259948014</v>
+      </c>
+      <c r="O50" s="97">
+        <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I50)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I50)-4.6)</f>
+        <v>-5.1175299523507703E-3</v>
+      </c>
+      <c r="P50" s="102">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="55">
-        <f t="shared" si="18"/>
-        <v>0.54514512106843449</v>
-      </c>
-      <c r="R50" s="50">
-        <f t="shared" si="9"/>
-        <v>452.51961811811401</v>
-      </c>
-      <c r="S50" s="51">
-        <f t="shared" si="10"/>
-        <v>519.71329059303525</v>
-      </c>
-      <c r="T50" s="66">
-        <f t="shared" si="11"/>
-        <v>0.21894138272331365</v>
-      </c>
-      <c r="U50" s="64">
-        <f t="shared" si="12"/>
-        <v>0.22928201701963311</v>
-      </c>
-      <c r="V50" s="90"/>
-      <c r="X50" s="71">
-        <v>0.21894138272331365</v>
-      </c>
-      <c r="Y50" s="72">
-        <v>0.22928201701963311</v>
-      </c>
-      <c r="Z50" s="93"/>
-      <c r="AA50" s="48">
-        <v>2000</v>
+      <c r="Q50" s="103">
+        <f>(0.65-(($C$5/2.83)*TANH(LOG10(I50)-4.6)))^P50</f>
+        <v>0.83633894897489802</v>
+      </c>
+      <c r="R50" s="96">
+        <f>M50*10^(J50+K50)</f>
+        <v>96.482122295880757</v>
+      </c>
+      <c r="S50" s="97">
+        <f>Q50*10^(N50+O50)</f>
+        <v>119.96153623901775</v>
+      </c>
+      <c r="T50" s="105">
+        <f>((R50*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
+        <v>0.13079696553398346</v>
+      </c>
+      <c r="U50" s="104">
+        <f>((S50*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
+        <v>0.14064664992895701</v>
+      </c>
+      <c r="V50" s="113"/>
+      <c r="X50" s="116">
+        <v>0.13079696553398346</v>
+      </c>
+      <c r="Y50" s="111">
+        <v>0.14064664992895701</v>
+      </c>
+      <c r="Z50" s="136"/>
+      <c r="AA50" s="137">
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F51" s="1"/>
+      <c r="F51" s="47">
+        <v>2000</v>
+      </c>
+      <c r="G51" s="48">
+        <f>F51*0.000001</f>
+        <v>2E-3</v>
+      </c>
+      <c r="H51" s="49">
+        <f>(($C$3-$C$9)*$C$4*G51^3)/($C$9*$C$11^2)</f>
+        <v>63716.603855069261</v>
+      </c>
+      <c r="I51" s="50">
+        <f>(($C$3-$C$14)*$C$4*G51^3)/($C$14*$C$16^2)</f>
+        <v>81139.113832541931</v>
+      </c>
+      <c r="J51" s="51">
+        <f>-3.76715+1.92944*LOG10(H51)-0.09815*(LOG10(H51))^2-0.00575*(LOG10(H51))^3+0.00056*(LOG10(H51))^4</f>
+        <v>2.897712933609967</v>
+      </c>
+      <c r="K51" s="49">
+        <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H51)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H51)-4.6)</f>
+        <v>-5.1477025826376435E-3</v>
+      </c>
+      <c r="L51" s="80">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="M51" s="52">
+        <f>(0.65-(($C$5/2.83)*TANH(LOG10(H51)-4.6)))^L51</f>
+        <v>0.5795250070558986</v>
+      </c>
+      <c r="N51" s="53">
+        <f>-3.76715+1.92944*LOG10(I51)-0.09815*(LOG10(I51))^2-0.00575*(LOG10(I51))^3+0.00056*(LOG10(I51))^4</f>
+        <v>2.9844034079334896</v>
+      </c>
+      <c r="O51" s="50">
+        <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I51)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I51)-4.6)</f>
+        <v>-5.1517143820835817E-3</v>
+      </c>
+      <c r="P51" s="81">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="Q51" s="54">
+        <f>(0.65-(($C$5/2.83)*TANH(LOG10(I51)-4.6)))^P51</f>
+        <v>0.54514512106843449</v>
+      </c>
+      <c r="R51" s="49">
+        <f>M51*10^(J51+K51)</f>
+        <v>452.51961811811401</v>
+      </c>
+      <c r="S51" s="50">
+        <f>Q51*10^(N51+O51)</f>
+        <v>519.71329059303525</v>
+      </c>
+      <c r="T51" s="65">
+        <f>((R51*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
+        <v>0.21894138272331365</v>
+      </c>
+      <c r="U51" s="63">
+        <f>((S51*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
+        <v>0.22928201701963311</v>
+      </c>
+      <c r="V51" s="114"/>
+      <c r="X51" s="121">
+        <v>0.21894138272331365</v>
+      </c>
+      <c r="Y51" s="122">
+        <v>0.22928201701963311</v>
+      </c>
+      <c r="Z51" s="138"/>
+      <c r="AA51" s="137">
+        <v>2000</v>
+      </c>
     </row>
     <row r="52" spans="6:27" x14ac:dyDescent="0.25">
       <c r="F52" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="V41:V50"/>
-    <mergeCell ref="Z41:Z50"/>
-    <mergeCell ref="V14:V27"/>
-    <mergeCell ref="V28:V40"/>
-    <mergeCell ref="Z3:Z13"/>
-    <mergeCell ref="Z14:Z27"/>
-    <mergeCell ref="Z28:Z40"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="Z3:Z13"/>
+    <mergeCell ref="V49:V51"/>
+    <mergeCell ref="V34:V48"/>
+    <mergeCell ref="V14:V33"/>
     <mergeCell ref="V3:V13"/>
+    <mergeCell ref="Z14:Z33"/>
+    <mergeCell ref="Z49:Z51"/>
+    <mergeCell ref="Z34:Z48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14984,28 +15198,28 @@
       <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="80" t="s">
+      <c r="I1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="83" t="s">
+      <c r="J1" s="93" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="84" t="s">
+      <c r="K1" s="93"/>
+      <c r="L1" s="93"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="84"/>
-      <c r="P1" s="84"/>
-      <c r="Q1" s="84"/>
-      <c r="R1" s="79" t="s">
+      <c r="O1" s="94"/>
+      <c r="P1" s="94"/>
+      <c r="Q1" s="94"/>
+      <c r="R1" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="S1" s="80" t="s">
+      <c r="S1" s="79" t="s">
         <v>22</v>
       </c>
       <c r="T1" s="18" t="s">
@@ -15022,50 +15236,50 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="78"/>
-      <c r="B2" s="78"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
       <c r="C2" s="11"/>
-      <c r="D2" s="78"/>
+      <c r="D2" s="77"/>
       <c r="F2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>1</v>
-      </c>
-      <c r="J2" s="79" t="s">
+      <c r="H2" s="78" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="79" t="s">
+        <v>1</v>
+      </c>
+      <c r="J2" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="L2" s="79" t="s">
+      <c r="L2" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="79" t="s">
+      <c r="M2" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="80" t="s">
+      <c r="N2" s="79" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="80" t="s">
+      <c r="O2" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="P2" s="80" t="s">
+      <c r="P2" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="Q2" s="80" t="s">
+      <c r="Q2" s="79" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="79" t="s">
+      <c r="R2" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="S2" s="80" t="s">
+      <c r="S2" s="79" t="s">
         <v>37</v>
       </c>
       <c r="T2" s="20" t="s">
@@ -15101,81 +15315,81 @@
         <f>F3/1000</f>
         <v>3.6999999999999999E-4</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>0.37</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3" s="28">
         <f>F3*0.000001</f>
         <v>3.7E-7</v>
       </c>
-      <c r="H3" s="30">
+      <c r="H3" s="29">
         <f>(($C$3-$C$9)*$C$4*(G3^3))/($C$9*($C$11^2))</f>
         <v>8.1662501792821518E-7</v>
       </c>
-      <c r="I3" s="31">
+      <c r="I3" s="30">
         <f t="shared" ref="I3:I50" si="0">(($C$3-$C$14)*$C$4*G3^3)/($C$14*$C$16^2)</f>
         <v>8.1662501792821518E-7</v>
       </c>
-      <c r="J3" s="32">
+      <c r="J3" s="31">
         <f>-3.76715+1.92944*LOG10(H3)-0.09815*(LOG10(H3))^2-0.00575*(LOG10(H3))^3+0.00056*(LOG10(H3))^4</f>
         <v>-17.084605042714831</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3" s="29">
         <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H3)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H3)-4.6)</f>
         <v>-4.9574075215288822E-3</v>
       </c>
-      <c r="L3" s="33">
-        <v>1</v>
-      </c>
-      <c r="M3" s="34">
+      <c r="L3" s="32">
+        <v>1</v>
+      </c>
+      <c r="M3" s="33">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H3)-4.6)))^L3</f>
         <v>0.99982332119050354</v>
       </c>
-      <c r="N3" s="35">
+      <c r="N3" s="34">
         <f>-3.76715+1.92944*LOG10(I3)-0.09815*(LOG10(I3))^2-0.00575*(LOG10(I3))^3+0.00056*(LOG10(I3))^4</f>
         <v>-17.084605042714831</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="30">
         <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I3)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I3)-4.6)</f>
         <v>-4.9574075215288822E-3</v>
       </c>
-      <c r="P3" s="36">
+      <c r="P3" s="35">
         <f>(1+((3.5-$C$6)/2.5))</f>
         <v>1</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="36">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(I3)-4.6)))^P3</f>
         <v>0.99982332119050354</v>
       </c>
-      <c r="R3" s="30">
+      <c r="R3" s="29">
         <f>M3*10^(J3+K3)</f>
         <v>8.1350609728485968E-18</v>
       </c>
-      <c r="S3" s="31">
+      <c r="S3" s="30">
         <f>Q3*10^(N3+O3)</f>
         <v>8.1350609728485968E-18</v>
       </c>
-      <c r="T3" s="38">
+      <c r="T3" s="37">
         <f>((R3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.0908913510068859E-8</v>
       </c>
-      <c r="U3" s="39">
+      <c r="U3" s="38">
         <f>((S3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.0908913510068859E-8</v>
       </c>
-      <c r="V3" s="85" t="s">
+      <c r="V3" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="56">
+      <c r="X3" s="55">
         <v>5.0908913510068859E-8</v>
       </c>
-      <c r="Y3" s="57">
+      <c r="Y3" s="56">
         <v>5.0908913510068859E-8</v>
       </c>
-      <c r="Z3" s="85" t="s">
+      <c r="Z3" s="88" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="28">
+      <c r="AA3" s="27">
         <v>0.37</v>
       </c>
     </row>
@@ -15192,58 +15406,58 @@
       <c r="D4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="39">
         <v>0.44</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="40">
         <f t="shared" ref="G4:G45" si="1">F4*0.000001</f>
         <v>4.3999999999999997E-7</v>
       </c>
-      <c r="H4" s="42">
+      <c r="H4" s="41">
         <f>(($C$3-$C$9)*$C$4*(G4^3))/($C$9*($C$11^2))</f>
         <v>1.3733319946932476E-6</v>
       </c>
-      <c r="I4" s="43">
+      <c r="I4" s="42">
         <f t="shared" si="0"/>
         <v>1.3733319946932476E-6</v>
       </c>
-      <c r="J4" s="44">
+      <c r="J4" s="43">
         <f t="shared" ref="J4:J50" si="2">-3.76715+1.92944*LOG10(H4)-0.09815*(LOG10(H4))^2-0.00575*(LOG10(H4))^3+0.00056*(LOG10(H4))^4</f>
         <v>-16.631200619051462</v>
       </c>
-      <c r="K4" s="42">
+      <c r="K4" s="41">
         <f t="shared" ref="K4:K50" si="3">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H4)-4.6)</f>
         <v>-4.9607260885454951E-3</v>
       </c>
-      <c r="L4" s="79">
+      <c r="L4" s="78">
         <f t="shared" ref="L4:L50" si="4">(1+((3.5-$C$6)/2.5))</f>
         <v>1</v>
       </c>
-      <c r="M4" s="45">
+      <c r="M4" s="44">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H4)-4.6)))^L4</f>
         <v>0.99982332098262539</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="45">
         <f t="shared" ref="N4:N50" si="5">-3.76715+1.92944*LOG10(I4)-0.09815*(LOG10(I4))^2-0.00575*(LOG10(I4))^3+0.00056*(LOG10(I4))^4</f>
         <v>-16.631200619051462</v>
       </c>
-      <c r="O4" s="43">
+      <c r="O4" s="42">
         <f t="shared" ref="O4:O50" si="6">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I4)-4.6)</f>
         <v>-4.9607260885454951E-3</v>
       </c>
-      <c r="P4" s="80">
+      <c r="P4" s="79">
         <f t="shared" ref="P4:P50" si="7">(1+((3.5-$C$6)/2.5))</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="47">
+      <c r="Q4" s="46">
         <f t="shared" ref="Q4:Q45" si="8">(0.65-(($C$5/2.83)*TANH(LOG10(I4)-4.6)))^P4</f>
         <v>0.99982332098262539</v>
       </c>
-      <c r="R4" s="42">
+      <c r="R4" s="41">
         <f t="shared" ref="R4:R50" si="9">M4*10^(J4+K4)</f>
         <v>2.310797650804249E-17</v>
       </c>
-      <c r="S4" s="43">
+      <c r="S4" s="42">
         <f t="shared" ref="S4:S50" si="10">Q4*10^(N4+O4)</f>
         <v>2.310797650804249E-17</v>
       </c>
@@ -15255,15 +15469,15 @@
         <f t="shared" si="11"/>
         <v>7.2098715948036505E-8</v>
       </c>
-      <c r="V4" s="86"/>
-      <c r="X4" s="60">
+      <c r="V4" s="89"/>
+      <c r="X4" s="59">
         <v>7.2098715948036505E-8</v>
       </c>
-      <c r="Y4" s="61">
+      <c r="Y4" s="60">
         <v>7.2098715948036505E-8</v>
       </c>
-      <c r="Z4" s="86"/>
-      <c r="AA4" s="40">
+      <c r="Z4" s="89"/>
+      <c r="AA4" s="39">
         <v>0.44</v>
       </c>
     </row>
@@ -15280,58 +15494,58 @@
       <c r="D5" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="40">
+      <c r="F5" s="39">
         <v>0.52</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="40">
         <f t="shared" si="1"/>
         <v>5.2E-7</v>
       </c>
-      <c r="H5" s="42">
+      <c r="H5" s="41">
         <f t="shared" ref="H5:H9" si="12">(($C$3-$C$9)*$C$4*(G5^3))/($C$9*($C$11^2))</f>
         <v>2.2668748251998988E-6</v>
       </c>
-      <c r="I5" s="43">
+      <c r="I5" s="42">
         <f t="shared" si="0"/>
         <v>2.2668748251998988E-6</v>
       </c>
-      <c r="J5" s="44">
+      <c r="J5" s="43">
         <f t="shared" si="2"/>
         <v>-16.182618020062424</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="41">
         <f t="shared" si="3"/>
         <v>-4.9639255729891571E-3</v>
       </c>
-      <c r="L5" s="79">
+      <c r="L5" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M5" s="45">
+      <c r="M5" s="44">
         <f t="shared" ref="M5:M45" si="13">(0.65-(($C$5/2.83)*TANH(LOG10(H5)-4.6)))^L5</f>
         <v>0.9998233206705589</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="45">
         <f t="shared" si="5"/>
         <v>-16.182618020062424</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="42">
         <f t="shared" si="6"/>
         <v>-4.9639255729891571E-3</v>
       </c>
-      <c r="P5" s="80">
+      <c r="P5" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="47">
+      <c r="Q5" s="46">
         <f t="shared" si="8"/>
         <v>0.9998233206705589</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="41">
         <f t="shared" si="9"/>
         <v>6.491444027294716E-17</v>
       </c>
-      <c r="S5" s="43">
+      <c r="S5" s="42">
         <f t="shared" si="10"/>
         <v>6.491444027294716E-17</v>
       </c>
@@ -15343,15 +15557,15 @@
         <f t="shared" si="11"/>
         <v>1.0173116000096816E-7</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="X5" s="60">
+      <c r="V5" s="89"/>
+      <c r="X5" s="59">
         <v>1.0173116000096816E-7</v>
       </c>
-      <c r="Y5" s="61">
+      <c r="Y5" s="60">
         <v>1.0173116000096816E-7</v>
       </c>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="40">
+      <c r="Z5" s="89"/>
+      <c r="AA5" s="39">
         <v>0.52</v>
       </c>
     </row>
@@ -15368,58 +15582,58 @@
       <c r="D6" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="40">
+      <c r="F6" s="39">
         <v>0.61</v>
       </c>
-      <c r="G6" s="41">
+      <c r="G6" s="40">
         <f t="shared" si="1"/>
         <v>6.0999999999999998E-7</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="41">
         <f t="shared" si="12"/>
         <v>3.6593758157338008E-6</v>
       </c>
-      <c r="I6" s="43">
+      <c r="I6" s="42">
         <f t="shared" si="0"/>
         <v>3.6593758157338008E-6</v>
       </c>
-      <c r="J6" s="44">
+      <c r="J6" s="43">
         <f>-3.76715+1.92944*LOG10(H6)-0.09815*(LOG10(H6))^2-0.00575*(LOG10(H6))^3+0.00056*(LOG10(H6))^4</f>
         <v>-15.744545063570799</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="41">
         <f t="shared" si="3"/>
         <v>-4.9669828712915866E-3</v>
       </c>
-      <c r="L6" s="79">
+      <c r="L6" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="44">
         <f t="shared" si="13"/>
         <v>0.99982332021446152</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="45">
         <f t="shared" si="5"/>
         <v>-15.744545063570799</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="42">
         <f t="shared" si="6"/>
         <v>-4.9669828712915866E-3</v>
       </c>
-      <c r="P6" s="80">
+      <c r="P6" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="47">
+      <c r="Q6" s="46">
         <f t="shared" si="8"/>
         <v>0.99982332021446152</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="41">
         <f t="shared" si="9"/>
         <v>1.7799639876495453E-16</v>
       </c>
-      <c r="S6" s="43">
+      <c r="S6" s="42">
         <f t="shared" si="10"/>
         <v>1.7799639876495453E-16</v>
       </c>
@@ -15431,71 +15645,71 @@
         <f t="shared" si="11"/>
         <v>1.4238928075127842E-7</v>
       </c>
-      <c r="V6" s="86"/>
-      <c r="X6" s="60">
+      <c r="V6" s="89"/>
+      <c r="X6" s="59">
         <v>1.4238928075127842E-7</v>
       </c>
-      <c r="Y6" s="61">
+      <c r="Y6" s="60">
         <v>1.4238928075127842E-7</v>
       </c>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="40">
+      <c r="Z6" s="89"/>
+      <c r="AA6" s="39">
         <v>0.61</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F7" s="40">
+      <c r="F7" s="39">
         <v>0.72</v>
       </c>
-      <c r="G7" s="41">
+      <c r="G7" s="40">
         <f t="shared" si="1"/>
         <v>7.1999999999999999E-7</v>
       </c>
-      <c r="H7" s="42">
+      <c r="H7" s="41">
         <f t="shared" si="12"/>
         <v>6.0174847430886714E-6</v>
       </c>
-      <c r="I7" s="43">
+      <c r="I7" s="42">
         <f t="shared" si="0"/>
         <v>6.0174847430886714E-6</v>
       </c>
-      <c r="J7" s="44">
+      <c r="J7" s="43">
         <f t="shared" si="2"/>
         <v>-15.280877147103586</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="41">
         <f t="shared" si="3"/>
         <v>-4.9701581887122356E-3</v>
       </c>
-      <c r="L7" s="79">
+      <c r="L7" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="44">
         <f t="shared" si="13"/>
         <v>0.99982331949021264</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="45">
         <f t="shared" si="5"/>
         <v>-15.280877147103586</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="42">
         <f t="shared" si="6"/>
         <v>-4.9701581887122356E-3</v>
       </c>
-      <c r="P7" s="80">
+      <c r="P7" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="47">
+      <c r="Q7" s="46">
         <f t="shared" si="8"/>
         <v>0.99982331949021264</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="41">
         <f t="shared" si="9"/>
         <v>5.1769736745875016E-16</v>
       </c>
-      <c r="S7" s="43">
+      <c r="S7" s="42">
         <f t="shared" si="10"/>
         <v>5.1769736745875016E-16</v>
       </c>
@@ -15507,15 +15721,15 @@
         <f t="shared" si="11"/>
         <v>2.0325077483619151E-7</v>
       </c>
-      <c r="V7" s="86"/>
-      <c r="X7" s="60">
+      <c r="V7" s="89"/>
+      <c r="X7" s="59">
         <v>2.0325077483619151E-7</v>
       </c>
-      <c r="Y7" s="61">
+      <c r="Y7" s="60">
         <v>2.0325077483619151E-7</v>
       </c>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="40">
+      <c r="Z7" s="89"/>
+      <c r="AA7" s="39">
         <v>0.72</v>
       </c>
     </row>
@@ -15523,63 +15737,63 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="F8" s="40">
+      <c r="C8" s="91"/>
+      <c r="D8" s="91"/>
+      <c r="F8" s="39">
         <v>0.85</v>
       </c>
-      <c r="G8" s="41">
+      <c r="G8" s="40">
         <f t="shared" si="1"/>
         <v>8.4999999999999991E-7</v>
       </c>
-      <c r="H8" s="42">
+      <c r="H8" s="41">
         <f t="shared" si="12"/>
         <v>9.9008911443579845E-6</v>
       </c>
-      <c r="I8" s="43">
+      <c r="I8" s="42">
         <f t="shared" si="0"/>
         <v>9.9008911443579845E-6</v>
       </c>
-      <c r="J8" s="44">
+      <c r="J8" s="43">
         <f t="shared" si="2"/>
         <v>-14.808863880051884</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="41">
         <f t="shared" si="3"/>
         <v>-4.9733372003238369E-3</v>
       </c>
-      <c r="L8" s="79">
+      <c r="L8" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="44">
         <f t="shared" si="13"/>
         <v>0.99982331837301019</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="45">
         <f t="shared" si="5"/>
         <v>-14.808863880051884</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="42">
         <f t="shared" si="6"/>
         <v>-4.9733372003238369E-3</v>
       </c>
-      <c r="P8" s="80">
+      <c r="P8" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="47">
+      <c r="Q8" s="46">
         <f t="shared" si="8"/>
         <v>0.99982331837301019</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="41">
         <f t="shared" si="9"/>
         <v>1.5349210572089883E-15</v>
       </c>
-      <c r="S8" s="43">
+      <c r="S8" s="42">
         <f t="shared" si="10"/>
         <v>1.5349210572089883E-15</v>
       </c>
@@ -15591,15 +15805,15 @@
         <f t="shared" si="11"/>
         <v>2.9199062368989425E-7</v>
       </c>
-      <c r="V8" s="86"/>
-      <c r="X8" s="60">
+      <c r="V8" s="89"/>
+      <c r="X8" s="59">
         <v>2.9199062368989425E-7</v>
       </c>
-      <c r="Y8" s="61">
+      <c r="Y8" s="60">
         <v>2.9199062368989425E-7</v>
       </c>
-      <c r="Z8" s="86"/>
-      <c r="AA8" s="40">
+      <c r="Z8" s="89"/>
+      <c r="AA8" s="39">
         <v>0.85</v>
       </c>
     </row>
@@ -15616,58 +15830,58 @@
       <c r="D9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="39">
         <v>1.01</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="40">
         <f t="shared" si="1"/>
         <v>1.0099999999999999E-6</v>
       </c>
-      <c r="H9" s="42">
+      <c r="H9" s="41">
         <f t="shared" si="12"/>
         <v>1.6610458859227641E-5</v>
       </c>
-      <c r="I9" s="43">
+      <c r="I9" s="42">
         <f t="shared" si="0"/>
         <v>1.6610458859227641E-5</v>
       </c>
-      <c r="J9" s="44">
+      <c r="J9" s="43">
         <f t="shared" si="2"/>
         <v>-14.311257078758736</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="41">
         <f t="shared" si="3"/>
         <v>-4.9766403984132807E-3</v>
       </c>
-      <c r="L9" s="79">
+      <c r="L9" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="44">
         <f t="shared" si="13"/>
         <v>0.99982331656769707</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="45">
         <f t="shared" si="5"/>
         <v>-14.311257078758736</v>
       </c>
-      <c r="O9" s="43">
+      <c r="O9" s="42">
         <f t="shared" si="6"/>
         <v>-4.9766403984132807E-3</v>
       </c>
-      <c r="P9" s="80">
+      <c r="P9" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="47">
+      <c r="Q9" s="46">
         <f t="shared" si="8"/>
         <v>0.99982331656769707</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="41">
         <f t="shared" si="9"/>
         <v>4.82713607330882E-15</v>
       </c>
-      <c r="S9" s="43">
+      <c r="S9" s="42">
         <f t="shared" si="10"/>
         <v>4.82713607330882E-15</v>
       </c>
@@ -15679,15 +15893,15 @@
         <f t="shared" si="11"/>
         <v>4.2779601841118369E-7</v>
       </c>
-      <c r="V9" s="86"/>
-      <c r="X9" s="60">
+      <c r="V9" s="89"/>
+      <c r="X9" s="59">
         <v>4.2779601841118369E-7</v>
       </c>
-      <c r="Y9" s="61">
+      <c r="Y9" s="60">
         <v>4.2779601841118369E-7</v>
       </c>
-      <c r="Z9" s="86"/>
-      <c r="AA9" s="40">
+      <c r="Z9" s="89"/>
+      <c r="AA9" s="39">
         <v>1.01</v>
       </c>
     </row>
@@ -15704,58 +15918,58 @@
       <c r="D10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="40">
+      <c r="F10" s="39">
         <v>1.19</v>
       </c>
-      <c r="G10" s="41">
+      <c r="G10" s="40">
         <f t="shared" si="1"/>
         <v>1.1899999999999998E-6</v>
       </c>
-      <c r="H10" s="42">
+      <c r="H10" s="41">
         <f t="shared" ref="H10:H50" si="14">(($C$3-$C$9)*$C$4*G10^3)/($C$9*$C$11^2)</f>
         <v>2.716804530011831E-5</v>
       </c>
-      <c r="I10" s="43">
+      <c r="I10" s="42">
         <f t="shared" si="0"/>
         <v>2.716804530011831E-5</v>
       </c>
-      <c r="J10" s="44">
+      <c r="J10" s="43">
         <f t="shared" si="2"/>
         <v>-13.832338256149715</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="41">
         <f t="shared" si="3"/>
         <v>-4.9797814470178099E-3</v>
       </c>
-      <c r="L10" s="79">
+      <c r="L10" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="44">
         <f t="shared" si="13"/>
         <v>0.99982331390861656</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="45">
         <f t="shared" si="5"/>
         <v>-13.832338256149715</v>
       </c>
-      <c r="O10" s="43">
+      <c r="O10" s="42">
         <f t="shared" si="6"/>
         <v>-4.9797814470178099E-3</v>
       </c>
-      <c r="P10" s="80">
+      <c r="P10" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="47">
+      <c r="Q10" s="46">
         <f t="shared" si="8"/>
         <v>0.99982331390861656</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="41">
         <f t="shared" si="9"/>
         <v>1.4541366543812994E-14</v>
       </c>
-      <c r="S10" s="43">
+      <c r="S10" s="42">
         <f t="shared" si="10"/>
         <v>1.4541366543812994E-14</v>
       </c>
@@ -15767,15 +15981,15 @@
         <f t="shared" si="11"/>
         <v>6.1783897071119465E-7</v>
       </c>
-      <c r="V10" s="86"/>
-      <c r="X10" s="60">
+      <c r="V10" s="89"/>
+      <c r="X10" s="59">
         <v>6.1783897071119465E-7</v>
       </c>
-      <c r="Y10" s="61">
+      <c r="Y10" s="60">
         <v>6.1783897071119465E-7</v>
       </c>
-      <c r="Z10" s="86"/>
-      <c r="AA10" s="40">
+      <c r="Z10" s="89"/>
+      <c r="AA10" s="39">
         <v>1.19</v>
       </c>
     </row>
@@ -15793,58 +16007,58 @@
       <c r="D11" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="39">
         <v>1.4</v>
       </c>
-      <c r="G11" s="41">
+      <c r="G11" s="40">
         <f t="shared" si="1"/>
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="H11" s="42">
+      <c r="H11" s="41">
         <f t="shared" si="14"/>
         <v>4.423862454731254E-5</v>
       </c>
-      <c r="I11" s="43">
+      <c r="I11" s="42">
         <f t="shared" si="0"/>
         <v>4.423862454731254E-5</v>
       </c>
-      <c r="J11" s="44">
+      <c r="J11" s="43">
         <f t="shared" si="2"/>
         <v>-13.353184508703205</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="41">
         <f t="shared" si="3"/>
         <v>-4.9828940726832993E-3</v>
       </c>
-      <c r="L11" s="79">
+      <c r="L11" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="44">
         <f t="shared" si="13"/>
         <v>0.99982330987697532</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="45">
         <f t="shared" si="5"/>
         <v>-13.353184508703205</v>
       </c>
-      <c r="O11" s="43">
+      <c r="O11" s="42">
         <f t="shared" si="6"/>
         <v>-4.9828940726832993E-3</v>
       </c>
-      <c r="P11" s="80">
+      <c r="P11" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="47">
+      <c r="Q11" s="46">
         <f t="shared" si="8"/>
         <v>0.99982330987697532</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="41">
         <f t="shared" si="9"/>
         <v>4.3828424050320725E-14</v>
       </c>
-      <c r="S11" s="43">
+      <c r="S11" s="42">
         <f t="shared" si="10"/>
         <v>4.3828424050320725E-14</v>
       </c>
@@ -15856,71 +16070,71 @@
         <f t="shared" si="11"/>
         <v>8.9246701945613755E-7</v>
       </c>
-      <c r="V11" s="86"/>
-      <c r="X11" s="60">
+      <c r="V11" s="89"/>
+      <c r="X11" s="59">
         <v>8.9246701945613755E-7</v>
       </c>
-      <c r="Y11" s="61">
+      <c r="Y11" s="60">
         <v>8.9246701945613755E-7</v>
       </c>
-      <c r="Z11" s="86"/>
-      <c r="AA11" s="40">
+      <c r="Z11" s="89"/>
+      <c r="AA11" s="39">
         <v>1.4</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F12" s="40">
+      <c r="F12" s="39">
         <v>1.65</v>
       </c>
-      <c r="G12" s="41">
+      <c r="G12" s="40">
         <f t="shared" si="1"/>
         <v>1.6499999999999999E-6</v>
       </c>
-      <c r="H12" s="42">
+      <c r="H12" s="41">
         <f t="shared" si="14"/>
         <v>7.2421804407651739E-5</v>
       </c>
-      <c r="I12" s="43">
+      <c r="I12" s="42">
         <f t="shared" si="0"/>
         <v>7.2421804407651739E-5</v>
       </c>
-      <c r="J12" s="44">
+      <c r="J12" s="43">
         <f t="shared" si="2"/>
         <v>-12.865065148535757</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="41">
         <f t="shared" si="3"/>
         <v>-4.9860408686978209E-3</v>
       </c>
-      <c r="L12" s="79">
+      <c r="L12" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="44">
         <f t="shared" si="13"/>
         <v>0.9998233036364329</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="45">
         <f t="shared" si="5"/>
         <v>-12.865065148535757</v>
       </c>
-      <c r="O12" s="43">
+      <c r="O12" s="42">
         <f t="shared" si="6"/>
         <v>-4.9860408686978209E-3</v>
       </c>
-      <c r="P12" s="80">
+      <c r="P12" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="47">
+      <c r="Q12" s="46">
         <f t="shared" si="8"/>
         <v>0.9998233036364329</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="41">
         <f t="shared" si="9"/>
         <v>1.34856556371622E-13</v>
       </c>
-      <c r="S12" s="43">
+      <c r="S12" s="42">
         <f t="shared" si="10"/>
         <v>1.34856556371622E-13</v>
       </c>
@@ -15932,15 +16146,15 @@
         <f t="shared" si="11"/>
         <v>1.2980684057387887E-6</v>
       </c>
-      <c r="V12" s="86"/>
-      <c r="X12" s="60">
+      <c r="V12" s="89"/>
+      <c r="X12" s="59">
         <v>1.2980684057387887E-6</v>
       </c>
-      <c r="Y12" s="61">
+      <c r="Y12" s="60">
         <v>1.2980684057387887E-6</v>
       </c>
-      <c r="Z12" s="86"/>
-      <c r="AA12" s="40">
+      <c r="Z12" s="89"/>
+      <c r="AA12" s="39">
         <v>1.65</v>
       </c>
     </row>
@@ -15948,63 +16162,63 @@
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="82" t="s">
+      <c r="B13" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="F13" s="48">
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="F13" s="47">
         <v>1.95</v>
       </c>
-      <c r="G13" s="49">
+      <c r="G13" s="48">
         <f t="shared" si="1"/>
         <v>1.95E-6</v>
       </c>
-      <c r="H13" s="50">
+      <c r="H13" s="49">
         <f t="shared" si="14"/>
         <v>1.195422271101509E-4</v>
       </c>
-      <c r="I13" s="51">
+      <c r="I13" s="50">
         <f t="shared" si="0"/>
         <v>1.195422271101509E-4</v>
       </c>
-      <c r="J13" s="52">
+      <c r="J13" s="51">
         <f t="shared" si="2"/>
         <v>-12.365875750186783</v>
       </c>
-      <c r="K13" s="50">
+      <c r="K13" s="49">
         <f t="shared" si="3"/>
         <v>-4.9892403538208379E-3</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="76">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M13" s="53">
+      <c r="M13" s="52">
         <f t="shared" si="13"/>
         <v>0.99982329386318414</v>
       </c>
-      <c r="N13" s="54">
+      <c r="N13" s="53">
         <f t="shared" si="5"/>
         <v>-12.365875750186783</v>
       </c>
-      <c r="O13" s="51">
+      <c r="O13" s="50">
         <f t="shared" si="6"/>
         <v>-4.9892403538208379E-3</v>
       </c>
-      <c r="P13" s="78">
+      <c r="P13" s="77">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="55">
+      <c r="Q13" s="54">
         <f t="shared" si="8"/>
         <v>0.99982329386318414</v>
       </c>
-      <c r="R13" s="50">
+      <c r="R13" s="49">
         <f t="shared" si="9"/>
         <v>4.2565551057238211E-13</v>
       </c>
-      <c r="S13" s="51">
+      <c r="S13" s="50">
         <f t="shared" si="10"/>
         <v>4.2565551057238211E-13</v>
       </c>
@@ -16016,15 +16230,15 @@
         <f t="shared" si="11"/>
         <v>1.9041141384227035E-6</v>
       </c>
-      <c r="V13" s="87"/>
-      <c r="X13" s="58">
+      <c r="V13" s="90"/>
+      <c r="X13" s="57">
         <v>1.9041141384227035E-6</v>
       </c>
-      <c r="Y13" s="59">
+      <c r="Y13" s="58">
         <v>1.9041141384227035E-6</v>
       </c>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="48">
+      <c r="Z13" s="90"/>
+      <c r="AA13" s="47">
         <v>1.95</v>
       </c>
     </row>
@@ -16045,82 +16259,82 @@
         <f>F14/1000</f>
         <v>2.3E-3</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="28">
         <f t="shared" si="1"/>
         <v>2.2999999999999996E-6</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <f t="shared" si="14"/>
         <v>1.9615573792534672E-4</v>
       </c>
-      <c r="I14" s="31">
+      <c r="I14" s="30">
         <f t="shared" si="0"/>
         <v>1.9615573792534672E-4</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="31">
         <f t="shared" si="2"/>
         <v>-11.870606142244233</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <f t="shared" si="3"/>
         <v>-4.9924020260968842E-3</v>
       </c>
-      <c r="L14" s="33">
+      <c r="L14" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <f t="shared" si="13"/>
         <v>0.99982327897888834</v>
       </c>
-      <c r="N14" s="35">
+      <c r="N14" s="34">
         <f t="shared" si="5"/>
         <v>-11.870606142244233</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="30">
         <f t="shared" si="6"/>
         <v>-4.9924020260968842E-3</v>
       </c>
-      <c r="P14" s="36">
+      <c r="P14" s="35">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="37">
+      <c r="Q14" s="36">
         <f t="shared" si="8"/>
         <v>0.99982327897888834</v>
       </c>
-      <c r="R14" s="30">
+      <c r="R14" s="29">
         <f t="shared" si="9"/>
         <v>1.3314495032873685E-12</v>
       </c>
-      <c r="S14" s="31">
+      <c r="S14" s="30">
         <f t="shared" si="10"/>
         <v>1.3314495032873685E-12</v>
       </c>
-      <c r="T14" s="38">
+      <c r="T14" s="37">
         <f t="shared" si="11"/>
         <v>2.7847216484140309E-6</v>
       </c>
-      <c r="U14" s="39">
+      <c r="U14" s="38">
         <f t="shared" si="11"/>
         <v>2.7847216484140309E-6</v>
       </c>
-      <c r="V14" s="85" t="s">
+      <c r="V14" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="56">
+      <c r="X14" s="55">
         <v>2.7847216484140309E-6</v>
       </c>
-      <c r="Y14" s="57">
+      <c r="Y14" s="56">
         <v>2.7847216484140309E-6</v>
       </c>
-      <c r="Z14" s="85" t="s">
+      <c r="Z14" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="AA14" s="28">
+      <c r="AA14" s="27">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -16137,58 +16351,58 @@
       <c r="D15" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="40">
+      <c r="F15" s="39">
         <v>2.72</v>
       </c>
-      <c r="G15" s="41">
+      <c r="G15" s="40">
         <f t="shared" si="1"/>
         <v>2.7200000000000002E-6</v>
       </c>
-      <c r="H15" s="42">
+      <c r="H15" s="41">
         <f t="shared" si="14"/>
         <v>3.2443240101832259E-4</v>
       </c>
-      <c r="I15" s="43">
+      <c r="I15" s="42">
         <f t="shared" si="0"/>
         <v>3.2443240101832259E-4</v>
       </c>
-      <c r="J15" s="44">
+      <c r="J15" s="43">
         <f t="shared" si="2"/>
         <v>-11.366273494787281</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="41">
         <f t="shared" si="3"/>
         <v>-4.9956143188721186E-3</v>
       </c>
-      <c r="L15" s="79">
+      <c r="L15" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="44">
         <f t="shared" si="13"/>
         <v>0.99982325564186092</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="45">
         <f t="shared" si="5"/>
         <v>-11.366273494787281</v>
       </c>
-      <c r="O15" s="43">
+      <c r="O15" s="42">
         <f t="shared" si="6"/>
         <v>-4.9956143188721186E-3</v>
       </c>
-      <c r="P15" s="80">
+      <c r="P15" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="46">
         <f t="shared" si="8"/>
         <v>0.99982325564186092</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="41">
         <f t="shared" si="9"/>
         <v>4.2525959868543431E-12</v>
       </c>
-      <c r="S15" s="43">
+      <c r="S15" s="42">
         <f t="shared" si="10"/>
         <v>4.2525959868543431E-12</v>
       </c>
@@ -16200,15 +16414,15 @@
         <f t="shared" si="11"/>
         <v>4.1010172814049568E-6</v>
       </c>
-      <c r="V15" s="86"/>
-      <c r="X15" s="60">
+      <c r="V15" s="89"/>
+      <c r="X15" s="59">
         <v>4.1010172814049568E-6</v>
       </c>
-      <c r="Y15" s="61">
+      <c r="Y15" s="60">
         <v>4.1010172814049568E-6</v>
       </c>
-      <c r="Z15" s="86"/>
-      <c r="AA15" s="40">
+      <c r="Z15" s="89"/>
+      <c r="AA15" s="39">
         <v>2.72</v>
       </c>
     </row>
@@ -16226,58 +16440,58 @@
       <c r="D16" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="39">
         <v>3.2</v>
       </c>
-      <c r="G16" s="41">
+      <c r="G16" s="40">
         <f t="shared" si="1"/>
         <v>3.1999999999999999E-6</v>
       </c>
-      <c r="H16" s="42">
+      <c r="H16" s="41">
         <f t="shared" si="14"/>
         <v>5.2828398293233866E-4</v>
       </c>
-      <c r="I16" s="43">
+      <c r="I16" s="42">
         <f t="shared" si="0"/>
         <v>5.2828398293233866E-4</v>
       </c>
-      <c r="J16" s="44">
+      <c r="J16" s="43">
         <f t="shared" si="2"/>
         <v>-10.877310603151042</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="41">
         <f t="shared" si="3"/>
         <v>-4.9987269467436351E-3</v>
       </c>
-      <c r="L16" s="79">
+      <c r="L16" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="44">
         <f t="shared" si="13"/>
         <v>0.99982322088750131</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="45">
         <f t="shared" si="5"/>
         <v>-10.877310603151042</v>
       </c>
-      <c r="O16" s="43">
+      <c r="O16" s="42">
         <f t="shared" si="6"/>
         <v>-4.9987269467436351E-3</v>
       </c>
-      <c r="P16" s="80">
+      <c r="P16" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="46">
         <f t="shared" si="8"/>
         <v>0.99982322088750131</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="41">
         <f t="shared" si="9"/>
         <v>1.311033801398111E-11</v>
       </c>
-      <c r="S16" s="43">
+      <c r="S16" s="42">
         <f t="shared" si="10"/>
         <v>1.311033801398111E-11</v>
       </c>
@@ -16289,71 +16503,71 @@
         <f t="shared" si="11"/>
         <v>5.9686785122464274E-6</v>
       </c>
-      <c r="V16" s="86"/>
-      <c r="X16" s="60">
+      <c r="V16" s="89"/>
+      <c r="X16" s="59">
         <v>5.9686785122464274E-6</v>
       </c>
-      <c r="Y16" s="61">
+      <c r="Y16" s="60">
         <v>5.9686785122464274E-6</v>
       </c>
-      <c r="Z16" s="86"/>
-      <c r="AA16" s="40">
+      <c r="Z16" s="89"/>
+      <c r="AA16" s="39">
         <v>3.2</v>
       </c>
     </row>
     <row r="17" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F17" s="40">
+      <c r="F17" s="39">
         <v>3.78</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="40">
         <f t="shared" si="1"/>
         <v>3.7799999999999998E-6</v>
       </c>
-      <c r="H17" s="42">
+      <c r="H17" s="41">
         <f t="shared" si="14"/>
         <v>8.7074884696475285E-4</v>
       </c>
-      <c r="I17" s="43">
+      <c r="I17" s="42">
         <f t="shared" si="0"/>
         <v>8.7074884696475285E-4</v>
       </c>
-      <c r="J17" s="44">
+      <c r="J17" s="43">
         <f t="shared" si="2"/>
         <v>-10.376668859590961</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="41">
         <f t="shared" si="3"/>
         <v>-5.0019172250011417E-3</v>
       </c>
-      <c r="L17" s="79">
+      <c r="L17" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M17" s="45">
+      <c r="M17" s="44">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H17)-4.6)))^L17</f>
         <v>0.9998231661751068</v>
       </c>
-      <c r="N17" s="46">
+      <c r="N17" s="45">
         <f t="shared" si="5"/>
         <v>-10.376668859590961</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="42">
         <f t="shared" si="6"/>
         <v>-5.0019172250011417E-3</v>
       </c>
-      <c r="P17" s="80">
+      <c r="P17" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="47">
+      <c r="Q17" s="46">
         <f t="shared" si="8"/>
         <v>0.9998231661751068</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="41">
         <f t="shared" si="9"/>
         <v>4.1519529022242184E-11</v>
       </c>
-      <c r="S17" s="43">
+      <c r="S17" s="42">
         <f t="shared" si="10"/>
         <v>4.1519529022242184E-11</v>
       </c>
@@ -16365,71 +16579,71 @@
         <f t="shared" si="11"/>
         <v>8.7651165882218987E-6</v>
       </c>
-      <c r="V17" s="86"/>
-      <c r="X17" s="60">
+      <c r="V17" s="89"/>
+      <c r="X17" s="59">
         <v>8.7651165882218987E-6</v>
       </c>
-      <c r="Y17" s="61">
+      <c r="Y17" s="60">
         <v>8.7651165882218987E-6</v>
       </c>
-      <c r="Z17" s="86"/>
-      <c r="AA17" s="40">
+      <c r="Z17" s="89"/>
+      <c r="AA17" s="39">
         <v>3.78</v>
       </c>
     </row>
     <row r="18" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F18" s="40">
+      <c r="F18" s="39">
         <v>4.46</v>
       </c>
-      <c r="G18" s="41">
+      <c r="G18" s="40">
         <f t="shared" si="1"/>
         <v>4.4599999999999996E-6</v>
       </c>
-      <c r="H18" s="42">
+      <c r="H18" s="41">
         <f t="shared" si="14"/>
         <v>1.4302833554089419E-3</v>
       </c>
-      <c r="I18" s="43">
+      <c r="I18" s="42">
         <f t="shared" si="0"/>
         <v>1.4302833554089419E-3</v>
       </c>
-      <c r="J18" s="44">
+      <c r="J18" s="43">
         <f t="shared" si="2"/>
         <v>-9.8807704053242773</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="41">
         <f t="shared" si="3"/>
         <v>-5.0050855099098394E-3</v>
       </c>
-      <c r="L18" s="79">
+      <c r="L18" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M18" s="45">
+      <c r="M18" s="44">
         <f t="shared" si="13"/>
         <v>0.99982308244331164</v>
       </c>
-      <c r="N18" s="46">
+      <c r="N18" s="45">
         <f t="shared" si="5"/>
         <v>-9.8807704053242773</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="42">
         <f t="shared" si="6"/>
         <v>-5.0050855099098394E-3</v>
       </c>
-      <c r="P18" s="80">
+      <c r="P18" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="47">
+      <c r="Q18" s="46">
         <f t="shared" si="8"/>
         <v>0.99982308244331164</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="41">
         <f t="shared" si="9"/>
         <v>1.3006117345843E-10</v>
       </c>
-      <c r="S18" s="43">
+      <c r="S18" s="42">
         <f t="shared" si="10"/>
         <v>1.3006117345843E-10</v>
       </c>
@@ -16441,71 +16655,71 @@
         <f t="shared" si="11"/>
         <v>1.2824962789690229E-5</v>
       </c>
-      <c r="V18" s="86"/>
-      <c r="X18" s="60">
+      <c r="V18" s="89"/>
+      <c r="X18" s="59">
         <v>1.2824962789690229E-5</v>
       </c>
-      <c r="Y18" s="61">
+      <c r="Y18" s="60">
         <v>1.2824962789690229E-5</v>
       </c>
-      <c r="Z18" s="86"/>
-      <c r="AA18" s="40">
+      <c r="Z18" s="89"/>
+      <c r="AA18" s="39">
         <v>4.46</v>
       </c>
     </row>
     <row r="19" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F19" s="40">
+      <c r="F19" s="39">
         <v>5.27</v>
       </c>
-      <c r="G19" s="41">
+      <c r="G19" s="40">
         <f t="shared" si="1"/>
         <v>5.2699999999999995E-6</v>
       </c>
-      <c r="H19" s="42">
+      <c r="H19" s="41">
         <f t="shared" si="14"/>
         <v>2.3596595846525495E-3</v>
       </c>
-      <c r="I19" s="43">
+      <c r="I19" s="42">
         <f t="shared" si="0"/>
         <v>2.3596595846525495E-3</v>
       </c>
-      <c r="J19" s="44">
+      <c r="J19" s="43">
         <f t="shared" si="2"/>
         <v>-9.3825653835048328</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="41">
         <f t="shared" si="3"/>
         <v>-5.0082817001242579E-3</v>
       </c>
-      <c r="L19" s="79">
+      <c r="L19" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="44">
         <f t="shared" si="13"/>
         <v>0.99982295219020045</v>
       </c>
-      <c r="N19" s="46">
+      <c r="N19" s="45">
         <f t="shared" si="5"/>
         <v>-9.3825653835048328</v>
       </c>
-      <c r="O19" s="43">
+      <c r="O19" s="42">
         <f t="shared" si="6"/>
         <v>-5.0082817001242579E-3</v>
       </c>
-      <c r="P19" s="80">
+      <c r="P19" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="47">
+      <c r="Q19" s="46">
         <f t="shared" si="8"/>
         <v>0.99982295219020045</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="41">
         <f t="shared" si="9"/>
         <v>4.0959008691285713E-10</v>
       </c>
-      <c r="S19" s="43">
+      <c r="S19" s="42">
         <f t="shared" si="10"/>
         <v>4.0959008691285713E-10</v>
       </c>
@@ -16517,71 +16731,71 @@
         <f t="shared" si="11"/>
         <v>1.8798507503459669E-5</v>
       </c>
-      <c r="V19" s="86"/>
-      <c r="X19" s="60">
+      <c r="V19" s="89"/>
+      <c r="X19" s="59">
         <v>1.8798507503459669E-5</v>
       </c>
-      <c r="Y19" s="61">
+      <c r="Y19" s="60">
         <v>1.8798507503459669E-5</v>
       </c>
-      <c r="Z19" s="86"/>
-      <c r="AA19" s="40">
+      <c r="Z19" s="89"/>
+      <c r="AA19" s="39">
         <v>5.27</v>
       </c>
     </row>
     <row r="20" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F20" s="40">
+      <c r="F20" s="39">
         <v>6.21</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="40">
         <f t="shared" si="1"/>
         <v>6.2099999999999998E-6</v>
       </c>
-      <c r="H20" s="42">
+      <c r="H20" s="41">
         <f t="shared" si="14"/>
         <v>3.8609333895846015E-3</v>
       </c>
-      <c r="I20" s="43">
+      <c r="I20" s="42">
         <f t="shared" si="0"/>
         <v>3.8609333895846015E-3</v>
       </c>
-      <c r="J20" s="44">
+      <c r="J20" s="43">
         <f t="shared" si="2"/>
         <v>-8.895300716088224</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="41">
         <f t="shared" si="3"/>
         <v>-5.0114252057160717E-3</v>
       </c>
-      <c r="L20" s="79">
+      <c r="L20" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="44">
         <f t="shared" si="13"/>
         <v>0.99982275505890694</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="45">
         <f t="shared" si="5"/>
         <v>-8.895300716088224</v>
       </c>
-      <c r="O20" s="43">
+      <c r="O20" s="42">
         <f t="shared" si="6"/>
         <v>-5.0114252057160717E-3</v>
       </c>
-      <c r="P20" s="80">
+      <c r="P20" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="47">
+      <c r="Q20" s="46">
         <f t="shared" si="8"/>
         <v>0.99982275505890694</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="41">
         <f t="shared" si="9"/>
         <v>1.2577979291987391E-9</v>
       </c>
-      <c r="S20" s="43">
+      <c r="S20" s="42">
         <f t="shared" si="10"/>
         <v>1.2577979291987391E-9</v>
       </c>
@@ -16593,71 +16807,71 @@
         <f t="shared" si="11"/>
         <v>2.7323973124891899E-5</v>
       </c>
-      <c r="V20" s="86"/>
-      <c r="X20" s="60">
+      <c r="V20" s="89"/>
+      <c r="X20" s="59">
         <v>2.7323973124891899E-5</v>
       </c>
-      <c r="Y20" s="61">
+      <c r="Y20" s="60">
         <v>2.7323973124891899E-5</v>
       </c>
-      <c r="Z20" s="86"/>
-      <c r="AA20" s="40">
+      <c r="Z20" s="89"/>
+      <c r="AA20" s="39">
         <v>6.21</v>
       </c>
     </row>
     <row r="21" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F21" s="40">
+      <c r="F21" s="39">
         <v>7.33</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="40">
         <f t="shared" si="1"/>
         <v>7.3300000000000001E-6</v>
       </c>
-      <c r="H21" s="42">
+      <c r="H21" s="41">
         <f t="shared" si="14"/>
         <v>6.3493524090546443E-3</v>
       </c>
-      <c r="I21" s="43">
+      <c r="I21" s="42">
         <f t="shared" si="0"/>
         <v>6.3493524090546443E-3</v>
       </c>
-      <c r="J21" s="44">
+      <c r="J21" s="43">
         <f t="shared" si="2"/>
         <v>-8.4064679641164428</v>
       </c>
-      <c r="K21" s="42">
+      <c r="K21" s="41">
         <f t="shared" si="3"/>
         <v>-5.0146009734137473E-3</v>
       </c>
-      <c r="L21" s="79">
+      <c r="L21" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M21" s="45">
+      <c r="M21" s="44">
         <f t="shared" si="13"/>
         <v>0.99982244889689154</v>
       </c>
-      <c r="N21" s="46">
+      <c r="N21" s="45">
         <f t="shared" si="5"/>
         <v>-8.4064679641164428</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="42">
         <f t="shared" si="6"/>
         <v>-5.0146009734137473E-3</v>
       </c>
-      <c r="P21" s="80">
+      <c r="P21" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="47">
+      <c r="Q21" s="46">
         <f t="shared" si="8"/>
         <v>0.99982244889689154</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="41">
         <f t="shared" si="9"/>
         <v>3.8765047333921248E-9</v>
       </c>
-      <c r="S21" s="43">
+      <c r="S21" s="42">
         <f t="shared" si="10"/>
         <v>3.8765047333921248E-9</v>
       </c>
@@ -16669,71 +16883,71 @@
         <f t="shared" si="11"/>
         <v>3.9763719105563065E-5</v>
       </c>
-      <c r="V21" s="86"/>
-      <c r="X21" s="60">
+      <c r="V21" s="89"/>
+      <c r="X21" s="59">
         <v>3.9763719105563065E-5</v>
       </c>
-      <c r="Y21" s="61">
+      <c r="Y21" s="60">
         <v>3.9763719105563065E-5</v>
       </c>
-      <c r="Z21" s="86"/>
-      <c r="AA21" s="40">
+      <c r="Z21" s="89"/>
+      <c r="AA21" s="39">
         <v>7.33</v>
       </c>
     </row>
     <row r="22" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F22" s="40">
+      <c r="F22" s="39">
         <v>8.65</v>
       </c>
-      <c r="G22" s="41">
+      <c r="G22" s="40">
         <f t="shared" si="1"/>
         <v>8.6500000000000002E-6</v>
       </c>
-      <c r="H22" s="42">
+      <c r="H22" s="41">
         <f t="shared" si="14"/>
         <v>1.0434360348726199E-2</v>
       </c>
-      <c r="I22" s="43">
+      <c r="I22" s="42">
         <f t="shared" si="0"/>
         <v>1.0434360348726199E-2</v>
       </c>
-      <c r="J22" s="44">
+      <c r="J22" s="43">
         <f t="shared" si="2"/>
         <v>-7.9224138372830435</v>
       </c>
-      <c r="K22" s="42">
+      <c r="K22" s="41">
         <f t="shared" si="3"/>
         <v>-5.0177723322781132E-3</v>
       </c>
-      <c r="L22" s="79">
+      <c r="L22" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M22" s="45">
+      <c r="M22" s="44">
         <f t="shared" si="13"/>
         <v>0.99982197807857209</v>
       </c>
-      <c r="N22" s="46">
+      <c r="N22" s="45">
         <f t="shared" si="5"/>
         <v>-7.9224138372830435</v>
       </c>
-      <c r="O22" s="43">
+      <c r="O22" s="42">
         <f t="shared" si="6"/>
         <v>-5.0177723322781132E-3</v>
       </c>
-      <c r="P22" s="80">
+      <c r="P22" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="47">
+      <c r="Q22" s="46">
         <f t="shared" si="8"/>
         <v>0.99982197807857209</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="41">
         <f t="shared" si="9"/>
         <v>1.1816560137972371E-8</v>
       </c>
-      <c r="S22" s="43">
+      <c r="S22" s="42">
         <f t="shared" si="10"/>
         <v>1.1816560137972371E-8</v>
       </c>
@@ -16745,71 +16959,71 @@
         <f t="shared" si="11"/>
         <v>5.7655035988502464E-5</v>
       </c>
-      <c r="V22" s="86"/>
-      <c r="X22" s="60">
+      <c r="V22" s="89"/>
+      <c r="X22" s="59">
         <v>5.7655035988502464E-5</v>
       </c>
-      <c r="Y22" s="61">
+      <c r="Y22" s="60">
         <v>5.7655035988502464E-5</v>
       </c>
-      <c r="Z22" s="86"/>
-      <c r="AA22" s="40">
+      <c r="Z22" s="89"/>
+      <c r="AA22" s="39">
         <v>8.65</v>
       </c>
     </row>
     <row r="23" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F23" s="40">
+      <c r="F23" s="39">
         <v>10.210000000000001</v>
       </c>
-      <c r="G23" s="41">
+      <c r="G23" s="40">
         <f t="shared" si="1"/>
         <v>1.0210000000000001E-5</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="41">
         <f t="shared" si="14"/>
         <v>1.7159109069960377E-2</v>
       </c>
-      <c r="I23" s="43">
+      <c r="I23" s="42">
         <f t="shared" si="0"/>
         <v>1.7159109069960377E-2</v>
       </c>
-      <c r="J23" s="44">
+      <c r="J23" s="43">
         <f t="shared" si="2"/>
         <v>-7.4424372807399877</v>
       </c>
-      <c r="K23" s="42">
+      <c r="K23" s="41">
         <f t="shared" si="3"/>
         <v>-5.0209480092981845E-3</v>
       </c>
-      <c r="L23" s="79">
+      <c r="L23" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M23" s="45">
+      <c r="M23" s="44">
         <f t="shared" si="13"/>
         <v>0.99982125203372241</v>
       </c>
-      <c r="N23" s="46">
+      <c r="N23" s="45">
         <f t="shared" si="5"/>
         <v>-7.4424372807399877</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="42">
         <f t="shared" si="6"/>
         <v>-5.0209480092981845E-3</v>
       </c>
-      <c r="P23" s="80">
+      <c r="P23" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="47">
+      <c r="Q23" s="46">
         <f t="shared" si="8"/>
         <v>0.99982125203372241</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="41">
         <f t="shared" si="9"/>
         <v>3.568322801132159E-8</v>
       </c>
-      <c r="S23" s="43">
+      <c r="S23" s="42">
         <f t="shared" si="10"/>
         <v>3.568322801132159E-8</v>
       </c>
@@ -16821,71 +17035,71 @@
         <f t="shared" si="11"/>
         <v>8.3335159196142028E-5</v>
       </c>
-      <c r="V23" s="86"/>
-      <c r="X23" s="60">
+      <c r="V23" s="89"/>
+      <c r="X23" s="59">
         <v>8.3335159196142028E-5</v>
       </c>
-      <c r="Y23" s="61">
+      <c r="Y23" s="60">
         <v>8.3335159196142028E-5</v>
       </c>
-      <c r="Z23" s="86"/>
-      <c r="AA23" s="40">
+      <c r="Z23" s="89"/>
+      <c r="AA23" s="39">
         <v>10.210000000000001</v>
       </c>
     </row>
     <row r="24" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F24" s="40">
+      <c r="F24" s="39">
         <v>12.05</v>
       </c>
-      <c r="G24" s="41">
+      <c r="G24" s="40">
         <f t="shared" si="1"/>
         <v>1.205E-5</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="41">
         <f t="shared" si="14"/>
         <v>2.8208412723766531E-2</v>
       </c>
-      <c r="I24" s="43">
+      <c r="I24" s="42">
         <f t="shared" si="0"/>
         <v>2.8208412723766531E-2</v>
       </c>
-      <c r="J24" s="44">
+      <c r="J24" s="43">
         <f t="shared" si="2"/>
         <v>-6.9681158394815661</v>
       </c>
-      <c r="K24" s="42">
+      <c r="K24" s="41">
         <f t="shared" si="3"/>
         <v>-5.0241215830816397E-3</v>
       </c>
-      <c r="L24" s="79">
+      <c r="L24" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="44">
         <f t="shared" si="13"/>
         <v>0.99982013454393792</v>
       </c>
-      <c r="N24" s="46">
+      <c r="N24" s="45">
         <f t="shared" si="5"/>
         <v>-6.9681158394815661</v>
       </c>
-      <c r="O24" s="43">
+      <c r="O24" s="42">
         <f t="shared" si="6"/>
         <v>-5.0241215830816397E-3</v>
       </c>
-      <c r="P24" s="80">
+      <c r="P24" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="47">
+      <c r="Q24" s="46">
         <f t="shared" si="8"/>
         <v>0.99982013454393792</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="41">
         <f t="shared" si="9"/>
         <v>1.0636087888069531E-7</v>
       </c>
-      <c r="S24" s="43">
+      <c r="S24" s="42">
         <f t="shared" si="10"/>
         <v>1.0636087888069531E-7</v>
       </c>
@@ -16897,71 +17111,71 @@
         <f t="shared" si="11"/>
         <v>1.1993175718756651E-4</v>
       </c>
-      <c r="V24" s="86"/>
-      <c r="X24" s="60">
+      <c r="V24" s="89"/>
+      <c r="X24" s="59">
         <v>1.1993175718756651E-4</v>
       </c>
-      <c r="Y24" s="61">
+      <c r="Y24" s="60">
         <v>1.1993175718756651E-4</v>
       </c>
-      <c r="Z24" s="86"/>
-      <c r="AA24" s="40">
+      <c r="Z24" s="89"/>
+      <c r="AA24" s="39">
         <v>12.05</v>
       </c>
     </row>
     <row r="25" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F25" s="40">
+      <c r="F25" s="39">
         <v>14.22</v>
       </c>
-      <c r="G25" s="41">
+      <c r="G25" s="40">
         <f t="shared" si="1"/>
         <v>1.4219999999999999E-5</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="41">
         <f t="shared" si="14"/>
         <v>4.6357104066370239E-2</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I25" s="42">
         <f t="shared" si="0"/>
         <v>4.6357104066370239E-2</v>
       </c>
-      <c r="J25" s="44">
+      <c r="J25" s="43">
         <f t="shared" si="2"/>
         <v>-6.5000122238742746</v>
       </c>
-      <c r="K25" s="42">
+      <c r="K25" s="41">
         <f t="shared" si="3"/>
         <v>-5.0272930499791592E-3</v>
       </c>
-      <c r="L25" s="79">
+      <c r="L25" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="44">
         <f t="shared" si="13"/>
         <v>0.99981841507725688</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="45">
         <f t="shared" si="5"/>
         <v>-6.5000122238742746</v>
       </c>
-      <c r="O25" s="43">
+      <c r="O25" s="42">
         <f t="shared" si="6"/>
         <v>-5.0272930499791592E-3</v>
       </c>
-      <c r="P25" s="80">
+      <c r="P25" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="47">
+      <c r="Q25" s="46">
         <f t="shared" si="8"/>
         <v>0.99981841507725688</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="41">
         <f t="shared" si="9"/>
         <v>3.1252273374928265E-7</v>
       </c>
-      <c r="S25" s="43">
+      <c r="S25" s="42">
         <f t="shared" si="10"/>
         <v>3.1252273374928265E-7</v>
       </c>
@@ -16973,71 +17187,71 @@
         <f t="shared" si="11"/>
         <v>1.717779554092204E-4</v>
       </c>
-      <c r="V25" s="86"/>
-      <c r="X25" s="60">
+      <c r="V25" s="89"/>
+      <c r="X25" s="59">
         <v>1.717779554092204E-4</v>
       </c>
-      <c r="Y25" s="61">
+      <c r="Y25" s="60">
         <v>1.717779554092204E-4</v>
       </c>
-      <c r="Z25" s="86"/>
-      <c r="AA25" s="40">
+      <c r="Z25" s="89"/>
+      <c r="AA25" s="39">
         <v>14.22</v>
       </c>
     </row>
     <row r="26" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F26" s="40">
+      <c r="F26" s="39">
         <v>16.78</v>
       </c>
-      <c r="G26" s="41">
+      <c r="G26" s="40">
         <f t="shared" si="1"/>
         <v>1.6780000000000002E-5</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="41">
         <f t="shared" si="14"/>
         <v>7.6171652595754591E-2</v>
       </c>
-      <c r="I26" s="43">
+      <c r="I26" s="42">
         <f t="shared" si="0"/>
         <v>7.6171652595754591E-2</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="43">
         <f t="shared" si="2"/>
         <v>-6.0384728426624035</v>
       </c>
-      <c r="K26" s="42">
+      <c r="K26" s="41">
         <f t="shared" si="3"/>
         <v>-5.0304636930708531E-3</v>
       </c>
-      <c r="L26" s="79">
+      <c r="L26" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="44">
         <f t="shared" si="13"/>
         <v>0.99981576884316392</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="45">
         <f t="shared" si="5"/>
         <v>-6.0384728426624035</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O26" s="42">
         <f t="shared" si="6"/>
         <v>-5.0304636930708531E-3</v>
       </c>
-      <c r="P26" s="80">
+      <c r="P26" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="47">
+      <c r="Q26" s="46">
         <f t="shared" si="8"/>
         <v>0.99981576884316392</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="41">
         <f t="shared" si="9"/>
         <v>9.045168793098904E-7</v>
       </c>
-      <c r="S26" s="43">
+      <c r="S26" s="42">
         <f t="shared" si="10"/>
         <v>9.045168793098904E-7</v>
       </c>
@@ -17049,71 +17263,71 @@
         <f t="shared" si="11"/>
         <v>2.4480058404148877E-4</v>
       </c>
-      <c r="V26" s="86"/>
-      <c r="X26" s="60">
+      <c r="V26" s="89"/>
+      <c r="X26" s="59">
         <v>2.4480058404148877E-4</v>
       </c>
-      <c r="Y26" s="61">
+      <c r="Y26" s="60">
         <v>2.4480058404148877E-4</v>
       </c>
-      <c r="Z26" s="86"/>
-      <c r="AA26" s="40">
+      <c r="Z26" s="89"/>
+      <c r="AA26" s="39">
         <v>16.78</v>
       </c>
     </row>
     <row r="27" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F27" s="48">
+      <c r="F27" s="47">
         <v>19.809999999999999</v>
       </c>
-      <c r="G27" s="49">
+      <c r="G27" s="48">
         <f t="shared" si="1"/>
         <v>1.9809999999999998E-5</v>
       </c>
-      <c r="H27" s="50">
+      <c r="H27" s="49">
         <f t="shared" si="14"/>
         <v>0.12533458724845364</v>
       </c>
-      <c r="I27" s="51">
+      <c r="I27" s="50">
         <f t="shared" si="0"/>
         <v>0.12533458724845364</v>
       </c>
-      <c r="J27" s="52">
+      <c r="J27" s="51">
         <f t="shared" si="2"/>
         <v>-5.5826213501211264</v>
       </c>
-      <c r="K27" s="50">
+      <c r="K27" s="49">
         <f t="shared" si="3"/>
         <v>-5.0336432666532802E-3</v>
       </c>
-      <c r="L27" s="77">
+      <c r="L27" s="76">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M27" s="53">
+      <c r="M27" s="52">
         <f t="shared" si="13"/>
         <v>0.99981168145604227</v>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="53">
         <f t="shared" si="5"/>
         <v>-5.5826213501211264</v>
       </c>
-      <c r="O27" s="51">
+      <c r="O27" s="50">
         <f t="shared" si="6"/>
         <v>-5.0336432666532802E-3</v>
       </c>
-      <c r="P27" s="78">
+      <c r="P27" s="77">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="54">
         <f t="shared" si="8"/>
         <v>0.99981168145604227</v>
       </c>
-      <c r="R27" s="50">
+      <c r="R27" s="49">
         <f t="shared" si="9"/>
         <v>2.5838256975009671E-6</v>
       </c>
-      <c r="S27" s="51">
+      <c r="S27" s="50">
         <f t="shared" si="10"/>
         <v>2.5838256975009671E-6</v>
       </c>
@@ -17125,15 +17339,15 @@
         <f t="shared" si="11"/>
         <v>3.4734519500379977E-4</v>
       </c>
-      <c r="V27" s="87"/>
-      <c r="X27" s="58">
+      <c r="V27" s="90"/>
+      <c r="X27" s="57">
         <v>3.4734519500379977E-4</v>
       </c>
-      <c r="Y27" s="59">
+      <c r="Y27" s="58">
         <v>3.4734519500379977E-4</v>
       </c>
-      <c r="Z27" s="87"/>
-      <c r="AA27" s="48">
+      <c r="Z27" s="90"/>
+      <c r="AA27" s="47">
         <v>19.809999999999999</v>
       </c>
     </row>
@@ -17142,138 +17356,138 @@
         <f>F28/1000</f>
         <v>2.3370000000000002E-2</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>23.37</v>
       </c>
-      <c r="G28" s="29">
+      <c r="G28" s="28">
         <f t="shared" si="1"/>
         <v>2.3370000000000002E-5</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="29">
         <f t="shared" si="14"/>
         <v>0.20577549056321934</v>
       </c>
-      <c r="I28" s="31">
+      <c r="I28" s="30">
         <f t="shared" si="0"/>
         <v>0.20577549056321934</v>
       </c>
-      <c r="J28" s="32">
+      <c r="J28" s="31">
         <f t="shared" si="2"/>
         <v>-5.1362008009543354</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="29">
         <f t="shared" si="3"/>
         <v>-5.0368089603621191E-3</v>
       </c>
-      <c r="L28" s="33">
+      <c r="L28" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M28" s="34">
+      <c r="M28" s="33">
         <f t="shared" si="13"/>
         <v>0.99980541633298248</v>
       </c>
-      <c r="N28" s="35">
+      <c r="N28" s="34">
         <f t="shared" si="5"/>
         <v>-5.1362008009543354</v>
       </c>
-      <c r="O28" s="31">
+      <c r="O28" s="30">
         <f t="shared" si="6"/>
         <v>-5.0368089603621191E-3</v>
       </c>
-      <c r="P28" s="36">
+      <c r="P28" s="35">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="37">
+      <c r="Q28" s="36">
         <f t="shared" si="8"/>
         <v>0.99980541633298248</v>
       </c>
-      <c r="R28" s="30">
+      <c r="R28" s="29">
         <f t="shared" si="9"/>
         <v>7.2223390980361179E-6</v>
       </c>
-      <c r="S28" s="31">
+      <c r="S28" s="30">
         <f t="shared" si="10"/>
         <v>7.2223390980361179E-6</v>
       </c>
-      <c r="T28" s="38">
+      <c r="T28" s="37">
         <f t="shared" si="11"/>
         <v>4.8928982306787011E-4</v>
       </c>
-      <c r="U28" s="62">
+      <c r="U28" s="61">
         <f t="shared" si="11"/>
         <v>4.8928982306787011E-4</v>
       </c>
-      <c r="V28" s="88" t="s">
+      <c r="V28" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="X28" s="73">
+      <c r="X28" s="72">
         <v>4.8928982306787011E-4</v>
       </c>
-      <c r="Y28" s="74">
+      <c r="Y28" s="73">
         <v>4.8928982306787011E-4</v>
       </c>
-      <c r="Z28" s="91" t="s">
+      <c r="Z28" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="AA28" s="28">
+      <c r="AA28" s="27">
         <v>23.37</v>
       </c>
     </row>
     <row r="29" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F29" s="40">
+      <c r="F29" s="39">
         <v>27.58</v>
       </c>
-      <c r="G29" s="41">
+      <c r="G29" s="40">
         <f t="shared" si="1"/>
         <v>2.7579999999999997E-5</v>
       </c>
-      <c r="H29" s="42">
+      <c r="H29" s="41">
         <f t="shared" si="14"/>
         <v>0.33822078567116048</v>
       </c>
-      <c r="I29" s="43">
+      <c r="I29" s="42">
         <f t="shared" si="0"/>
         <v>0.33822078567116048</v>
       </c>
-      <c r="J29" s="44">
+      <c r="J29" s="43">
         <f t="shared" si="2"/>
         <v>-4.6966574166781623</v>
       </c>
-      <c r="K29" s="42">
+      <c r="K29" s="41">
         <f t="shared" si="3"/>
         <v>-5.0399820119946918E-3</v>
       </c>
-      <c r="L29" s="79">
+      <c r="L29" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="44">
         <f t="shared" si="13"/>
         <v>0.99979575255694553</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="45">
         <f t="shared" si="5"/>
         <v>-4.6966574166781623</v>
       </c>
-      <c r="O29" s="43">
+      <c r="O29" s="42">
         <f t="shared" si="6"/>
         <v>-5.0399820119946918E-3</v>
       </c>
-      <c r="P29" s="80">
+      <c r="P29" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="47">
+      <c r="Q29" s="46">
         <f t="shared" si="8"/>
         <v>0.99979575255694553</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="41">
         <f t="shared" si="9"/>
         <v>1.9870733039743954E-5</v>
       </c>
-      <c r="S29" s="43">
+      <c r="S29" s="42">
         <f t="shared" si="10"/>
         <v>1.9870733039743954E-5</v>
       </c>
@@ -17281,75 +17495,75 @@
         <f t="shared" si="11"/>
         <v>6.8561164797057382E-4</v>
       </c>
-      <c r="U29" s="63">
+      <c r="U29" s="62">
         <f t="shared" si="11"/>
         <v>6.8561164797057382E-4</v>
       </c>
-      <c r="V29" s="89"/>
-      <c r="X29" s="75">
+      <c r="V29" s="83"/>
+      <c r="X29" s="74">
         <v>6.8561164797057382E-4</v>
       </c>
-      <c r="Y29" s="76">
+      <c r="Y29" s="75">
         <v>6.8561164797057382E-4</v>
       </c>
-      <c r="Z29" s="92"/>
-      <c r="AA29" s="40">
+      <c r="Z29" s="86"/>
+      <c r="AA29" s="39">
         <v>27.58</v>
       </c>
     </row>
     <row r="30" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F30" s="40">
+      <c r="F30" s="39">
         <v>32.549999999999997</v>
       </c>
-      <c r="G30" s="41">
+      <c r="G30" s="40">
         <f t="shared" si="1"/>
         <v>3.2549999999999998E-5</v>
       </c>
-      <c r="H30" s="42">
+      <c r="H30" s="41">
         <f t="shared" si="14"/>
         <v>0.55599448945316676</v>
       </c>
-      <c r="I30" s="43">
+      <c r="I30" s="42">
         <f t="shared" si="0"/>
         <v>0.55599448945316676</v>
       </c>
-      <c r="J30" s="44">
+      <c r="J30" s="43">
         <f t="shared" si="2"/>
         <v>-4.2653022459175345</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K30" s="41">
         <f t="shared" si="3"/>
         <v>-5.0431563726127861E-3</v>
       </c>
-      <c r="L30" s="79">
+      <c r="L30" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="44">
         <f t="shared" si="13"/>
         <v>0.99978086798575039</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="45">
         <f t="shared" si="5"/>
         <v>-4.2653022459175345</v>
       </c>
-      <c r="O30" s="43">
+      <c r="O30" s="42">
         <f t="shared" si="6"/>
         <v>-5.0431563726127861E-3</v>
       </c>
-      <c r="P30" s="80">
+      <c r="P30" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="47">
+      <c r="Q30" s="46">
         <f t="shared" si="8"/>
         <v>0.99978086798575039</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="41">
         <f t="shared" si="9"/>
         <v>5.3648726772461845E-5</v>
       </c>
-      <c r="S30" s="43">
+      <c r="S30" s="42">
         <f t="shared" si="10"/>
         <v>5.3648726772461845E-5</v>
       </c>
@@ -17357,75 +17571,75 @@
         <f t="shared" si="11"/>
         <v>9.5468485023822707E-4</v>
       </c>
-      <c r="U30" s="63">
+      <c r="U30" s="62">
         <f t="shared" si="11"/>
         <v>9.5468485023822707E-4</v>
       </c>
-      <c r="V30" s="89"/>
-      <c r="X30" s="75">
+      <c r="V30" s="83"/>
+      <c r="X30" s="74">
         <v>9.5468485023822707E-4</v>
       </c>
-      <c r="Y30" s="76">
+      <c r="Y30" s="75">
         <v>9.5468485023822707E-4</v>
       </c>
-      <c r="Z30" s="92"/>
-      <c r="AA30" s="40">
+      <c r="Z30" s="86"/>
+      <c r="AA30" s="39">
         <v>32.549999999999997</v>
       </c>
     </row>
     <row r="31" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>38.409999999999997</v>
       </c>
-      <c r="G31" s="41">
+      <c r="G31" s="40">
         <f t="shared" si="1"/>
         <v>3.8409999999999993E-5</v>
       </c>
-      <c r="H31" s="42">
+      <c r="H31" s="41">
         <f t="shared" si="14"/>
         <v>0.91358809162499932</v>
       </c>
-      <c r="I31" s="43">
+      <c r="I31" s="42">
         <f t="shared" si="0"/>
         <v>0.91358809162499932</v>
       </c>
-      <c r="J31" s="44">
+      <c r="J31" s="43">
         <f t="shared" si="2"/>
         <v>-3.843030544181695</v>
       </c>
-      <c r="K31" s="42">
+      <c r="K31" s="41">
         <f t="shared" si="3"/>
         <v>-5.0463285117463346E-3</v>
       </c>
-      <c r="L31" s="79">
+      <c r="L31" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="44">
         <f t="shared" si="13"/>
         <v>0.99975797281574219</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="45">
         <f t="shared" si="5"/>
         <v>-3.843030544181695</v>
       </c>
-      <c r="O31" s="43">
+      <c r="O31" s="42">
         <f t="shared" si="6"/>
         <v>-5.0463285117463346E-3</v>
       </c>
-      <c r="P31" s="80">
+      <c r="P31" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="47">
+      <c r="Q31" s="46">
         <f t="shared" si="8"/>
         <v>0.99975797281574219</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="41">
         <f t="shared" si="9"/>
         <v>1.418462972629921E-4</v>
       </c>
-      <c r="S31" s="43">
+      <c r="S31" s="42">
         <f t="shared" si="10"/>
         <v>1.418462972629921E-4</v>
       </c>
@@ -17433,75 +17647,75 @@
         <f t="shared" si="11"/>
         <v>1.3201184238772503E-3</v>
       </c>
-      <c r="U31" s="63">
+      <c r="U31" s="62">
         <f t="shared" si="11"/>
         <v>1.3201184238772503E-3</v>
       </c>
-      <c r="V31" s="89"/>
-      <c r="X31" s="75">
+      <c r="V31" s="83"/>
+      <c r="X31" s="74">
         <v>1.3201184238772503E-3</v>
       </c>
-      <c r="Y31" s="76">
+      <c r="Y31" s="75">
         <v>1.3201184238772503E-3</v>
       </c>
-      <c r="Z31" s="92"/>
-      <c r="AA31" s="40">
+      <c r="Z31" s="86"/>
+      <c r="AA31" s="39">
         <v>38.409999999999997</v>
       </c>
     </row>
     <row r="32" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="F32" s="40">
+      <c r="F32" s="39">
         <v>45.32</v>
       </c>
-      <c r="G32" s="41">
+      <c r="G32" s="40">
         <f t="shared" si="1"/>
         <v>4.532E-5</v>
       </c>
-      <c r="H32" s="42">
+      <c r="H32" s="41">
         <f t="shared" si="14"/>
         <v>1.5006769505651687</v>
       </c>
-      <c r="I32" s="43">
+      <c r="I32" s="42">
         <f t="shared" si="0"/>
         <v>1.5006769505651687</v>
       </c>
-      <c r="J32" s="44">
+      <c r="J32" s="43">
         <f t="shared" si="2"/>
         <v>-3.4300955873925449</v>
       </c>
-      <c r="K32" s="42">
+      <c r="K32" s="41">
         <f t="shared" si="3"/>
         <v>-5.0494994308165958E-3</v>
       </c>
-      <c r="L32" s="79">
+      <c r="L32" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="44">
         <f t="shared" si="13"/>
         <v>0.99972276086996059</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="45">
         <f t="shared" si="5"/>
         <v>-3.4300955873925449</v>
       </c>
-      <c r="O32" s="43">
+      <c r="O32" s="42">
         <f t="shared" si="6"/>
         <v>-5.0494994308165958E-3</v>
       </c>
-      <c r="P32" s="80">
+      <c r="P32" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q32" s="47">
+      <c r="Q32" s="46">
         <f t="shared" si="8"/>
         <v>0.99972276086996059</v>
       </c>
-      <c r="R32" s="42">
+      <c r="R32" s="41">
         <f t="shared" si="9"/>
         <v>3.6705783023210063E-4</v>
       </c>
-      <c r="S32" s="43">
+      <c r="S32" s="42">
         <f t="shared" si="10"/>
         <v>3.6705783023210063E-4</v>
       </c>
@@ -17509,75 +17723,75 @@
         <f t="shared" si="11"/>
         <v>1.8123902704242931E-3</v>
       </c>
-      <c r="U32" s="63">
+      <c r="U32" s="62">
         <f t="shared" si="11"/>
         <v>1.8123902704242931E-3</v>
       </c>
-      <c r="V32" s="89"/>
-      <c r="X32" s="75">
+      <c r="V32" s="83"/>
+      <c r="X32" s="74">
         <v>1.8123902704242931E-3</v>
       </c>
-      <c r="Y32" s="76">
+      <c r="Y32" s="75">
         <v>1.8123902704242931E-3</v>
       </c>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="40">
+      <c r="Z32" s="86"/>
+      <c r="AA32" s="39">
         <v>45.32</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <v>53.48</v>
       </c>
-      <c r="G33" s="41">
+      <c r="G33" s="40">
         <f t="shared" si="1"/>
         <v>5.3479999999999996E-5</v>
       </c>
-      <c r="H33" s="42">
+      <c r="H33" s="41">
         <f t="shared" si="14"/>
         <v>2.4659922325048571</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="42">
         <f t="shared" si="0"/>
         <v>2.4659922325048571</v>
       </c>
-      <c r="J33" s="44">
+      <c r="J33" s="43">
         <f t="shared" si="2"/>
         <v>-3.026240124025446</v>
       </c>
-      <c r="K33" s="42">
+      <c r="K33" s="41">
         <f t="shared" si="3"/>
         <v>-5.0526741810178214E-3</v>
       </c>
-      <c r="L33" s="79">
+      <c r="L33" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M33" s="45">
+      <c r="M33" s="44">
         <f t="shared" si="13"/>
         <v>0.99966852792178962</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="45">
         <f t="shared" si="5"/>
         <v>-3.026240124025446</v>
       </c>
-      <c r="O33" s="43">
+      <c r="O33" s="42">
         <f t="shared" si="6"/>
         <v>-5.0526741810178214E-3</v>
       </c>
-      <c r="P33" s="80">
+      <c r="P33" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q33" s="47">
+      <c r="Q33" s="46">
         <f t="shared" si="8"/>
         <v>0.99966852792178962</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="41">
         <f t="shared" si="9"/>
         <v>9.301719125668368E-4</v>
       </c>
-      <c r="S33" s="43">
+      <c r="S33" s="42">
         <f t="shared" si="10"/>
         <v>9.301719125668368E-4</v>
       </c>
@@ -17585,75 +17799,75 @@
         <f t="shared" si="11"/>
         <v>2.4709348697770643E-3</v>
       </c>
-      <c r="U33" s="63">
+      <c r="U33" s="62">
         <f t="shared" si="11"/>
         <v>2.4709348697770643E-3</v>
       </c>
-      <c r="V33" s="89"/>
-      <c r="X33" s="75">
+      <c r="V33" s="83"/>
+      <c r="X33" s="74">
         <v>2.4709348697770643E-3</v>
       </c>
-      <c r="Y33" s="76">
+      <c r="Y33" s="75">
         <v>2.4709348697770643E-3</v>
       </c>
-      <c r="Z33" s="92"/>
-      <c r="AA33" s="40">
+      <c r="Z33" s="86"/>
+      <c r="AA33" s="39">
         <v>53.48</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F34" s="40">
+      <c r="F34" s="39">
         <v>63.11</v>
       </c>
-      <c r="G34" s="41">
+      <c r="G34" s="40">
         <f t="shared" si="1"/>
         <v>6.3109999999999997E-5</v>
       </c>
-      <c r="H34" s="42">
+      <c r="H34" s="41">
         <f t="shared" si="14"/>
         <v>4.0523975960813701</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="42">
         <f t="shared" si="0"/>
         <v>4.0523975960813701</v>
       </c>
-      <c r="J34" s="44">
+      <c r="J34" s="43">
         <f t="shared" si="2"/>
         <v>-2.6320683568251937</v>
       </c>
-      <c r="K34" s="42">
+      <c r="K34" s="41">
         <f t="shared" si="3"/>
         <v>-5.0558512642244037E-3</v>
       </c>
-      <c r="L34" s="79">
+      <c r="L34" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="44">
         <f t="shared" si="13"/>
         <v>0.99958504924693514</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="45">
         <f t="shared" si="5"/>
         <v>-2.6320683568251937</v>
       </c>
-      <c r="O34" s="43">
+      <c r="O34" s="42">
         <f t="shared" si="6"/>
         <v>-5.0558512642244037E-3</v>
       </c>
-      <c r="P34" s="80">
+      <c r="P34" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q34" s="47">
+      <c r="Q34" s="46">
         <f t="shared" si="8"/>
         <v>0.99958504924693514</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="41">
         <f t="shared" si="9"/>
         <v>2.3051306412923286E-3</v>
       </c>
-      <c r="S34" s="43">
+      <c r="S34" s="42">
         <f t="shared" si="10"/>
         <v>2.3051306412923286E-3</v>
       </c>
@@ -17661,75 +17875,75 @@
         <f t="shared" si="11"/>
         <v>3.3437880313139522E-3</v>
       </c>
-      <c r="U34" s="63">
+      <c r="U34" s="62">
         <f t="shared" si="11"/>
         <v>3.3437880313139522E-3</v>
       </c>
-      <c r="V34" s="89"/>
-      <c r="X34" s="75">
+      <c r="V34" s="83"/>
+      <c r="X34" s="74">
         <v>3.3437880313139522E-3</v>
       </c>
-      <c r="Y34" s="76">
+      <c r="Y34" s="75">
         <v>3.3437880313139522E-3</v>
       </c>
-      <c r="Z34" s="92"/>
-      <c r="AA34" s="40">
+      <c r="Z34" s="86"/>
+      <c r="AA34" s="39">
         <v>63.11</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>74.48</v>
       </c>
-      <c r="G35" s="41">
+      <c r="G35" s="40">
         <f t="shared" si="1"/>
         <v>7.4480000000000005E-5</v>
       </c>
-      <c r="H35" s="42">
+      <c r="H35" s="41">
         <f>(($C$3-$C$9)*$C$4*G35^3)/($C$9*$C$11^2)</f>
         <v>6.6609551961034095</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="42">
         <f t="shared" si="0"/>
         <v>6.6609551961034095</v>
       </c>
-      <c r="J35" s="44">
+      <c r="J35" s="43">
         <f t="shared" si="2"/>
         <v>-2.2477062357087751</v>
       </c>
-      <c r="K35" s="42">
+      <c r="K35" s="41">
         <f t="shared" si="3"/>
         <v>-5.0590331143412709E-3</v>
       </c>
-      <c r="L35" s="79">
+      <c r="L35" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="44">
         <f t="shared" si="13"/>
         <v>0.99945649861415786</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="45">
         <f t="shared" si="5"/>
         <v>-2.2477062357087751</v>
       </c>
-      <c r="O35" s="43">
+      <c r="O35" s="42">
         <f t="shared" si="6"/>
         <v>-5.0590331143412709E-3</v>
       </c>
-      <c r="P35" s="80">
+      <c r="P35" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="47">
+      <c r="Q35" s="46">
         <f t="shared" si="8"/>
         <v>0.99945649861415786</v>
       </c>
-      <c r="R35" s="42">
+      <c r="R35" s="41">
         <f t="shared" si="9"/>
         <v>5.5846842962336187E-3</v>
       </c>
-      <c r="S35" s="43">
+      <c r="S35" s="42">
         <f t="shared" si="10"/>
         <v>5.5846842962336187E-3</v>
       </c>
@@ -17737,75 +17951,75 @@
         <f t="shared" si="11"/>
         <v>4.4909659967837211E-3</v>
       </c>
-      <c r="U35" s="63">
+      <c r="U35" s="62">
         <f t="shared" si="11"/>
         <v>4.4909659967837211E-3</v>
       </c>
-      <c r="V35" s="89"/>
-      <c r="X35" s="75">
+      <c r="V35" s="83"/>
+      <c r="X35" s="74">
         <v>4.4909659967837211E-3</v>
       </c>
-      <c r="Y35" s="76">
+      <c r="Y35" s="75">
         <v>4.4909659967837211E-3</v>
       </c>
-      <c r="Z35" s="92"/>
-      <c r="AA35" s="40">
+      <c r="Z35" s="86"/>
+      <c r="AA35" s="39">
         <v>74.48</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F36" s="40">
+      <c r="F36" s="39">
         <v>87.89</v>
       </c>
-      <c r="G36" s="41">
+      <c r="G36" s="40">
         <f t="shared" si="1"/>
         <v>8.789E-5</v>
       </c>
-      <c r="H36" s="42">
+      <c r="H36" s="41">
         <f t="shared" si="14"/>
         <v>10.945507476196674</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="42">
         <f t="shared" si="0"/>
         <v>10.945507476196674</v>
       </c>
-      <c r="J36" s="44">
+      <c r="J36" s="43">
         <f t="shared" si="2"/>
         <v>-1.8738103111200923</v>
       </c>
-      <c r="K36" s="42">
+      <c r="K36" s="41">
         <f t="shared" si="3"/>
         <v>-5.0622180916810866E-3</v>
       </c>
-      <c r="L36" s="79">
+      <c r="L36" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M36" s="44">
         <f t="shared" si="13"/>
         <v>0.99925879055978761</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="45">
         <f t="shared" si="5"/>
         <v>-1.8738103111200923</v>
       </c>
-      <c r="O36" s="43">
+      <c r="O36" s="42">
         <f t="shared" si="6"/>
         <v>-5.0622180916810866E-3</v>
       </c>
-      <c r="P36" s="80">
+      <c r="P36" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="47">
+      <c r="Q36" s="46">
         <f t="shared" si="8"/>
         <v>0.99925879055978761</v>
       </c>
-      <c r="R36" s="42">
+      <c r="R36" s="41">
         <f t="shared" si="9"/>
         <v>1.3207038633828994E-2</v>
       </c>
-      <c r="S36" s="43">
+      <c r="S36" s="42">
         <f t="shared" si="10"/>
         <v>1.3207038633828994E-2</v>
       </c>
@@ -17813,75 +18027,75 @@
         <f t="shared" si="11"/>
         <v>5.9833173831147181E-3</v>
       </c>
-      <c r="U36" s="63">
+      <c r="U36" s="62">
         <f t="shared" si="11"/>
         <v>5.9833173831147181E-3</v>
       </c>
-      <c r="V36" s="89"/>
-      <c r="X36" s="75">
+      <c r="V36" s="83"/>
+      <c r="X36" s="74">
         <v>5.9833173831147181E-3</v>
       </c>
-      <c r="Y36" s="76">
+      <c r="Y36" s="75">
         <v>5.9833173831147181E-3</v>
       </c>
-      <c r="Z36" s="92"/>
-      <c r="AA36" s="40">
+      <c r="Z36" s="86"/>
+      <c r="AA36" s="39">
         <v>87.89</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F37" s="40">
+      <c r="F37" s="39">
         <v>103.72</v>
       </c>
-      <c r="G37" s="41">
+      <c r="G37" s="40">
         <f t="shared" si="1"/>
         <v>1.0371999999999999E-4</v>
       </c>
-      <c r="H37" s="42">
+      <c r="H37" s="41">
         <f t="shared" si="14"/>
         <v>17.988917614723785</v>
       </c>
-      <c r="I37" s="43">
+      <c r="I37" s="42">
         <f t="shared" si="0"/>
         <v>17.988917614723785</v>
       </c>
-      <c r="J37" s="44">
+      <c r="J37" s="43">
         <f t="shared" si="2"/>
         <v>-1.5102597276006804</v>
       </c>
-      <c r="K37" s="42">
+      <c r="K37" s="41">
         <f t="shared" si="3"/>
         <v>-5.0654117448495168E-3</v>
       </c>
-      <c r="L37" s="79">
+      <c r="L37" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M37" s="45">
+      <c r="M37" s="44">
         <f t="shared" si="13"/>
         <v>0.99895453433954895</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="45">
         <f t="shared" si="5"/>
         <v>-1.5102597276006804</v>
       </c>
-      <c r="O37" s="43">
+      <c r="O37" s="42">
         <f t="shared" si="6"/>
         <v>-5.0654117448495168E-3</v>
       </c>
-      <c r="P37" s="80">
+      <c r="P37" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q37" s="47">
+      <c r="Q37" s="46">
         <f t="shared" si="8"/>
         <v>0.99895453433954895</v>
       </c>
-      <c r="R37" s="42">
+      <c r="R37" s="41">
         <f t="shared" si="9"/>
         <v>3.0494434438775014E-2</v>
       </c>
-      <c r="S37" s="43">
+      <c r="S37" s="42">
         <f t="shared" si="10"/>
         <v>3.0494434438775014E-2</v>
       </c>
@@ -17889,75 +18103,75 @@
         <f t="shared" si="11"/>
         <v>7.9082505235363483E-3</v>
       </c>
-      <c r="U37" s="63">
+      <c r="U37" s="62">
         <f t="shared" si="11"/>
         <v>7.9082505235363483E-3</v>
       </c>
-      <c r="V37" s="89"/>
-      <c r="X37" s="75">
+      <c r="V37" s="83"/>
+      <c r="X37" s="74">
         <v>7.9082505235363483E-3</v>
       </c>
-      <c r="Y37" s="76">
+      <c r="Y37" s="75">
         <v>7.9082505235363483E-3</v>
       </c>
-      <c r="Z37" s="92"/>
-      <c r="AA37" s="40">
+      <c r="Z37" s="86"/>
+      <c r="AA37" s="39">
         <v>103.72</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F38" s="40">
+      <c r="F38" s="39">
         <v>122.39</v>
       </c>
-      <c r="G38" s="41">
+      <c r="G38" s="40">
         <f t="shared" si="1"/>
         <v>1.2239E-4</v>
       </c>
-      <c r="H38" s="42">
+      <c r="H38" s="41">
         <f t="shared" si="14"/>
         <v>29.556657080231638</v>
       </c>
-      <c r="I38" s="43">
+      <c r="I38" s="42">
         <f t="shared" si="0"/>
         <v>29.556657080231638</v>
       </c>
-      <c r="J38" s="44">
+      <c r="J38" s="43">
         <f t="shared" si="2"/>
         <v>-1.1575601535961468</v>
       </c>
-      <c r="K38" s="42">
+      <c r="K38" s="41">
         <f t="shared" si="3"/>
         <v>-5.06861538012582E-3</v>
       </c>
-      <c r="L38" s="79">
+      <c r="L38" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="44">
         <f t="shared" si="13"/>
         <v>0.9984869286606195</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="45">
         <f t="shared" si="5"/>
         <v>-1.1575601535961468</v>
       </c>
-      <c r="O38" s="43">
+      <c r="O38" s="42">
         <f t="shared" si="6"/>
         <v>-5.06861538012582E-3</v>
       </c>
-      <c r="P38" s="80">
+      <c r="P38" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q38" s="47">
+      <c r="Q38" s="46">
         <f t="shared" si="8"/>
         <v>0.9984869286606195</v>
       </c>
-      <c r="R38" s="42">
+      <c r="R38" s="41">
         <f t="shared" si="9"/>
         <v>6.8661551845728044E-2</v>
       </c>
-      <c r="S38" s="43">
+      <c r="S38" s="42">
         <f t="shared" si="10"/>
         <v>6.8661551845728044E-2</v>
       </c>
@@ -17965,75 +18179,75 @@
         <f t="shared" si="11"/>
         <v>1.0365209776430582E-2</v>
       </c>
-      <c r="U38" s="63">
+      <c r="U38" s="62">
         <f t="shared" si="11"/>
         <v>1.0365209776430582E-2</v>
       </c>
-      <c r="V38" s="89"/>
-      <c r="X38" s="75">
+      <c r="V38" s="83"/>
+      <c r="X38" s="74">
         <v>1.0365209776430582E-2</v>
       </c>
-      <c r="Y38" s="76">
+      <c r="Y38" s="75">
         <v>1.0365209776430582E-2</v>
       </c>
-      <c r="Z38" s="92"/>
-      <c r="AA38" s="40">
+      <c r="Z38" s="86"/>
+      <c r="AA38" s="39">
         <v>122.39</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F39" s="40">
+      <c r="F39" s="39">
         <v>144.43</v>
       </c>
-      <c r="G39" s="41">
+      <c r="G39" s="40">
         <f t="shared" si="1"/>
         <v>1.4443E-4</v>
       </c>
-      <c r="H39" s="42">
+      <c r="H39" s="41">
         <f t="shared" si="14"/>
         <v>48.572420069365506</v>
       </c>
-      <c r="I39" s="43">
+      <c r="I39" s="42">
         <f t="shared" si="0"/>
         <v>48.572420069365506</v>
       </c>
-      <c r="J39" s="44">
+      <c r="J39" s="43">
         <f t="shared" si="2"/>
         <v>-0.81553945740156109</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="41">
         <f t="shared" si="3"/>
         <v>-5.0718382956470819E-3</v>
       </c>
-      <c r="L39" s="79">
+      <c r="L39" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="44">
         <f t="shared" si="13"/>
         <v>0.99776803974222372</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="45">
         <f t="shared" si="5"/>
         <v>-0.81553945740156109</v>
       </c>
-      <c r="O39" s="43">
+      <c r="O39" s="42">
         <f t="shared" si="6"/>
         <v>-5.0718382956470819E-3</v>
       </c>
-      <c r="P39" s="80">
+      <c r="P39" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="47">
+      <c r="Q39" s="46">
         <f t="shared" si="8"/>
         <v>0.99776803974222372</v>
       </c>
-      <c r="R39" s="42">
+      <c r="R39" s="41">
         <f t="shared" si="9"/>
         <v>0.1508058861404421</v>
       </c>
-      <c r="S39" s="43">
+      <c r="S39" s="42">
         <f t="shared" si="10"/>
         <v>0.1508058861404421</v>
       </c>
@@ -18041,75 +18255,75 @@
         <f t="shared" si="11"/>
         <v>1.3473476069702436E-2</v>
       </c>
-      <c r="U39" s="63">
+      <c r="U39" s="62">
         <f t="shared" si="11"/>
         <v>1.3473476069702436E-2</v>
       </c>
-      <c r="V39" s="89"/>
-      <c r="X39" s="75">
+      <c r="V39" s="83"/>
+      <c r="X39" s="74">
         <v>1.3473476069702436E-2</v>
       </c>
-      <c r="Y39" s="76">
+      <c r="Y39" s="75">
         <v>1.3473476069702436E-2</v>
       </c>
-      <c r="Z39" s="92"/>
-      <c r="AA39" s="40">
+      <c r="Z39" s="86"/>
+      <c r="AA39" s="39">
         <v>144.43</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F40" s="40">
+      <c r="F40" s="39">
         <v>170.44</v>
       </c>
-      <c r="G40" s="41">
+      <c r="G40" s="40">
         <f t="shared" si="1"/>
         <v>1.7044E-4</v>
       </c>
-      <c r="H40" s="42">
+      <c r="H40" s="41">
         <f t="shared" si="14"/>
         <v>79.823742406499179</v>
       </c>
-      <c r="I40" s="43">
+      <c r="I40" s="42">
         <f t="shared" si="0"/>
         <v>79.823742406499179</v>
       </c>
-      <c r="J40" s="44">
+      <c r="J40" s="43">
         <f t="shared" si="2"/>
         <v>-0.48445880008509856</v>
       </c>
-      <c r="K40" s="42">
+      <c r="K40" s="41">
         <f t="shared" si="3"/>
         <v>-5.0750889731977552E-3</v>
       </c>
-      <c r="L40" s="79">
+      <c r="L40" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="44">
         <f t="shared" si="13"/>
         <v>0.9966641369531436</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="45">
         <f t="shared" si="5"/>
         <v>-0.48445880008509856</v>
       </c>
-      <c r="O40" s="43">
+      <c r="O40" s="42">
         <f t="shared" si="6"/>
         <v>-5.0750889731977552E-3</v>
       </c>
-      <c r="P40" s="80">
+      <c r="P40" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="47">
+      <c r="Q40" s="46">
         <f t="shared" si="8"/>
         <v>0.9966641369531436</v>
       </c>
-      <c r="R40" s="42">
+      <c r="R40" s="41">
         <f t="shared" si="9"/>
         <v>0.32286052024051864</v>
       </c>
-      <c r="S40" s="43">
+      <c r="S40" s="42">
         <f t="shared" si="10"/>
         <v>0.32286052024051864</v>
       </c>
@@ -18117,19 +18331,19 @@
         <f t="shared" si="11"/>
         <v>1.7365149974295474E-2</v>
       </c>
-      <c r="U40" s="63">
+      <c r="U40" s="62">
         <f t="shared" si="11"/>
         <v>1.7365149974295474E-2</v>
       </c>
-      <c r="V40" s="89"/>
-      <c r="X40" s="75">
+      <c r="V40" s="83"/>
+      <c r="X40" s="74">
         <v>1.7365149974295474E-2</v>
       </c>
-      <c r="Y40" s="76">
+      <c r="Y40" s="75">
         <v>1.7365149974295474E-2</v>
       </c>
-      <c r="Z40" s="93"/>
-      <c r="AA40" s="40">
+      <c r="Z40" s="87"/>
+      <c r="AA40" s="39">
         <v>170.44</v>
       </c>
     </row>
@@ -18137,138 +18351,138 @@
       <c r="A41" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F41" s="28">
+      <c r="F41" s="27">
         <v>201.13</v>
       </c>
-      <c r="G41" s="29">
+      <c r="G41" s="28">
         <f t="shared" si="1"/>
         <v>2.0112999999999999E-4</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="29">
         <f t="shared" si="14"/>
         <v>131.17409281293925</v>
       </c>
-      <c r="I41" s="31">
+      <c r="I41" s="30">
         <f t="shared" si="0"/>
         <v>131.17409281293925</v>
       </c>
-      <c r="J41" s="32">
+      <c r="J41" s="31">
         <f t="shared" si="2"/>
         <v>-0.16447363152188624</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="29">
         <f t="shared" si="3"/>
         <v>-5.0783815226431925E-3</v>
       </c>
-      <c r="L41" s="33">
+      <c r="L41" s="32">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M41" s="34">
+      <c r="M41" s="33">
         <f t="shared" si="13"/>
         <v>0.99497169991580436</v>
       </c>
-      <c r="N41" s="35">
+      <c r="N41" s="34">
         <f t="shared" si="5"/>
         <v>-0.16447363152188624</v>
       </c>
-      <c r="O41" s="31">
+      <c r="O41" s="30">
         <f t="shared" si="6"/>
         <v>-5.0783815226431925E-3</v>
       </c>
-      <c r="P41" s="36">
+      <c r="P41" s="35">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="37">
+      <c r="Q41" s="36">
         <f t="shared" si="8"/>
         <v>0.99497169991580436</v>
       </c>
-      <c r="R41" s="30">
+      <c r="R41" s="29">
         <f t="shared" si="9"/>
         <v>0.67337767716538299</v>
       </c>
-      <c r="S41" s="31">
+      <c r="S41" s="30">
         <f t="shared" si="10"/>
         <v>0.67337767716538299</v>
       </c>
-      <c r="T41" s="38">
+      <c r="T41" s="37">
         <f t="shared" si="11"/>
         <v>2.2186721374268217E-2</v>
       </c>
-      <c r="U41" s="62">
+      <c r="U41" s="61">
         <f t="shared" si="11"/>
         <v>2.2186721374268217E-2</v>
       </c>
-      <c r="V41" s="88" t="s">
+      <c r="V41" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="X41" s="67">
+      <c r="X41" s="66">
         <v>2.2186721374268217E-2</v>
       </c>
-      <c r="Y41" s="68">
+      <c r="Y41" s="67">
         <v>2.2186721374268217E-2</v>
       </c>
-      <c r="Z41" s="91" t="s">
+      <c r="Z41" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="AA41" s="28">
+      <c r="AA41" s="27">
         <v>201.13</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F42" s="40">
+      <c r="F42" s="39">
         <v>237.35</v>
       </c>
-      <c r="G42" s="41">
+      <c r="G42" s="40">
         <f t="shared" si="1"/>
         <v>2.3735E-4</v>
       </c>
-      <c r="H42" s="42">
+      <c r="H42" s="41">
         <f t="shared" si="14"/>
         <v>215.56845876769901</v>
       </c>
-      <c r="I42" s="43">
+      <c r="I42" s="42">
         <f t="shared" si="0"/>
         <v>215.56845876769901</v>
       </c>
-      <c r="J42" s="44">
+      <c r="J42" s="43">
         <f t="shared" si="2"/>
         <v>0.14441178117956802</v>
       </c>
-      <c r="K42" s="42">
+      <c r="K42" s="41">
         <f t="shared" si="3"/>
         <v>-5.0817388130634019E-3</v>
       </c>
-      <c r="L42" s="79">
+      <c r="L42" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="44">
         <f t="shared" si="13"/>
         <v>0.99238196619982677</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="45">
         <f t="shared" si="5"/>
         <v>0.14441178117956802</v>
       </c>
-      <c r="O42" s="43">
+      <c r="O42" s="42">
         <f t="shared" si="6"/>
         <v>-5.0817388130634019E-3</v>
       </c>
-      <c r="P42" s="80">
+      <c r="P42" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="47">
+      <c r="Q42" s="46">
         <f t="shared" si="8"/>
         <v>0.99238196619982677</v>
       </c>
-      <c r="R42" s="42">
+      <c r="R42" s="41">
         <f t="shared" si="9"/>
         <v>1.3677568734551588</v>
       </c>
-      <c r="S42" s="43">
+      <c r="S42" s="42">
         <f t="shared" si="10"/>
         <v>1.3677568734551588</v>
       </c>
@@ -18276,75 +18490,75 @@
         <f t="shared" si="11"/>
         <v>2.8098072344662502E-2</v>
       </c>
-      <c r="U42" s="63">
+      <c r="U42" s="62">
         <f t="shared" si="11"/>
         <v>2.8098072344662502E-2</v>
       </c>
-      <c r="V42" s="89"/>
-      <c r="X42" s="69">
+      <c r="V42" s="83"/>
+      <c r="X42" s="68">
         <v>2.8098072344662502E-2</v>
       </c>
-      <c r="Y42" s="70">
+      <c r="Y42" s="69">
         <v>2.8098072344662502E-2</v>
       </c>
-      <c r="Z42" s="92"/>
-      <c r="AA42" s="40">
+      <c r="Z42" s="86"/>
+      <c r="AA42" s="39">
         <v>237.35</v>
       </c>
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F43" s="40">
+      <c r="F43" s="39">
         <v>280.08999999999997</v>
       </c>
-      <c r="G43" s="41">
+      <c r="G43" s="40">
         <f t="shared" si="1"/>
         <v>2.8008999999999998E-4</v>
       </c>
-      <c r="H43" s="42">
+      <c r="H43" s="41">
         <f t="shared" si="14"/>
         <v>354.25037547335052</v>
       </c>
-      <c r="I43" s="43">
+      <c r="I43" s="42">
         <f t="shared" si="0"/>
         <v>354.25037547335052</v>
       </c>
-      <c r="J43" s="44">
+      <c r="J43" s="43">
         <f t="shared" si="2"/>
         <v>0.44210314130919315</v>
       </c>
-      <c r="K43" s="42">
+      <c r="K43" s="41">
         <f t="shared" si="3"/>
         <v>-5.085193539788274E-3</v>
       </c>
-      <c r="L43" s="79">
+      <c r="L43" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="44">
         <f t="shared" si="13"/>
         <v>0.98843279876936041</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="45">
         <f t="shared" si="5"/>
         <v>0.44210314130919315</v>
       </c>
-      <c r="O43" s="43">
+      <c r="O43" s="42">
         <f t="shared" si="6"/>
         <v>-5.085193539788274E-3</v>
       </c>
-      <c r="P43" s="80">
+      <c r="P43" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="47">
+      <c r="Q43" s="46">
         <f t="shared" si="8"/>
         <v>0.98843279876936041</v>
       </c>
-      <c r="R43" s="42">
+      <c r="R43" s="41">
         <f t="shared" si="9"/>
         <v>2.7037410557437065</v>
       </c>
-      <c r="S43" s="43">
+      <c r="S43" s="42">
         <f t="shared" si="10"/>
         <v>2.7037410557437065</v>
       </c>
@@ -18352,75 +18566,75 @@
         <f t="shared" si="11"/>
         <v>3.5263757769241511E-2</v>
       </c>
-      <c r="U43" s="63">
+      <c r="U43" s="62">
         <f t="shared" si="11"/>
         <v>3.5263757769241511E-2</v>
       </c>
-      <c r="V43" s="89"/>
-      <c r="X43" s="69">
+      <c r="V43" s="83"/>
+      <c r="X43" s="68">
         <v>3.5263757769241511E-2</v>
       </c>
-      <c r="Y43" s="70">
+      <c r="Y43" s="69">
         <v>3.5263757769241511E-2</v>
       </c>
-      <c r="Z43" s="92"/>
-      <c r="AA43" s="40">
+      <c r="Z43" s="86"/>
+      <c r="AA43" s="39">
         <v>280.08999999999997</v>
       </c>
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F44" s="40">
+      <c r="F44" s="39">
         <v>330.52</v>
       </c>
-      <c r="G44" s="41">
+      <c r="G44" s="40">
         <f t="shared" si="1"/>
         <v>3.3051999999999995E-4</v>
       </c>
-      <c r="H44" s="42">
+      <c r="H44" s="41">
         <f t="shared" si="14"/>
         <v>582.11761427569502</v>
       </c>
-      <c r="I44" s="43">
+      <c r="I44" s="42">
         <f t="shared" si="0"/>
         <v>582.11761427569502</v>
       </c>
-      <c r="J44" s="44">
+      <c r="J44" s="43">
         <f t="shared" si="2"/>
         <v>0.72856893186072591</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="41">
         <f t="shared" si="3"/>
         <v>-5.088794555359241E-3</v>
       </c>
-      <c r="L44" s="79">
+      <c r="L44" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="44">
         <f t="shared" si="13"/>
         <v>0.98244125517985381</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="45">
         <f t="shared" si="5"/>
         <v>0.72856893186072591</v>
       </c>
-      <c r="O44" s="43">
+      <c r="O44" s="42">
         <f t="shared" si="6"/>
         <v>-5.088794555359241E-3</v>
       </c>
-      <c r="P44" s="80">
+      <c r="P44" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q44" s="47">
+      <c r="Q44" s="46">
         <f t="shared" si="8"/>
         <v>0.98244125517985381</v>
       </c>
-      <c r="R44" s="42">
+      <c r="R44" s="41">
         <f t="shared" si="9"/>
         <v>5.197407019088744</v>
       </c>
-      <c r="S44" s="43">
+      <c r="S44" s="42">
         <f t="shared" si="10"/>
         <v>5.197407019088744</v>
       </c>
@@ -18428,75 +18642,75 @@
         <f t="shared" si="11"/>
         <v>4.3846587692519937E-2</v>
       </c>
-      <c r="U44" s="63">
+      <c r="U44" s="62">
         <f t="shared" si="11"/>
         <v>4.3846587692519937E-2</v>
       </c>
-      <c r="V44" s="89"/>
-      <c r="X44" s="69">
+      <c r="V44" s="83"/>
+      <c r="X44" s="68">
         <v>4.3846587692519937E-2</v>
       </c>
-      <c r="Y44" s="70">
+      <c r="Y44" s="69">
         <v>4.3846587692519937E-2</v>
       </c>
-      <c r="Z44" s="92"/>
-      <c r="AA44" s="40">
+      <c r="Z44" s="86"/>
+      <c r="AA44" s="39">
         <v>330.52</v>
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F45" s="40">
+      <c r="F45" s="39">
         <v>390.04</v>
       </c>
-      <c r="G45" s="41">
+      <c r="G45" s="40">
         <f t="shared" si="1"/>
         <v>3.9004000000000003E-4</v>
       </c>
-      <c r="H45" s="42">
+      <c r="H45" s="41">
         <f t="shared" si="14"/>
         <v>956.63210485233503</v>
       </c>
-      <c r="I45" s="43">
+      <c r="I45" s="42">
         <f t="shared" si="0"/>
         <v>956.63210485233503</v>
       </c>
-      <c r="J45" s="44">
+      <c r="J45" s="43">
         <f t="shared" si="2"/>
         <v>1.0038982670251357</v>
       </c>
-      <c r="K45" s="42">
+      <c r="K45" s="41">
         <f t="shared" si="3"/>
         <v>-5.0926138093752207E-3</v>
       </c>
-      <c r="L45" s="79">
+      <c r="L45" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="44">
         <f t="shared" si="13"/>
         <v>0.97341728394615856</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="45">
         <f t="shared" si="5"/>
         <v>1.0038982670251357</v>
       </c>
-      <c r="O45" s="43">
+      <c r="O45" s="42">
         <f t="shared" si="6"/>
         <v>-5.0926138093752207E-3</v>
       </c>
-      <c r="P45" s="80">
+      <c r="P45" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="47">
+      <c r="Q45" s="46">
         <f t="shared" si="8"/>
         <v>0.97341728394615856</v>
       </c>
-      <c r="R45" s="42">
+      <c r="R45" s="41">
         <f t="shared" si="9"/>
         <v>9.7074398116618905</v>
       </c>
-      <c r="S45" s="43">
+      <c r="S45" s="42">
         <f t="shared" si="10"/>
         <v>9.7074398116618905</v>
       </c>
@@ -18504,399 +18718,399 @@
         <f t="shared" si="11"/>
         <v>5.3997683195124831E-2</v>
       </c>
-      <c r="U45" s="63">
+      <c r="U45" s="62">
         <f t="shared" si="11"/>
         <v>5.3997683195124831E-2</v>
       </c>
-      <c r="V45" s="89"/>
-      <c r="X45" s="69">
+      <c r="V45" s="83"/>
+      <c r="X45" s="68">
         <v>5.3997683195124831E-2</v>
       </c>
-      <c r="Y45" s="70">
+      <c r="Y45" s="69">
         <v>5.3997683195124831E-2</v>
       </c>
-      <c r="Z45" s="92"/>
-      <c r="AA45" s="40">
+      <c r="Z45" s="86"/>
+      <c r="AA45" s="39">
         <v>390.04</v>
       </c>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F46" s="40">
+      <c r="F46" s="39">
         <v>460.27</v>
       </c>
-      <c r="G46" s="41">
+      <c r="G46" s="40">
         <f>F46*0.000001</f>
         <v>4.6026999999999998E-4</v>
       </c>
-      <c r="H46" s="42">
+      <c r="H46" s="41">
         <f t="shared" si="14"/>
         <v>1572.0107629719319</v>
       </c>
-      <c r="I46" s="43">
+      <c r="I46" s="42">
         <f t="shared" si="0"/>
         <v>1572.0107629719319</v>
       </c>
-      <c r="J46" s="44">
+      <c r="J46" s="43">
         <f t="shared" si="2"/>
         <v>1.2680583258594726</v>
       </c>
-      <c r="K46" s="42">
+      <c r="K46" s="41">
         <f t="shared" si="3"/>
         <v>-5.0967493360496025E-3</v>
       </c>
-      <c r="L46" s="79">
+      <c r="L46" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="44">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H46)-4.6)))^L46</f>
         <v>0.95998383159353606</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="45">
         <f t="shared" si="5"/>
         <v>1.2680583258594726</v>
       </c>
-      <c r="O46" s="43">
+      <c r="O46" s="42">
         <f t="shared" si="6"/>
         <v>-5.0967493360496025E-3</v>
       </c>
-      <c r="P46" s="80">
+      <c r="P46" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="47">
+      <c r="Q46" s="46">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(I46)-4.6)))^P46</f>
         <v>0.95998383159353606</v>
       </c>
-      <c r="R46" s="42">
+      <c r="R46" s="41">
         <f t="shared" si="9"/>
         <v>17.588366028668283</v>
       </c>
-      <c r="S46" s="43">
+      <c r="S46" s="42">
         <f t="shared" si="10"/>
         <v>17.588366028668283</v>
       </c>
-      <c r="T46" s="65">
+      <c r="T46" s="64">
         <f t="shared" si="11"/>
         <v>6.5828716789856301E-2</v>
       </c>
-      <c r="U46" s="63">
+      <c r="U46" s="62">
         <f t="shared" si="11"/>
         <v>6.5828716789856301E-2</v>
       </c>
-      <c r="V46" s="89"/>
-      <c r="X46" s="69">
+      <c r="V46" s="83"/>
+      <c r="X46" s="68">
         <v>6.5828716789856301E-2</v>
       </c>
-      <c r="Y46" s="70">
+      <c r="Y46" s="69">
         <v>6.5828716789856301E-2</v>
       </c>
-      <c r="Z46" s="92"/>
-      <c r="AA46" s="40">
+      <c r="Z46" s="86"/>
+      <c r="AA46" s="39">
         <v>460.27</v>
       </c>
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F47" s="40">
+      <c r="F47" s="39">
         <v>500</v>
       </c>
-      <c r="G47" s="41">
+      <c r="G47" s="40">
         <f t="shared" ref="G47:G50" si="15">F47*0.000001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H47" s="42">
+      <c r="H47" s="41">
         <f t="shared" si="14"/>
         <v>2015.2434651654771</v>
       </c>
-      <c r="I47" s="43">
+      <c r="I47" s="42">
         <f t="shared" si="0"/>
         <v>2015.2434651654771</v>
       </c>
-      <c r="J47" s="44">
+      <c r="J47" s="43">
         <f t="shared" si="2"/>
         <v>1.3960019000978718</v>
       </c>
-      <c r="K47" s="42">
+      <c r="K47" s="41">
         <f t="shared" si="3"/>
         <v>-5.0989758480438465E-3</v>
       </c>
-      <c r="L47" s="79">
+      <c r="L47" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M47" s="45">
+      <c r="M47" s="44">
         <f t="shared" ref="M47:M50" si="16">(0.65-(($C$5/2.83)*TANH(LOG10(H47)-4.6)))^L47</f>
         <v>0.95105968168042987</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="45">
         <f t="shared" si="5"/>
         <v>1.3960019000978718</v>
       </c>
-      <c r="O47" s="43">
+      <c r="O47" s="42">
         <f t="shared" si="6"/>
         <v>-5.0989758480438465E-3</v>
       </c>
-      <c r="P47" s="80">
+      <c r="P47" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="47">
+      <c r="Q47" s="46">
         <f t="shared" ref="Q47:Q50" si="17">(0.65-(($C$5/2.83)*TANH(LOG10(I47)-4.6)))^P47</f>
         <v>0.95105968168042987</v>
       </c>
-      <c r="R47" s="42">
+      <c r="R47" s="41">
         <f t="shared" si="9"/>
         <v>23.394334496981845</v>
       </c>
-      <c r="S47" s="43">
+      <c r="S47" s="42">
         <f t="shared" si="10"/>
         <v>23.394334496981845</v>
       </c>
-      <c r="T47" s="65">
+      <c r="T47" s="64">
         <f t="shared" si="11"/>
         <v>7.239531400119846E-2</v>
       </c>
-      <c r="U47" s="63">
+      <c r="U47" s="62">
         <f t="shared" si="11"/>
         <v>7.239531400119846E-2</v>
       </c>
-      <c r="V47" s="89"/>
-      <c r="X47" s="69">
+      <c r="V47" s="83"/>
+      <c r="X47" s="68">
         <v>7.239531400119846E-2</v>
       </c>
-      <c r="Y47" s="70">
+      <c r="Y47" s="69">
         <v>7.239531400119846E-2</v>
       </c>
-      <c r="Z47" s="92"/>
-      <c r="AA47" s="40">
+      <c r="Z47" s="86"/>
+      <c r="AA47" s="39">
         <v>500</v>
       </c>
     </row>
     <row r="48" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="F48" s="40">
+      <c r="F48" s="39">
         <v>700</v>
       </c>
-      <c r="G48" s="41">
+      <c r="G48" s="40">
         <f t="shared" si="15"/>
         <v>6.9999999999999999E-4</v>
       </c>
-      <c r="H48" s="42">
+      <c r="H48" s="41">
         <f t="shared" si="14"/>
         <v>5529.8280684140682</v>
       </c>
-      <c r="I48" s="43">
+      <c r="I48" s="42">
         <f t="shared" si="0"/>
         <v>5529.8280684140682</v>
       </c>
-      <c r="J48" s="44">
+      <c r="J48" s="43">
         <f t="shared" si="2"/>
         <v>1.8877387528283112</v>
       </c>
-      <c r="K48" s="42">
+      <c r="K48" s="41">
         <f t="shared" si="3"/>
         <v>-5.1095834711911269E-3</v>
       </c>
-      <c r="L48" s="79">
+      <c r="L48" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="44">
         <f t="shared" si="16"/>
         <v>0.89307751044653472</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="45">
         <f t="shared" si="5"/>
         <v>1.8877387528283112</v>
       </c>
-      <c r="O48" s="43">
+      <c r="O48" s="42">
         <f t="shared" si="6"/>
         <v>-5.1095834711911269E-3</v>
       </c>
-      <c r="P48" s="80">
+      <c r="P48" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q48" s="47">
+      <c r="Q48" s="46">
         <f t="shared" si="17"/>
         <v>0.89307751044653472</v>
       </c>
-      <c r="R48" s="42">
+      <c r="R48" s="41">
         <f t="shared" si="9"/>
         <v>68.158232935136581</v>
       </c>
-      <c r="S48" s="43">
+      <c r="S48" s="42">
         <f t="shared" si="10"/>
         <v>68.158232935136581</v>
       </c>
-      <c r="T48" s="65">
+      <c r="T48" s="64">
         <f t="shared" si="11"/>
         <v>0.10339820477958585</v>
       </c>
-      <c r="U48" s="63">
+      <c r="U48" s="62">
         <f t="shared" si="11"/>
         <v>0.10339820477958585</v>
       </c>
-      <c r="V48" s="89"/>
-      <c r="X48" s="69">
+      <c r="V48" s="83"/>
+      <c r="X48" s="68">
         <v>0.10339820477958585</v>
       </c>
-      <c r="Y48" s="70">
+      <c r="Y48" s="69">
         <v>0.10339820477958585</v>
       </c>
-      <c r="Z48" s="92"/>
-      <c r="AA48" s="40">
+      <c r="Z48" s="86"/>
+      <c r="AA48" s="39">
         <v>700</v>
       </c>
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F49" s="40">
+      <c r="F49" s="39">
         <v>1000</v>
       </c>
-      <c r="G49" s="41">
+      <c r="G49" s="40">
         <f t="shared" si="15"/>
         <v>1E-3</v>
       </c>
-      <c r="H49" s="42">
+      <c r="H49" s="41">
         <f t="shared" si="14"/>
         <v>16121.947721323817</v>
       </c>
-      <c r="I49" s="43">
+      <c r="I49" s="42">
         <f t="shared" si="0"/>
         <v>16121.947721323817</v>
       </c>
-      <c r="J49" s="44">
+      <c r="J49" s="43">
         <f t="shared" si="2"/>
         <v>2.3605449654625583</v>
       </c>
-      <c r="K49" s="42">
+      <c r="K49" s="41">
         <f t="shared" si="3"/>
         <v>-5.1244846730787233E-3</v>
       </c>
-      <c r="L49" s="79">
+      <c r="L49" s="78">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M49" s="45">
+      <c r="M49" s="44">
         <f t="shared" si="16"/>
         <v>0.78068854758118844</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="45">
         <f t="shared" si="5"/>
         <v>2.3605449654625583</v>
       </c>
-      <c r="O49" s="43">
+      <c r="O49" s="42">
         <f t="shared" si="6"/>
         <v>-5.1244846730787233E-3</v>
       </c>
-      <c r="P49" s="80">
+      <c r="P49" s="79">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q49" s="47">
+      <c r="Q49" s="46">
         <f t="shared" si="17"/>
         <v>0.78068854758118844</v>
       </c>
-      <c r="R49" s="42">
+      <c r="R49" s="41">
         <f t="shared" si="9"/>
         <v>176.96944515192342</v>
       </c>
-      <c r="S49" s="43">
+      <c r="S49" s="42">
         <f t="shared" si="10"/>
         <v>176.96944515192342</v>
       </c>
-      <c r="T49" s="65">
+      <c r="T49" s="64">
         <f t="shared" si="11"/>
         <v>0.1421149131940441</v>
       </c>
-      <c r="U49" s="63">
+      <c r="U49" s="62">
         <f t="shared" si="11"/>
         <v>0.1421149131940441</v>
       </c>
-      <c r="V49" s="89"/>
-      <c r="X49" s="69">
+      <c r="V49" s="83"/>
+      <c r="X49" s="68">
         <v>0.1421149131940441</v>
       </c>
-      <c r="Y49" s="70">
+      <c r="Y49" s="69">
         <v>0.1421149131940441</v>
       </c>
-      <c r="Z49" s="92"/>
-      <c r="AA49" s="40">
+      <c r="Z49" s="86"/>
+      <c r="AA49" s="39">
         <v>1000</v>
       </c>
     </row>
     <row r="50" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F50" s="48">
+      <c r="F50" s="47">
         <v>2000</v>
       </c>
-      <c r="G50" s="49">
+      <c r="G50" s="48">
         <f t="shared" si="15"/>
         <v>2E-3</v>
       </c>
-      <c r="H50" s="50">
+      <c r="H50" s="49">
         <f t="shared" si="14"/>
         <v>128975.58177059054</v>
       </c>
-      <c r="I50" s="51">
+      <c r="I50" s="50">
         <f t="shared" si="0"/>
         <v>128975.58177059054</v>
       </c>
-      <c r="J50" s="52">
+      <c r="J50" s="51">
         <f t="shared" si="2"/>
         <v>3.1443715795166498</v>
       </c>
-      <c r="K50" s="50">
+      <c r="K50" s="49">
         <f t="shared" si="3"/>
         <v>-5.1589585323120867E-3</v>
       </c>
-      <c r="L50" s="77">
+      <c r="L50" s="76">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M50" s="53">
+      <c r="M50" s="52">
         <f t="shared" si="16"/>
         <v>0.48546391684983248</v>
       </c>
-      <c r="N50" s="54">
+      <c r="N50" s="53">
         <f t="shared" si="5"/>
         <v>3.1443715795166498</v>
       </c>
-      <c r="O50" s="51">
+      <c r="O50" s="50">
         <f t="shared" si="6"/>
         <v>-5.1589585323120867E-3</v>
       </c>
-      <c r="P50" s="78">
+      <c r="P50" s="77">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="55">
+      <c r="Q50" s="54">
         <f t="shared" si="17"/>
         <v>0.48546391684983248</v>
       </c>
-      <c r="R50" s="50">
+      <c r="R50" s="49">
         <f t="shared" si="9"/>
         <v>668.91290792306756</v>
       </c>
-      <c r="S50" s="51">
+      <c r="S50" s="50">
         <f t="shared" si="10"/>
         <v>668.91290792306756</v>
       </c>
-      <c r="T50" s="66">
+      <c r="T50" s="65">
         <f t="shared" si="11"/>
         <v>0.2213757692058618</v>
       </c>
-      <c r="U50" s="64">
+      <c r="U50" s="63">
         <f t="shared" si="11"/>
         <v>0.2213757692058618</v>
       </c>
-      <c r="V50" s="90"/>
-      <c r="X50" s="71">
+      <c r="V50" s="84"/>
+      <c r="X50" s="70">
         <v>0.2213757692058618</v>
       </c>
-      <c r="Y50" s="72">
+      <c r="Y50" s="71">
         <v>0.2213757692058618</v>
       </c>
-      <c r="Z50" s="93"/>
-      <c r="AA50" s="48">
+      <c r="Z50" s="87"/>
+      <c r="AA50" s="47">
         <v>2000</v>
       </c>
     </row>
@@ -18908,18 +19122,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="V14:V27"/>
+    <mergeCell ref="Z14:Z27"/>
+    <mergeCell ref="V28:V40"/>
+    <mergeCell ref="Z28:Z40"/>
+    <mergeCell ref="V41:V50"/>
+    <mergeCell ref="Z41:Z50"/>
     <mergeCell ref="J1:M1"/>
     <mergeCell ref="N1:Q1"/>
     <mergeCell ref="V3:V13"/>
     <mergeCell ref="Z3:Z13"/>
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="V14:V27"/>
-    <mergeCell ref="Z14:Z27"/>
-    <mergeCell ref="V28:V40"/>
-    <mergeCell ref="Z28:Z40"/>
-    <mergeCell ref="V41:V50"/>
-    <mergeCell ref="Z41:Z50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Shear Stress/shear_velocity/settling_velocity_calculation.xlsx
+++ b/Shear Stress/shear_velocity/settling_velocity_calculation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\huck4481\Documents\GitHub\La_Jara\Shear Stress\shear_velocity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1EE000-E3CA-4842-9E73-247237A9A063}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68CBDF4A-A96F-4E69-8A82-F04EE654587C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{182EAE7C-61D4-41EF-B487-ACB00DCC48F5}"/>
   </bookViews>
@@ -623,45 +623,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -712,15 +673,6 @@
     </xf>
     <xf numFmtId="167" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -779,19 +731,67 @@
     <xf numFmtId="167" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11110,8 +11110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Y29" sqref="Y29"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11150,18 +11150,18 @@
       <c r="I1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94" t="s">
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="16" t="s">
         <v>21</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>4.0342964188385286E-7</v>
       </c>
       <c r="I3" s="30">
-        <f t="shared" ref="I3:I50" si="0">(($C$3-$C$14)*$C$4*G3^3)/($C$14*$C$16^2)</f>
+        <f t="shared" ref="I3:I49" si="0">(($C$3-$C$14)*$C$4*G3^3)/($C$14*$C$16^2)</f>
         <v>5.1374244161996825E-7</v>
       </c>
       <c r="J3" s="31">
@@ -11324,7 +11324,7 @@
         <f>Q3*10^(N3+O3)</f>
         <v>3.2913340976862809E-18</v>
       </c>
-      <c r="T3" s="107">
+      <c r="T3" s="94">
         <f>((R3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>3.63718525289422E-8</v>
       </c>
@@ -11332,19 +11332,19 @@
         <f>((S3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>4.2420199719614925E-8</v>
       </c>
-      <c r="V3" s="112" t="s">
+      <c r="V3" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="X3" s="124">
+      <c r="X3" s="108">
         <v>3.63718525289422E-8</v>
       </c>
-      <c r="Y3" s="125">
+      <c r="Y3" s="109">
         <v>4.2420199719614925E-8</v>
       </c>
-      <c r="Z3" s="112" t="s">
+      <c r="Z3" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="AA3" s="108">
+      <c r="AA3" s="95">
         <v>0.37</v>
       </c>
     </row>
@@ -11364,75 +11364,75 @@
       <c r="F4" s="39">
         <v>0.44</v>
       </c>
-      <c r="G4" s="95">
+      <c r="G4" s="82">
         <f t="shared" ref="G4:G45" si="1">F4*0.000001</f>
         <v>4.3999999999999997E-7</v>
       </c>
-      <c r="H4" s="96">
+      <c r="H4" s="83">
         <f>(($C$3-$C$9)*$C$4*(G4^3))/($C$9*($C$11^2))</f>
         <v>6.7845439784877731E-7</v>
       </c>
-      <c r="I4" s="97">
+      <c r="I4" s="84">
         <f t="shared" si="0"/>
         <v>8.6396928408890635E-7</v>
       </c>
-      <c r="J4" s="98">
-        <f t="shared" ref="J4:J50" si="2">-3.76715+1.92944*LOG10(H4)-0.09815*(LOG10(H4))^2-0.00575*(LOG10(H4))^3+0.00056*(LOG10(H4))^4</f>
+      <c r="J4" s="85">
+        <f t="shared" ref="J4:J49" si="2">-3.76715+1.92944*LOG10(H4)-0.09815*(LOG10(H4))^2-0.00575*(LOG10(H4))^3+0.00056*(LOG10(H4))^4</f>
         <v>-17.243115456611378</v>
       </c>
-      <c r="K4" s="96">
-        <f t="shared" ref="K4:K50" si="3">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H4)-4.6)</f>
+      <c r="K4" s="83">
+        <f t="shared" ref="K4:K49" si="3">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H4)-4.6)</f>
         <v>-4.9562241418492784E-3</v>
       </c>
-      <c r="L4" s="99">
+      <c r="L4" s="86">
         <f t="shared" ref="L4:L51" si="4">(1+((3.5-$C$6)/2.5))</f>
         <v>1</v>
       </c>
-      <c r="M4" s="100">
+      <c r="M4" s="87">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H4)-4.6)))^L4</f>
         <v>0.9998233212446741</v>
       </c>
-      <c r="N4" s="101">
-        <f t="shared" ref="N4:N50" si="5">-3.76715+1.92944*LOG10(I4)-0.09815*(LOG10(I4))^2-0.00575*(LOG10(I4))^3+0.00056*(LOG10(I4))^4</f>
+      <c r="N4" s="88">
+        <f t="shared" ref="N4:N49" si="5">-3.76715+1.92944*LOG10(I4)-0.09815*(LOG10(I4))^2-0.00575*(LOG10(I4))^3+0.00056*(LOG10(I4))^4</f>
         <v>-17.036071534933207</v>
       </c>
-      <c r="O4" s="97">
-        <f t="shared" ref="O4:O50" si="6">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I4)-4.6)</f>
+      <c r="O4" s="84">
+        <f t="shared" ref="O4:O49" si="6">LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I4)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I4)-4.6)</f>
         <v>-4.9577673131727977E-3</v>
       </c>
-      <c r="P4" s="102">
+      <c r="P4" s="89">
         <f t="shared" ref="P4:P51" si="7">(1+((3.5-$C$6)/2.5))</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="103">
+      <c r="Q4" s="90">
         <f t="shared" ref="Q4:Q45" si="8">(0.65-(($C$5/2.83)*TANH(LOG10(I4)-4.6)))^P4</f>
         <v>0.9998233211722285</v>
       </c>
-      <c r="R4" s="96">
-        <f t="shared" ref="R4:R50" si="9">M4*10^(J4+K4)</f>
+      <c r="R4" s="83">
+        <f t="shared" ref="R4:R49" si="9">M4*10^(J4+K4)</f>
         <v>5.6474394318632291E-18</v>
       </c>
-      <c r="S4" s="97">
-        <f t="shared" ref="S4:S50" si="10">Q4*10^(N4+O4)</f>
+      <c r="S4" s="84">
+        <f t="shared" ref="S4:S49" si="10">Q4*10^(N4+O4)</f>
         <v>9.0969113045763503E-18</v>
       </c>
-      <c r="T4" s="105">
-        <f t="shared" ref="T4:T50" si="11">((R4*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
+      <c r="T4" s="92">
+        <f t="shared" ref="T4:T49" si="11">((R4*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.0784663580564273E-8</v>
       </c>
-      <c r="U4" s="104">
-        <f t="shared" ref="U4:U50" si="12">((S4*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
+      <c r="U4" s="91">
+        <f t="shared" ref="U4:U49" si="12">((S4*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.9531483620197396E-8</v>
       </c>
-      <c r="V4" s="113"/>
-      <c r="X4" s="126">
+      <c r="V4" s="125"/>
+      <c r="X4" s="110">
         <v>5.0784663580564273E-8</v>
       </c>
-      <c r="Y4" s="127">
+      <c r="Y4" s="111">
         <v>5.9531483620197396E-8</v>
       </c>
-      <c r="Z4" s="113"/>
-      <c r="AA4" s="108">
+      <c r="Z4" s="125"/>
+      <c r="AA4" s="95">
         <v>0.44</v>
       </c>
     </row>
@@ -11452,75 +11452,75 @@
       <c r="F5" s="39">
         <v>0.52</v>
       </c>
-      <c r="G5" s="95">
+      <c r="G5" s="82">
         <f t="shared" si="1"/>
         <v>5.2E-7</v>
       </c>
-      <c r="H5" s="96">
+      <c r="H5" s="83">
         <f t="shared" ref="H5:H9" si="13">(($C$3-$C$9)*$C$4*(G5^3))/($C$9*($C$11^2))</f>
         <v>1.119883029356697E-6</v>
       </c>
-      <c r="I5" s="97">
+      <c r="I5" s="84">
         <f t="shared" si="0"/>
         <v>1.4261010647207567E-6</v>
       </c>
-      <c r="J5" s="98">
+      <c r="J5" s="85">
         <f t="shared" si="2"/>
         <v>-16.810663525755434</v>
       </c>
-      <c r="K5" s="96">
+      <c r="K5" s="83">
         <f t="shared" si="3"/>
         <v>-4.9594236262826769E-3</v>
       </c>
-      <c r="L5" s="99">
+      <c r="L5" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M5" s="100">
+      <c r="M5" s="87">
         <f t="shared" ref="M5:M45" si="14">(0.65-(($C$5/2.83)*TANH(LOG10(H5)-4.6)))^L5</f>
         <v>0.99982332107553762</v>
       </c>
-      <c r="N5" s="101">
+      <c r="N5" s="88">
         <f t="shared" si="5"/>
         <v>-16.597827989013648</v>
       </c>
-      <c r="O5" s="97">
+      <c r="O5" s="84">
         <f t="shared" si="6"/>
         <v>-4.9609667976090333E-3</v>
       </c>
-      <c r="P5" s="102">
+      <c r="P5" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q5" s="103">
+      <c r="Q5" s="90">
         <f t="shared" si="8"/>
         <v>0.99982332096357773</v>
       </c>
-      <c r="R5" s="96">
+      <c r="R5" s="83">
         <f t="shared" si="9"/>
         <v>1.528622730272449E-17</v>
       </c>
-      <c r="S5" s="97">
+      <c r="S5" s="84">
         <f t="shared" si="10"/>
         <v>2.4953663060410846E-17</v>
       </c>
-      <c r="T5" s="105">
+      <c r="T5" s="92">
         <f t="shared" si="11"/>
         <v>7.0775371384014727E-8</v>
       </c>
-      <c r="U5" s="104">
+      <c r="U5" s="91">
         <f t="shared" si="12"/>
         <v>8.3334881356194801E-8</v>
       </c>
-      <c r="V5" s="113"/>
-      <c r="X5" s="117">
+      <c r="V5" s="125"/>
+      <c r="X5" s="101">
         <v>7.0775371384014701E-8</v>
       </c>
-      <c r="Y5" s="109">
+      <c r="Y5" s="96">
         <v>8.3334881356194801E-8</v>
       </c>
-      <c r="Z5" s="113"/>
-      <c r="AA5" s="137">
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="119">
         <v>0.52</v>
       </c>
     </row>
@@ -11540,75 +11540,75 @@
       <c r="F6" s="39">
         <v>0.61</v>
       </c>
-      <c r="G6" s="95">
+      <c r="G6" s="82">
         <f t="shared" si="1"/>
         <v>6.0999999999999998E-7</v>
       </c>
-      <c r="H6" s="96">
+      <c r="H6" s="83">
         <f t="shared" si="13"/>
         <v>1.8078073074534345E-6</v>
       </c>
-      <c r="I6" s="97">
+      <c r="I6" s="84">
         <f t="shared" si="0"/>
         <v>2.3021296496030246E-6</v>
       </c>
-      <c r="J6" s="98">
+      <c r="J6" s="85">
         <f>-3.76715+1.92944*LOG10(H6)-0.09815*(LOG10(H6))^2-0.00575*(LOG10(H6))^3+0.00056*(LOG10(H6))^4</f>
         <v>-16.386479902881327</v>
       </c>
-      <c r="K6" s="96">
+      <c r="K6" s="83">
         <f t="shared" si="3"/>
         <v>-4.9624809245701063E-3</v>
       </c>
-      <c r="L6" s="99">
+      <c r="L6" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M6" s="100">
+      <c r="M6" s="87">
         <f t="shared" si="14"/>
         <v>0.99982332082833791</v>
       </c>
-      <c r="N6" s="101">
+      <c r="N6" s="88">
         <f t="shared" si="5"/>
         <v>-16.168638977090627</v>
       </c>
-      <c r="O6" s="97">
+      <c r="O6" s="84">
         <f t="shared" si="6"/>
         <v>-4.9640240959006104E-3</v>
       </c>
-      <c r="P6" s="102">
+      <c r="P6" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="103">
+      <c r="Q6" s="90">
         <f t="shared" si="8"/>
         <v>0.99982332065862667</v>
       </c>
-      <c r="R6" s="96">
+      <c r="R6" s="83">
         <f t="shared" si="9"/>
         <v>4.0595778910837656E-17</v>
       </c>
-      <c r="S6" s="97">
+      <c r="S6" s="84">
         <f t="shared" si="10"/>
         <v>6.7037878367214552E-17</v>
       </c>
-      <c r="T6" s="105">
+      <c r="T6" s="92">
         <f t="shared" si="11"/>
         <v>9.8011193738497813E-8</v>
       </c>
-      <c r="U6" s="104">
+      <c r="U6" s="91">
         <f t="shared" si="12"/>
         <v>1.1584807088915935E-7</v>
       </c>
-      <c r="V6" s="113"/>
-      <c r="X6" s="126">
+      <c r="V6" s="125"/>
+      <c r="X6" s="110">
         <v>9.8011193738497813E-8</v>
       </c>
-      <c r="Y6" s="127">
+      <c r="Y6" s="111">
         <v>1.1584807088915935E-7</v>
       </c>
-      <c r="Z6" s="113"/>
-      <c r="AA6" s="108">
+      <c r="Z6" s="125"/>
+      <c r="AA6" s="95">
         <v>0.61</v>
       </c>
     </row>
@@ -11616,75 +11616,75 @@
       <c r="F7" s="39">
         <v>0.72</v>
       </c>
-      <c r="G7" s="95">
+      <c r="G7" s="82">
         <f t="shared" si="1"/>
         <v>7.1999999999999999E-7</v>
       </c>
-      <c r="H7" s="96">
+      <c r="H7" s="83">
         <f t="shared" si="13"/>
         <v>2.9727618694621109E-6</v>
       </c>
-      <c r="I7" s="97">
+      <c r="I7" s="84">
         <f t="shared" si="0"/>
         <v>3.7856264949710762E-6</v>
       </c>
-      <c r="J7" s="98">
+      <c r="J7" s="85">
         <f t="shared" si="2"/>
         <v>-15.935700579559288</v>
       </c>
-      <c r="K7" s="96">
+      <c r="K7" s="83">
         <f t="shared" si="3"/>
         <v>-4.9656562419669367E-3</v>
       </c>
-      <c r="L7" s="99">
+      <c r="L7" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M7" s="100">
+      <c r="M7" s="87">
         <f t="shared" si="14"/>
         <v>0.99982332043580302</v>
       </c>
-      <c r="N7" s="101">
+      <c r="N7" s="88">
         <f t="shared" si="5"/>
         <v>-15.713194364044837</v>
       </c>
-      <c r="O7" s="97">
+      <c r="O7" s="84">
         <f t="shared" si="6"/>
         <v>-4.967199413304025E-3</v>
       </c>
-      <c r="P7" s="102">
+      <c r="P7" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="103">
+      <c r="Q7" s="90">
         <f t="shared" si="8"/>
         <v>0.99982332017438669</v>
       </c>
-      <c r="R7" s="96">
+      <c r="R7" s="83">
         <f t="shared" si="9"/>
         <v>1.1461910856313748E-16</v>
       </c>
-      <c r="S7" s="97">
+      <c r="S7" s="84">
         <f t="shared" si="10"/>
         <v>1.9132058436003182E-16</v>
       </c>
-      <c r="T7" s="105">
+      <c r="T7" s="92">
         <f t="shared" si="11"/>
         <v>1.3852698904522814E-7</v>
       </c>
-      <c r="U7" s="104">
+      <c r="U7" s="91">
         <f t="shared" si="12"/>
         <v>1.643246132416318E-7</v>
       </c>
-      <c r="V7" s="113"/>
-      <c r="X7" s="126">
+      <c r="V7" s="125"/>
+      <c r="X7" s="110">
         <v>1.3852698904522814E-7</v>
       </c>
-      <c r="Y7" s="127">
+      <c r="Y7" s="111">
         <v>1.643246132416318E-7</v>
       </c>
-      <c r="Z7" s="113"/>
-      <c r="AA7" s="108">
+      <c r="Z7" s="125"/>
+      <c r="AA7" s="95">
         <v>0.72</v>
       </c>
     </row>
@@ -11692,83 +11692,83 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
       <c r="F8" s="39">
         <v>0.85</v>
       </c>
-      <c r="G8" s="95">
+      <c r="G8" s="82">
         <f t="shared" si="1"/>
         <v>8.4999999999999991E-7</v>
       </c>
-      <c r="H8" s="96">
+      <c r="H8" s="83">
         <f t="shared" si="13"/>
         <v>4.891244917811799E-6</v>
       </c>
-      <c r="I8" s="97">
+      <c r="I8" s="84">
         <f t="shared" si="0"/>
         <v>6.2286947853012246E-6</v>
       </c>
-      <c r="J8" s="98">
+      <c r="J8" s="85">
         <f t="shared" si="2"/>
         <v>-15.475063220410977</v>
       </c>
-      <c r="K8" s="96">
+      <c r="K8" s="83">
         <f t="shared" si="3"/>
         <v>-4.9688352535417965E-3</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M8" s="100">
+      <c r="M8" s="87">
         <f t="shared" si="14"/>
         <v>0.99982331983029171</v>
       </c>
-      <c r="N8" s="101">
+      <c r="N8" s="88">
         <f t="shared" si="5"/>
         <v>-15.24841658043041</v>
       </c>
-      <c r="O8" s="97">
+      <c r="O8" s="84">
         <f t="shared" si="6"/>
         <v>-4.9703784248890425E-3</v>
       </c>
-      <c r="P8" s="102">
+      <c r="P8" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="103">
+      <c r="Q8" s="90">
         <f t="shared" si="8"/>
         <v>0.99982331942741398</v>
       </c>
-      <c r="R8" s="96">
+      <c r="R8" s="83">
         <f t="shared" si="9"/>
         <v>3.3104818131540456E-16</v>
       </c>
-      <c r="S8" s="97">
+      <c r="S8" s="84">
         <f t="shared" si="10"/>
         <v>5.5787423327439345E-16</v>
       </c>
-      <c r="T8" s="105">
+      <c r="T8" s="92">
         <f t="shared" si="11"/>
         <v>1.9727821119408791E-7</v>
       </c>
-      <c r="U8" s="104">
+      <c r="U8" s="91">
         <f t="shared" si="12"/>
         <v>2.347618303469797E-7</v>
       </c>
-      <c r="V8" s="113"/>
-      <c r="X8" s="126">
+      <c r="V8" s="125"/>
+      <c r="X8" s="110">
         <v>1.9727821119408791E-7</v>
       </c>
-      <c r="Y8" s="127">
+      <c r="Y8" s="111">
         <v>2.347618303469797E-7</v>
       </c>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="108">
+      <c r="Z8" s="125"/>
+      <c r="AA8" s="95">
         <v>0.85</v>
       </c>
     </row>
@@ -11788,75 +11788,75 @@
       <c r="F9" s="39">
         <v>1.01</v>
       </c>
-      <c r="G9" s="95">
+      <c r="G9" s="82">
         <f t="shared" si="1"/>
         <v>1.0099999999999999E-6</v>
       </c>
-      <c r="H9" s="96">
+      <c r="H9" s="83">
         <f t="shared" si="13"/>
         <v>8.2059100835602097E-6</v>
       </c>
-      <c r="I9" s="97">
+      <c r="I9" s="84">
         <f t="shared" si="0"/>
         <v>1.0449713765097717E-5</v>
       </c>
-      <c r="J9" s="98">
+      <c r="J9" s="85">
         <f t="shared" si="2"/>
         <v>-14.987702075929651</v>
       </c>
-      <c r="K9" s="96">
+      <c r="K9" s="83">
         <f t="shared" si="3"/>
         <v>-4.9721384515718685E-3</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M9" s="100">
+      <c r="M9" s="87">
         <f t="shared" si="14"/>
         <v>0.99982331885183195</v>
       </c>
-      <c r="N9" s="101">
+      <c r="N9" s="88">
         <f t="shared" si="5"/>
         <v>-14.757300057520085</v>
       </c>
-      <c r="O9" s="97">
+      <c r="O9" s="84">
         <f t="shared" si="6"/>
         <v>-4.9736816229355284E-3</v>
       </c>
-      <c r="P9" s="102">
+      <c r="P9" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q9" s="103">
+      <c r="Q9" s="90">
         <f t="shared" si="8"/>
         <v>0.99982331822036363</v>
       </c>
-      <c r="R9" s="96">
+      <c r="R9" s="83">
         <f t="shared" si="9"/>
         <v>1.016831630200425E-15</v>
       </c>
-      <c r="S9" s="97">
+      <c r="S9" s="84">
         <f t="shared" si="10"/>
         <v>1.728420951786855E-15</v>
       </c>
-      <c r="T9" s="105">
+      <c r="T9" s="92">
         <f t="shared" si="11"/>
         <v>2.8676869167901045E-7</v>
       </c>
-      <c r="U9" s="104">
+      <c r="U9" s="91">
         <f t="shared" si="12"/>
         <v>3.4224088736910029E-7</v>
       </c>
-      <c r="V9" s="113"/>
-      <c r="X9" s="117">
+      <c r="V9" s="125"/>
+      <c r="X9" s="101">
         <v>2.8676869167901045E-7</v>
       </c>
-      <c r="Y9" s="109">
+      <c r="Y9" s="96">
         <v>3.4224088736910029E-7</v>
       </c>
-      <c r="Z9" s="113"/>
-      <c r="AA9" s="137">
+      <c r="Z9" s="125"/>
+      <c r="AA9" s="119">
         <v>1.01</v>
       </c>
     </row>
@@ -11876,75 +11876,75 @@
       <c r="F10" s="39">
         <v>1.19</v>
       </c>
-      <c r="G10" s="95">
+      <c r="G10" s="82">
         <f t="shared" si="1"/>
         <v>1.1899999999999998E-6</v>
       </c>
-      <c r="H10" s="96">
-        <f t="shared" ref="H10:H50" si="15">(($C$3-$C$9)*$C$4*G10^3)/($C$9*$C$11^2)</f>
+      <c r="H10" s="83">
+        <f t="shared" ref="H10:H49" si="15">(($C$3-$C$9)*$C$4*G10^3)/($C$9*$C$11^2)</f>
         <v>1.3421576054475575E-5</v>
       </c>
-      <c r="I10" s="97">
+      <c r="I10" s="84">
         <f t="shared" si="0"/>
         <v>1.7091538490866558E-5</v>
       </c>
-      <c r="J10" s="98">
+      <c r="J10" s="85">
         <f t="shared" si="2"/>
         <v>-14.517079453666399</v>
       </c>
-      <c r="K10" s="96">
+      <c r="K10" s="83">
         <f t="shared" si="3"/>
         <v>-4.9752795000889485E-3</v>
       </c>
-      <c r="L10" s="99">
+      <c r="L10" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M10" s="100">
+      <c r="M10" s="87">
         <f t="shared" si="14"/>
         <v>0.9998233174106399</v>
       </c>
-      <c r="N10" s="101">
+      <c r="N10" s="88">
         <f t="shared" si="5"/>
         <v>-14.283608886737035</v>
       </c>
-      <c r="O10" s="97">
+      <c r="O10" s="84">
         <f t="shared" si="6"/>
         <v>-4.9768226714767844E-3</v>
       </c>
-      <c r="P10" s="102">
+      <c r="P10" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="103">
+      <c r="Q10" s="90">
         <f t="shared" si="8"/>
         <v>0.99982331644247613</v>
       </c>
-      <c r="R10" s="96">
+      <c r="R10" s="83">
         <f t="shared" si="9"/>
         <v>3.0051664229841927E-15</v>
       </c>
-      <c r="S10" s="97">
+      <c r="S10" s="84">
         <f t="shared" si="10"/>
         <v>5.1444334226641987E-15</v>
       </c>
-      <c r="T10" s="105">
+      <c r="T10" s="92">
         <f t="shared" si="11"/>
         <v>4.1153321700708681E-7</v>
       </c>
-      <c r="U10" s="104">
+      <c r="U10" s="91">
         <f t="shared" si="12"/>
         <v>4.9229780900712516E-7</v>
       </c>
-      <c r="V10" s="113"/>
-      <c r="X10" s="126">
+      <c r="V10" s="125"/>
+      <c r="X10" s="110">
         <v>4.1153321700708681E-7</v>
       </c>
-      <c r="Y10" s="127">
+      <c r="Y10" s="111">
         <v>4.9229780900712516E-7</v>
       </c>
-      <c r="Z10" s="113"/>
-      <c r="AA10" s="108">
+      <c r="Z10" s="125"/>
+      <c r="AA10" s="95">
         <v>1.19</v>
       </c>
     </row>
@@ -11965,75 +11965,75 @@
       <c r="F11" s="39">
         <v>1.4</v>
       </c>
-      <c r="G11" s="95">
+      <c r="G11" s="82">
         <f t="shared" si="1"/>
         <v>1.3999999999999999E-6</v>
       </c>
-      <c r="H11" s="96">
+      <c r="H11" s="83">
         <f t="shared" si="15"/>
         <v>2.1854795122288748E-5</v>
       </c>
-      <c r="I11" s="97">
+      <c r="I11" s="84">
         <f t="shared" si="0"/>
         <v>2.7830716044561873E-5</v>
       </c>
-      <c r="J11" s="98">
+      <c r="J11" s="85">
         <f t="shared" si="2"/>
         <v>-14.044795978426297</v>
       </c>
-      <c r="K11" s="96">
+      <c r="K11" s="83">
         <f t="shared" si="3"/>
         <v>-4.9783921256218479E-3</v>
       </c>
-      <c r="L11" s="99">
+      <c r="L11" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M11" s="100">
+      <c r="M11" s="87">
         <f t="shared" si="14"/>
         <v>0.99982331522553491</v>
       </c>
-      <c r="N11" s="101">
+      <c r="N11" s="88">
         <f t="shared" si="5"/>
         <v>-13.80875407007907</v>
       </c>
-      <c r="O11" s="97">
+      <c r="O11" s="84">
         <f t="shared" si="6"/>
         <v>-4.9799352970463402E-3</v>
       </c>
-      <c r="P11" s="102">
+      <c r="P11" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="103">
+      <c r="Q11" s="90">
         <f t="shared" si="8"/>
         <v>0.99982331374688072</v>
       </c>
-      <c r="R11" s="96">
+      <c r="R11" s="83">
         <f t="shared" si="9"/>
         <v>8.9155653862583032E-15</v>
       </c>
-      <c r="S11" s="97">
+      <c r="S11" s="84">
         <f t="shared" si="10"/>
         <v>1.5352858737788547E-14</v>
       </c>
-      <c r="T11" s="105">
+      <c r="T11" s="92">
         <f t="shared" si="11"/>
         <v>5.9133240962389227E-7</v>
       </c>
-      <c r="U11" s="104">
+      <c r="U11" s="91">
         <f t="shared" si="12"/>
         <v>7.0878057045415601E-7</v>
       </c>
-      <c r="V11" s="113"/>
-      <c r="X11" s="126">
+      <c r="V11" s="125"/>
+      <c r="X11" s="110">
         <v>5.9133240962389227E-7</v>
       </c>
-      <c r="Y11" s="127">
+      <c r="Y11" s="111">
         <v>7.0878057045415601E-7</v>
       </c>
-      <c r="Z11" s="113"/>
-      <c r="AA11" s="108">
+      <c r="Z11" s="125"/>
+      <c r="AA11" s="95">
         <v>1.4</v>
       </c>
     </row>
@@ -12041,75 +12041,75 @@
       <c r="F12" s="39">
         <v>1.65</v>
       </c>
-      <c r="G12" s="95">
+      <c r="G12" s="82">
         <f t="shared" si="1"/>
         <v>1.6499999999999999E-6</v>
       </c>
-      <c r="H12" s="96">
+      <c r="H12" s="83">
         <f t="shared" si="15"/>
         <v>3.5777868636556618E-5</v>
       </c>
-      <c r="I12" s="97">
+      <c r="I12" s="84">
         <f t="shared" si="0"/>
         <v>4.5560880215625916E-5</v>
       </c>
-      <c r="J12" s="98">
+      <c r="J12" s="85">
         <f t="shared" si="2"/>
         <v>-13.562295358668354</v>
       </c>
-      <c r="K12" s="96">
+      <c r="K12" s="83">
         <f t="shared" si="3"/>
         <v>-4.9815389214311352E-3</v>
       </c>
-      <c r="L12" s="99">
+      <c r="L12" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M12" s="100">
+      <c r="M12" s="87">
         <f t="shared" si="14"/>
         <v>0.99982331184323014</v>
       </c>
-      <c r="N12" s="101">
+      <c r="N12" s="88">
         <f t="shared" si="5"/>
         <v>-13.324115203552235</v>
       </c>
-      <c r="O12" s="97">
+      <c r="O12" s="84">
         <f t="shared" si="6"/>
         <v>-4.9830820929123668E-3</v>
       </c>
-      <c r="P12" s="102">
+      <c r="P12" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="103">
+      <c r="Q12" s="90">
         <f t="shared" si="8"/>
         <v>0.99982330957439214</v>
       </c>
-      <c r="R12" s="96">
+      <c r="R12" s="83">
         <f t="shared" si="9"/>
         <v>2.7079856643893767E-14</v>
       </c>
-      <c r="S12" s="97">
+      <c r="S12" s="84">
         <f t="shared" si="10"/>
         <v>4.6862448040409074E-14</v>
       </c>
-      <c r="T12" s="105">
+      <c r="T12" s="92">
         <f t="shared" si="11"/>
         <v>8.5637537927746757E-7</v>
       </c>
-      <c r="U12" s="104">
+      <c r="U12" s="91">
         <f t="shared" si="12"/>
         <v>1.0281513336458287E-6</v>
       </c>
-      <c r="V12" s="113"/>
-      <c r="X12" s="126">
+      <c r="V12" s="125"/>
+      <c r="X12" s="110">
         <v>8.5637537927746757E-7</v>
       </c>
-      <c r="Y12" s="127">
+      <c r="Y12" s="111">
         <v>1.0281513336458287E-6</v>
       </c>
-      <c r="Z12" s="113"/>
-      <c r="AA12" s="108">
+      <c r="Z12" s="125"/>
+      <c r="AA12" s="95">
         <v>1.65</v>
       </c>
     </row>
@@ -12117,11 +12117,11 @@
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="F13" s="47">
         <v>1.95</v>
       </c>
@@ -12185,15 +12185,15 @@
         <f t="shared" si="12"/>
         <v>1.5050856358022601E-6</v>
       </c>
-      <c r="V13" s="114"/>
-      <c r="X13" s="118">
+      <c r="V13" s="126"/>
+      <c r="X13" s="102">
         <v>1.2519801324292888E-6</v>
       </c>
-      <c r="Y13" s="119">
+      <c r="Y13" s="103">
         <v>1.5050856358022601E-6</v>
       </c>
-      <c r="Z13" s="114"/>
-      <c r="AA13" s="137">
+      <c r="Z13" s="126"/>
+      <c r="AA13" s="119">
         <v>1.95</v>
       </c>
     </row>
@@ -12269,7 +12269,7 @@
         <f t="shared" si="10"/>
         <v>4.5792203196144499E-13</v>
       </c>
-      <c r="T14" s="107">
+      <c r="T14" s="94">
         <f t="shared" si="11"/>
         <v>1.8266930164019098E-6</v>
       </c>
@@ -12277,19 +12277,19 @@
         <f t="shared" si="12"/>
         <v>2.1980921686442242E-6</v>
       </c>
-      <c r="V14" s="112" t="s">
+      <c r="V14" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="X14" s="124">
+      <c r="X14" s="108">
         <v>1.82669301640191E-6</v>
       </c>
-      <c r="Y14" s="125">
+      <c r="Y14" s="109">
         <v>2.1980921686442199E-6</v>
       </c>
-      <c r="Z14" s="112" t="s">
+      <c r="Z14" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="AA14" s="108">
+      <c r="AA14" s="95">
         <v>2.2999999999999998</v>
       </c>
     </row>
@@ -12309,75 +12309,75 @@
       <c r="F15" s="39">
         <v>2.72</v>
       </c>
-      <c r="G15" s="95">
+      <c r="G15" s="82">
         <f t="shared" si="1"/>
         <v>2.7200000000000002E-6</v>
       </c>
-      <c r="H15" s="96">
+      <c r="H15" s="83">
         <f t="shared" si="15"/>
         <v>1.6027631346685709E-4</v>
       </c>
-      <c r="I15" s="97">
+      <c r="I15" s="84">
         <f t="shared" si="0"/>
         <v>2.0410187072475065E-4</v>
       </c>
-      <c r="J15" s="98">
+      <c r="J15" s="85">
         <f t="shared" si="2"/>
         <v>-12.072810073172706</v>
       </c>
-      <c r="K15" s="96">
+      <c r="K15" s="83">
         <f t="shared" si="3"/>
         <v>-4.9911123700270253E-3</v>
       </c>
-      <c r="L15" s="99">
+      <c r="L15" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M15" s="100">
+      <c r="M15" s="87">
         <f t="shared" si="14"/>
         <v>0.99982328583070323</v>
       </c>
-      <c r="N15" s="101">
+      <c r="N15" s="88">
         <f t="shared" si="5"/>
         <v>-11.830834140179157</v>
       </c>
-      <c r="O15" s="97">
+      <c r="O15" s="84">
         <f t="shared" si="6"/>
         <v>-4.9926555419446197E-3</v>
       </c>
-      <c r="P15" s="102">
+      <c r="P15" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q15" s="103">
+      <c r="Q15" s="90">
         <f t="shared" si="8"/>
         <v>0.99982327748474398</v>
       </c>
-      <c r="R15" s="96">
+      <c r="R15" s="83">
         <f t="shared" si="9"/>
         <v>8.3583790366670425E-13</v>
       </c>
-      <c r="S15" s="97">
+      <c r="S15" s="84">
         <f t="shared" si="10"/>
         <v>1.4591382689322625E-12</v>
       </c>
-      <c r="T15" s="105">
+      <c r="T15" s="92">
         <f t="shared" si="11"/>
         <v>2.68630965571977E-6</v>
       </c>
-      <c r="U15" s="104">
+      <c r="U15" s="91">
         <f t="shared" si="12"/>
         <v>3.2345524797995237E-6</v>
       </c>
-      <c r="V15" s="113"/>
-      <c r="X15" s="126">
+      <c r="V15" s="125"/>
+      <c r="X15" s="110">
         <v>2.68630965571977E-6</v>
       </c>
-      <c r="Y15" s="127">
+      <c r="Y15" s="111">
         <v>3.2345524797995237E-6</v>
       </c>
-      <c r="Z15" s="113"/>
-      <c r="AA15" s="108">
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="95">
         <v>2.72</v>
       </c>
     </row>
@@ -12398,75 +12398,75 @@
       <c r="F16" s="39">
         <v>3.2</v>
       </c>
-      <c r="G16" s="95">
+      <c r="G16" s="82">
         <f t="shared" si="1"/>
         <v>3.1999999999999999E-6</v>
       </c>
-      <c r="H16" s="96">
+      <c r="H16" s="83">
         <f t="shared" si="15"/>
         <v>2.6098320939036356E-4</v>
       </c>
-      <c r="I16" s="97">
+      <c r="I16" s="84">
         <f t="shared" si="0"/>
         <v>3.3234581025809164E-4</v>
       </c>
-      <c r="J16" s="98">
+      <c r="J16" s="85">
         <f t="shared" si="2"/>
         <v>-11.584482853004767</v>
       </c>
-      <c r="K16" s="96">
+      <c r="K16" s="83">
         <f t="shared" si="3"/>
         <v>-4.9942249967555672E-3</v>
       </c>
-      <c r="L16" s="99">
+      <c r="L16" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M16" s="100">
+      <c r="M16" s="87">
         <f t="shared" si="14"/>
         <v>0.99982326699422397</v>
       </c>
-      <c r="N16" s="101">
+      <c r="N16" s="88">
         <f t="shared" si="5"/>
         <v>-11.34210504943429</v>
       </c>
-      <c r="O16" s="97">
+      <c r="O16" s="84">
         <f t="shared" si="6"/>
         <v>-4.9957681689891467E-3</v>
       </c>
-      <c r="P16" s="102">
+      <c r="P16" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="103">
+      <c r="Q16" s="90">
         <f t="shared" si="8"/>
         <v>0.99982325424763263</v>
       </c>
-      <c r="R16" s="96">
+      <c r="R16" s="83">
         <f t="shared" si="9"/>
         <v>2.5730377683189769E-12</v>
       </c>
-      <c r="S16" s="97">
+      <c r="S16" s="84">
         <f t="shared" si="10"/>
         <v>4.4959597639004669E-12</v>
       </c>
-      <c r="T16" s="105">
+      <c r="T16" s="92">
         <f t="shared" si="11"/>
         <v>3.9077860022104021E-6</v>
       </c>
-      <c r="U16" s="104">
+      <c r="U16" s="91">
         <f t="shared" si="12"/>
         <v>4.7067687122065053E-6</v>
       </c>
-      <c r="V16" s="113"/>
-      <c r="X16" s="126">
+      <c r="V16" s="125"/>
+      <c r="X16" s="110">
         <v>3.9077860022104021E-6</v>
       </c>
-      <c r="Y16" s="127">
+      <c r="Y16" s="111">
         <v>4.7067687122065053E-6</v>
       </c>
-      <c r="Z16" s="113"/>
-      <c r="AA16" s="108">
+      <c r="Z16" s="125"/>
+      <c r="AA16" s="95">
         <v>3.2</v>
       </c>
     </row>
@@ -12474,75 +12474,75 @@
       <c r="F17" s="39">
         <v>3.78</v>
       </c>
-      <c r="G17" s="95">
+      <c r="G17" s="82">
         <f t="shared" si="1"/>
         <v>3.7799999999999998E-6</v>
       </c>
-      <c r="H17" s="96">
+      <c r="H17" s="83">
         <f t="shared" si="15"/>
         <v>4.3016793239200954E-4</v>
       </c>
-      <c r="I17" s="97">
+      <c r="I17" s="84">
         <f t="shared" si="0"/>
         <v>5.4779198390511141E-4</v>
       </c>
-      <c r="J17" s="98">
+      <c r="J17" s="85">
         <f t="shared" si="2"/>
         <v>-11.083344461754283</v>
       </c>
-      <c r="K17" s="96">
+      <c r="K17" s="83">
         <f t="shared" si="3"/>
         <v>-4.9974152732137353E-3</v>
       </c>
-      <c r="L17" s="99">
+      <c r="L17" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M17" s="100">
+      <c r="M17" s="87">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H17)-4.6)))^L17</f>
         <v>0.99982323734070833</v>
       </c>
-      <c r="N17" s="101">
+      <c r="N17" s="88">
         <f t="shared" si="5"/>
         <v>-10.840954939315653</v>
       </c>
-      <c r="O17" s="97">
+      <c r="O17" s="84">
         <f t="shared" si="6"/>
         <v>-4.9989584459447572E-3</v>
       </c>
-      <c r="P17" s="102">
+      <c r="P17" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="103">
+      <c r="Q17" s="90">
         <f t="shared" si="8"/>
         <v>0.99982321766637849</v>
       </c>
-      <c r="R17" s="96">
+      <c r="R17" s="83">
         <f t="shared" si="9"/>
         <v>8.157955821974932E-12</v>
       </c>
-      <c r="S17" s="97">
+      <c r="S17" s="84">
         <f t="shared" si="10"/>
         <v>1.4255068870574951E-11</v>
       </c>
-      <c r="T17" s="105">
+      <c r="T17" s="92">
         <f t="shared" si="11"/>
         <v>5.7408451892466158E-6</v>
       </c>
-      <c r="U17" s="104">
+      <c r="U17" s="91">
         <f t="shared" si="12"/>
         <v>6.9146758502993435E-6</v>
       </c>
-      <c r="V17" s="113"/>
-      <c r="X17" s="126">
+      <c r="V17" s="125"/>
+      <c r="X17" s="110">
         <v>5.7408451892466158E-6</v>
       </c>
-      <c r="Y17" s="127">
+      <c r="Y17" s="111">
         <v>6.9146758502993435E-6</v>
       </c>
-      <c r="Z17" s="113"/>
-      <c r="AA17" s="108">
+      <c r="Z17" s="125"/>
+      <c r="AA17" s="95">
         <v>3.78</v>
       </c>
     </row>
@@ -12550,75 +12550,75 @@
       <c r="F18" s="39">
         <v>4.46</v>
       </c>
-      <c r="G18" s="95">
+      <c r="G18" s="82">
         <f t="shared" si="1"/>
         <v>4.4599999999999996E-6</v>
       </c>
-      <c r="H18" s="96">
+      <c r="H18" s="83">
         <f t="shared" si="15"/>
         <v>7.0658954746324854E-4</v>
       </c>
-      <c r="I18" s="97">
+      <c r="I18" s="84">
         <f t="shared" si="0"/>
         <v>8.9979763916660032E-4</v>
       </c>
-      <c r="J18" s="98">
+      <c r="J18" s="85">
         <f t="shared" si="2"/>
         <v>-10.585843661282109</v>
       </c>
-      <c r="K18" s="96">
+      <c r="K18" s="83">
         <f t="shared" si="3"/>
         <v>-5.000583555368727E-3</v>
       </c>
-      <c r="L18" s="99">
+      <c r="L18" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M18" s="100">
+      <c r="M18" s="87">
         <f t="shared" si="14"/>
         <v>0.99982319195899283</v>
       </c>
-      <c r="N18" s="101">
+      <c r="N18" s="88">
         <f t="shared" si="5"/>
         <v>-10.343829303147198</v>
       </c>
-      <c r="O18" s="97">
+      <c r="O18" s="84">
         <f t="shared" si="6"/>
         <v>-5.002126728861034E-3</v>
       </c>
-      <c r="P18" s="102">
+      <c r="P18" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q18" s="103">
+      <c r="Q18" s="90">
         <f t="shared" si="8"/>
         <v>0.99982316168245933</v>
       </c>
-      <c r="R18" s="96">
+      <c r="R18" s="83">
         <f t="shared" si="9"/>
         <v>2.5649503427317282E-11</v>
       </c>
-      <c r="S18" s="97">
+      <c r="S18" s="84">
         <f t="shared" si="10"/>
         <v>4.4780791290270134E-11</v>
       </c>
-      <c r="T18" s="105">
+      <c r="T18" s="92">
         <f t="shared" si="11"/>
         <v>8.4102396865991163E-6</v>
       </c>
-      <c r="U18" s="104">
+      <c r="U18" s="91">
         <f t="shared" si="12"/>
         <v>1.012696495395003E-5</v>
       </c>
-      <c r="V18" s="113"/>
-      <c r="X18" s="126">
+      <c r="V18" s="125"/>
+      <c r="X18" s="110">
         <v>8.4102396865991163E-6</v>
       </c>
-      <c r="Y18" s="127">
+      <c r="Y18" s="111">
         <v>1.012696495395003E-5</v>
       </c>
-      <c r="Z18" s="113"/>
-      <c r="AA18" s="108">
+      <c r="Z18" s="125"/>
+      <c r="AA18" s="95">
         <v>4.46</v>
       </c>
     </row>
@@ -12626,75 +12626,75 @@
       <c r="F19" s="39">
         <v>5.27</v>
       </c>
-      <c r="G19" s="95">
+      <c r="G19" s="82">
         <f t="shared" si="1"/>
         <v>5.2699999999999995E-6</v>
       </c>
-      <c r="H19" s="96">
+      <c r="H19" s="83">
         <f t="shared" si="15"/>
         <v>1.1657206187722503E-3</v>
       </c>
-      <c r="I19" s="97">
+      <c r="I19" s="84">
         <f t="shared" si="0"/>
         <v>1.4844723707912702E-3</v>
       </c>
-      <c r="J19" s="98">
+      <c r="J19" s="85">
         <f t="shared" si="2"/>
         <v>-10.084944227230302</v>
       </c>
-      <c r="K19" s="96">
+      <c r="K19" s="83">
         <f t="shared" si="3"/>
         <v>-5.0037797412994843E-3</v>
       </c>
-      <c r="L19" s="99">
+      <c r="L19" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M19" s="100">
+      <c r="M19" s="87">
         <f t="shared" si="14"/>
         <v>0.99982312136322393</v>
       </c>
-      <c r="N19" s="101">
+      <c r="N19" s="88">
         <f t="shared" si="5"/>
         <v>-9.8436845204994334</v>
       </c>
-      <c r="O19" s="97">
+      <c r="O19" s="84">
         <f t="shared" si="6"/>
         <v>-5.0053229159760454E-3</v>
       </c>
-      <c r="P19" s="102">
+      <c r="P19" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q19" s="103">
+      <c r="Q19" s="90">
         <f t="shared" si="8"/>
         <v>0.99982307459391229</v>
       </c>
-      <c r="R19" s="96">
+      <c r="R19" s="83">
         <f t="shared" si="9"/>
         <v>8.1278404316863204E-11</v>
       </c>
-      <c r="S19" s="97">
+      <c r="S19" s="84">
         <f t="shared" si="10"/>
         <v>1.4165545782618522E-10</v>
       </c>
-      <c r="T19" s="105">
+      <c r="T19" s="92">
         <f t="shared" si="11"/>
         <v>1.235303794633768E-5</v>
       </c>
-      <c r="U19" s="104">
+      <c r="U19" s="91">
         <f t="shared" si="12"/>
         <v>1.4865966732039502E-5</v>
       </c>
-      <c r="V19" s="113"/>
-      <c r="X19" s="117">
+      <c r="V19" s="125"/>
+      <c r="X19" s="101">
         <v>1.235303794633768E-5</v>
       </c>
-      <c r="Y19" s="109">
+      <c r="Y19" s="96">
         <v>1.4865966732039502E-5</v>
       </c>
-      <c r="Z19" s="113"/>
-      <c r="AA19" s="137">
+      <c r="Z19" s="125"/>
+      <c r="AA19" s="119">
         <v>5.27</v>
       </c>
     </row>
@@ -12702,75 +12702,75 @@
       <c r="F20" s="39">
         <v>6.21</v>
       </c>
-      <c r="G20" s="95">
+      <c r="G20" s="82">
         <f t="shared" si="1"/>
         <v>6.2099999999999998E-6</v>
       </c>
-      <c r="H20" s="96">
+      <c r="H20" s="83">
         <f t="shared" si="15"/>
         <v>1.9073809159670478E-3</v>
       </c>
-      <c r="I20" s="97">
+      <c r="I20" s="84">
         <f t="shared" si="0"/>
         <v>2.4289304184305725E-3</v>
       </c>
-      <c r="J20" s="98">
+      <c r="J20" s="85">
         <f t="shared" si="2"/>
         <v>-9.5940144307551414</v>
       </c>
-      <c r="K20" s="96">
+      <c r="K20" s="83">
         <f t="shared" si="3"/>
         <v>-5.0069232404082011E-3</v>
       </c>
-      <c r="L20" s="99">
+      <c r="L20" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M20" s="100">
+      <c r="M20" s="87">
         <f t="shared" si="14"/>
         <v>0.99982301452018496</v>
       </c>
-      <c r="N20" s="101">
+      <c r="N20" s="88">
         <f t="shared" si="5"/>
         <v>-9.3538514488754032</v>
       </c>
-      <c r="O20" s="97">
+      <c r="O20" s="84">
         <f t="shared" si="6"/>
         <v>-5.0084664168770698E-3</v>
       </c>
-      <c r="P20" s="102">
+      <c r="P20" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q20" s="103">
+      <c r="Q20" s="90">
         <f t="shared" si="8"/>
         <v>0.99982294278991568</v>
       </c>
-      <c r="R20" s="96">
+      <c r="R20" s="83">
         <f t="shared" si="9"/>
         <v>2.5171075678087328E-10</v>
       </c>
-      <c r="S20" s="97">
+      <c r="S20" s="84">
         <f t="shared" si="10"/>
         <v>4.3758576228665676E-10</v>
       </c>
-      <c r="T20" s="105">
+      <c r="T20" s="92">
         <f t="shared" si="11"/>
         <v>1.8005947423279784E-5</v>
       </c>
-      <c r="U20" s="104">
+      <c r="U20" s="91">
         <f t="shared" si="12"/>
         <v>2.1650592213258089E-5</v>
       </c>
-      <c r="V20" s="113"/>
-      <c r="X20" s="126">
+      <c r="V20" s="125"/>
+      <c r="X20" s="110">
         <v>1.8005947423279784E-5</v>
       </c>
-      <c r="Y20" s="127">
+      <c r="Y20" s="111">
         <v>2.1650592213258089E-5</v>
       </c>
-      <c r="Z20" s="113"/>
-      <c r="AA20" s="108">
+      <c r="Z20" s="125"/>
+      <c r="AA20" s="95">
         <v>6.21</v>
       </c>
     </row>
@@ -12778,75 +12778,75 @@
       <c r="F21" s="39">
         <v>7.33</v>
       </c>
-      <c r="G21" s="95">
+      <c r="G21" s="82">
         <f t="shared" si="1"/>
         <v>7.3300000000000001E-6</v>
       </c>
-      <c r="H21" s="96">
+      <c r="H21" s="83">
         <f t="shared" si="15"/>
         <v>3.1367113575308829E-3</v>
       </c>
-      <c r="I21" s="97">
+      <c r="I21" s="84">
         <f t="shared" si="0"/>
         <v>3.9944059240419917E-3</v>
       </c>
-      <c r="J21" s="98">
+      <c r="J21" s="85">
         <f t="shared" si="2"/>
         <v>-9.1004979382294291</v>
       </c>
-      <c r="K21" s="96">
+      <c r="K21" s="83">
         <f t="shared" si="3"/>
         <v>-5.0100989980370689E-3</v>
       </c>
-      <c r="L21" s="99">
+      <c r="L21" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M21" s="100">
+      <c r="M21" s="87">
         <f t="shared" si="14"/>
         <v>0.99982284858361381</v>
       </c>
-      <c r="N21" s="101">
+      <c r="N21" s="88">
         <f t="shared" si="5"/>
         <v>-8.8617857952211985</v>
       </c>
-      <c r="O21" s="97">
+      <c r="O21" s="84">
         <f t="shared" si="6"/>
         <v>-5.0116421772895461E-3</v>
       </c>
-      <c r="P21" s="102">
+      <c r="P21" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q21" s="103">
+      <c r="Q21" s="90">
         <f t="shared" si="8"/>
         <v>0.9998227380868161</v>
       </c>
-      <c r="R21" s="96">
+      <c r="R21" s="83">
         <f t="shared" si="9"/>
         <v>7.8417866087780872E-10</v>
       </c>
-      <c r="S21" s="97">
+      <c r="S21" s="84">
         <f t="shared" si="10"/>
         <v>1.3587062461223498E-9</v>
       </c>
-      <c r="T21" s="105">
+      <c r="T21" s="92">
         <f t="shared" si="11"/>
         <v>2.62978590045575E-5</v>
       </c>
-      <c r="U21" s="104">
+      <c r="U21" s="91">
         <f t="shared" si="12"/>
         <v>3.1585705119149928E-5</v>
       </c>
-      <c r="V21" s="113"/>
-      <c r="X21" s="126">
+      <c r="V21" s="125"/>
+      <c r="X21" s="110">
         <v>2.62978590045575E-5</v>
       </c>
-      <c r="Y21" s="127">
+      <c r="Y21" s="111">
         <v>3.1585705119149928E-5</v>
       </c>
-      <c r="Z21" s="113"/>
-      <c r="AA21" s="108">
+      <c r="Z21" s="125"/>
+      <c r="AA21" s="95">
         <v>7.33</v>
       </c>
     </row>
@@ -12854,75 +12854,75 @@
       <c r="F22" s="39">
         <v>8.65</v>
       </c>
-      <c r="G22" s="95">
+      <c r="G22" s="82">
         <f t="shared" si="1"/>
         <v>8.6500000000000002E-6</v>
       </c>
-      <c r="H22" s="96">
+      <c r="H22" s="83">
         <f t="shared" si="15"/>
         <v>5.1547897337915257E-3</v>
       </c>
-      <c r="I22" s="97">
+      <c r="I22" s="84">
         <f t="shared" si="0"/>
         <v>6.5643026414951176E-3</v>
       </c>
-      <c r="J22" s="98">
+      <c r="J22" s="85">
         <f t="shared" si="2"/>
         <v>-8.6108238922249036</v>
       </c>
-      <c r="K22" s="96">
+      <c r="K22" s="83">
         <f t="shared" si="3"/>
         <v>-5.0132703414175533E-3</v>
       </c>
-      <c r="L22" s="99">
+      <c r="L22" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M22" s="100">
+      <c r="M22" s="87">
         <f t="shared" si="14"/>
         <v>0.99982259340493917</v>
       </c>
-      <c r="N22" s="101">
+      <c r="N22" s="88">
         <f t="shared" si="5"/>
         <v>-8.373890318602065</v>
       </c>
-      <c r="O22" s="97">
+      <c r="O22" s="84">
         <f t="shared" si="6"/>
         <v>-5.0148135249506844E-3</v>
       </c>
-      <c r="P22" s="102">
+      <c r="P22" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q22" s="103">
+      <c r="Q22" s="90">
         <f t="shared" si="8"/>
         <v>0.99982242329268756</v>
       </c>
-      <c r="R22" s="96">
+      <c r="R22" s="83">
         <f t="shared" si="9"/>
         <v>2.4215073070385305E-9</v>
       </c>
-      <c r="S22" s="97">
+      <c r="S22" s="84">
         <f t="shared" si="10"/>
         <v>4.1784743489531774E-9</v>
       </c>
-      <c r="T22" s="105">
+      <c r="T22" s="92">
         <f t="shared" si="11"/>
         <v>3.8295168125083617E-5</v>
       </c>
-      <c r="U22" s="104">
+      <c r="U22" s="91">
         <f t="shared" si="12"/>
         <v>4.5932628573001273E-5</v>
       </c>
-      <c r="V22" s="113"/>
-      <c r="X22" s="126">
+      <c r="V22" s="125"/>
+      <c r="X22" s="110">
         <v>3.8295168125083617E-5</v>
       </c>
-      <c r="Y22" s="127">
+      <c r="Y22" s="111">
         <v>4.5932628573001273E-5</v>
       </c>
-      <c r="Z22" s="113"/>
-      <c r="AA22" s="108">
+      <c r="Z22" s="125"/>
+      <c r="AA22" s="95">
         <v>8.65</v>
       </c>
     </row>
@@ -12930,75 +12930,75 @@
       <c r="F23" s="39">
         <v>10.210000000000001</v>
       </c>
-      <c r="G23" s="95">
+      <c r="G23" s="82">
         <f t="shared" si="1"/>
         <v>1.0210000000000001E-5</v>
       </c>
-      <c r="H23" s="96">
+      <c r="H23" s="83">
         <f t="shared" si="15"/>
         <v>8.4769546305383976E-3</v>
       </c>
-      <c r="I23" s="97">
+      <c r="I23" s="84">
         <f t="shared" si="0"/>
         <v>1.0794872060115717E-2</v>
       </c>
-      <c r="J23" s="98">
+      <c r="J23" s="85">
         <f t="shared" si="2"/>
         <v>-8.1243172889962167</v>
       </c>
-      <c r="K23" s="96">
+      <c r="K23" s="83">
         <f t="shared" si="3"/>
         <v>-5.0164459945600866E-3</v>
       </c>
-      <c r="L23" s="99">
+      <c r="L23" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M23" s="100">
+      <c r="M23" s="87">
         <f t="shared" si="14"/>
         <v>0.99982219989580834</v>
       </c>
-      <c r="N23" s="101">
+      <c r="N23" s="88">
         <f t="shared" si="5"/>
         <v>-7.8894806786604228</v>
       </c>
-      <c r="O23" s="97">
+      <c r="O23" s="84">
         <f t="shared" si="6"/>
         <v>-5.017989184694374E-3</v>
       </c>
-      <c r="P23" s="102">
+      <c r="P23" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q23" s="103">
+      <c r="Q23" s="90">
         <f t="shared" si="8"/>
         <v>0.99982193785111506</v>
       </c>
-      <c r="R23" s="96">
+      <c r="R23" s="83">
         <f t="shared" si="9"/>
         <v>7.4231637437968177E-9</v>
       </c>
-      <c r="S23" s="97">
+      <c r="S23" s="84">
         <f t="shared" si="10"/>
         <v>1.2747469861808273E-8</v>
       </c>
-      <c r="T23" s="105">
+      <c r="T23" s="92">
         <f t="shared" si="11"/>
         <v>5.5630342367119438E-5</v>
       </c>
-      <c r="U23" s="104">
+      <c r="U23" s="91">
         <f t="shared" si="12"/>
         <v>6.6617763822258673E-5</v>
       </c>
-      <c r="V23" s="113"/>
-      <c r="X23" s="126">
+      <c r="V23" s="125"/>
+      <c r="X23" s="110">
         <v>5.5630342367119438E-5</v>
       </c>
-      <c r="Y23" s="127">
+      <c r="Y23" s="111">
         <v>6.6617763822258673E-5</v>
       </c>
-      <c r="Z23" s="113"/>
-      <c r="AA23" s="108">
+      <c r="Z23" s="125"/>
+      <c r="AA23" s="95">
         <v>10.210000000000001</v>
       </c>
     </row>
@@ -13006,75 +13006,75 @@
       <c r="F24" s="39">
         <v>12.05</v>
       </c>
-      <c r="G24" s="95">
+      <c r="G24" s="82">
         <f t="shared" si="1"/>
         <v>1.205E-5</v>
       </c>
-      <c r="H24" s="96">
+      <c r="H24" s="83">
         <f t="shared" si="15"/>
         <v>1.393553907046895E-2</v>
       </c>
-      <c r="I24" s="97">
+      <c r="I24" s="84">
         <f t="shared" si="0"/>
         <v>1.774603827800619E-2</v>
       </c>
-      <c r="J24" s="98">
+      <c r="J24" s="85">
         <f t="shared" si="2"/>
         <v>-7.642609400915565</v>
       </c>
-      <c r="K24" s="96">
+      <c r="K24" s="83">
         <f t="shared" si="3"/>
         <v>-5.0196195315925524E-3</v>
       </c>
-      <c r="L24" s="99">
+      <c r="L24" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M24" s="100">
+      <c r="M24" s="87">
         <f t="shared" si="14"/>
         <v>0.99982159422666173</v>
       </c>
-      <c r="N24" s="101">
+      <c r="N24" s="88">
         <f t="shared" si="5"/>
         <v>-7.4101700243054518</v>
       </c>
-      <c r="O24" s="97">
+      <c r="O24" s="84">
         <f t="shared" si="6"/>
         <v>-5.0211627318869851E-3</v>
       </c>
-      <c r="P24" s="102">
+      <c r="P24" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q24" s="103">
+      <c r="Q24" s="90">
         <f t="shared" si="8"/>
         <v>0.99982119068450126</v>
       </c>
-      <c r="R24" s="96">
+      <c r="R24" s="83">
         <f t="shared" si="9"/>
         <v>2.2505750087984369E-8</v>
       </c>
-      <c r="S24" s="97">
+      <c r="S24" s="84">
         <f t="shared" si="10"/>
         <v>3.8435377428499983E-8</v>
       </c>
-      <c r="T24" s="105">
+      <c r="T24" s="92">
         <f t="shared" si="11"/>
         <v>8.0515572115720573E-5</v>
       </c>
-      <c r="U24" s="104">
+      <c r="U24" s="91">
         <f t="shared" si="12"/>
         <v>9.6240773005624341E-5</v>
       </c>
-      <c r="V24" s="113"/>
-      <c r="X24" s="126">
+      <c r="V24" s="125"/>
+      <c r="X24" s="110">
         <v>8.0515572115720573E-5</v>
       </c>
-      <c r="Y24" s="127">
+      <c r="Y24" s="111">
         <v>9.6240773005624341E-5</v>
       </c>
-      <c r="Z24" s="113"/>
-      <c r="AA24" s="108">
+      <c r="Z24" s="125"/>
+      <c r="AA24" s="95">
         <v>12.05</v>
       </c>
     </row>
@@ -13082,75 +13082,75 @@
       <c r="F25" s="39">
         <v>14.22</v>
       </c>
-      <c r="G25" s="95">
+      <c r="G25" s="82">
         <f t="shared" si="1"/>
         <v>1.4219999999999999E-5</v>
       </c>
-      <c r="H25" s="96">
+      <c r="H25" s="83">
         <f t="shared" si="15"/>
         <v>2.2901367802464524E-2</v>
       </c>
-      <c r="I25" s="97">
+      <c r="I25" s="84">
         <f t="shared" si="0"/>
         <v>2.9163460960219437E-2</v>
       </c>
-      <c r="J25" s="98">
+      <c r="J25" s="85">
         <f t="shared" si="2"/>
         <v>-7.166306094856826</v>
       </c>
-      <c r="K25" s="96">
+      <c r="K25" s="83">
         <f t="shared" si="3"/>
         <v>-5.0227909419419368E-3</v>
       </c>
-      <c r="L25" s="99">
+      <c r="L25" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M25" s="100">
+      <c r="M25" s="87">
         <f t="shared" si="14"/>
         <v>0.9998206622898641</v>
       </c>
-      <c r="N25" s="101">
+      <c r="N25" s="88">
         <f t="shared" si="5"/>
         <v>-6.936549416685045</v>
       </c>
-      <c r="O25" s="97">
+      <c r="O25" s="84">
         <f t="shared" si="6"/>
         <v>-5.0243341578696359E-3</v>
       </c>
-      <c r="P25" s="102">
+      <c r="P25" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q25" s="103">
+      <c r="Q25" s="90">
         <f t="shared" si="8"/>
         <v>0.99982004102761701</v>
       </c>
-      <c r="R25" s="96">
+      <c r="R25" s="83">
         <f t="shared" si="9"/>
         <v>6.7389653265687165E-8</v>
       </c>
-      <c r="S25" s="97">
+      <c r="S25" s="84">
         <f t="shared" si="10"/>
         <v>1.1437947187245938E-7</v>
       </c>
-      <c r="T25" s="105">
+      <c r="T25" s="92">
         <f t="shared" si="11"/>
         <v>1.1605035140040932E-4</v>
       </c>
-      <c r="U25" s="104">
+      <c r="U25" s="91">
         <f t="shared" si="12"/>
         <v>1.3843038121316793E-4</v>
       </c>
-      <c r="V25" s="113"/>
-      <c r="X25" s="126">
+      <c r="V25" s="125"/>
+      <c r="X25" s="110">
         <v>1.1605035140040932E-4</v>
       </c>
-      <c r="Y25" s="127">
+      <c r="Y25" s="111">
         <v>1.3843038121316793E-4</v>
       </c>
-      <c r="Z25" s="113"/>
-      <c r="AA25" s="108">
+      <c r="Z25" s="125"/>
+      <c r="AA25" s="95">
         <v>14.22</v>
       </c>
     </row>
@@ -13158,75 +13158,75 @@
       <c r="F26" s="39">
         <v>16.78</v>
       </c>
-      <c r="G26" s="95">
+      <c r="G26" s="82">
         <f t="shared" si="1"/>
         <v>1.6780000000000002E-5</v>
       </c>
-      <c r="H26" s="96">
+      <c r="H26" s="83">
         <f t="shared" si="15"/>
         <v>3.7630371166399675E-2</v>
       </c>
-      <c r="I26" s="97">
+      <c r="I26" s="84">
         <f t="shared" si="0"/>
         <v>4.7919926438269957E-2</v>
       </c>
-      <c r="J26" s="98">
+      <c r="J26" s="85">
         <f t="shared" si="2"/>
         <v>-6.6957930164237798</v>
       </c>
-      <c r="K26" s="96">
+      <c r="K26" s="83">
         <f t="shared" si="3"/>
         <v>-5.0259614980071726E-3</v>
       </c>
-      <c r="L26" s="99">
+      <c r="L26" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M26" s="100">
+      <c r="M26" s="87">
         <f t="shared" si="14"/>
         <v>0.99981922804865331</v>
       </c>
-      <c r="N26" s="101">
+      <c r="N26" s="88">
         <f t="shared" si="5"/>
         <v>-6.4689909915011725</v>
       </c>
-      <c r="O26" s="97">
+      <c r="O26" s="84">
         <f t="shared" si="6"/>
         <v>-5.0275047379942104E-3</v>
       </c>
-      <c r="P26" s="102">
+      <c r="P26" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q26" s="103">
+      <c r="Q26" s="90">
         <f t="shared" si="8"/>
         <v>0.99981827171881488</v>
       </c>
-      <c r="R26" s="96">
+      <c r="R26" s="83">
         <f t="shared" si="9"/>
         <v>1.9911432539586234E-7</v>
       </c>
-      <c r="S26" s="97">
+      <c r="S26" s="84">
         <f t="shared" si="10"/>
         <v>3.3566230534179958E-7</v>
       </c>
-      <c r="T26" s="105">
+      <c r="T26" s="92">
         <f t="shared" si="11"/>
         <v>1.6652632125677697E-4</v>
       </c>
-      <c r="U26" s="104">
+      <c r="U26" s="91">
         <f t="shared" si="12"/>
         <v>1.981905350973394E-4</v>
       </c>
-      <c r="V26" s="113"/>
-      <c r="X26" s="126">
+      <c r="V26" s="125"/>
+      <c r="X26" s="110">
         <v>1.6652632125677697E-4</v>
       </c>
-      <c r="Y26" s="127">
+      <c r="Y26" s="111">
         <v>1.981905350973394E-4</v>
       </c>
-      <c r="Z26" s="113"/>
-      <c r="AA26" s="108">
+      <c r="Z26" s="125"/>
+      <c r="AA26" s="95">
         <v>16.78</v>
       </c>
     </row>
@@ -13234,75 +13234,75 @@
       <c r="F27" s="39">
         <v>19.809999999999999</v>
       </c>
-      <c r="G27" s="95">
+      <c r="G27" s="82">
         <f t="shared" si="1"/>
         <v>1.9809999999999998E-5</v>
       </c>
-      <c r="H27" s="96">
+      <c r="H27" s="83">
         <f t="shared" si="15"/>
         <v>6.1917877286670288E-2</v>
       </c>
-      <c r="I27" s="97">
+      <c r="I27" s="84">
         <f t="shared" si="0"/>
         <v>7.8848547936736915E-2</v>
       </c>
-      <c r="J27" s="98">
+      <c r="J27" s="85">
         <f t="shared" si="2"/>
         <v>-6.2302049078128796</v>
       </c>
-      <c r="K27" s="96">
+      <c r="K27" s="83">
         <f t="shared" si="3"/>
         <v>-5.0291409371687745E-3</v>
       </c>
-      <c r="L27" s="99">
+      <c r="L27" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M27" s="100">
+      <c r="M27" s="87">
         <f t="shared" si="14"/>
         <v>0.99981701270235723</v>
       </c>
-      <c r="N27" s="101">
+      <c r="N27" s="88">
         <f t="shared" si="5"/>
         <v>-6.0066253431736065</v>
       </c>
-      <c r="O27" s="97">
+      <c r="O27" s="84">
         <f t="shared" si="6"/>
         <v>-5.0306842143179155E-3</v>
       </c>
-      <c r="P27" s="102">
+      <c r="P27" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q27" s="103">
+      <c r="Q27" s="90">
         <f t="shared" si="8"/>
         <v>0.99981553882640128</v>
       </c>
-      <c r="R27" s="96">
+      <c r="R27" s="83">
         <f t="shared" si="9"/>
         <v>5.8168313676554234E-7</v>
       </c>
-      <c r="S27" s="97">
+      <c r="S27" s="84">
         <f t="shared" si="10"/>
         <v>9.7333839399099371E-7</v>
       </c>
-      <c r="T27" s="105">
+      <c r="T27" s="92">
         <f t="shared" si="11"/>
         <v>2.3805512943131894E-4</v>
       </c>
-      <c r="U27" s="104">
+      <c r="U27" s="91">
         <f t="shared" si="12"/>
         <v>2.8262028985907259E-4</v>
       </c>
-      <c r="V27" s="113"/>
-      <c r="X27" s="117">
+      <c r="V27" s="125"/>
+      <c r="X27" s="101">
         <v>2.3805512943131894E-4</v>
       </c>
-      <c r="Y27" s="109">
+      <c r="Y27" s="96">
         <v>2.8262028985907259E-4</v>
       </c>
-      <c r="Z27" s="113"/>
-      <c r="AA27" s="137">
+      <c r="Z27" s="125"/>
+      <c r="AA27" s="119">
         <v>19.809999999999999</v>
       </c>
     </row>
@@ -13314,75 +13314,75 @@
       <c r="F28" s="39">
         <v>23.37</v>
       </c>
-      <c r="G28" s="95">
+      <c r="G28" s="82">
         <f t="shared" si="1"/>
         <v>2.3370000000000002E-5</v>
       </c>
-      <c r="H28" s="96">
+      <c r="H28" s="83">
         <f t="shared" si="15"/>
         <v>0.10165734657138703</v>
       </c>
-      <c r="I28" s="97">
+      <c r="I28" s="84">
         <f t="shared" si="0"/>
         <v>0.12945427904682183</v>
       </c>
-      <c r="J28" s="98">
+      <c r="J28" s="85">
         <f t="shared" si="2"/>
         <v>-5.7733979208325374</v>
       </c>
-      <c r="K28" s="96">
+      <c r="K28" s="83">
         <f t="shared" si="3"/>
         <v>-5.032306424839812E-3</v>
       </c>
-      <c r="L28" s="99">
+      <c r="L28" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M28" s="100">
+      <c r="M28" s="87">
         <f t="shared" si="14"/>
         <v>0.99981361700950644</v>
       </c>
-      <c r="N28" s="101">
+      <c r="N28" s="88">
         <f t="shared" si="5"/>
         <v>-5.5532706672704455</v>
       </c>
-      <c r="O28" s="97">
+      <c r="O28" s="84">
         <f t="shared" si="6"/>
         <v>-5.0338497589506315E-3</v>
       </c>
-      <c r="P28" s="102">
+      <c r="P28" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q28" s="103">
+      <c r="Q28" s="90">
         <f t="shared" si="8"/>
         <v>0.99981134984436237</v>
       </c>
-      <c r="R28" s="96">
+      <c r="R28" s="83">
         <f t="shared" si="9"/>
         <v>1.6652859583015391E-6</v>
       </c>
-      <c r="S28" s="97">
+      <c r="S28" s="84">
         <f t="shared" si="10"/>
         <v>2.7644805932304308E-6</v>
       </c>
-      <c r="T28" s="105">
+      <c r="T28" s="92">
         <f t="shared" si="11"/>
         <v>3.3802201988097691E-4</v>
       </c>
-      <c r="U28" s="104">
+      <c r="U28" s="91">
         <f t="shared" si="12"/>
         <v>4.0023945736018736E-4</v>
       </c>
-      <c r="V28" s="113"/>
-      <c r="X28" s="128">
+      <c r="V28" s="125"/>
+      <c r="X28" s="112">
         <v>3.3802201988097702E-4</v>
       </c>
-      <c r="Y28" s="129">
+      <c r="Y28" s="113">
         <v>4.0023945736018698E-4</v>
       </c>
-      <c r="Z28" s="113"/>
-      <c r="AA28" s="108">
+      <c r="Z28" s="125"/>
+      <c r="AA28" s="95">
         <v>23.37</v>
       </c>
     </row>
@@ -13390,75 +13390,75 @@
       <c r="F29" s="39">
         <v>27.58</v>
       </c>
-      <c r="G29" s="95">
+      <c r="G29" s="82">
         <f t="shared" si="1"/>
         <v>2.7579999999999997E-5</v>
       </c>
-      <c r="H29" s="96">
+      <c r="H29" s="83">
         <f t="shared" si="15"/>
         <v>0.16708806054847808</v>
       </c>
-      <c r="I29" s="97">
+      <c r="I29" s="84">
         <f t="shared" si="0"/>
         <v>0.21277620501776012</v>
       </c>
-      <c r="J29" s="98">
+      <c r="J29" s="85">
         <f t="shared" si="2"/>
         <v>-5.3227924696353872</v>
       </c>
-      <c r="K29" s="96">
+      <c r="K29" s="83">
         <f t="shared" si="3"/>
         <v>-5.0354791586687949E-3</v>
       </c>
-      <c r="L29" s="99">
+      <c r="L29" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M29" s="100">
+      <c r="M29" s="87">
         <f t="shared" si="14"/>
         <v>0.99980837919421117</v>
       </c>
-      <c r="N29" s="101">
+      <c r="N29" s="88">
         <f t="shared" si="5"/>
         <v>-5.1063554812709944</v>
       </c>
-      <c r="O29" s="97">
+      <c r="O29" s="84">
         <f t="shared" si="6"/>
         <v>-5.0370225806409792E-3</v>
       </c>
-      <c r="P29" s="102">
+      <c r="P29" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q29" s="103">
+      <c r="Q29" s="90">
         <f t="shared" si="8"/>
         <v>0.9998048884086832</v>
       </c>
-      <c r="R29" s="96">
+      <c r="R29" s="83">
         <f t="shared" si="9"/>
         <v>4.6999022276249013E-6</v>
       </c>
-      <c r="S29" s="97">
+      <c r="S29" s="84">
         <f t="shared" si="10"/>
         <v>7.7361120596720988E-6</v>
       </c>
-      <c r="T29" s="105">
+      <c r="T29" s="92">
         <f t="shared" si="11"/>
         <v>4.7768872833639395E-4</v>
       </c>
-      <c r="U29" s="104">
+      <c r="U29" s="91">
         <f t="shared" si="12"/>
         <v>5.640136783750916E-4</v>
       </c>
-      <c r="V29" s="113"/>
-      <c r="X29" s="128">
+      <c r="V29" s="125"/>
+      <c r="X29" s="112">
         <v>4.7768872833639395E-4</v>
       </c>
-      <c r="Y29" s="129">
-        <v>5.640136783750916E-4</v>
-      </c>
-      <c r="Z29" s="113"/>
-      <c r="AA29" s="108">
+      <c r="Y29" s="113">
+        <v>5.6401367837509203E-4</v>
+      </c>
+      <c r="Z29" s="125"/>
+      <c r="AA29" s="95">
         <v>27.58</v>
       </c>
     </row>
@@ -13466,75 +13466,75 @@
       <c r="F30" s="39">
         <v>32.549999999999997</v>
       </c>
-      <c r="G30" s="95">
+      <c r="G30" s="82">
         <f t="shared" si="1"/>
         <v>3.2549999999999998E-5</v>
       </c>
-      <c r="H30" s="96">
+      <c r="H30" s="83">
         <f t="shared" si="15"/>
         <v>0.27467277250279393</v>
       </c>
-      <c r="I30" s="97">
+      <c r="I30" s="84">
         <f t="shared" si="0"/>
         <v>0.34977861352274464</v>
       </c>
-      <c r="J30" s="98">
+      <c r="J30" s="85">
         <f t="shared" si="2"/>
         <v>-4.8797600290365946</v>
       </c>
-      <c r="K30" s="96">
+      <c r="K30" s="83">
         <f t="shared" si="3"/>
         <v>-5.0386530298011881E-3</v>
       </c>
-      <c r="L30" s="99">
+      <c r="L30" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M30" s="100">
+      <c r="M30" s="87">
         <f t="shared" si="14"/>
         <v>0.99980031155198945</v>
       </c>
-      <c r="N30" s="101">
+      <c r="N30" s="88">
         <f t="shared" si="5"/>
         <v>-4.6672307701987803</v>
       </c>
-      <c r="O30" s="97">
+      <c r="O30" s="84">
         <f t="shared" si="6"/>
         <v>-5.040196587100294E-3</v>
       </c>
-      <c r="P30" s="102">
+      <c r="P30" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q30" s="103">
+      <c r="Q30" s="90">
         <f t="shared" si="8"/>
         <v>0.99979493610667225</v>
       </c>
-      <c r="R30" s="96">
+      <c r="R30" s="83">
         <f t="shared" si="9"/>
         <v>1.3035106556181791E-5</v>
       </c>
-      <c r="S30" s="97">
+      <c r="S30" s="84">
         <f t="shared" si="10"/>
         <v>2.1263755306385784E-5</v>
       </c>
-      <c r="T30" s="105">
+      <c r="T30" s="92">
         <f t="shared" si="11"/>
         <v>6.7115100953837078E-4</v>
       </c>
-      <c r="U30" s="104">
+      <c r="U30" s="91">
         <f t="shared" si="12"/>
         <v>7.9006357794236478E-4</v>
       </c>
-      <c r="V30" s="113"/>
-      <c r="X30" s="128">
+      <c r="V30" s="125"/>
+      <c r="X30" s="112">
         <v>6.7115100953837078E-4</v>
       </c>
-      <c r="Y30" s="129">
+      <c r="Y30" s="113">
         <v>7.9006357794236478E-4</v>
       </c>
-      <c r="Z30" s="113"/>
-      <c r="AA30" s="108">
+      <c r="Z30" s="125"/>
+      <c r="AA30" s="95">
         <v>32.549999999999997</v>
       </c>
     </row>
@@ -13542,75 +13542,75 @@
       <c r="F31" s="39">
         <v>38.409999999999997</v>
       </c>
-      <c r="G31" s="95">
+      <c r="G31" s="82">
         <f t="shared" si="1"/>
         <v>3.8409999999999993E-5</v>
       </c>
-      <c r="H31" s="96">
+      <c r="H31" s="83">
         <f t="shared" si="15"/>
         <v>0.45133140491909929</v>
       </c>
-      <c r="I31" s="97">
+      <c r="I31" s="84">
         <f t="shared" si="0"/>
         <v>0.57474234382029687</v>
       </c>
-      <c r="J31" s="98">
+      <c r="J31" s="85">
         <f t="shared" si="2"/>
         <v>-4.44525145676592</v>
       </c>
-      <c r="K31" s="96">
+      <c r="K31" s="83">
         <f t="shared" si="3"/>
         <v>-5.0418244160389909E-3</v>
       </c>
-      <c r="L31" s="99">
+      <c r="L31" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M31" s="100">
+      <c r="M31" s="87">
         <f t="shared" si="14"/>
         <v>0.99978790174815846</v>
       </c>
-      <c r="N31" s="101">
+      <c r="N31" s="88">
         <f t="shared" si="5"/>
         <v>-4.2368284383825232</v>
       </c>
-      <c r="O31" s="97">
+      <c r="O31" s="84">
         <f t="shared" si="6"/>
         <v>-5.0433681814930796E-3</v>
       </c>
-      <c r="P31" s="102">
+      <c r="P31" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q31" s="103">
+      <c r="Q31" s="90">
         <f t="shared" si="8"/>
         <v>0.99977962738725479</v>
       </c>
-      <c r="R31" s="96">
+      <c r="R31" s="83">
         <f t="shared" si="9"/>
         <v>3.5449865841045548E-5</v>
       </c>
-      <c r="S31" s="97">
+      <c r="S31" s="84">
         <f t="shared" si="10"/>
         <v>5.7283886592882802E-5</v>
       </c>
-      <c r="T31" s="105">
+      <c r="T31" s="92">
         <f t="shared" si="11"/>
         <v>9.3681445776628018E-4</v>
       </c>
-      <c r="U31" s="104">
+      <c r="U31" s="91">
         <f t="shared" si="12"/>
         <v>1.0993252704586346E-3</v>
       </c>
-      <c r="V31" s="113"/>
-      <c r="X31" s="128">
+      <c r="V31" s="125"/>
+      <c r="X31" s="112">
         <v>9.3681445776628018E-4</v>
       </c>
-      <c r="Y31" s="129">
+      <c r="Y31" s="113">
         <v>1.0993252704586346E-3</v>
       </c>
-      <c r="Z31" s="113"/>
-      <c r="AA31" s="108">
+      <c r="Z31" s="125"/>
+      <c r="AA31" s="95">
         <v>38.409999999999997</v>
       </c>
     </row>
@@ -13618,75 +13618,75 @@
       <c r="F32" s="39">
         <v>45.32</v>
       </c>
-      <c r="G32" s="95">
+      <c r="G32" s="82">
         <f t="shared" si="1"/>
         <v>4.532E-5</v>
       </c>
-      <c r="H32" s="96">
+      <c r="H32" s="83">
         <f t="shared" si="15"/>
         <v>0.74136543879810102</v>
       </c>
-      <c r="I32" s="97">
+      <c r="I32" s="84">
         <f t="shared" si="0"/>
         <v>0.94408256389461842</v>
       </c>
-      <c r="J32" s="98">
+      <c r="J32" s="85">
         <f t="shared" si="2"/>
         <v>-4.0195599362608432</v>
       </c>
-      <c r="K32" s="96">
+      <c r="K32" s="83">
         <f t="shared" si="3"/>
         <v>-5.0449941772348827E-3</v>
       </c>
-      <c r="L32" s="99">
+      <c r="L32" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M32" s="100">
+      <c r="M32" s="87">
         <f t="shared" si="14"/>
         <v>0.99976881519136396</v>
       </c>
-      <c r="N32" s="101">
+      <c r="N32" s="88">
         <f t="shared" si="5"/>
         <v>-3.8154279552192008</v>
       </c>
-      <c r="O32" s="97">
+      <c r="O32" s="84">
         <f t="shared" si="6"/>
         <v>-5.0465382628182252E-3</v>
       </c>
-      <c r="P32" s="102">
+      <c r="P32" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q32" s="103">
+      <c r="Q32" s="90">
         <f t="shared" si="8"/>
         <v>0.9997560824808529</v>
       </c>
-      <c r="R32" s="96">
+      <c r="R32" s="83">
         <f t="shared" si="9"/>
         <v>9.4470161036553214E-5</v>
       </c>
-      <c r="S32" s="97">
+      <c r="S32" s="84">
         <f t="shared" si="10"/>
         <v>1.5115397115735916E-4</v>
       </c>
-      <c r="T32" s="105">
+      <c r="T32" s="92">
         <f t="shared" si="11"/>
         <v>1.2988139297590265E-3</v>
       </c>
-      <c r="U32" s="104">
+      <c r="U32" s="91">
         <f t="shared" si="12"/>
         <v>1.5191077279832483E-3</v>
       </c>
-      <c r="V32" s="113"/>
-      <c r="X32" s="115">
+      <c r="V32" s="125"/>
+      <c r="X32" s="99">
         <v>1.2988139297590265E-3</v>
       </c>
-      <c r="Y32" s="110">
+      <c r="Y32" s="97">
         <v>1.5191077279832483E-3</v>
       </c>
-      <c r="Z32" s="113"/>
-      <c r="AA32" s="137">
+      <c r="Z32" s="125"/>
+      <c r="AA32" s="119">
         <v>45.32</v>
       </c>
     </row>
@@ -13754,15 +13754,15 @@
         <f t="shared" si="12"/>
         <v>2.0851114422061512E-3</v>
       </c>
-      <c r="V33" s="114"/>
-      <c r="X33" s="130">
+      <c r="V33" s="126"/>
+      <c r="X33" s="114">
         <v>1.7888665047406367E-3</v>
       </c>
-      <c r="Y33" s="131">
+      <c r="Y33" s="115">
         <v>2.0851114422061512E-3</v>
       </c>
-      <c r="Z33" s="114"/>
-      <c r="AA33" s="108">
+      <c r="Z33" s="126"/>
+      <c r="AA33" s="95">
         <v>53.48</v>
       </c>
     </row>
@@ -13822,7 +13822,7 @@
         <f t="shared" si="10"/>
         <v>9.891420332104146E-4</v>
       </c>
-      <c r="T34" s="107">
+      <c r="T34" s="94">
         <f t="shared" si="11"/>
         <v>2.446401268148512E-3</v>
       </c>
@@ -13830,19 +13830,19 @@
         <f t="shared" si="12"/>
         <v>2.8414167636944148E-3</v>
       </c>
-      <c r="V34" s="82" t="s">
+      <c r="V34" s="127" t="s">
         <v>47</v>
       </c>
       <c r="X34" s="72">
         <v>2.446401268148512E-3</v>
       </c>
-      <c r="Y34" s="120">
+      <c r="Y34" s="104">
         <v>2.8414167636944148E-3</v>
       </c>
-      <c r="Z34" s="82" t="s">
+      <c r="Z34" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="AA34" s="137">
+      <c r="AA34" s="119">
         <v>63.11</v>
       </c>
     </row>
@@ -13850,75 +13850,75 @@
       <c r="F35" s="39">
         <v>74.48</v>
       </c>
-      <c r="G35" s="95">
+      <c r="G35" s="82">
         <f t="shared" si="1"/>
         <v>7.4480000000000005E-5</v>
       </c>
-      <c r="H35" s="96">
+      <c r="H35" s="83">
         <f>(($C$3-$C$9)*$C$4*G35^3)/($C$9*$C$11^2)</f>
         <v>3.290649576455428</v>
       </c>
-      <c r="I35" s="97">
+      <c r="I35" s="84">
         <f t="shared" si="0"/>
         <v>4.1904366273875162</v>
       </c>
-      <c r="J35" s="98">
+      <c r="J35" s="85">
         <f t="shared" si="2"/>
         <v>-2.7961049120667472</v>
       </c>
-      <c r="K35" s="96">
+      <c r="K35" s="83">
         <f t="shared" si="3"/>
         <v>-5.0545191073038658E-3</v>
       </c>
-      <c r="L35" s="99">
+      <c r="L35" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M35" s="100">
+      <c r="M35" s="87">
         <f t="shared" si="14"/>
         <v>0.99962445983814541</v>
       </c>
-      <c r="N35" s="101">
+      <c r="N35" s="88">
         <f t="shared" si="5"/>
         <v>-2.6058438503717234</v>
       </c>
-      <c r="O35" s="97">
+      <c r="O35" s="84">
         <f t="shared" si="6"/>
         <v>-5.056065613389428E-3</v>
       </c>
-      <c r="P35" s="102">
+      <c r="P35" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q35" s="103">
+      <c r="Q35" s="90">
         <f t="shared" si="8"/>
         <v>0.9995780174775637</v>
       </c>
-      <c r="R35" s="96">
+      <c r="R35" s="83">
         <f t="shared" si="9"/>
         <v>1.5800740593810746E-3</v>
       </c>
-      <c r="S35" s="97">
+      <c r="S35" s="84">
         <f t="shared" si="10"/>
         <v>2.4485939982331582E-3</v>
       </c>
-      <c r="T35" s="105">
+      <c r="T35" s="92">
         <f t="shared" si="11"/>
         <v>3.3215531046029726E-3</v>
       </c>
-      <c r="U35" s="104">
+      <c r="U35" s="91">
         <f t="shared" si="12"/>
         <v>3.8437427395106539E-3</v>
       </c>
-      <c r="V35" s="83"/>
-      <c r="X35" s="128">
+      <c r="V35" s="128"/>
+      <c r="X35" s="112">
         <v>3.3215531046029726E-3</v>
       </c>
-      <c r="Y35" s="129">
+      <c r="Y35" s="113">
         <v>3.8437427395106539E-3</v>
       </c>
-      <c r="Z35" s="83"/>
-      <c r="AA35" s="108">
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="95">
         <v>74.48</v>
       </c>
     </row>
@@ -13926,75 +13926,75 @@
       <c r="F36" s="39">
         <v>87.89</v>
       </c>
-      <c r="G36" s="95">
+      <c r="G36" s="82">
         <f t="shared" si="1"/>
         <v>8.789E-5</v>
       </c>
-      <c r="H36" s="96">
+      <c r="H36" s="83">
         <f t="shared" si="15"/>
         <v>5.4073069822938251</v>
       </c>
-      <c r="I36" s="97">
+      <c r="I36" s="84">
         <f t="shared" si="0"/>
         <v>6.8858675795372166</v>
       </c>
-      <c r="J36" s="98">
+      <c r="J36" s="85">
         <f t="shared" si="2"/>
         <v>-2.4077419937643243</v>
       </c>
-      <c r="K36" s="96">
+      <c r="K36" s="83">
         <f t="shared" si="3"/>
         <v>-5.0576975872675487E-3</v>
       </c>
-      <c r="L36" s="99">
+      <c r="L36" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M36" s="100">
+      <c r="M36" s="87">
         <f t="shared" si="14"/>
         <v>0.99951723890419752</v>
       </c>
-      <c r="N36" s="101">
+      <c r="N36" s="88">
         <f t="shared" si="5"/>
         <v>-2.2223846341033884</v>
       </c>
-      <c r="O36" s="97">
+      <c r="O36" s="84">
         <f t="shared" si="6"/>
         <v>-5.0592458904001256E-3</v>
       </c>
-      <c r="P36" s="102">
+      <c r="P36" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q36" s="103">
+      <c r="Q36" s="90">
         <f t="shared" si="8"/>
         <v>0.99944576957790821</v>
       </c>
-      <c r="R36" s="96">
+      <c r="R36" s="83">
         <f t="shared" si="9"/>
         <v>3.8635861231709184E-3</v>
       </c>
-      <c r="S36" s="97">
+      <c r="S36" s="84">
         <f t="shared" si="10"/>
         <v>5.9199134056389388E-3</v>
       </c>
-      <c r="T36" s="105">
+      <c r="T36" s="92">
         <f t="shared" si="11"/>
         <v>4.4748544960825096E-3</v>
       </c>
-      <c r="U36" s="104">
+      <c r="U36" s="91">
         <f t="shared" si="12"/>
         <v>5.1588611284876969E-3</v>
       </c>
-      <c r="V36" s="83"/>
-      <c r="X36" s="128">
+      <c r="V36" s="128"/>
+      <c r="X36" s="112">
         <v>4.4748544960825096E-3</v>
       </c>
-      <c r="Y36" s="129">
+      <c r="Y36" s="113">
         <v>5.1588611284876969E-3</v>
       </c>
-      <c r="Z36" s="83"/>
-      <c r="AA36" s="108">
+      <c r="Z36" s="128"/>
+      <c r="AA36" s="95">
         <v>87.89</v>
       </c>
     </row>
@@ -14002,75 +14002,75 @@
       <c r="F37" s="39">
         <v>103.72</v>
       </c>
-      <c r="G37" s="95">
+      <c r="G37" s="82">
         <f t="shared" si="1"/>
         <v>1.0371999999999999E-4</v>
       </c>
-      <c r="H37" s="96">
+      <c r="H37" s="83">
         <f t="shared" si="15"/>
         <v>8.8868972072370358</v>
       </c>
-      <c r="I37" s="97">
+      <c r="I37" s="84">
         <f t="shared" si="0"/>
         <v>11.316908317277436</v>
       </c>
-      <c r="J37" s="98">
+      <c r="J37" s="85">
         <f t="shared" si="2"/>
         <v>-2.0293976949975718</v>
       </c>
-      <c r="K37" s="96">
+      <c r="K37" s="83">
         <f t="shared" si="3"/>
         <v>-5.0608812454110506E-3</v>
       </c>
-      <c r="L37" s="99">
+      <c r="L37" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M37" s="100">
+      <c r="M37" s="87">
         <f t="shared" si="14"/>
         <v>0.99935218057029496</v>
       </c>
-      <c r="N37" s="101">
+      <c r="N37" s="88">
         <f t="shared" si="5"/>
         <v>-1.8490626221819388</v>
       </c>
-      <c r="O37" s="97">
+      <c r="O37" s="84">
         <f t="shared" si="6"/>
         <v>-5.0624323136296348E-3</v>
       </c>
-      <c r="P37" s="102">
+      <c r="P37" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q37" s="103">
+      <c r="Q37" s="90">
         <f t="shared" si="8"/>
         <v>0.99924220267294483</v>
       </c>
-      <c r="R37" s="96">
+      <c r="R37" s="83">
         <f t="shared" si="9"/>
         <v>9.2312388519635632E-3</v>
       </c>
-      <c r="S37" s="97">
+      <c r="S37" s="84">
         <f t="shared" si="10"/>
         <v>1.3981240731790173E-2</v>
       </c>
-      <c r="T37" s="105">
+      <c r="T37" s="92">
         <f t="shared" si="11"/>
         <v>5.9823072602970774E-3</v>
       </c>
-      <c r="U37" s="104">
+      <c r="U37" s="91">
         <f t="shared" si="12"/>
         <v>6.8701142126075532E-3</v>
       </c>
-      <c r="V37" s="83"/>
-      <c r="X37" s="115">
+      <c r="V37" s="128"/>
+      <c r="X37" s="99">
         <v>5.9823072602970774E-3</v>
       </c>
-      <c r="Y37" s="110">
+      <c r="Y37" s="97">
         <v>6.8701142126075532E-3</v>
       </c>
-      <c r="Z37" s="83"/>
-      <c r="AA37" s="137">
+      <c r="Z37" s="128"/>
+      <c r="AA37" s="119">
         <v>103.72</v>
       </c>
     </row>
@@ -14078,75 +14078,75 @@
       <c r="F38" s="39">
         <v>122.39</v>
       </c>
-      <c r="G38" s="95">
+      <c r="G38" s="82">
         <f t="shared" si="1"/>
         <v>1.2239E-4</v>
       </c>
-      <c r="H38" s="96">
+      <c r="H38" s="83">
         <f t="shared" si="15"/>
         <v>14.601599656367455</v>
       </c>
-      <c r="I38" s="97">
+      <c r="I38" s="84">
         <f t="shared" si="0"/>
         <v>18.594224816973593</v>
       </c>
-      <c r="J38" s="98">
+      <c r="J38" s="85">
         <f t="shared" si="2"/>
         <v>-1.6616320259336002</v>
       </c>
-      <c r="K38" s="96">
+      <c r="K38" s="83">
         <f t="shared" si="3"/>
         <v>-5.0640695287328154E-3</v>
       </c>
-      <c r="L38" s="99">
+      <c r="L38" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M38" s="100">
+      <c r="M38" s="87">
         <f t="shared" si="14"/>
         <v>0.99909837722182115</v>
       </c>
-      <c r="N38" s="101">
+      <c r="N38" s="88">
         <f t="shared" si="5"/>
         <v>-1.486419237886393</v>
       </c>
-      <c r="O38" s="97">
+      <c r="O38" s="84">
         <f t="shared" si="6"/>
         <v>-5.0656248455665477E-3</v>
       </c>
-      <c r="P38" s="102">
+      <c r="P38" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q38" s="103">
+      <c r="Q38" s="90">
         <f t="shared" si="8"/>
         <v>0.998929230062503</v>
       </c>
-      <c r="R38" s="96">
+      <c r="R38" s="83">
         <f t="shared" si="9"/>
         <v>2.1523463497472309E-2</v>
       </c>
-      <c r="S38" s="97">
+      <c r="S38" s="84">
         <f t="shared" si="10"/>
         <v>3.2214386033614331E-2</v>
       </c>
-      <c r="T38" s="105">
+      <c r="T38" s="92">
         <f t="shared" si="11"/>
         <v>7.9326709248603178E-3</v>
       </c>
-      <c r="U38" s="104">
+      <c r="U38" s="91">
         <f t="shared" si="12"/>
         <v>9.0739978516363538E-3</v>
       </c>
-      <c r="V38" s="83"/>
-      <c r="X38" s="128">
+      <c r="V38" s="128"/>
+      <c r="X38" s="112">
         <v>7.9326709248603178E-3</v>
       </c>
-      <c r="Y38" s="129">
+      <c r="Y38" s="113">
         <v>9.0739978516363538E-3</v>
       </c>
-      <c r="Z38" s="83"/>
-      <c r="AA38" s="108">
+      <c r="Z38" s="128"/>
+      <c r="AA38" s="95">
         <v>122.39</v>
       </c>
     </row>
@@ -14154,75 +14154,75 @@
       <c r="F39" s="39">
         <v>144.43</v>
       </c>
-      <c r="G39" s="95">
+      <c r="G39" s="82">
         <f t="shared" si="1"/>
         <v>1.4443E-4</v>
       </c>
-      <c r="H39" s="96">
+      <c r="H39" s="83">
         <f t="shared" si="15"/>
         <v>23.995779707717357</v>
       </c>
-      <c r="I39" s="97">
+      <c r="I39" s="84">
         <f t="shared" si="0"/>
         <v>30.557126139895114</v>
       </c>
-      <c r="J39" s="98">
+      <c r="J39" s="85">
         <f t="shared" si="2"/>
         <v>-1.3043000566991834</v>
       </c>
-      <c r="K39" s="96">
+      <c r="K39" s="83">
         <f t="shared" si="3"/>
         <v>-5.0672688642145964E-3</v>
       </c>
-      <c r="L39" s="99">
+      <c r="L39" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M39" s="100">
+      <c r="M39" s="87">
         <f t="shared" si="14"/>
         <v>0.99870788084657935</v>
       </c>
-      <c r="N39" s="101">
+      <c r="N39" s="88">
         <f t="shared" si="5"/>
         <v>-1.1343001859567388</v>
       </c>
-      <c r="O39" s="97">
+      <c r="O39" s="84">
         <f t="shared" si="6"/>
         <v>-5.0688307104402378E-3</v>
       </c>
-      <c r="P39" s="102">
+      <c r="P39" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q39" s="103">
+      <c r="Q39" s="90">
         <f t="shared" si="8"/>
         <v>0.9984478006921631</v>
       </c>
-      <c r="R39" s="96">
+      <c r="R39" s="83">
         <f t="shared" si="9"/>
         <v>4.8985906741835145E-2</v>
       </c>
-      <c r="S39" s="97">
+      <c r="S39" s="84">
         <f t="shared" si="10"/>
         <v>7.2436314893644493E-2</v>
       </c>
-      <c r="T39" s="105">
+      <c r="T39" s="92">
         <f t="shared" si="11"/>
         <v>1.0434519051762263E-2</v>
       </c>
-      <c r="U39" s="104">
+      <c r="U39" s="91">
         <f t="shared" si="12"/>
         <v>1.188778207941428E-2</v>
       </c>
-      <c r="V39" s="83"/>
-      <c r="X39" s="128">
+      <c r="V39" s="128"/>
+      <c r="X39" s="112">
         <v>1.0434519051762263E-2</v>
       </c>
-      <c r="Y39" s="129">
+      <c r="Y39" s="113">
         <v>1.188778207941428E-2</v>
       </c>
-      <c r="Z39" s="83"/>
-      <c r="AA39" s="108">
+      <c r="Z39" s="128"/>
+      <c r="AA39" s="95">
         <v>144.43</v>
       </c>
     </row>
@@ -14230,75 +14230,75 @@
       <c r="F40" s="39">
         <v>170.44</v>
       </c>
-      <c r="G40" s="95">
+      <c r="G40" s="82">
         <f t="shared" si="1"/>
         <v>1.7044E-4</v>
       </c>
-      <c r="H40" s="96">
+      <c r="H40" s="83">
         <f t="shared" si="15"/>
         <v>39.434579036756475</v>
       </c>
-      <c r="I40" s="97">
+      <c r="I40" s="84">
         <f t="shared" si="0"/>
         <v>50.217472429632487</v>
       </c>
-      <c r="J40" s="98">
+      <c r="J40" s="85">
         <f t="shared" si="2"/>
         <v>-0.9577095308956306</v>
       </c>
-      <c r="K40" s="96">
+      <c r="K40" s="83">
         <f t="shared" si="3"/>
         <v>-5.0704833844959817E-3</v>
       </c>
-      <c r="L40" s="99">
+      <c r="L40" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M40" s="100">
+      <c r="M40" s="87">
         <f t="shared" si="14"/>
         <v>0.99810753012424036</v>
       </c>
-      <c r="N40" s="101">
+      <c r="N40" s="88">
         <f t="shared" si="5"/>
         <v>-0.79299725925593822</v>
       </c>
-      <c r="O40" s="97">
+      <c r="O40" s="84">
         <f t="shared" si="6"/>
         <v>-5.0720552514615883E-3</v>
       </c>
-      <c r="P40" s="102">
+      <c r="P40" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q40" s="103">
+      <c r="Q40" s="90">
         <f t="shared" si="8"/>
         <v>0.99770789395747417</v>
       </c>
-      <c r="R40" s="96">
+      <c r="R40" s="83">
         <f t="shared" si="9"/>
         <v>0.10874200036583882</v>
       </c>
-      <c r="S40" s="97">
+      <c r="S40" s="84">
         <f t="shared" si="10"/>
         <v>0.1588305697934522</v>
       </c>
-      <c r="T40" s="105">
+      <c r="T40" s="92">
         <f t="shared" si="11"/>
         <v>1.3611766542267135E-2</v>
       </c>
-      <c r="U40" s="104">
+      <c r="U40" s="91">
         <f t="shared" si="12"/>
         <v>1.5444010344976085E-2</v>
       </c>
-      <c r="V40" s="83"/>
-      <c r="X40" s="128">
+      <c r="V40" s="128"/>
+      <c r="X40" s="112">
         <v>1.3611766542267135E-2</v>
       </c>
-      <c r="Y40" s="129">
+      <c r="Y40" s="113">
         <v>1.5444010344976085E-2</v>
       </c>
-      <c r="Z40" s="83"/>
-      <c r="AA40" s="108">
+      <c r="Z40" s="128"/>
+      <c r="AA40" s="95">
         <v>170.44</v>
       </c>
     </row>
@@ -14309,75 +14309,75 @@
       <c r="F41" s="39">
         <v>201.13</v>
       </c>
-      <c r="G41" s="95">
+      <c r="G41" s="82">
         <f t="shared" si="1"/>
         <v>2.0112999999999999E-4</v>
       </c>
-      <c r="H41" s="96">
+      <c r="H41" s="83">
         <f t="shared" si="15"/>
         <v>64.802713762334434</v>
       </c>
-      <c r="I41" s="97">
+      <c r="I41" s="84">
         <f t="shared" si="0"/>
         <v>82.522206936510457</v>
       </c>
-      <c r="J41" s="98">
+      <c r="J41" s="85">
         <f t="shared" si="2"/>
         <v>-0.62205971006773864</v>
       </c>
-      <c r="K41" s="96">
+      <c r="K41" s="83">
         <f t="shared" si="3"/>
         <v>-5.0737206211701599E-3</v>
       </c>
-      <c r="L41" s="99">
+      <c r="L41" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M41" s="100">
+      <c r="M41" s="87">
         <f t="shared" si="14"/>
         <v>0.99718541841387487</v>
       </c>
-      <c r="N41" s="101">
+      <c r="N41" s="88">
         <f t="shared" si="5"/>
         <v>-0.46269470535868062</v>
       </c>
-      <c r="O41" s="97">
+      <c r="O41" s="84">
         <f t="shared" si="6"/>
         <v>-5.0753078380933138E-3</v>
       </c>
-      <c r="P41" s="102">
+      <c r="P41" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q41" s="103">
+      <c r="Q41" s="90">
         <f t="shared" si="8"/>
         <v>0.99657200772818033</v>
       </c>
-      <c r="R41" s="96">
+      <c r="R41" s="83">
         <f t="shared" si="9"/>
         <v>0.23531114041455969</v>
       </c>
-      <c r="S41" s="97">
+      <c r="S41" s="84">
         <f t="shared" si="10"/>
         <v>0.33942097066213106</v>
       </c>
-      <c r="T41" s="105">
+      <c r="T41" s="92">
         <f t="shared" si="11"/>
         <v>1.7606088561399769E-2</v>
       </c>
-      <c r="U41" s="104">
+      <c r="U41" s="91">
         <f t="shared" si="12"/>
         <v>1.9892755414532847E-2</v>
       </c>
-      <c r="V41" s="83"/>
-      <c r="X41" s="116">
+      <c r="V41" s="128"/>
+      <c r="X41" s="100">
         <v>1.7606088561399801E-2</v>
       </c>
-      <c r="Y41" s="111">
+      <c r="Y41" s="98">
         <v>1.9892755414532799E-2</v>
       </c>
-      <c r="Z41" s="83"/>
-      <c r="AA41" s="137">
+      <c r="Z41" s="128"/>
+      <c r="AA41" s="119">
         <v>201.13</v>
       </c>
     </row>
@@ -14385,75 +14385,75 @@
       <c r="F42" s="39">
         <v>237.35</v>
       </c>
-      <c r="G42" s="95">
+      <c r="G42" s="82">
         <f t="shared" si="1"/>
         <v>2.3735E-4</v>
       </c>
-      <c r="H42" s="96">
+      <c r="H42" s="83">
         <f t="shared" si="15"/>
         <v>106.49527532568401</v>
       </c>
-      <c r="I42" s="97">
+      <c r="I42" s="84">
         <f t="shared" si="0"/>
         <v>135.61507902921761</v>
       </c>
-      <c r="J42" s="98">
+      <c r="J42" s="85">
         <f t="shared" si="2"/>
         <v>-0.29739274225782858</v>
       </c>
-      <c r="K42" s="96">
+      <c r="K42" s="83">
         <f t="shared" si="3"/>
         <v>-5.0769935584841826E-3</v>
       </c>
-      <c r="L42" s="99">
+      <c r="L42" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M42" s="100">
+      <c r="M42" s="87">
         <f t="shared" si="14"/>
         <v>0.99577044655892555</v>
       </c>
-      <c r="N42" s="101">
+      <c r="N42" s="88">
         <f t="shared" si="5"/>
         <v>-0.14342168239242972</v>
       </c>
-      <c r="O42" s="97">
+      <c r="O42" s="84">
         <f t="shared" si="6"/>
         <v>-5.0786042322366132E-3</v>
       </c>
-      <c r="P42" s="102">
+      <c r="P42" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q42" s="103">
+      <c r="Q42" s="90">
         <f t="shared" si="8"/>
         <v>0.99483035924374286</v>
       </c>
-      <c r="R42" s="96">
+      <c r="R42" s="83">
         <f t="shared" si="9"/>
         <v>0.49623740479131878</v>
       </c>
-      <c r="S42" s="97">
+      <c r="S42" s="84">
         <f t="shared" si="10"/>
         <v>0.70672221575801508</v>
       </c>
-      <c r="T42" s="105">
+      <c r="T42" s="92">
         <f t="shared" si="11"/>
         <v>2.2577640394208058E-2</v>
       </c>
-      <c r="U42" s="104">
+      <c r="U42" s="91">
         <f t="shared" si="12"/>
         <v>2.5401827769121761E-2</v>
       </c>
-      <c r="V42" s="83"/>
-      <c r="X42" s="132">
+      <c r="V42" s="128"/>
+      <c r="X42" s="116">
         <v>2.2577640394208058E-2</v>
       </c>
-      <c r="Y42" s="133">
+      <c r="Y42" s="117">
         <v>2.5401827769121761E-2</v>
       </c>
-      <c r="Z42" s="83"/>
-      <c r="AA42" s="108">
+      <c r="Z42" s="128"/>
+      <c r="AA42" s="95">
         <v>237.35</v>
       </c>
     </row>
@@ -14461,75 +14461,75 @@
       <c r="F43" s="39">
         <v>280.08999999999997</v>
       </c>
-      <c r="G43" s="95">
+      <c r="G43" s="82">
         <f t="shared" si="1"/>
         <v>2.8008999999999998E-4</v>
       </c>
-      <c r="H43" s="96">
+      <c r="H43" s="83">
         <f t="shared" si="15"/>
         <v>175.00700930888829</v>
       </c>
-      <c r="I43" s="97">
+      <c r="I43" s="84">
         <f t="shared" si="0"/>
         <v>222.86049146790603</v>
       </c>
-      <c r="J43" s="98">
+      <c r="J43" s="85">
         <f t="shared" si="2"/>
         <v>1.6153330292586823E-2</v>
       </c>
-      <c r="K43" s="96">
+      <c r="K43" s="83">
         <f t="shared" si="3"/>
         <v>-5.0803203206637613E-3</v>
       </c>
-      <c r="L43" s="99">
+      <c r="L43" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M43" s="100">
+      <c r="M43" s="87">
         <f t="shared" si="14"/>
         <v>0.99360340517183265</v>
       </c>
-      <c r="N43" s="101">
+      <c r="N43" s="88">
         <f t="shared" si="5"/>
         <v>0.16469875961089339</v>
       </c>
-      <c r="O43" s="97">
+      <c r="O43" s="84">
         <f t="shared" si="6"/>
         <v>-5.0819666901397035E-3</v>
       </c>
-      <c r="P43" s="102">
+      <c r="P43" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q43" s="103">
+      <c r="Q43" s="90">
         <f t="shared" si="8"/>
         <v>0.99216619360742264</v>
       </c>
-      <c r="R43" s="96">
+      <c r="R43" s="83">
         <f t="shared" si="9"/>
         <v>1.0192625819801655</v>
       </c>
-      <c r="S43" s="97">
+      <c r="S43" s="84">
         <f t="shared" si="10"/>
         <v>1.4328516166261867</v>
       </c>
-      <c r="T43" s="105">
+      <c r="T43" s="92">
         <f t="shared" si="11"/>
         <v>2.8699703694252371E-2</v>
       </c>
-      <c r="U43" s="104">
+      <c r="U43" s="91">
         <f t="shared" si="12"/>
         <v>3.2150109658340281E-2</v>
       </c>
-      <c r="V43" s="83"/>
-      <c r="X43" s="116">
+      <c r="V43" s="128"/>
+      <c r="X43" s="100">
         <v>2.8699703694252371E-2</v>
       </c>
-      <c r="Y43" s="111">
+      <c r="Y43" s="98">
         <v>3.2150109658340281E-2</v>
       </c>
-      <c r="Z43" s="83"/>
-      <c r="AA43" s="137">
+      <c r="Z43" s="128"/>
+      <c r="AA43" s="119">
         <v>280.08999999999997</v>
       </c>
     </row>
@@ -14537,75 +14537,75 @@
       <c r="F44" s="39">
         <v>330.52</v>
       </c>
-      <c r="G44" s="95">
+      <c r="G44" s="82">
         <f t="shared" si="1"/>
         <v>3.3051999999999995E-4</v>
       </c>
-      <c r="H44" s="96">
+      <c r="H44" s="83">
         <f t="shared" si="15"/>
         <v>287.57813623849836</v>
       </c>
-      <c r="I44" s="97">
+      <c r="I44" s="84">
         <f t="shared" si="0"/>
         <v>366.21278787992628</v>
       </c>
-      <c r="J44" s="98">
+      <c r="J44" s="85">
         <f t="shared" si="2"/>
         <v>0.31850472858852219</v>
       </c>
-      <c r="K44" s="96">
+      <c r="K44" s="83">
         <f t="shared" si="3"/>
         <v>-5.0837287466916356E-3</v>
       </c>
-      <c r="L44" s="99">
+      <c r="L44" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M44" s="100">
+      <c r="M44" s="87">
         <f t="shared" si="14"/>
         <v>0.99029400169885529</v>
       </c>
-      <c r="N44" s="101">
+      <c r="N44" s="88">
         <f t="shared" si="5"/>
         <v>0.46160732932345383</v>
       </c>
-      <c r="O44" s="97">
+      <c r="O44" s="84">
         <f t="shared" si="6"/>
         <v>-5.0854290964561623E-3</v>
       </c>
-      <c r="P44" s="102">
+      <c r="P44" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q44" s="103">
+      <c r="Q44" s="90">
         <f t="shared" si="8"/>
         <v>0.98810502191697325</v>
       </c>
-      <c r="R44" s="96">
+      <c r="R44" s="83">
         <f t="shared" si="9"/>
         <v>2.0379106942263467</v>
       </c>
-      <c r="S44" s="97">
+      <c r="S44" s="84">
         <f t="shared" si="10"/>
         <v>2.8269947813060363</v>
       </c>
-      <c r="T44" s="105">
+      <c r="T44" s="92">
         <f t="shared" si="11"/>
         <v>3.6155727290167847E-2</v>
       </c>
-      <c r="U44" s="104">
+      <c r="U44" s="91">
         <f t="shared" si="12"/>
         <v>4.0323391724231661E-2</v>
       </c>
-      <c r="V44" s="83"/>
-      <c r="X44" s="132">
+      <c r="V44" s="128"/>
+      <c r="X44" s="116">
         <v>3.6155727290167847E-2</v>
       </c>
-      <c r="Y44" s="133">
+      <c r="Y44" s="117">
         <v>4.0323391724231661E-2</v>
       </c>
-      <c r="Z44" s="83"/>
-      <c r="AA44" s="108">
+      <c r="Z44" s="128"/>
+      <c r="AA44" s="95">
         <v>330.52</v>
       </c>
     </row>
@@ -14613,75 +14613,75 @@
       <c r="F45" s="39">
         <v>390.04</v>
       </c>
-      <c r="G45" s="95">
+      <c r="G45" s="82">
         <f t="shared" si="1"/>
         <v>3.9004000000000003E-4</v>
       </c>
-      <c r="H45" s="96">
+      <c r="H45" s="83">
         <f t="shared" si="15"/>
         <v>472.5960373517471</v>
       </c>
-      <c r="I45" s="97">
+      <c r="I45" s="84">
         <f t="shared" si="0"/>
         <v>601.82152455448011</v>
       </c>
-      <c r="J45" s="98">
+      <c r="J45" s="85">
         <f t="shared" si="2"/>
         <v>0.60971355350193235</v>
       </c>
-      <c r="K45" s="96">
+      <c r="K45" s="83">
         <f t="shared" si="3"/>
         <v>-5.0872615180391628E-3</v>
       </c>
-      <c r="L45" s="99">
+      <c r="L45" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M45" s="100">
+      <c r="M45" s="87">
         <f t="shared" si="14"/>
         <v>0.98525979359254012</v>
       </c>
-      <c r="N45" s="101">
+      <c r="N45" s="88">
         <f t="shared" si="5"/>
         <v>0.74736881523089904</v>
       </c>
-      <c r="O45" s="97">
+      <c r="O45" s="84">
         <f t="shared" si="6"/>
         <v>-5.0890427518031694E-3</v>
       </c>
-      <c r="P45" s="102">
+      <c r="P45" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q45" s="103">
+      <c r="Q45" s="90">
         <f t="shared" si="8"/>
         <v>0.98194436521791539</v>
       </c>
-      <c r="R45" s="96">
+      <c r="R45" s="83">
         <f t="shared" si="9"/>
         <v>3.964396211851823</v>
       </c>
-      <c r="S45" s="97">
+      <c r="S45" s="84">
         <f t="shared" si="10"/>
         <v>5.4245866997395291</v>
       </c>
-      <c r="T45" s="105">
+      <c r="T45" s="92">
         <f t="shared" si="11"/>
         <v>4.5134406571575331E-2</v>
       </c>
-      <c r="U45" s="104">
+      <c r="U45" s="91">
         <f t="shared" si="12"/>
         <v>5.010767718220193E-2</v>
       </c>
-      <c r="V45" s="83"/>
-      <c r="X45" s="132">
+      <c r="V45" s="128"/>
+      <c r="X45" s="116">
         <v>4.5134406571575331E-2</v>
       </c>
-      <c r="Y45" s="133">
+      <c r="Y45" s="117">
         <v>5.010767718220193E-2</v>
       </c>
-      <c r="Z45" s="83"/>
-      <c r="AA45" s="108">
+      <c r="Z45" s="128"/>
+      <c r="AA45" s="95">
         <v>390.04</v>
       </c>
     </row>
@@ -14689,75 +14689,75 @@
       <c r="F46" s="39">
         <v>460.27</v>
       </c>
-      <c r="G46" s="95">
+      <c r="G46" s="82">
         <f>F46*0.000001</f>
         <v>4.6026999999999998E-4</v>
       </c>
-      <c r="H46" s="96">
+      <c r="H46" s="83">
         <f t="shared" si="15"/>
         <v>776.60581689290984</v>
       </c>
-      <c r="I46" s="97">
+      <c r="I46" s="84">
         <f t="shared" si="0"/>
         <v>988.95898348911669</v>
       </c>
-      <c r="J46" s="98">
+      <c r="J46" s="85">
         <f t="shared" si="2"/>
         <v>0.88970143866050433</v>
       </c>
-      <c r="K46" s="96">
+      <c r="K46" s="83">
         <f t="shared" si="3"/>
         <v>-5.0909786977164605E-3</v>
       </c>
-      <c r="L46" s="99">
+      <c r="L46" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M46" s="100">
+      <c r="M46" s="87">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H46)-4.6)))^L46</f>
         <v>0.97765254159064829</v>
       </c>
-      <c r="N46" s="101">
+      <c r="N46" s="88">
         <f t="shared" si="5"/>
         <v>1.0219204636120567</v>
       </c>
-      <c r="O46" s="97">
+      <c r="O46" s="84">
         <f t="shared" si="6"/>
         <v>-5.0928793553075757E-3</v>
       </c>
-      <c r="P46" s="102">
+      <c r="P46" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q46" s="103">
+      <c r="Q46" s="90">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(I46)-4.6)))^P46</f>
         <v>0.97267393134013647</v>
       </c>
-      <c r="R46" s="96">
+      <c r="R46" s="83">
         <f t="shared" si="9"/>
         <v>7.4954030930103857</v>
       </c>
-      <c r="S46" s="97">
+      <c r="S46" s="84">
         <f t="shared" si="10"/>
         <v>10.111017469510898</v>
       </c>
-      <c r="T46" s="105">
+      <c r="T46" s="92">
         <f t="shared" si="11"/>
         <v>5.5810217765736178E-2</v>
       </c>
-      <c r="U46" s="104">
+      <c r="U46" s="91">
         <f t="shared" si="12"/>
         <v>6.1666174302810024E-2</v>
       </c>
-      <c r="V46" s="83"/>
-      <c r="X46" s="132">
+      <c r="V46" s="128"/>
+      <c r="X46" s="116">
         <v>5.5810217765736178E-2</v>
       </c>
-      <c r="Y46" s="133">
+      <c r="Y46" s="117">
         <v>6.1666174302810024E-2</v>
       </c>
-      <c r="Z46" s="83"/>
-      <c r="AA46" s="108">
+      <c r="Z46" s="128"/>
+      <c r="AA46" s="95">
         <v>460.27</v>
       </c>
     </row>
@@ -14765,75 +14765,75 @@
       <c r="F47" s="39">
         <v>500</v>
       </c>
-      <c r="G47" s="95">
-        <f t="shared" ref="G47:G50" si="16">F47*0.000001</f>
+      <c r="G47" s="82">
+        <f t="shared" ref="G47:G49" si="16">F47*0.000001</f>
         <v>5.0000000000000001E-4</v>
       </c>
-      <c r="H47" s="96">
+      <c r="H47" s="83">
         <f t="shared" si="15"/>
         <v>995.5719352354572</v>
       </c>
-      <c r="I47" s="97">
+      <c r="I47" s="84">
         <f t="shared" si="0"/>
         <v>1267.7986536334677</v>
       </c>
-      <c r="J47" s="98">
+      <c r="J47" s="85">
         <f t="shared" si="2"/>
         <v>1.0255285151092788</v>
       </c>
-      <c r="K47" s="96">
+      <c r="K47" s="83">
         <f t="shared" si="3"/>
         <v>-5.0929327784093818E-3</v>
       </c>
-      <c r="L47" s="99">
+      <c r="L47" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M47" s="100">
+      <c r="M47" s="87">
         <f t="shared" ref="M47" si="17">(0.65-(($C$5/2.83)*TANH(LOG10(H47)-4.6)))^L47</f>
         <v>0.97252246538758746</v>
       </c>
-      <c r="N47" s="101">
+      <c r="N47" s="88">
         <f t="shared" si="5"/>
         <v>1.1550373669278229</v>
       </c>
-      <c r="O47" s="97">
+      <c r="O47" s="84">
         <f t="shared" si="6"/>
         <v>-5.0949120794334694E-3</v>
       </c>
-      <c r="P47" s="102">
+      <c r="P47" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q47" s="103">
-        <f t="shared" ref="Q47:Q50" si="18">(0.65-(($C$5/2.83)*TANH(LOG10(I47)-4.6)))^P47</f>
+      <c r="Q47" s="90">
+        <f t="shared" ref="Q47:Q49" si="18">(0.65-(($C$5/2.83)*TANH(LOG10(I47)-4.6)))^P47</f>
         <v>0.966448610280638</v>
       </c>
-      <c r="R47" s="96">
+      <c r="R47" s="83">
         <f t="shared" si="9"/>
         <v>10.193779253533988</v>
       </c>
-      <c r="S47" s="97">
+      <c r="S47" s="84">
         <f t="shared" si="10"/>
         <v>13.649640736870976</v>
       </c>
-      <c r="T47" s="105">
+      <c r="T47" s="92">
         <f t="shared" si="11"/>
         <v>6.1833969507105138E-2</v>
       </c>
-      <c r="U47" s="104">
+      <c r="U47" s="91">
         <f t="shared" si="12"/>
         <v>6.8153651021235329E-2</v>
       </c>
-      <c r="V47" s="83"/>
-      <c r="X47" s="116">
+      <c r="V47" s="128"/>
+      <c r="X47" s="100">
         <v>6.1833969507105138E-2</v>
       </c>
-      <c r="Y47" s="111">
+      <c r="Y47" s="98">
         <v>6.8153651021235329E-2</v>
       </c>
-      <c r="Z47" s="83"/>
-      <c r="AA47" s="137">
+      <c r="Z47" s="128"/>
+      <c r="AA47" s="119">
         <v>500</v>
       </c>
     </row>
@@ -14901,20 +14901,20 @@
         <f t="shared" si="12"/>
         <v>9.9523437955351138E-2</v>
       </c>
-      <c r="V48" s="84"/>
-      <c r="X48" s="121">
+      <c r="V48" s="129"/>
+      <c r="X48" s="105">
         <v>9.1287436812732506E-2</v>
       </c>
-      <c r="Y48" s="122">
+      <c r="Y48" s="106">
         <v>9.9523437955351138E-2</v>
       </c>
-      <c r="Z48" s="84"/>
-      <c r="AA48" s="137">
+      <c r="Z48" s="129"/>
+      <c r="AA48" s="119">
         <v>700</v>
       </c>
     </row>
     <row r="49" spans="6:27" x14ac:dyDescent="0.25">
-      <c r="F49" s="106">
+      <c r="F49" s="93">
         <v>850</v>
       </c>
       <c r="G49" s="28">
@@ -14969,7 +14969,7 @@
         <f t="shared" si="10"/>
         <v>76.524756598079094</v>
       </c>
-      <c r="T49" s="107">
+      <c r="T49" s="94">
         <f t="shared" si="11"/>
         <v>0.11185609728816606</v>
       </c>
@@ -14977,19 +14977,19 @@
         <f t="shared" si="12"/>
         <v>0.12107357647679248</v>
       </c>
-      <c r="V49" s="112" t="s">
+      <c r="V49" s="124" t="s">
         <v>46</v>
       </c>
       <c r="X49" s="66">
         <v>0.11185609728816606</v>
       </c>
-      <c r="Y49" s="123">
+      <c r="Y49" s="107">
         <v>0.12107357647679248</v>
       </c>
-      <c r="Z49" s="134" t="s">
+      <c r="Z49" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="AA49" s="135">
+      <c r="AA49" s="118">
         <v>850</v>
       </c>
     </row>
@@ -14997,75 +14997,75 @@
       <c r="F50" s="39">
         <v>1000</v>
       </c>
-      <c r="G50" s="95">
+      <c r="G50" s="82">
         <f>F50*0.000001</f>
         <v>1E-3</v>
       </c>
-      <c r="H50" s="96">
+      <c r="H50" s="83">
         <f>(($C$3-$C$9)*$C$4*G50^3)/($C$9*$C$11^2)</f>
         <v>7964.5754818836576</v>
       </c>
-      <c r="I50" s="97">
+      <c r="I50" s="84">
         <f>(($C$3-$C$14)*$C$4*G50^3)/($C$14*$C$16^2)</f>
         <v>10142.389229067741</v>
       </c>
-      <c r="J50" s="98">
+      <c r="J50" s="85">
         <f>-3.76715+1.92944*LOG10(H50)-0.09815*(LOG10(H50))^2-0.00575*(LOG10(H50))^3+0.00056*(LOG10(H50))^4</f>
         <v>2.0544753860698988</v>
       </c>
-      <c r="K50" s="96">
+      <c r="K50" s="83">
         <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(H50)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(H50)-4.6)</f>
         <v>-5.1142042608855187E-3</v>
       </c>
-      <c r="L50" s="99">
+      <c r="L50" s="86">
         <f t="shared" si="4"/>
         <v>1</v>
       </c>
-      <c r="M50" s="100">
+      <c r="M50" s="87">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(H50)-4.6)))^L50</f>
         <v>0.86116360309606788</v>
       </c>
-      <c r="N50" s="101">
+      <c r="N50" s="88">
         <f>-3.76715+1.92944*LOG10(I50)-0.09815*(LOG10(I50))^2-0.00575*(LOG10(I50))^3+0.00056*(LOG10(I50))^4</f>
         <v>2.1617772259948014</v>
       </c>
-      <c r="O50" s="97">
+      <c r="O50" s="84">
         <f>LOG10(1-((1-$C$5)/0.85))-(1-$C$5)^2.3*TANH(LOG10(I50)-4.6)+0.3*(0.5-$C$5)*(1-$C$5)^2*(LOG10(I50)-4.6)</f>
         <v>-5.1175299523507703E-3</v>
       </c>
-      <c r="P50" s="102">
+      <c r="P50" s="89">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="Q50" s="103">
+      <c r="Q50" s="90">
         <f>(0.65-(($C$5/2.83)*TANH(LOG10(I50)-4.6)))^P50</f>
         <v>0.83633894897489802</v>
       </c>
-      <c r="R50" s="96">
+      <c r="R50" s="83">
         <f>M50*10^(J50+K50)</f>
         <v>96.482122295880757</v>
       </c>
-      <c r="S50" s="97">
+      <c r="S50" s="84">
         <f>Q50*10^(N50+O50)</f>
         <v>119.96153623901775</v>
       </c>
-      <c r="T50" s="105">
+      <c r="T50" s="92">
         <f>((R50*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>0.13079696553398346</v>
       </c>
-      <c r="U50" s="104">
+      <c r="U50" s="91">
         <f>((S50*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>0.14064664992895701</v>
       </c>
-      <c r="V50" s="113"/>
-      <c r="X50" s="116">
+      <c r="V50" s="125"/>
+      <c r="X50" s="100">
         <v>0.13079696553398346</v>
       </c>
-      <c r="Y50" s="111">
+      <c r="Y50" s="98">
         <v>0.14064664992895701</v>
       </c>
-      <c r="Z50" s="136"/>
-      <c r="AA50" s="137">
+      <c r="Z50" s="131"/>
+      <c r="AA50" s="119">
         <v>1000</v>
       </c>
     </row>
@@ -15133,15 +15133,15 @@
         <f>((S51*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>0.22928201701963311</v>
       </c>
-      <c r="V51" s="114"/>
-      <c r="X51" s="121">
+      <c r="V51" s="126"/>
+      <c r="X51" s="105">
         <v>0.21894138272331365</v>
       </c>
-      <c r="Y51" s="122">
+      <c r="Y51" s="106">
         <v>0.22928201701963311</v>
       </c>
-      <c r="Z51" s="138"/>
-      <c r="AA51" s="137">
+      <c r="Z51" s="132"/>
+      <c r="AA51" s="119">
         <v>2000</v>
       </c>
     </row>
@@ -15150,11 +15150,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="Z3:Z13"/>
     <mergeCell ref="V49:V51"/>
     <mergeCell ref="V34:V48"/>
     <mergeCell ref="V14:V33"/>
@@ -15162,6 +15157,11 @@
     <mergeCell ref="Z14:Z33"/>
     <mergeCell ref="Z49:Z51"/>
     <mergeCell ref="Z34:Z48"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="Z3:Z13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -15204,18 +15204,18 @@
       <c r="I1" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="93" t="s">
+      <c r="J1" s="122" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="94" t="s">
+      <c r="K1" s="122"/>
+      <c r="L1" s="122"/>
+      <c r="M1" s="122"/>
+      <c r="N1" s="123" t="s">
         <v>22</v>
       </c>
-      <c r="O1" s="94"/>
-      <c r="P1" s="94"/>
-      <c r="Q1" s="94"/>
+      <c r="O1" s="123"/>
+      <c r="P1" s="123"/>
+      <c r="Q1" s="123"/>
       <c r="R1" s="78" t="s">
         <v>21</v>
       </c>
@@ -15377,7 +15377,7 @@
         <f>((S3*($C$3-$C$9)*$C$4*$C$11)/$C$9)^(1/3)</f>
         <v>5.0908913510068859E-8</v>
       </c>
-      <c r="V3" s="88" t="s">
+      <c r="V3" s="133" t="s">
         <v>41</v>
       </c>
       <c r="X3" s="55">
@@ -15386,7 +15386,7 @@
       <c r="Y3" s="56">
         <v>5.0908913510068859E-8</v>
       </c>
-      <c r="Z3" s="88" t="s">
+      <c r="Z3" s="133" t="s">
         <v>41</v>
       </c>
       <c r="AA3" s="27">
@@ -15469,14 +15469,14 @@
         <f t="shared" si="11"/>
         <v>7.2098715948036505E-8</v>
       </c>
-      <c r="V4" s="89"/>
+      <c r="V4" s="134"/>
       <c r="X4" s="59">
         <v>7.2098715948036505E-8</v>
       </c>
       <c r="Y4" s="60">
         <v>7.2098715948036505E-8</v>
       </c>
-      <c r="Z4" s="89"/>
+      <c r="Z4" s="134"/>
       <c r="AA4" s="39">
         <v>0.44</v>
       </c>
@@ -15557,14 +15557,14 @@
         <f t="shared" si="11"/>
         <v>1.0173116000096816E-7</v>
       </c>
-      <c r="V5" s="89"/>
+      <c r="V5" s="134"/>
       <c r="X5" s="59">
         <v>1.0173116000096816E-7</v>
       </c>
       <c r="Y5" s="60">
         <v>1.0173116000096816E-7</v>
       </c>
-      <c r="Z5" s="89"/>
+      <c r="Z5" s="134"/>
       <c r="AA5" s="39">
         <v>0.52</v>
       </c>
@@ -15645,14 +15645,14 @@
         <f t="shared" si="11"/>
         <v>1.4238928075127842E-7</v>
       </c>
-      <c r="V6" s="89"/>
+      <c r="V6" s="134"/>
       <c r="X6" s="59">
         <v>1.4238928075127842E-7</v>
       </c>
       <c r="Y6" s="60">
         <v>1.4238928075127842E-7</v>
       </c>
-      <c r="Z6" s="89"/>
+      <c r="Z6" s="134"/>
       <c r="AA6" s="39">
         <v>0.61</v>
       </c>
@@ -15721,14 +15721,14 @@
         <f t="shared" si="11"/>
         <v>2.0325077483619151E-7</v>
       </c>
-      <c r="V7" s="89"/>
+      <c r="V7" s="134"/>
       <c r="X7" s="59">
         <v>2.0325077483619151E-7</v>
       </c>
       <c r="Y7" s="60">
         <v>2.0325077483619151E-7</v>
       </c>
-      <c r="Z7" s="89"/>
+      <c r="Z7" s="134"/>
       <c r="AA7" s="39">
         <v>0.72</v>
       </c>
@@ -15737,11 +15737,11 @@
       <c r="A8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="91"/>
-      <c r="D8" s="91"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
       <c r="F8" s="39">
         <v>0.85</v>
       </c>
@@ -15805,14 +15805,14 @@
         <f t="shared" si="11"/>
         <v>2.9199062368989425E-7</v>
       </c>
-      <c r="V8" s="89"/>
+      <c r="V8" s="134"/>
       <c r="X8" s="59">
         <v>2.9199062368989425E-7</v>
       </c>
       <c r="Y8" s="60">
         <v>2.9199062368989425E-7</v>
       </c>
-      <c r="Z8" s="89"/>
+      <c r="Z8" s="134"/>
       <c r="AA8" s="39">
         <v>0.85</v>
       </c>
@@ -15893,14 +15893,14 @@
         <f t="shared" si="11"/>
         <v>4.2779601841118369E-7</v>
       </c>
-      <c r="V9" s="89"/>
+      <c r="V9" s="134"/>
       <c r="X9" s="59">
         <v>4.2779601841118369E-7</v>
       </c>
       <c r="Y9" s="60">
         <v>4.2779601841118369E-7</v>
       </c>
-      <c r="Z9" s="89"/>
+      <c r="Z9" s="134"/>
       <c r="AA9" s="39">
         <v>1.01</v>
       </c>
@@ -15981,14 +15981,14 @@
         <f t="shared" si="11"/>
         <v>6.1783897071119465E-7</v>
       </c>
-      <c r="V10" s="89"/>
+      <c r="V10" s="134"/>
       <c r="X10" s="59">
         <v>6.1783897071119465E-7</v>
       </c>
       <c r="Y10" s="60">
         <v>6.1783897071119465E-7</v>
       </c>
-      <c r="Z10" s="89"/>
+      <c r="Z10" s="134"/>
       <c r="AA10" s="39">
         <v>1.19</v>
       </c>
@@ -16070,14 +16070,14 @@
         <f t="shared" si="11"/>
         <v>8.9246701945613755E-7</v>
       </c>
-      <c r="V11" s="89"/>
+      <c r="V11" s="134"/>
       <c r="X11" s="59">
         <v>8.9246701945613755E-7</v>
       </c>
       <c r="Y11" s="60">
         <v>8.9246701945613755E-7</v>
       </c>
-      <c r="Z11" s="89"/>
+      <c r="Z11" s="134"/>
       <c r="AA11" s="39">
         <v>1.4</v>
       </c>
@@ -16146,14 +16146,14 @@
         <f t="shared" si="11"/>
         <v>1.2980684057387887E-6</v>
       </c>
-      <c r="V12" s="89"/>
+      <c r="V12" s="134"/>
       <c r="X12" s="59">
         <v>1.2980684057387887E-6</v>
       </c>
       <c r="Y12" s="60">
         <v>1.2980684057387887E-6</v>
       </c>
-      <c r="Z12" s="89"/>
+      <c r="Z12" s="134"/>
       <c r="AA12" s="39">
         <v>1.65</v>
       </c>
@@ -16162,11 +16162,11 @@
       <c r="A13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
+      <c r="C13" s="121"/>
+      <c r="D13" s="121"/>
       <c r="F13" s="47">
         <v>1.95</v>
       </c>
@@ -16230,14 +16230,14 @@
         <f t="shared" si="11"/>
         <v>1.9041141384227035E-6</v>
       </c>
-      <c r="V13" s="90"/>
+      <c r="V13" s="135"/>
       <c r="X13" s="57">
         <v>1.9041141384227035E-6</v>
       </c>
       <c r="Y13" s="58">
         <v>1.9041141384227035E-6</v>
       </c>
-      <c r="Z13" s="90"/>
+      <c r="Z13" s="135"/>
       <c r="AA13" s="47">
         <v>1.95</v>
       </c>
@@ -16322,7 +16322,7 @@
         <f t="shared" si="11"/>
         <v>2.7847216484140309E-6</v>
       </c>
-      <c r="V14" s="88" t="s">
+      <c r="V14" s="133" t="s">
         <v>42</v>
       </c>
       <c r="X14" s="55">
@@ -16331,7 +16331,7 @@
       <c r="Y14" s="56">
         <v>2.7847216484140309E-6</v>
       </c>
-      <c r="Z14" s="88" t="s">
+      <c r="Z14" s="133" t="s">
         <v>42</v>
       </c>
       <c r="AA14" s="27">
@@ -16414,14 +16414,14 @@
         <f t="shared" si="11"/>
         <v>4.1010172814049568E-6</v>
       </c>
-      <c r="V15" s="89"/>
+      <c r="V15" s="134"/>
       <c r="X15" s="59">
         <v>4.1010172814049568E-6</v>
       </c>
       <c r="Y15" s="60">
         <v>4.1010172814049568E-6</v>
       </c>
-      <c r="Z15" s="89"/>
+      <c r="Z15" s="134"/>
       <c r="AA15" s="39">
         <v>2.72</v>
       </c>
@@ -16503,14 +16503,14 @@
         <f t="shared" si="11"/>
         <v>5.9686785122464274E-6</v>
       </c>
-      <c r="V16" s="89"/>
+      <c r="V16" s="134"/>
       <c r="X16" s="59">
         <v>5.9686785122464274E-6</v>
       </c>
       <c r="Y16" s="60">
         <v>5.9686785122464274E-6</v>
       </c>
-      <c r="Z16" s="89"/>
+      <c r="Z16" s="134"/>
       <c r="AA16" s="39">
         <v>3.2</v>
       </c>
@@ -16579,14 +16579,14 @@
         <f t="shared" si="11"/>
         <v>8.7651165882218987E-6</v>
       </c>
-      <c r="V17" s="89"/>
+      <c r="V17" s="134"/>
       <c r="X17" s="59">
         <v>8.7651165882218987E-6</v>
       </c>
       <c r="Y17" s="60">
         <v>8.7651165882218987E-6</v>
       </c>
-      <c r="Z17" s="89"/>
+      <c r="Z17" s="134"/>
       <c r="AA17" s="39">
         <v>3.78</v>
       </c>
@@ -16655,14 +16655,14 @@
         <f t="shared" si="11"/>
         <v>1.2824962789690229E-5</v>
       </c>
-      <c r="V18" s="89"/>
+      <c r="V18" s="134"/>
       <c r="X18" s="59">
         <v>1.2824962789690229E-5</v>
       </c>
       <c r="Y18" s="60">
         <v>1.2824962789690229E-5</v>
       </c>
-      <c r="Z18" s="89"/>
+      <c r="Z18" s="134"/>
       <c r="AA18" s="39">
         <v>4.46</v>
       </c>
@@ -16731,14 +16731,14 @@
         <f t="shared" si="11"/>
         <v>1.8798507503459669E-5</v>
       </c>
-      <c r="V19" s="89"/>
+      <c r="V19" s="134"/>
       <c r="X19" s="59">
         <v>1.8798507503459669E-5</v>
       </c>
       <c r="Y19" s="60">
         <v>1.8798507503459669E-5</v>
       </c>
-      <c r="Z19" s="89"/>
+      <c r="Z19" s="134"/>
       <c r="AA19" s="39">
         <v>5.27</v>
       </c>
@@ -16807,14 +16807,14 @@
         <f t="shared" si="11"/>
         <v>2.7323973124891899E-5</v>
       </c>
-      <c r="V20" s="89"/>
+      <c r="V20" s="134"/>
       <c r="X20" s="59">
         <v>2.7323973124891899E-5</v>
       </c>
       <c r="Y20" s="60">
         <v>2.7323973124891899E-5</v>
       </c>
-      <c r="Z20" s="89"/>
+      <c r="Z20" s="134"/>
       <c r="AA20" s="39">
         <v>6.21</v>
       </c>
@@ -16883,14 +16883,14 @@
         <f t="shared" si="11"/>
         <v>3.9763719105563065E-5</v>
       </c>
-      <c r="V21" s="89"/>
+      <c r="V21" s="134"/>
       <c r="X21" s="59">
         <v>3.9763719105563065E-5</v>
       </c>
       <c r="Y21" s="60">
         <v>3.9763719105563065E-5</v>
       </c>
-      <c r="Z21" s="89"/>
+      <c r="Z21" s="134"/>
       <c r="AA21" s="39">
         <v>7.33</v>
       </c>
@@ -16959,14 +16959,14 @@
         <f t="shared" si="11"/>
         <v>5.7655035988502464E-5</v>
       </c>
-      <c r="V22" s="89"/>
+      <c r="V22" s="134"/>
       <c r="X22" s="59">
         <v>5.7655035988502464E-5</v>
       </c>
       <c r="Y22" s="60">
         <v>5.7655035988502464E-5</v>
       </c>
-      <c r="Z22" s="89"/>
+      <c r="Z22" s="134"/>
       <c r="AA22" s="39">
         <v>8.65</v>
       </c>
@@ -17035,14 +17035,14 @@
         <f t="shared" si="11"/>
         <v>8.3335159196142028E-5</v>
       </c>
-      <c r="V23" s="89"/>
+      <c r="V23" s="134"/>
       <c r="X23" s="59">
         <v>8.3335159196142028E-5</v>
       </c>
       <c r="Y23" s="60">
         <v>8.3335159196142028E-5</v>
       </c>
-      <c r="Z23" s="89"/>
+      <c r="Z23" s="134"/>
       <c r="AA23" s="39">
         <v>10.210000000000001</v>
       </c>
@@ -17111,14 +17111,14 @@
         <f t="shared" si="11"/>
         <v>1.1993175718756651E-4</v>
       </c>
-      <c r="V24" s="89"/>
+      <c r="V24" s="134"/>
       <c r="X24" s="59">
         <v>1.1993175718756651E-4</v>
       </c>
       <c r="Y24" s="60">
         <v>1.1993175718756651E-4</v>
       </c>
-      <c r="Z24" s="89"/>
+      <c r="Z24" s="134"/>
       <c r="AA24" s="39">
         <v>12.05</v>
       </c>
@@ -17187,14 +17187,14 @@
         <f t="shared" si="11"/>
         <v>1.717779554092204E-4</v>
       </c>
-      <c r="V25" s="89"/>
+      <c r="V25" s="134"/>
       <c r="X25" s="59">
         <v>1.717779554092204E-4</v>
       </c>
       <c r="Y25" s="60">
         <v>1.717779554092204E-4</v>
       </c>
-      <c r="Z25" s="89"/>
+      <c r="Z25" s="134"/>
       <c r="AA25" s="39">
         <v>14.22</v>
       </c>
@@ -17263,14 +17263,14 @@
         <f t="shared" si="11"/>
         <v>2.4480058404148877E-4</v>
       </c>
-      <c r="V26" s="89"/>
+      <c r="V26" s="134"/>
       <c r="X26" s="59">
         <v>2.4480058404148877E-4</v>
       </c>
       <c r="Y26" s="60">
         <v>2.4480058404148877E-4</v>
       </c>
-      <c r="Z26" s="89"/>
+      <c r="Z26" s="134"/>
       <c r="AA26" s="39">
         <v>16.78</v>
       </c>
@@ -17339,14 +17339,14 @@
         <f t="shared" si="11"/>
         <v>3.4734519500379977E-4</v>
       </c>
-      <c r="V27" s="90"/>
+      <c r="V27" s="135"/>
       <c r="X27" s="57">
         <v>3.4734519500379977E-4</v>
       </c>
       <c r="Y27" s="58">
         <v>3.4734519500379977E-4</v>
       </c>
-      <c r="Z27" s="90"/>
+      <c r="Z27" s="135"/>
       <c r="AA27" s="47">
         <v>19.809999999999999</v>
       </c>
@@ -17419,7 +17419,7 @@
         <f t="shared" si="11"/>
         <v>4.8928982306787011E-4</v>
       </c>
-      <c r="V28" s="82" t="s">
+      <c r="V28" s="127" t="s">
         <v>43</v>
       </c>
       <c r="X28" s="72">
@@ -17428,7 +17428,7 @@
       <c r="Y28" s="73">
         <v>4.8928982306787011E-4</v>
       </c>
-      <c r="Z28" s="85" t="s">
+      <c r="Z28" s="136" t="s">
         <v>43</v>
       </c>
       <c r="AA28" s="27">
@@ -17499,14 +17499,14 @@
         <f t="shared" si="11"/>
         <v>6.8561164797057382E-4</v>
       </c>
-      <c r="V29" s="83"/>
+      <c r="V29" s="128"/>
       <c r="X29" s="74">
         <v>6.8561164797057382E-4</v>
       </c>
       <c r="Y29" s="75">
         <v>6.8561164797057382E-4</v>
       </c>
-      <c r="Z29" s="86"/>
+      <c r="Z29" s="137"/>
       <c r="AA29" s="39">
         <v>27.58</v>
       </c>
@@ -17575,14 +17575,14 @@
         <f t="shared" si="11"/>
         <v>9.5468485023822707E-4</v>
       </c>
-      <c r="V30" s="83"/>
+      <c r="V30" s="128"/>
       <c r="X30" s="74">
         <v>9.5468485023822707E-4</v>
       </c>
       <c r="Y30" s="75">
         <v>9.5468485023822707E-4</v>
       </c>
-      <c r="Z30" s="86"/>
+      <c r="Z30" s="137"/>
       <c r="AA30" s="39">
         <v>32.549999999999997</v>
       </c>
@@ -17651,14 +17651,14 @@
         <f t="shared" si="11"/>
         <v>1.3201184238772503E-3</v>
       </c>
-      <c r="V31" s="83"/>
+      <c r="V31" s="128"/>
       <c r="X31" s="74">
         <v>1.3201184238772503E-3</v>
       </c>
       <c r="Y31" s="75">
         <v>1.3201184238772503E-3</v>
       </c>
-      <c r="Z31" s="86"/>
+      <c r="Z31" s="137"/>
       <c r="AA31" s="39">
         <v>38.409999999999997</v>
       </c>
@@ -17727,14 +17727,14 @@
         <f t="shared" si="11"/>
         <v>1.8123902704242931E-3</v>
       </c>
-      <c r="V32" s="83"/>
+      <c r="V32" s="128"/>
       <c r="X32" s="74">
         <v>1.8123902704242931E-3</v>
       </c>
       <c r="Y32" s="75">
         <v>1.8123902704242931E-3</v>
       </c>
-      <c r="Z32" s="86"/>
+      <c r="Z32" s="137"/>
       <c r="AA32" s="39">
         <v>45.32</v>
       </c>
@@ -17803,14 +17803,14 @@
         <f t="shared" si="11"/>
         <v>2.4709348697770643E-3</v>
       </c>
-      <c r="V33" s="83"/>
+      <c r="V33" s="128"/>
       <c r="X33" s="74">
         <v>2.4709348697770643E-3</v>
       </c>
       <c r="Y33" s="75">
         <v>2.4709348697770643E-3</v>
       </c>
-      <c r="Z33" s="86"/>
+      <c r="Z33" s="137"/>
       <c r="AA33" s="39">
         <v>53.48</v>
       </c>
@@ -17879,14 +17879,14 @@
         <f t="shared" si="11"/>
         <v>3.3437880313139522E-3</v>
       </c>
-      <c r="V34" s="83"/>
+      <c r="V34" s="128"/>
       <c r="X34" s="74">
         <v>3.3437880313139522E-3</v>
       </c>
       <c r="Y34" s="75">
         <v>3.3437880313139522E-3</v>
       </c>
-      <c r="Z34" s="86"/>
+      <c r="Z34" s="137"/>
       <c r="AA34" s="39">
         <v>63.11</v>
       </c>
@@ -17955,14 +17955,14 @@
         <f t="shared" si="11"/>
         <v>4.4909659967837211E-3</v>
       </c>
-      <c r="V35" s="83"/>
+      <c r="V35" s="128"/>
       <c r="X35" s="74">
         <v>4.4909659967837211E-3</v>
       </c>
       <c r="Y35" s="75">
         <v>4.4909659967837211E-3</v>
       </c>
-      <c r="Z35" s="86"/>
+      <c r="Z35" s="137"/>
       <c r="AA35" s="39">
         <v>74.48</v>
       </c>
@@ -18031,14 +18031,14 @@
         <f t="shared" si="11"/>
         <v>5.9833173831147181E-3</v>
       </c>
-      <c r="V36" s="83"/>
+      <c r="V36" s="128"/>
       <c r="X36" s="74">
         <v>5.9833173831147181E-3</v>
       </c>
       <c r="Y36" s="75">
         <v>5.9833173831147181E-3</v>
       </c>
-      <c r="Z36" s="86"/>
+      <c r="Z36" s="137"/>
       <c r="AA36" s="39">
         <v>87.89</v>
       </c>
@@ -18107,14 +18107,14 @@
         <f t="shared" si="11"/>
         <v>7.9082505235363483E-3</v>
       </c>
-      <c r="V37" s="83"/>
+      <c r="V37" s="128"/>
       <c r="X37" s="74">
         <v>7.9082505235363483E-3</v>
       </c>
       <c r="Y37" s="75">
         <v>7.9082505235363483E-3</v>
       </c>
-      <c r="Z37" s="86"/>
+      <c r="Z37" s="137"/>
       <c r="AA37" s="39">
         <v>103.72</v>
       </c>
@@ -18183,14 +18183,14 @@
         <f t="shared" si="11"/>
         <v>1.0365209776430582E-2</v>
       </c>
-      <c r="V38" s="83"/>
+      <c r="V38" s="128"/>
       <c r="X38" s="74">
         <v>1.0365209776430582E-2</v>
       </c>
       <c r="Y38" s="75">
         <v>1.0365209776430582E-2</v>
       </c>
-      <c r="Z38" s="86"/>
+      <c r="Z38" s="137"/>
       <c r="AA38" s="39">
         <v>122.39</v>
       </c>
@@ -18259,14 +18259,14 @@
         <f t="shared" si="11"/>
         <v>1.3473476069702436E-2</v>
       </c>
-      <c r="V39" s="83"/>
+      <c r="V39" s="128"/>
       <c r="X39" s="74">
         <v>1.3473476069702436E-2</v>
       </c>
       <c r="Y39" s="75">
         <v>1.3473476069702436E-2</v>
       </c>
-      <c r="Z39" s="86"/>
+      <c r="Z39" s="137"/>
       <c r="AA39" s="39">
         <v>144.43</v>
       </c>
@@ -18335,14 +18335,14 @@
         <f t="shared" si="11"/>
         <v>1.7365149974295474E-2</v>
       </c>
-      <c r="V40" s="83"/>
+      <c r="V40" s="128"/>
       <c r="X40" s="74">
         <v>1.7365149974295474E-2</v>
       </c>
       <c r="Y40" s="75">
         <v>1.7365149974295474E-2</v>
       </c>
-      <c r="Z40" s="87"/>
+      <c r="Z40" s="138"/>
       <c r="AA40" s="39">
         <v>170.44</v>
       </c>
@@ -18414,7 +18414,7 @@
         <f t="shared" si="11"/>
         <v>2.2186721374268217E-2</v>
       </c>
-      <c r="V41" s="82" t="s">
+      <c r="V41" s="127" t="s">
         <v>44</v>
       </c>
       <c r="X41" s="66">
@@ -18423,7 +18423,7 @@
       <c r="Y41" s="67">
         <v>2.2186721374268217E-2</v>
       </c>
-      <c r="Z41" s="85" t="s">
+      <c r="Z41" s="136" t="s">
         <v>44</v>
       </c>
       <c r="AA41" s="27">
@@ -18494,14 +18494,14 @@
         <f t="shared" si="11"/>
         <v>2.8098072344662502E-2</v>
       </c>
-      <c r="V42" s="83"/>
+      <c r="V42" s="128"/>
       <c r="X42" s="68">
         <v>2.8098072344662502E-2</v>
       </c>
       <c r="Y42" s="69">
         <v>2.8098072344662502E-2</v>
       </c>
-      <c r="Z42" s="86"/>
+      <c r="Z42" s="137"/>
       <c r="AA42" s="39">
         <v>237.35</v>
       </c>
@@ -18570,14 +18570,14 @@
         <f t="shared" si="11"/>
         <v>3.5263757769241511E-2</v>
       </c>
-      <c r="V43" s="83"/>
+      <c r="V43" s="128"/>
       <c r="X43" s="68">
         <v>3.5263757769241511E-2</v>
       </c>
       <c r="Y43" s="69">
         <v>3.5263757769241511E-2</v>
       </c>
-      <c r="Z43" s="86"/>
+      <c r="Z43" s="137"/>
       <c r="AA43" s="39">
         <v>280.08999999999997</v>
       </c>
@@ -18646,14 +18646,14 @@
         <f t="shared" si="11"/>
         <v>4.3846587692519937E-2</v>
       </c>
-      <c r="V44" s="83"/>
+      <c r="V44" s="128"/>
       <c r="X44" s="68">
         <v>4.3846587692519937E-2</v>
       </c>
       <c r="Y44" s="69">
         <v>4.3846587692519937E-2</v>
       </c>
-      <c r="Z44" s="86"/>
+      <c r="Z44" s="137"/>
       <c r="AA44" s="39">
         <v>330.52</v>
       </c>
@@ -18722,14 +18722,14 @@
         <f t="shared" si="11"/>
         <v>5.3997683195124831E-2</v>
       </c>
-      <c r="V45" s="83"/>
+      <c r="V45" s="128"/>
       <c r="X45" s="68">
         <v>5.3997683195124831E-2</v>
       </c>
       <c r="Y45" s="69">
         <v>5.3997683195124831E-2</v>
       </c>
-      <c r="Z45" s="86"/>
+      <c r="Z45" s="137"/>
       <c r="AA45" s="39">
         <v>390.04</v>
       </c>
@@ -18798,14 +18798,14 @@
         <f t="shared" si="11"/>
         <v>6.5828716789856301E-2</v>
       </c>
-      <c r="V46" s="83"/>
+      <c r="V46" s="128"/>
       <c r="X46" s="68">
         <v>6.5828716789856301E-2</v>
       </c>
       <c r="Y46" s="69">
         <v>6.5828716789856301E-2</v>
       </c>
-      <c r="Z46" s="86"/>
+      <c r="Z46" s="137"/>
       <c r="AA46" s="39">
         <v>460.27</v>
       </c>
@@ -18874,14 +18874,14 @@
         <f t="shared" si="11"/>
         <v>7.239531400119846E-2</v>
       </c>
-      <c r="V47" s="83"/>
+      <c r="V47" s="128"/>
       <c r="X47" s="68">
         <v>7.239531400119846E-2</v>
       </c>
       <c r="Y47" s="69">
         <v>7.239531400119846E-2</v>
       </c>
-      <c r="Z47" s="86"/>
+      <c r="Z47" s="137"/>
       <c r="AA47" s="39">
         <v>500</v>
       </c>
@@ -18950,14 +18950,14 @@
         <f t="shared" si="11"/>
         <v>0.10339820477958585</v>
       </c>
-      <c r="V48" s="83"/>
+      <c r="V48" s="128"/>
       <c r="X48" s="68">
         <v>0.10339820477958585</v>
       </c>
       <c r="Y48" s="69">
         <v>0.10339820477958585</v>
       </c>
-      <c r="Z48" s="86"/>
+      <c r="Z48" s="137"/>
       <c r="AA48" s="39">
         <v>700</v>
       </c>
@@ -19026,14 +19026,14 @@
         <f t="shared" si="11"/>
         <v>0.1421149131940441</v>
       </c>
-      <c r="V49" s="83"/>
+      <c r="V49" s="128"/>
       <c r="X49" s="68">
         <v>0.1421149131940441</v>
       </c>
       <c r="Y49" s="69">
         <v>0.1421149131940441</v>
       </c>
-      <c r="Z49" s="86"/>
+      <c r="Z49" s="137"/>
       <c r="AA49" s="39">
         <v>1000</v>
       </c>
@@ -19102,14 +19102,14 @@
         <f t="shared" si="11"/>
         <v>0.2213757692058618</v>
       </c>
-      <c r="V50" s="84"/>
+      <c r="V50" s="129"/>
       <c r="X50" s="70">
         <v>0.2213757692058618</v>
       </c>
       <c r="Y50" s="71">
         <v>0.2213757692058618</v>
       </c>
-      <c r="Z50" s="87"/>
+      <c r="Z50" s="138"/>
       <c r="AA50" s="47">
         <v>2000</v>
       </c>
@@ -19122,18 +19122,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="V3:V13"/>
+    <mergeCell ref="Z3:Z13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
     <mergeCell ref="V14:V27"/>
     <mergeCell ref="Z14:Z27"/>
     <mergeCell ref="V28:V40"/>
     <mergeCell ref="Z28:Z40"/>
     <mergeCell ref="V41:V50"/>
     <mergeCell ref="Z41:Z50"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:Q1"/>
-    <mergeCell ref="V3:V13"/>
-    <mergeCell ref="Z3:Z13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B13:D13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
